--- a/lib/excel_templates/process_design_plan_report_modified.xlsx
+++ b/lib/excel_templates/process_design_plan_report_modified.xlsx
@@ -4225,7 +4225,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="A1:Z117"/>
+  <dimension ref="A1:Z103"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <selection activeCell="AB21" sqref="AB21"/>
@@ -5365,79 +5365,89 @@
       <c r="Y25" s="254"/>
       <c r="Z25" s="341"/>
     </row>
-    <row r="26" spans="1:26" customFormat="false">
+    <row r="26" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A26" s="100"/>
       <c r="B26" s="360"/>
       <c r="C26" s="102"/>
-      <c r="D26" s="351" t="str">
-        <v>設備設計</v>
-      </c>
-      <c r="E26" s="92"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="118" t="str">
-        <v>生技（#{?progress_management_seigi_design_name_3}）</v>
-      </c>
-      <c r="I26" s="118"/>
-      <c r="J26" s="118"/>
-      <c r="K26" s="347" t="str">
-        <v>#{?progress_management_seigi_design_yotei_3}</v>
-      </c>
-      <c r="L26" s="348"/>
-      <c r="M26" s="347" t="str">
-        <v>#{?progress_management_seigi_design_kanryou_3}</v>
-      </c>
-      <c r="N26" s="348"/>
-      <c r="O26" s="378" t="str">
-        <v>設備名：#{?progress_management_seigi_equipment_name_3}</v>
-      </c>
-      <c r="P26" s="379"/>
-      <c r="Q26" s="379"/>
-      <c r="R26" s="379"/>
-      <c r="S26" s="379"/>
-      <c r="T26" s="379"/>
-      <c r="U26" s="379"/>
-      <c r="V26" s="379"/>
-      <c r="W26" s="379"/>
-      <c r="X26" s="380"/>
+      <c r="D26" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="G26" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="H26" s="117" t="s">
+        <v>148</v>
+      </c>
+      <c r="I26" s="117"/>
+      <c r="J26" s="117"/>
+      <c r="K26" s="297" t="s">
+        <v>149</v>
+      </c>
+      <c r="L26" s="298"/>
+      <c r="M26" s="297" t="s">
+        <v>150</v>
+      </c>
+      <c r="N26" s="298"/>
+      <c r="O26" s="333" t="s">
+        <v>196</v>
+      </c>
+      <c r="P26" s="334"/>
+      <c r="Q26" s="334"/>
+      <c r="R26" s="334"/>
+      <c r="S26" s="334"/>
+      <c r="T26" s="334"/>
+      <c r="U26" s="334"/>
+      <c r="V26" s="334"/>
+      <c r="W26" s="334"/>
+      <c r="X26" s="334"/>
       <c r="Y26" s="254"/>
       <c r="Z26" s="341"/>
     </row>
-    <row r="27" spans="1:26" customFormat="false">
+    <row r="27" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A27" s="100"/>
       <c r="B27" s="360"/>
       <c r="C27" s="102"/>
-      <c r="D27" s="351" t="str">
-        <v>設備製作</v>
-      </c>
-      <c r="E27" s="92"/>
-      <c r="F27" s="61" t="str">
-        <v>組立</v>
-      </c>
-      <c r="G27" s="62"/>
-      <c r="H27" s="118" t="str">
-        <v>生技（#{?progress_management_seigi_assembly_name_3}）</v>
-      </c>
-      <c r="I27" s="118"/>
-      <c r="J27" s="118"/>
-      <c r="K27" s="347" t="str">
-        <v>#{?progress_management_seigi_assembly_yotei_3}</v>
-      </c>
-      <c r="L27" s="348"/>
-      <c r="M27" s="347" t="str">
-        <v>#{?progress_management_seigi_assembly_kanryou_3}</v>
-      </c>
-      <c r="N27" s="348"/>
-      <c r="O27" s="378"/>
-      <c r="P27" s="379"/>
-      <c r="Q27" s="379"/>
-      <c r="R27" s="379"/>
-      <c r="S27" s="379"/>
-      <c r="T27" s="379"/>
-      <c r="U27" s="379"/>
-      <c r="V27" s="379"/>
-      <c r="W27" s="379"/>
-      <c r="X27" s="380"/>
+      <c r="D27" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="118" t="s">
+        <v>228</v>
+      </c>
+      <c r="I27" s="118" t="s">
+        <v>162</v>
+      </c>
+      <c r="J27" s="118" t="s">
+        <v>162</v>
+      </c>
+      <c r="K27" s="297" t="s">
+        <v>229</v>
+      </c>
+      <c r="L27" s="298"/>
+      <c r="M27" s="297" t="s">
+        <v>230</v>
+      </c>
+      <c r="N27" s="298"/>
+      <c r="O27" s="333" t="s">
+        <v>231</v>
+      </c>
+      <c r="P27" s="334"/>
+      <c r="Q27" s="334"/>
+      <c r="R27" s="334"/>
+      <c r="S27" s="334"/>
+      <c r="T27" s="334"/>
+      <c r="U27" s="334"/>
+      <c r="V27" s="334"/>
+      <c r="W27" s="334"/>
+      <c r="X27" s="334"/>
       <c r="Y27" s="254"/>
       <c r="Z27" s="341"/>
     </row>
@@ -5445,1502 +5455,1490 @@
       <c r="A28" s="100"/>
       <c r="B28" s="360"/>
       <c r="C28" s="102"/>
-      <c r="D28" s="351"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="61" t="str">
-        <v>配線</v>
-      </c>
-      <c r="G28" s="62"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="33"/>
       <c r="H28" s="118" t="str">
-        <v>生技（#{?progress_management_seigi_wiring_name_3}）</v>
+        <v>生技（#{?dr_setsubi_designer_2}）</v>
       </c>
       <c r="I28" s="118"/>
       <c r="J28" s="118"/>
-      <c r="K28" s="347" t="str">
-        <v>#{?progress_management_seigi_wiring_yotei_3}</v>
-      </c>
-      <c r="L28" s="348"/>
-      <c r="M28" s="347" t="str">
-        <v>#{?progress_management_seigi_wiring_kanryou_3}</v>
-      </c>
-      <c r="N28" s="348"/>
-      <c r="O28" s="378"/>
-      <c r="P28" s="379"/>
-      <c r="Q28" s="379"/>
-      <c r="R28" s="379"/>
-      <c r="S28" s="379"/>
-      <c r="T28" s="379"/>
-      <c r="U28" s="379"/>
-      <c r="V28" s="379"/>
-      <c r="W28" s="379"/>
-      <c r="X28" s="380"/>
+      <c r="K28" s="297" t="str">
+        <v>#{?dr_setsubi_yotei_2}</v>
+      </c>
+      <c r="L28" s="298"/>
+      <c r="M28" s="297" t="str">
+        <v>#{?dr_setsubi_kanryou_2}</v>
+      </c>
+      <c r="N28" s="298"/>
+      <c r="O28" s="333" t="str">
+        <v>#{?dr_setsubi_shiteki_2}</v>
+      </c>
+      <c r="P28" s="334"/>
+      <c r="Q28" s="334"/>
+      <c r="R28" s="334"/>
+      <c r="S28" s="334"/>
+      <c r="T28" s="334"/>
+      <c r="U28" s="334"/>
+      <c r="V28" s="334"/>
+      <c r="W28" s="334"/>
+      <c r="X28" s="334"/>
       <c r="Y28" s="254"/>
       <c r="Z28" s="341"/>
     </row>
-    <row r="29" spans="1:26" customFormat="false">
+    <row r="29" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A29" s="100"/>
       <c r="B29" s="360"/>
       <c r="C29" s="102"/>
-      <c r="D29" s="351"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="61" t="str">
-        <v>プログラム</v>
-      </c>
-      <c r="G29" s="62"/>
-      <c r="H29" s="118" t="str">
-        <v>生技（#{?progress_management_seigi_program_name_3}）</v>
-      </c>
-      <c r="I29" s="118"/>
-      <c r="J29" s="118"/>
-      <c r="K29" s="347" t="str">
-        <v>#{?progress_management_seigi_program_yotei_3}</v>
-      </c>
-      <c r="L29" s="348"/>
-      <c r="M29" s="347" t="str">
-        <v>#{?progress_management_seigi_program_kanryou_3}</v>
-      </c>
-      <c r="N29" s="348"/>
-      <c r="O29" s="378"/>
-      <c r="P29" s="379"/>
-      <c r="Q29" s="379"/>
-      <c r="R29" s="379"/>
-      <c r="S29" s="379"/>
-      <c r="T29" s="379"/>
-      <c r="U29" s="379"/>
-      <c r="V29" s="379"/>
-      <c r="W29" s="379"/>
-      <c r="X29" s="380"/>
+      <c r="D29" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="108" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="108"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="297" t="s">
+        <v>105</v>
+      </c>
+      <c r="L29" s="298"/>
+      <c r="M29" s="297" t="s">
+        <v>106</v>
+      </c>
+      <c r="N29" s="298"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="68"/>
+      <c r="R29" s="68"/>
+      <c r="S29" s="68"/>
+      <c r="T29" s="68"/>
+      <c r="U29" s="68"/>
+      <c r="V29" s="68"/>
+      <c r="W29" s="68"/>
+      <c r="X29" s="68"/>
       <c r="Y29" s="254"/>
       <c r="Z29" s="341"/>
     </row>
-    <row r="30" spans="1:26" customFormat="false">
+    <row r="30" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A30" s="100"/>
       <c r="B30" s="360"/>
       <c r="C30" s="102"/>
-      <c r="D30" s="351" t="str">
-        <v>設備設計</v>
-      </c>
-      <c r="E30" s="92"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="118" t="str">
-        <v>生技（#{?progress_management_seigi_design_name_4}）</v>
+      <c r="D30" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="118" t="s">
+        <v>201</v>
       </c>
       <c r="I30" s="118"/>
       <c r="J30" s="118"/>
-      <c r="K30" s="347" t="str">
-        <v>#{?progress_management_seigi_design_yotei_4}</v>
-      </c>
-      <c r="L30" s="348"/>
-      <c r="M30" s="347" t="str">
-        <v>#{?progress_management_seigi_design_kanryou_4}</v>
-      </c>
-      <c r="N30" s="348"/>
-      <c r="O30" s="378" t="str">
-        <v>設備名：#{?progress_management_seigi_equipment_name_4}</v>
-      </c>
-      <c r="P30" s="379"/>
-      <c r="Q30" s="379"/>
-      <c r="R30" s="379"/>
-      <c r="S30" s="379"/>
-      <c r="T30" s="379"/>
-      <c r="U30" s="379"/>
-      <c r="V30" s="379"/>
-      <c r="W30" s="379"/>
-      <c r="X30" s="380"/>
+      <c r="K30" s="297" t="s">
+        <v>103</v>
+      </c>
+      <c r="L30" s="298"/>
+      <c r="M30" s="297" t="s">
+        <v>104</v>
+      </c>
+      <c r="N30" s="298"/>
+      <c r="O30" s="314" t="s">
+        <v>209</v>
+      </c>
+      <c r="P30" s="315"/>
+      <c r="Q30" s="315"/>
+      <c r="R30" s="315"/>
+      <c r="S30" s="315"/>
+      <c r="T30" s="315"/>
+      <c r="U30" s="315"/>
+      <c r="V30" s="315"/>
+      <c r="W30" s="315"/>
+      <c r="X30" s="316"/>
       <c r="Y30" s="254"/>
       <c r="Z30" s="341"/>
     </row>
-    <row r="31" spans="1:26" customFormat="false">
+    <row r="31" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A31" s="100"/>
       <c r="B31" s="360"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="351" t="str">
-        <v>設備製作</v>
-      </c>
-      <c r="E31" s="92"/>
-      <c r="F31" s="61" t="str">
-        <v>組立</v>
-      </c>
-      <c r="G31" s="62"/>
-      <c r="H31" s="118" t="str">
-        <v>生技（#{?progress_management_seigi_assembly_name_4}）</v>
-      </c>
-      <c r="I31" s="118"/>
-      <c r="J31" s="118"/>
-      <c r="K31" s="347" t="str">
-        <v>#{?progress_management_seigi_assembly_yotei_4}</v>
-      </c>
-      <c r="L31" s="348"/>
-      <c r="M31" s="347" t="str">
-        <v>#{?progress_management_seigi_assembly_kanryou_4}</v>
-      </c>
-      <c r="N31" s="348"/>
-      <c r="O31" s="378"/>
-      <c r="P31" s="379"/>
-      <c r="Q31" s="379"/>
-      <c r="R31" s="379"/>
-      <c r="S31" s="379"/>
-      <c r="T31" s="379"/>
-      <c r="U31" s="379"/>
-      <c r="V31" s="379"/>
-      <c r="W31" s="379"/>
-      <c r="X31" s="380"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="367" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="367"/>
+      <c r="F31" s="367"/>
+      <c r="G31" s="367"/>
+      <c r="H31" s="319" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" s="319"/>
+      <c r="J31" s="319"/>
+      <c r="K31" s="320" t="s">
+        <v>107</v>
+      </c>
+      <c r="L31" s="321"/>
+      <c r="M31" s="320" t="s">
+        <v>108</v>
+      </c>
+      <c r="N31" s="321"/>
+      <c r="O31" s="317"/>
+      <c r="P31" s="318"/>
+      <c r="Q31" s="318"/>
+      <c r="R31" s="318"/>
+      <c r="S31" s="318"/>
+      <c r="T31" s="318"/>
+      <c r="U31" s="318"/>
+      <c r="V31" s="318"/>
+      <c r="W31" s="318"/>
+      <c r="X31" s="318"/>
       <c r="Y31" s="254"/>
       <c r="Z31" s="341"/>
     </row>
-    <row r="32" spans="1:26" customFormat="false">
-      <c r="A32" s="100"/>
+    <row r="32" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A32" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="B32" s="360"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="351"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="61" t="str">
-        <v>配線</v>
-      </c>
-      <c r="G32" s="62"/>
-      <c r="H32" s="118" t="str">
-        <v>生技（#{?progress_management_seigi_wiring_name_4}）</v>
-      </c>
-      <c r="I32" s="118"/>
-      <c r="J32" s="118"/>
-      <c r="K32" s="347" t="str">
-        <v>#{?progress_management_seigi_wiring_yotei_4}</v>
-      </c>
-      <c r="L32" s="348"/>
-      <c r="M32" s="347" t="str">
-        <v>#{?progress_management_seigi_wiring_kanryou_4}</v>
-      </c>
-      <c r="N32" s="348"/>
-      <c r="O32" s="378"/>
-      <c r="P32" s="379"/>
-      <c r="Q32" s="379"/>
-      <c r="R32" s="379"/>
-      <c r="S32" s="379"/>
-      <c r="T32" s="379"/>
-      <c r="U32" s="379"/>
-      <c r="V32" s="379"/>
-      <c r="W32" s="379"/>
-      <c r="X32" s="380"/>
+      <c r="C32" s="356" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="370" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="371"/>
+      <c r="F32" s="371"/>
+      <c r="G32" s="371"/>
+      <c r="H32" s="340" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" s="340"/>
+      <c r="J32" s="340"/>
+      <c r="K32" s="368" t="s">
+        <v>109</v>
+      </c>
+      <c r="L32" s="369"/>
+      <c r="M32" s="368" t="s">
+        <v>110</v>
+      </c>
+      <c r="N32" s="369"/>
+      <c r="O32" s="292"/>
+      <c r="P32" s="293"/>
+      <c r="Q32" s="293"/>
+      <c r="R32" s="293"/>
+      <c r="S32" s="293"/>
+      <c r="T32" s="293"/>
+      <c r="U32" s="293"/>
+      <c r="V32" s="293"/>
+      <c r="W32" s="293"/>
+      <c r="X32" s="293"/>
       <c r="Y32" s="254"/>
       <c r="Z32" s="341"/>
     </row>
-    <row r="33" spans="1:26" customFormat="false">
-      <c r="A33" s="100"/>
+    <row r="33" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A33" s="97" t="s">
+        <v>37</v>
+      </c>
       <c r="B33" s="360"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="351"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="61" t="str">
-        <v>プログラム</v>
-      </c>
-      <c r="G33" s="62"/>
-      <c r="H33" s="118" t="str">
-        <v>生技（#{?progress_management_seigi_program_name_4}）</v>
-      </c>
-      <c r="I33" s="118"/>
-      <c r="J33" s="118"/>
-      <c r="K33" s="347" t="str">
-        <v>#{?progress_management_seigi_program_yotei_4}</v>
-      </c>
-      <c r="L33" s="348"/>
-      <c r="M33" s="347" t="str">
-        <v>#{?progress_management_seigi_program_kanryou_4}</v>
-      </c>
-      <c r="N33" s="348"/>
-      <c r="O33" s="378"/>
-      <c r="P33" s="379"/>
-      <c r="Q33" s="379"/>
-      <c r="R33" s="379"/>
-      <c r="S33" s="379"/>
-      <c r="T33" s="379"/>
-      <c r="U33" s="379"/>
-      <c r="V33" s="379"/>
-      <c r="W33" s="379"/>
-      <c r="X33" s="380"/>
+      <c r="C33" s="357"/>
+      <c r="D33" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" s="108"/>
+      <c r="J33" s="108"/>
+      <c r="K33" s="297" t="s">
+        <v>111</v>
+      </c>
+      <c r="L33" s="298"/>
+      <c r="M33" s="297" t="s">
+        <v>112</v>
+      </c>
+      <c r="N33" s="298"/>
+      <c r="O33" s="67"/>
+      <c r="P33" s="307"/>
+      <c r="Q33" s="307"/>
+      <c r="R33" s="307"/>
+      <c r="S33" s="307"/>
+      <c r="T33" s="307"/>
+      <c r="U33" s="307"/>
+      <c r="V33" s="307"/>
+      <c r="W33" s="307"/>
+      <c r="X33" s="307"/>
       <c r="Y33" s="254"/>
       <c r="Z33" s="341"/>
     </row>
-    <row r="34" spans="1:26" customFormat="false">
-      <c r="A34" s="100"/>
+    <row r="34" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A34" s="97"/>
       <c r="B34" s="360"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="351" t="str">
-        <v>設備設計</v>
-      </c>
-      <c r="E34" s="92"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="118" t="str">
-        <v>生技（#{?progress_management_seigi_design_name_5}）</v>
-      </c>
-      <c r="I34" s="118"/>
-      <c r="J34" s="118"/>
-      <c r="K34" s="347" t="str">
-        <v>#{?progress_management_seigi_design_yotei_5}</v>
-      </c>
-      <c r="L34" s="348"/>
-      <c r="M34" s="347" t="str">
-        <v>#{?progress_management_seigi_design_kanryou_5}</v>
-      </c>
-      <c r="N34" s="348"/>
-      <c r="O34" s="378" t="str">
-        <v>設備名：#{?progress_management_seigi_equipment_name_5}</v>
-      </c>
-      <c r="P34" s="379"/>
-      <c r="Q34" s="379"/>
-      <c r="R34" s="379"/>
-      <c r="S34" s="379"/>
-      <c r="T34" s="379"/>
-      <c r="U34" s="379"/>
-      <c r="V34" s="379"/>
-      <c r="W34" s="379"/>
-      <c r="X34" s="380"/>
+      <c r="C34" s="357"/>
+      <c r="D34" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" s="108"/>
+      <c r="J34" s="108"/>
+      <c r="K34" s="297" t="s">
+        <v>113</v>
+      </c>
+      <c r="L34" s="298"/>
+      <c r="M34" s="297" t="s">
+        <v>114</v>
+      </c>
+      <c r="N34" s="298"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="307"/>
+      <c r="Q34" s="307"/>
+      <c r="R34" s="307"/>
+      <c r="S34" s="307"/>
+      <c r="T34" s="307"/>
+      <c r="U34" s="307"/>
+      <c r="V34" s="307"/>
+      <c r="W34" s="307"/>
+      <c r="X34" s="307"/>
       <c r="Y34" s="254"/>
       <c r="Z34" s="341"/>
     </row>
-    <row r="35" spans="1:26" customFormat="false">
-      <c r="A35" s="100"/>
+    <row r="35" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A35" s="97"/>
       <c r="B35" s="360"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="351" t="str">
-        <v>設備製作</v>
-      </c>
-      <c r="E35" s="92"/>
-      <c r="F35" s="61" t="str">
-        <v>組立</v>
-      </c>
-      <c r="G35" s="62"/>
-      <c r="H35" s="118" t="str">
-        <v>生技（#{?progress_management_seigi_assembly_name_5}）</v>
-      </c>
-      <c r="I35" s="118"/>
-      <c r="J35" s="118"/>
-      <c r="K35" s="347" t="str">
-        <v>#{?progress_management_seigi_assembly_yotei_5}</v>
-      </c>
-      <c r="L35" s="348"/>
-      <c r="M35" s="347" t="str">
-        <v>#{?progress_management_seigi_assembly_kanryou_5}</v>
-      </c>
-      <c r="N35" s="348"/>
-      <c r="O35" s="378"/>
-      <c r="P35" s="379"/>
-      <c r="Q35" s="379"/>
-      <c r="R35" s="379"/>
-      <c r="S35" s="379"/>
-      <c r="T35" s="379"/>
-      <c r="U35" s="379"/>
-      <c r="V35" s="379"/>
-      <c r="W35" s="379"/>
-      <c r="X35" s="380"/>
+      <c r="C35" s="357"/>
+      <c r="D35" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="108"/>
+      <c r="J35" s="108"/>
+      <c r="K35" s="297" t="s">
+        <v>113</v>
+      </c>
+      <c r="L35" s="298"/>
+      <c r="M35" s="297" t="s">
+        <v>114</v>
+      </c>
+      <c r="N35" s="298"/>
+      <c r="O35" s="67"/>
+      <c r="P35" s="307"/>
+      <c r="Q35" s="307"/>
+      <c r="R35" s="307"/>
+      <c r="S35" s="307"/>
+      <c r="T35" s="307"/>
+      <c r="U35" s="307"/>
+      <c r="V35" s="307"/>
+      <c r="W35" s="307"/>
+      <c r="X35" s="307"/>
       <c r="Y35" s="254"/>
       <c r="Z35" s="341"/>
     </row>
-    <row r="36" spans="1:26" customFormat="false">
-      <c r="A36" s="100"/>
+    <row r="36" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A36" s="97"/>
       <c r="B36" s="360"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="351"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="61" t="str">
-        <v>配線</v>
-      </c>
-      <c r="G36" s="62"/>
-      <c r="H36" s="118" t="str">
-        <v>生技（#{?progress_management_seigi_wiring_name_5}）</v>
-      </c>
-      <c r="I36" s="118"/>
-      <c r="J36" s="118"/>
-      <c r="K36" s="347" t="str">
-        <v>#{?progress_management_seigi_wiring_yotei_5}</v>
-      </c>
-      <c r="L36" s="348"/>
-      <c r="M36" s="347" t="str">
-        <v>#{?progress_management_seigi_wiring_kanryou_5}</v>
-      </c>
-      <c r="N36" s="348"/>
-      <c r="O36" s="378"/>
-      <c r="P36" s="379"/>
-      <c r="Q36" s="379"/>
-      <c r="R36" s="379"/>
-      <c r="S36" s="379"/>
-      <c r="T36" s="379"/>
-      <c r="U36" s="379"/>
-      <c r="V36" s="379"/>
-      <c r="W36" s="379"/>
-      <c r="X36" s="380"/>
+      <c r="C36" s="357"/>
+      <c r="D36" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="108" t="s">
+        <v>222</v>
+      </c>
+      <c r="I36" s="108"/>
+      <c r="J36" s="108"/>
+      <c r="K36" s="297" t="s">
+        <v>113</v>
+      </c>
+      <c r="L36" s="298"/>
+      <c r="M36" s="297" t="s">
+        <v>114</v>
+      </c>
+      <c r="N36" s="298"/>
+      <c r="O36" s="67"/>
+      <c r="P36" s="307"/>
+      <c r="Q36" s="307"/>
+      <c r="R36" s="307"/>
+      <c r="S36" s="307"/>
+      <c r="T36" s="307"/>
+      <c r="U36" s="307"/>
+      <c r="V36" s="307"/>
+      <c r="W36" s="307"/>
+      <c r="X36" s="307"/>
       <c r="Y36" s="254"/>
       <c r="Z36" s="341"/>
     </row>
-    <row r="37" spans="1:26" customFormat="false">
-      <c r="A37" s="100"/>
+    <row r="37" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A37" s="97"/>
       <c r="B37" s="360"/>
-      <c r="C37" s="102"/>
-      <c r="D37" s="351"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="61" t="str">
-        <v>プログラム</v>
-      </c>
-      <c r="G37" s="62"/>
-      <c r="H37" s="118" t="str">
-        <v>生技（#{?progress_management_seigi_program_name_5}）</v>
-      </c>
-      <c r="I37" s="118"/>
-      <c r="J37" s="118"/>
-      <c r="K37" s="347" t="str">
-        <v>#{?progress_management_seigi_program_yotei_5}</v>
-      </c>
-      <c r="L37" s="348"/>
-      <c r="M37" s="347" t="str">
-        <v>#{?progress_management_seigi_program_kanryou_5}</v>
-      </c>
-      <c r="N37" s="348"/>
-      <c r="O37" s="378"/>
-      <c r="P37" s="379"/>
-      <c r="Q37" s="379"/>
-      <c r="R37" s="379"/>
-      <c r="S37" s="379"/>
-      <c r="T37" s="379"/>
-      <c r="U37" s="379"/>
-      <c r="V37" s="379"/>
-      <c r="W37" s="379"/>
-      <c r="X37" s="380"/>
+      <c r="C37" s="357"/>
+      <c r="D37" s="88" t="s">
+        <v>205</v>
+      </c>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="75" t="s">
+        <v>210</v>
+      </c>
+      <c r="I37" s="76"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="L37" s="82"/>
+      <c r="M37" s="81" t="s">
+        <v>108</v>
+      </c>
+      <c r="N37" s="82"/>
+      <c r="O37" s="72" t="s">
+        <v>216</v>
+      </c>
+      <c r="P37" s="73"/>
+      <c r="Q37" s="73"/>
+      <c r="R37" s="73"/>
+      <c r="S37" s="74"/>
+      <c r="T37" s="72" t="s">
+        <v>213</v>
+      </c>
+      <c r="U37" s="73"/>
+      <c r="V37" s="73"/>
+      <c r="W37" s="73"/>
+      <c r="X37" s="74"/>
       <c r="Y37" s="254"/>
       <c r="Z37" s="341"/>
     </row>
     <row r="38" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A38" s="100"/>
+      <c r="A38" s="97"/>
       <c r="B38" s="360"/>
-      <c r="C38" s="102"/>
-      <c r="D38" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="E38" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="F38" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="G38" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="H38" s="117" t="s">
-        <v>148</v>
-      </c>
-      <c r="I38" s="117"/>
-      <c r="J38" s="117"/>
-      <c r="K38" s="297" t="s">
-        <v>149</v>
-      </c>
-      <c r="L38" s="298"/>
-      <c r="M38" s="297" t="s">
-        <v>150</v>
-      </c>
-      <c r="N38" s="298"/>
-      <c r="O38" s="333" t="s">
-        <v>196</v>
-      </c>
-      <c r="P38" s="334"/>
-      <c r="Q38" s="334"/>
-      <c r="R38" s="334"/>
-      <c r="S38" s="334"/>
-      <c r="T38" s="334"/>
-      <c r="U38" s="334"/>
-      <c r="V38" s="334"/>
-      <c r="W38" s="334"/>
-      <c r="X38" s="334"/>
+      <c r="C38" s="357"/>
+      <c r="D38" s="90"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="83"/>
+      <c r="L38" s="84"/>
+      <c r="M38" s="83"/>
+      <c r="N38" s="84"/>
+      <c r="O38" s="72" t="s">
+        <v>217</v>
+      </c>
+      <c r="P38" s="73"/>
+      <c r="Q38" s="73"/>
+      <c r="R38" s="73"/>
+      <c r="S38" s="74"/>
+      <c r="T38" s="72" t="s">
+        <v>215</v>
+      </c>
+      <c r="U38" s="73"/>
+      <c r="V38" s="73"/>
+      <c r="W38" s="73"/>
+      <c r="X38" s="74"/>
       <c r="Y38" s="254"/>
       <c r="Z38" s="341"/>
     </row>
     <row r="39" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A39" s="100"/>
+      <c r="A39" s="97"/>
       <c r="B39" s="360"/>
-      <c r="C39" s="102"/>
-      <c r="D39" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="118" t="s">
-        <v>228</v>
-      </c>
-      <c r="I39" s="118" t="s">
-        <v>162</v>
-      </c>
-      <c r="J39" s="118" t="s">
-        <v>162</v>
-      </c>
-      <c r="K39" s="297" t="s">
-        <v>229</v>
-      </c>
-      <c r="L39" s="298"/>
-      <c r="M39" s="297" t="s">
-        <v>230</v>
-      </c>
-      <c r="N39" s="298"/>
-      <c r="O39" s="333" t="s">
-        <v>231</v>
-      </c>
-      <c r="P39" s="334"/>
-      <c r="Q39" s="334"/>
-      <c r="R39" s="334"/>
-      <c r="S39" s="334"/>
-      <c r="T39" s="334"/>
-      <c r="U39" s="334"/>
-      <c r="V39" s="334"/>
-      <c r="W39" s="334"/>
-      <c r="X39" s="334"/>
+      <c r="C39" s="357"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="60"/>
+      <c r="O39" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="P39" s="73"/>
+      <c r="Q39" s="73"/>
+      <c r="R39" s="73"/>
+      <c r="S39" s="74"/>
+      <c r="T39" s="72" t="s">
+        <v>214</v>
+      </c>
+      <c r="U39" s="73"/>
+      <c r="V39" s="73"/>
+      <c r="W39" s="73"/>
+      <c r="X39" s="74"/>
       <c r="Y39" s="254"/>
       <c r="Z39" s="341"/>
     </row>
-    <row r="40" spans="1:26" customFormat="false">
-      <c r="A40" s="100"/>
+    <row r="40" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A40" s="97"/>
       <c r="B40" s="360"/>
-      <c r="C40" s="102"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="118" t="str">
-        <v>生技（#{?dr_setsubi_designer_2}）</v>
-      </c>
-      <c r="I40" s="118"/>
-      <c r="J40" s="118"/>
-      <c r="K40" s="297" t="str">
-        <v>#{?dr_setsubi_yotei_2}</v>
-      </c>
-      <c r="L40" s="298"/>
-      <c r="M40" s="297" t="str">
-        <v>#{?dr_setsubi_kanryou_2}</v>
-      </c>
-      <c r="N40" s="298"/>
-      <c r="O40" s="333" t="str">
-        <v>#{?dr_setsubi_shiteki_2}</v>
-      </c>
-      <c r="P40" s="334"/>
-      <c r="Q40" s="334"/>
-      <c r="R40" s="334"/>
-      <c r="S40" s="334"/>
-      <c r="T40" s="334"/>
-      <c r="U40" s="334"/>
-      <c r="V40" s="334"/>
-      <c r="W40" s="334"/>
-      <c r="X40" s="334"/>
+      <c r="C40" s="357"/>
+      <c r="D40" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" s="86"/>
+      <c r="J40" s="87"/>
+      <c r="K40" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="L40" s="74"/>
+      <c r="M40" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="N40" s="74"/>
+      <c r="O40" s="69"/>
+      <c r="P40" s="70"/>
+      <c r="Q40" s="70"/>
+      <c r="R40" s="70"/>
+      <c r="S40" s="70"/>
+      <c r="T40" s="70"/>
+      <c r="U40" s="70"/>
+      <c r="V40" s="70"/>
+      <c r="W40" s="70"/>
+      <c r="X40" s="71"/>
       <c r="Y40" s="254"/>
       <c r="Z40" s="341"/>
     </row>
-    <row r="41" spans="1:26" customFormat="false">
-      <c r="A41" s="100"/>
+    <row r="41" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A41" s="97"/>
       <c r="B41" s="360"/>
-      <c r="C41" s="102"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="118" t="str">
-        <v>生技（#{?dr_setsubi_designer_3}）</v>
-      </c>
-      <c r="I41" s="118"/>
-      <c r="J41" s="118"/>
-      <c r="K41" s="297" t="str">
-        <v>#{?dr_setsubi_yotei_3}</v>
-      </c>
-      <c r="L41" s="298"/>
-      <c r="M41" s="297" t="str">
-        <v>#{?dr_setsubi_kanryou_3}</v>
-      </c>
-      <c r="N41" s="298"/>
-      <c r="O41" s="333" t="str">
-        <v>#{?dr_setsubi_shiteki_3}</v>
-      </c>
-      <c r="P41" s="334"/>
-      <c r="Q41" s="334"/>
-      <c r="R41" s="334"/>
-      <c r="S41" s="334"/>
-      <c r="T41" s="334"/>
-      <c r="U41" s="334"/>
-      <c r="V41" s="334"/>
-      <c r="W41" s="334"/>
-      <c r="X41" s="334"/>
+      <c r="C41" s="357"/>
+      <c r="D41" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I41" s="86"/>
+      <c r="J41" s="87"/>
+      <c r="K41" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="L41" s="74"/>
+      <c r="M41" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="N41" s="74"/>
+      <c r="O41" s="69"/>
+      <c r="P41" s="70"/>
+      <c r="Q41" s="70"/>
+      <c r="R41" s="70"/>
+      <c r="S41" s="70"/>
+      <c r="T41" s="70"/>
+      <c r="U41" s="70"/>
+      <c r="V41" s="70"/>
+      <c r="W41" s="70"/>
+      <c r="X41" s="71"/>
       <c r="Y41" s="254"/>
       <c r="Z41" s="341"/>
     </row>
-    <row r="42" spans="1:26" customFormat="false">
-      <c r="A42" s="100"/>
+    <row r="42" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A42" s="97"/>
       <c r="B42" s="360"/>
-      <c r="C42" s="102"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="118" t="str">
-        <v>生技（#{?dr_setsubi_designer_4}）</v>
-      </c>
-      <c r="I42" s="118"/>
-      <c r="J42" s="118"/>
-      <c r="K42" s="297" t="str">
-        <v>#{?dr_setsubi_yotei_4}</v>
+      <c r="C42" s="357"/>
+      <c r="D42" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="I42" s="108"/>
+      <c r="J42" s="108"/>
+      <c r="K42" s="297" t="s">
+        <v>194</v>
       </c>
       <c r="L42" s="298"/>
-      <c r="M42" s="297" t="str">
-        <v>#{?dr_setsubi_kanryou_4}</v>
+      <c r="M42" s="297" t="s">
+        <v>195</v>
       </c>
       <c r="N42" s="298"/>
-      <c r="O42" s="333" t="str">
-        <v>#{?dr_setsubi_shiteki_4}</v>
-      </c>
-      <c r="P42" s="334"/>
-      <c r="Q42" s="334"/>
-      <c r="R42" s="334"/>
-      <c r="S42" s="334"/>
-      <c r="T42" s="334"/>
-      <c r="U42" s="334"/>
-      <c r="V42" s="334"/>
-      <c r="W42" s="334"/>
-      <c r="X42" s="334"/>
+      <c r="O42" s="67"/>
+      <c r="P42" s="307"/>
+      <c r="Q42" s="307"/>
+      <c r="R42" s="307"/>
+      <c r="S42" s="307"/>
+      <c r="T42" s="307"/>
+      <c r="U42" s="307"/>
+      <c r="V42" s="307"/>
+      <c r="W42" s="307"/>
+      <c r="X42" s="307"/>
       <c r="Y42" s="254"/>
       <c r="Z42" s="341"/>
     </row>
-    <row r="43" spans="1:26" customFormat="false">
-      <c r="A43" s="100"/>
+    <row r="43" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A43" s="97"/>
       <c r="B43" s="360"/>
-      <c r="C43" s="102"/>
-      <c r="D43" s="31"/>
+      <c r="C43" s="357"/>
+      <c r="D43" s="32" t="s">
+        <v>190</v>
+      </c>
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
       <c r="G43" s="33"/>
-      <c r="H43" s="118" t="str">
-        <v>生技（#{?dr_setsubi_designer_5}）</v>
+      <c r="H43" s="118" t="s">
+        <v>224</v>
       </c>
       <c r="I43" s="118"/>
       <c r="J43" s="118"/>
-      <c r="K43" s="297" t="str">
-        <v>#{?dr_setsubi_yotei_5}</v>
+      <c r="K43" s="297" t="s">
+        <v>225</v>
       </c>
       <c r="L43" s="298"/>
-      <c r="M43" s="297" t="str">
-        <v>#{?dr_setsubi_kanryou_5}</v>
+      <c r="M43" s="297" t="s">
+        <v>226</v>
       </c>
       <c r="N43" s="298"/>
-      <c r="O43" s="333" t="str">
-        <v>#{?dr_setsubi_shiteki_5}</v>
-      </c>
-      <c r="P43" s="334"/>
-      <c r="Q43" s="334"/>
-      <c r="R43" s="334"/>
-      <c r="S43" s="334"/>
-      <c r="T43" s="334"/>
-      <c r="U43" s="334"/>
-      <c r="V43" s="334"/>
-      <c r="W43" s="334"/>
-      <c r="X43" s="334"/>
+      <c r="O43" s="314" t="s">
+        <v>227</v>
+      </c>
+      <c r="P43" s="315"/>
+      <c r="Q43" s="315"/>
+      <c r="R43" s="315"/>
+      <c r="S43" s="315"/>
+      <c r="T43" s="315"/>
+      <c r="U43" s="315"/>
+      <c r="V43" s="315"/>
+      <c r="W43" s="315"/>
+      <c r="X43" s="316"/>
       <c r="Y43" s="254"/>
       <c r="Z43" s="341"/>
     </row>
-    <row r="44" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A44" s="100"/>
+    <row r="44" spans="1:26" customFormat="false">
+      <c r="A44" s="97"/>
       <c r="B44" s="360"/>
-      <c r="C44" s="102"/>
-      <c r="D44" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="108" t="s">
-        <v>30</v>
-      </c>
-      <c r="I44" s="108"/>
-      <c r="J44" s="108"/>
-      <c r="K44" s="297" t="s">
-        <v>105</v>
+      <c r="C44" s="357"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="118" t="str">
+        <v>品証（#{?msa_crosstab_person_in_charge_2}）</v>
+      </c>
+      <c r="I44" s="118"/>
+      <c r="J44" s="118"/>
+      <c r="K44" s="297" t="str">
+        <v>#{?msa_crosstab_yotei_2}</v>
       </c>
       <c r="L44" s="298"/>
-      <c r="M44" s="297" t="s">
-        <v>106</v>
+      <c r="M44" s="297" t="str">
+        <v>#{?msa_crosstab_kanryou_2}</v>
       </c>
       <c r="N44" s="298"/>
-      <c r="O44" s="67"/>
-      <c r="P44" s="68"/>
-      <c r="Q44" s="68"/>
-      <c r="R44" s="68"/>
-      <c r="S44" s="68"/>
-      <c r="T44" s="68"/>
-      <c r="U44" s="68"/>
-      <c r="V44" s="68"/>
-      <c r="W44" s="68"/>
-      <c r="X44" s="68"/>
+      <c r="O44" s="314" t="str">
+        <v>#{?inspector_name_a_2}：#{?inspector_a_result_2}、#{?inspector_name_b_2}：#{?inspector_b_result_2}、#{?inspector_name_c_2}：#{?inspector_c_result_2}</v>
+      </c>
+      <c r="P44" s="315"/>
+      <c r="Q44" s="315"/>
+      <c r="R44" s="315"/>
+      <c r="S44" s="315"/>
+      <c r="T44" s="315"/>
+      <c r="U44" s="315"/>
+      <c r="V44" s="315"/>
+      <c r="W44" s="315"/>
+      <c r="X44" s="316"/>
       <c r="Y44" s="254"/>
       <c r="Z44" s="341"/>
     </row>
     <row r="45" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A45" s="100"/>
+      <c r="A45" s="97"/>
       <c r="B45" s="360"/>
-      <c r="C45" s="102"/>
-      <c r="D45" s="44" t="s">
-        <v>31</v>
+      <c r="C45" s="357"/>
+      <c r="D45" s="43" t="s">
+        <v>192</v>
       </c>
       <c r="E45" s="44"/>
       <c r="F45" s="44"/>
       <c r="G45" s="44"/>
-      <c r="H45" s="118" t="s">
-        <v>201</v>
-      </c>
-      <c r="I45" s="118"/>
-      <c r="J45" s="118"/>
-      <c r="K45" s="297" t="s">
-        <v>103</v>
-      </c>
-      <c r="L45" s="298"/>
-      <c r="M45" s="297" t="s">
-        <v>104</v>
-      </c>
-      <c r="N45" s="298"/>
-      <c r="O45" s="314" t="s">
-        <v>209</v>
-      </c>
-      <c r="P45" s="315"/>
-      <c r="Q45" s="315"/>
-      <c r="R45" s="315"/>
-      <c r="S45" s="315"/>
-      <c r="T45" s="315"/>
-      <c r="U45" s="315"/>
-      <c r="V45" s="315"/>
-      <c r="W45" s="315"/>
-      <c r="X45" s="316"/>
+      <c r="H45" s="108" t="s">
+        <v>193</v>
+      </c>
+      <c r="I45" s="108"/>
+      <c r="J45" s="108"/>
+      <c r="K45" s="335"/>
+      <c r="L45" s="336"/>
+      <c r="M45" s="335"/>
+      <c r="N45" s="336"/>
+      <c r="O45" s="67"/>
+      <c r="P45" s="307"/>
+      <c r="Q45" s="307"/>
+      <c r="R45" s="307"/>
+      <c r="S45" s="307"/>
+      <c r="T45" s="307"/>
+      <c r="U45" s="307"/>
+      <c r="V45" s="307"/>
+      <c r="W45" s="307"/>
+      <c r="X45" s="307"/>
       <c r="Y45" s="254"/>
       <c r="Z45" s="341"/>
     </row>
     <row r="46" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A46" s="100"/>
+      <c r="A46" s="97"/>
       <c r="B46" s="360"/>
-      <c r="C46" s="103"/>
-      <c r="D46" s="367" t="s">
-        <v>33</v>
-      </c>
-      <c r="E46" s="367"/>
-      <c r="F46" s="367"/>
-      <c r="G46" s="367"/>
-      <c r="H46" s="319" t="s">
-        <v>32</v>
-      </c>
-      <c r="I46" s="319"/>
-      <c r="J46" s="319"/>
-      <c r="K46" s="320" t="s">
-        <v>107</v>
-      </c>
-      <c r="L46" s="321"/>
-      <c r="M46" s="320" t="s">
-        <v>108</v>
-      </c>
-      <c r="N46" s="321"/>
-      <c r="O46" s="317"/>
-      <c r="P46" s="318"/>
-      <c r="Q46" s="318"/>
-      <c r="R46" s="318"/>
-      <c r="S46" s="318"/>
-      <c r="T46" s="318"/>
-      <c r="U46" s="318"/>
-      <c r="V46" s="318"/>
-      <c r="W46" s="318"/>
-      <c r="X46" s="318"/>
+      <c r="C46" s="357"/>
+      <c r="D46" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="108" t="s">
+        <v>30</v>
+      </c>
+      <c r="I46" s="108"/>
+      <c r="J46" s="108"/>
+      <c r="K46" s="297" t="s">
+        <v>115</v>
+      </c>
+      <c r="L46" s="298"/>
+      <c r="M46" s="297" t="s">
+        <v>116</v>
+      </c>
+      <c r="N46" s="298"/>
+      <c r="O46" s="67"/>
+      <c r="P46" s="307"/>
+      <c r="Q46" s="307"/>
+      <c r="R46" s="307"/>
+      <c r="S46" s="307"/>
+      <c r="T46" s="307"/>
+      <c r="U46" s="307"/>
+      <c r="V46" s="307"/>
+      <c r="W46" s="307"/>
+      <c r="X46" s="307"/>
       <c r="Y46" s="254"/>
       <c r="Z46" s="341"/>
     </row>
     <row r="47" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="98"/>
+      <c r="B47" s="361"/>
+      <c r="C47" s="358"/>
+      <c r="D47" s="344" t="s">
+        <v>245</v>
+      </c>
+      <c r="E47" s="345"/>
+      <c r="F47" s="345"/>
+      <c r="G47" s="346"/>
+      <c r="H47" s="118" t="s">
+        <v>248</v>
+      </c>
+      <c r="I47" s="118"/>
+      <c r="J47" s="118"/>
+      <c r="K47" s="362" t="s">
+        <v>246</v>
+      </c>
+      <c r="L47" s="363"/>
+      <c r="M47" s="362" t="s">
+        <v>247</v>
+      </c>
+      <c r="N47" s="363"/>
+      <c r="O47" s="364" t="s">
+        <v>249</v>
+      </c>
+      <c r="P47" s="365"/>
+      <c r="Q47" s="365"/>
+      <c r="R47" s="365"/>
+      <c r="S47" s="365"/>
+      <c r="T47" s="365"/>
+      <c r="U47" s="365"/>
+      <c r="V47" s="365"/>
+      <c r="W47" s="365"/>
+      <c r="X47" s="366"/>
+      <c r="Y47" s="342"/>
+      <c r="Z47" s="343"/>
+    </row>
+    <row r="48" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A48" s="112" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="115"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="115"/>
+      <c r="F48" s="115"/>
+      <c r="G48" s="116"/>
+      <c r="H48" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="I48" s="115"/>
+      <c r="J48" s="115"/>
+      <c r="K48" s="115"/>
+      <c r="L48" s="115"/>
+      <c r="M48" s="115"/>
+      <c r="N48" s="115"/>
+      <c r="O48" s="115"/>
+      <c r="P48" s="115"/>
+      <c r="Q48" s="115"/>
+      <c r="R48" s="150"/>
+      <c r="S48" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="T48" s="115"/>
+      <c r="U48" s="115"/>
+      <c r="V48" s="115"/>
+      <c r="W48" s="115"/>
+      <c r="X48" s="150"/>
+      <c r="Y48" s="114" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z48" s="116"/>
+    </row>
+    <row r="49" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A49" s="113"/>
+      <c r="B49" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="165" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" s="165"/>
+      <c r="E49" s="165"/>
+      <c r="F49" s="165"/>
+      <c r="G49" s="166"/>
+      <c r="H49" s="123" t="s">
+        <v>45</v>
+      </c>
+      <c r="I49" s="124"/>
+      <c r="J49" s="124"/>
+      <c r="K49" s="124"/>
+      <c r="L49" s="124"/>
+      <c r="M49" s="124"/>
+      <c r="N49" s="124"/>
+      <c r="O49" s="124"/>
+      <c r="P49" s="124"/>
+      <c r="Q49" s="124"/>
+      <c r="R49" s="125"/>
+      <c r="S49" s="236" t="s">
+        <v>46</v>
+      </c>
+      <c r="T49" s="237"/>
+      <c r="U49" s="237"/>
+      <c r="V49" s="237"/>
+      <c r="W49" s="237"/>
+      <c r="X49" s="238"/>
+      <c r="Y49" s="204" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z49" s="205"/>
+    </row>
+    <row r="50" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A50" s="113"/>
+      <c r="B50" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" s="121" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="121"/>
+      <c r="E50" s="121"/>
+      <c r="F50" s="121"/>
+      <c r="G50" s="122"/>
+      <c r="H50" s="227" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" s="246"/>
+      <c r="J50" s="246"/>
+      <c r="K50" s="246"/>
+      <c r="L50" s="246"/>
+      <c r="M50" s="246"/>
+      <c r="N50" s="246"/>
+      <c r="O50" s="246"/>
+      <c r="P50" s="246"/>
+      <c r="Q50" s="246"/>
+      <c r="R50" s="247"/>
+      <c r="S50" s="283" t="s">
+        <v>48</v>
+      </c>
+      <c r="T50" s="284"/>
+      <c r="U50" s="284"/>
+      <c r="V50" s="284"/>
+      <c r="W50" s="284"/>
+      <c r="X50" s="294"/>
+      <c r="Y50" s="206"/>
+      <c r="Z50" s="207"/>
+    </row>
+    <row r="51" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A51" s="113"/>
+      <c r="B51" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" s="121" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" s="121"/>
+      <c r="E51" s="121"/>
+      <c r="F51" s="121"/>
+      <c r="G51" s="122"/>
+      <c r="H51" s="227" t="s">
+        <v>49</v>
+      </c>
+      <c r="I51" s="228"/>
+      <c r="J51" s="228"/>
+      <c r="K51" s="228"/>
+      <c r="L51" s="228"/>
+      <c r="M51" s="228"/>
+      <c r="N51" s="228"/>
+      <c r="O51" s="228"/>
+      <c r="P51" s="228"/>
+      <c r="Q51" s="228"/>
+      <c r="R51" s="229"/>
+      <c r="S51" s="283"/>
+      <c r="T51" s="284"/>
+      <c r="U51" s="284"/>
+      <c r="V51" s="284"/>
+      <c r="W51" s="284"/>
+      <c r="X51" s="294"/>
+      <c r="Y51" s="206"/>
+      <c r="Z51" s="207"/>
+    </row>
+    <row r="52" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A52" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="360"/>
-      <c r="C47" s="356" t="s">
-        <v>35</v>
-      </c>
-      <c r="D47" s="370" t="s">
-        <v>36</v>
-      </c>
-      <c r="E47" s="371"/>
-      <c r="F47" s="371"/>
-      <c r="G47" s="371"/>
-      <c r="H47" s="340" t="s">
-        <v>32</v>
-      </c>
-      <c r="I47" s="340"/>
-      <c r="J47" s="340"/>
-      <c r="K47" s="368" t="s">
-        <v>109</v>
-      </c>
-      <c r="L47" s="369"/>
-      <c r="M47" s="368" t="s">
-        <v>110</v>
-      </c>
-      <c r="N47" s="369"/>
-      <c r="O47" s="292"/>
-      <c r="P47" s="293"/>
-      <c r="Q47" s="293"/>
-      <c r="R47" s="293"/>
-      <c r="S47" s="293"/>
-      <c r="T47" s="293"/>
-      <c r="U47" s="293"/>
-      <c r="V47" s="293"/>
-      <c r="W47" s="293"/>
-      <c r="X47" s="293"/>
-      <c r="Y47" s="254"/>
-      <c r="Z47" s="341"/>
-    </row>
-    <row r="48" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A48" s="97" t="s">
+      <c r="B52" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="C52" s="121" t="s">
+        <v>182</v>
+      </c>
+      <c r="D52" s="121"/>
+      <c r="E52" s="121"/>
+      <c r="F52" s="121"/>
+      <c r="G52" s="122"/>
+      <c r="H52" s="227"/>
+      <c r="I52" s="228"/>
+      <c r="J52" s="228"/>
+      <c r="K52" s="228"/>
+      <c r="L52" s="228"/>
+      <c r="M52" s="228"/>
+      <c r="N52" s="228"/>
+      <c r="O52" s="228"/>
+      <c r="P52" s="228"/>
+      <c r="Q52" s="228"/>
+      <c r="R52" s="229"/>
+      <c r="S52" s="295"/>
+      <c r="T52" s="296"/>
+      <c r="U52" s="296"/>
+      <c r="V52" s="296"/>
+      <c r="W52" s="296"/>
+      <c r="X52" s="294"/>
+      <c r="Y52" s="206"/>
+      <c r="Z52" s="207"/>
+    </row>
+    <row r="53" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A53" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="B48" s="360"/>
-      <c r="C48" s="357"/>
-      <c r="D48" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="108" t="s">
-        <v>32</v>
-      </c>
-      <c r="I48" s="108"/>
-      <c r="J48" s="108"/>
-      <c r="K48" s="297" t="s">
-        <v>111</v>
-      </c>
-      <c r="L48" s="298"/>
-      <c r="M48" s="297" t="s">
-        <v>112</v>
-      </c>
-      <c r="N48" s="298"/>
-      <c r="O48" s="67"/>
-      <c r="P48" s="307"/>
-      <c r="Q48" s="307"/>
-      <c r="R48" s="307"/>
-      <c r="S48" s="307"/>
-      <c r="T48" s="307"/>
-      <c r="U48" s="307"/>
-      <c r="V48" s="307"/>
-      <c r="W48" s="307"/>
-      <c r="X48" s="307"/>
-      <c r="Y48" s="254"/>
-      <c r="Z48" s="341"/>
-    </row>
-    <row r="49" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A49" s="97"/>
-      <c r="B49" s="360"/>
-      <c r="C49" s="357"/>
-      <c r="D49" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="108" t="s">
-        <v>32</v>
-      </c>
-      <c r="I49" s="108"/>
-      <c r="J49" s="108"/>
-      <c r="K49" s="297" t="s">
-        <v>113</v>
-      </c>
-      <c r="L49" s="298"/>
-      <c r="M49" s="297" t="s">
-        <v>114</v>
-      </c>
-      <c r="N49" s="298"/>
-      <c r="O49" s="67"/>
-      <c r="P49" s="307"/>
-      <c r="Q49" s="307"/>
-      <c r="R49" s="307"/>
-      <c r="S49" s="307"/>
-      <c r="T49" s="307"/>
-      <c r="U49" s="307"/>
-      <c r="V49" s="307"/>
-      <c r="W49" s="307"/>
-      <c r="X49" s="307"/>
-      <c r="Y49" s="254"/>
-      <c r="Z49" s="341"/>
-    </row>
-    <row r="50" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A50" s="97"/>
-      <c r="B50" s="360"/>
-      <c r="C50" s="357"/>
-      <c r="D50" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="108" t="s">
-        <v>32</v>
-      </c>
-      <c r="I50" s="108"/>
-      <c r="J50" s="108"/>
-      <c r="K50" s="297" t="s">
-        <v>113</v>
-      </c>
-      <c r="L50" s="298"/>
-      <c r="M50" s="297" t="s">
-        <v>114</v>
-      </c>
-      <c r="N50" s="298"/>
-      <c r="O50" s="67"/>
-      <c r="P50" s="307"/>
-      <c r="Q50" s="307"/>
-      <c r="R50" s="307"/>
-      <c r="S50" s="307"/>
-      <c r="T50" s="307"/>
-      <c r="U50" s="307"/>
-      <c r="V50" s="307"/>
-      <c r="W50" s="307"/>
-      <c r="X50" s="307"/>
-      <c r="Y50" s="254"/>
-      <c r="Z50" s="341"/>
-    </row>
-    <row r="51" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A51" s="97"/>
-      <c r="B51" s="360"/>
-      <c r="C51" s="357"/>
-      <c r="D51" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="108" t="s">
-        <v>222</v>
-      </c>
-      <c r="I51" s="108"/>
-      <c r="J51" s="108"/>
-      <c r="K51" s="297" t="s">
-        <v>113</v>
-      </c>
-      <c r="L51" s="298"/>
-      <c r="M51" s="297" t="s">
-        <v>114</v>
-      </c>
-      <c r="N51" s="298"/>
-      <c r="O51" s="67"/>
-      <c r="P51" s="307"/>
-      <c r="Q51" s="307"/>
-      <c r="R51" s="307"/>
-      <c r="S51" s="307"/>
-      <c r="T51" s="307"/>
-      <c r="U51" s="307"/>
-      <c r="V51" s="307"/>
-      <c r="W51" s="307"/>
-      <c r="X51" s="307"/>
-      <c r="Y51" s="254"/>
-      <c r="Z51" s="341"/>
-    </row>
-    <row r="52" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A52" s="97"/>
-      <c r="B52" s="360"/>
-      <c r="C52" s="357"/>
-      <c r="D52" s="88" t="s">
-        <v>205</v>
-      </c>
-      <c r="E52" s="88"/>
-      <c r="F52" s="88"/>
-      <c r="G52" s="89"/>
-      <c r="H52" s="75" t="s">
-        <v>210</v>
-      </c>
-      <c r="I52" s="76"/>
-      <c r="J52" s="77"/>
-      <c r="K52" s="81" t="s">
-        <v>107</v>
-      </c>
-      <c r="L52" s="82"/>
-      <c r="M52" s="81" t="s">
-        <v>108</v>
-      </c>
-      <c r="N52" s="82"/>
-      <c r="O52" s="72" t="s">
-        <v>216</v>
-      </c>
-      <c r="P52" s="73"/>
-      <c r="Q52" s="73"/>
-      <c r="R52" s="73"/>
-      <c r="S52" s="74"/>
-      <c r="T52" s="72" t="s">
-        <v>213</v>
-      </c>
-      <c r="U52" s="73"/>
-      <c r="V52" s="73"/>
-      <c r="W52" s="73"/>
-      <c r="X52" s="74"/>
-      <c r="Y52" s="254"/>
-      <c r="Z52" s="341"/>
-    </row>
-    <row r="53" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A53" s="97"/>
-      <c r="B53" s="360"/>
-      <c r="C53" s="357"/>
-      <c r="D53" s="90"/>
-      <c r="E53" s="90"/>
-      <c r="F53" s="90"/>
-      <c r="G53" s="91"/>
-      <c r="H53" s="78"/>
-      <c r="I53" s="79"/>
-      <c r="J53" s="80"/>
-      <c r="K53" s="83"/>
-      <c r="L53" s="84"/>
-      <c r="M53" s="83"/>
-      <c r="N53" s="84"/>
-      <c r="O53" s="72" t="s">
-        <v>217</v>
-      </c>
-      <c r="P53" s="73"/>
-      <c r="Q53" s="73"/>
-      <c r="R53" s="73"/>
-      <c r="S53" s="74"/>
-      <c r="T53" s="72" t="s">
-        <v>215</v>
-      </c>
-      <c r="U53" s="73"/>
-      <c r="V53" s="73"/>
-      <c r="W53" s="73"/>
-      <c r="X53" s="74"/>
-      <c r="Y53" s="254"/>
-      <c r="Z53" s="341"/>
+      <c r="B53" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="D53" s="121"/>
+      <c r="E53" s="121"/>
+      <c r="F53" s="121"/>
+      <c r="G53" s="122"/>
+      <c r="H53" s="227"/>
+      <c r="I53" s="228"/>
+      <c r="J53" s="228"/>
+      <c r="K53" s="228"/>
+      <c r="L53" s="228"/>
+      <c r="M53" s="228"/>
+      <c r="N53" s="228"/>
+      <c r="O53" s="228"/>
+      <c r="P53" s="228"/>
+      <c r="Q53" s="228"/>
+      <c r="R53" s="229"/>
+      <c r="S53" s="295"/>
+      <c r="T53" s="296"/>
+      <c r="U53" s="296"/>
+      <c r="V53" s="296"/>
+      <c r="W53" s="296"/>
+      <c r="X53" s="294"/>
+      <c r="Y53" s="206"/>
+      <c r="Z53" s="207"/>
     </row>
     <row r="54" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A54" s="97"/>
-      <c r="B54" s="360"/>
-      <c r="C54" s="357"/>
-      <c r="D54" s="92"/>
-      <c r="E54" s="92"/>
-      <c r="F54" s="92"/>
-      <c r="G54" s="93"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="55"/>
-      <c r="J54" s="56"/>
-      <c r="K54" s="59"/>
-      <c r="L54" s="60"/>
-      <c r="M54" s="59"/>
-      <c r="N54" s="60"/>
-      <c r="O54" s="72" t="s">
-        <v>218</v>
-      </c>
-      <c r="P54" s="73"/>
-      <c r="Q54" s="73"/>
-      <c r="R54" s="73"/>
-      <c r="S54" s="74"/>
-      <c r="T54" s="72" t="s">
-        <v>214</v>
-      </c>
-      <c r="U54" s="73"/>
-      <c r="V54" s="73"/>
-      <c r="W54" s="73"/>
-      <c r="X54" s="74"/>
-      <c r="Y54" s="254"/>
-      <c r="Z54" s="341"/>
+      <c r="A54" s="98"/>
+      <c r="B54" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="183"/>
+      <c r="D54" s="183"/>
+      <c r="E54" s="183"/>
+      <c r="F54" s="183"/>
+      <c r="G54" s="184"/>
+      <c r="H54" s="227"/>
+      <c r="I54" s="228"/>
+      <c r="J54" s="228"/>
+      <c r="K54" s="228"/>
+      <c r="L54" s="228"/>
+      <c r="M54" s="228"/>
+      <c r="N54" s="228"/>
+      <c r="O54" s="228"/>
+      <c r="P54" s="228"/>
+      <c r="Q54" s="228"/>
+      <c r="R54" s="229"/>
+      <c r="S54" s="295"/>
+      <c r="T54" s="296"/>
+      <c r="U54" s="296"/>
+      <c r="V54" s="296"/>
+      <c r="W54" s="296"/>
+      <c r="X54" s="294"/>
+      <c r="Y54" s="208"/>
+      <c r="Z54" s="209"/>
     </row>
     <row r="55" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A55" s="97"/>
-      <c r="B55" s="360"/>
-      <c r="C55" s="357"/>
-      <c r="D55" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I55" s="86"/>
-      <c r="J55" s="87"/>
-      <c r="K55" s="72" t="s">
-        <v>113</v>
-      </c>
-      <c r="L55" s="74"/>
-      <c r="M55" s="72" t="s">
-        <v>114</v>
-      </c>
-      <c r="N55" s="74"/>
-      <c r="O55" s="69"/>
-      <c r="P55" s="70"/>
-      <c r="Q55" s="70"/>
-      <c r="R55" s="70"/>
-      <c r="S55" s="70"/>
-      <c r="T55" s="70"/>
-      <c r="U55" s="70"/>
-      <c r="V55" s="70"/>
-      <c r="W55" s="70"/>
-      <c r="X55" s="71"/>
-      <c r="Y55" s="254"/>
-      <c r="Z55" s="341"/>
+      <c r="A55" s="99" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="114" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="115"/>
+      <c r="D55" s="115"/>
+      <c r="E55" s="115"/>
+      <c r="F55" s="115"/>
+      <c r="G55" s="116"/>
+      <c r="H55" s="119" t="s">
+        <v>53</v>
+      </c>
+      <c r="I55" s="146"/>
+      <c r="J55" s="146"/>
+      <c r="K55" s="146"/>
+      <c r="L55" s="146"/>
+      <c r="M55" s="146"/>
+      <c r="N55" s="146"/>
+      <c r="O55" s="146"/>
+      <c r="P55" s="146"/>
+      <c r="Q55" s="146"/>
+      <c r="R55" s="120"/>
+      <c r="S55" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="T55" s="63"/>
+      <c r="U55" s="63"/>
+      <c r="V55" s="63"/>
+      <c r="W55" s="63"/>
+      <c r="X55" s="63"/>
+      <c r="Y55" s="114" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z55" s="116"/>
     </row>
     <row r="56" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A56" s="97"/>
-      <c r="B56" s="360"/>
-      <c r="C56" s="357"/>
-      <c r="D56" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="E56" s="42"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I56" s="86"/>
-      <c r="J56" s="87"/>
-      <c r="K56" s="72" t="s">
-        <v>113</v>
-      </c>
-      <c r="L56" s="74"/>
-      <c r="M56" s="72" t="s">
-        <v>114</v>
-      </c>
-      <c r="N56" s="74"/>
-      <c r="O56" s="69"/>
-      <c r="P56" s="70"/>
-      <c r="Q56" s="70"/>
-      <c r="R56" s="70"/>
-      <c r="S56" s="70"/>
-      <c r="T56" s="70"/>
-      <c r="U56" s="70"/>
-      <c r="V56" s="70"/>
-      <c r="W56" s="70"/>
-      <c r="X56" s="71"/>
-      <c r="Y56" s="254"/>
-      <c r="Z56" s="341"/>
+      <c r="A56" s="210"/>
+      <c r="B56" s="101" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" s="187" t="s">
+        <v>134</v>
+      </c>
+      <c r="E56" s="187"/>
+      <c r="F56" s="187"/>
+      <c r="G56" s="188"/>
+      <c r="H56" s="123" t="s">
+        <v>55</v>
+      </c>
+      <c r="I56" s="124"/>
+      <c r="J56" s="124"/>
+      <c r="K56" s="124"/>
+      <c r="L56" s="124"/>
+      <c r="M56" s="124"/>
+      <c r="N56" s="124"/>
+      <c r="O56" s="124"/>
+      <c r="P56" s="124"/>
+      <c r="Q56" s="124"/>
+      <c r="R56" s="125"/>
+      <c r="S56" s="308" t="s">
+        <v>56</v>
+      </c>
+      <c r="T56" s="309"/>
+      <c r="U56" s="309"/>
+      <c r="V56" s="309"/>
+      <c r="W56" s="309"/>
+      <c r="X56" s="310"/>
+      <c r="Y56" s="204" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z56" s="205"/>
     </row>
     <row r="57" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A57" s="97"/>
-      <c r="B57" s="360"/>
-      <c r="C57" s="357"/>
-      <c r="D57" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="E57" s="44"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="108" t="s">
-        <v>32</v>
-      </c>
-      <c r="I57" s="108"/>
-      <c r="J57" s="108"/>
-      <c r="K57" s="297" t="s">
-        <v>194</v>
-      </c>
-      <c r="L57" s="298"/>
-      <c r="M57" s="297" t="s">
-        <v>195</v>
-      </c>
-      <c r="N57" s="298"/>
-      <c r="O57" s="67"/>
-      <c r="P57" s="307"/>
-      <c r="Q57" s="307"/>
-      <c r="R57" s="307"/>
-      <c r="S57" s="307"/>
-      <c r="T57" s="307"/>
-      <c r="U57" s="307"/>
-      <c r="V57" s="307"/>
-      <c r="W57" s="307"/>
-      <c r="X57" s="307"/>
-      <c r="Y57" s="254"/>
-      <c r="Z57" s="341"/>
+      <c r="A57" s="210"/>
+      <c r="B57" s="102"/>
+      <c r="C57" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D57" s="189" t="s">
+        <v>166</v>
+      </c>
+      <c r="E57" s="189" t="s">
+        <v>162</v>
+      </c>
+      <c r="F57" s="189" t="s">
+        <v>162</v>
+      </c>
+      <c r="G57" s="190" t="s">
+        <v>162</v>
+      </c>
+      <c r="H57" s="215" t="s">
+        <v>57</v>
+      </c>
+      <c r="I57" s="216"/>
+      <c r="J57" s="216"/>
+      <c r="K57" s="216"/>
+      <c r="L57" s="216"/>
+      <c r="M57" s="216"/>
+      <c r="N57" s="216"/>
+      <c r="O57" s="216"/>
+      <c r="P57" s="216"/>
+      <c r="Q57" s="216"/>
+      <c r="R57" s="217"/>
+      <c r="S57" s="218"/>
+      <c r="T57" s="219"/>
+      <c r="U57" s="219"/>
+      <c r="V57" s="219"/>
+      <c r="W57" s="219"/>
+      <c r="X57" s="220"/>
+      <c r="Y57" s="206"/>
+      <c r="Z57" s="207"/>
     </row>
     <row r="58" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A58" s="97"/>
-      <c r="B58" s="360"/>
-      <c r="C58" s="357"/>
-      <c r="D58" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="118" t="s">
-        <v>224</v>
-      </c>
-      <c r="I58" s="118"/>
-      <c r="J58" s="118"/>
-      <c r="K58" s="297" t="s">
-        <v>225</v>
-      </c>
-      <c r="L58" s="298"/>
-      <c r="M58" s="297" t="s">
-        <v>226</v>
-      </c>
-      <c r="N58" s="298"/>
-      <c r="O58" s="314" t="s">
-        <v>227</v>
-      </c>
-      <c r="P58" s="315"/>
-      <c r="Q58" s="315"/>
-      <c r="R58" s="315"/>
-      <c r="S58" s="315"/>
-      <c r="T58" s="315"/>
-      <c r="U58" s="315"/>
-      <c r="V58" s="315"/>
-      <c r="W58" s="315"/>
-      <c r="X58" s="316"/>
-      <c r="Y58" s="254"/>
-      <c r="Z58" s="341"/>
+      <c r="A58" s="210"/>
+      <c r="B58" s="102"/>
+      <c r="C58" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="D58" s="189" t="s">
+        <v>167</v>
+      </c>
+      <c r="E58" s="189" t="s">
+        <v>162</v>
+      </c>
+      <c r="F58" s="189" t="s">
+        <v>162</v>
+      </c>
+      <c r="G58" s="190" t="s">
+        <v>162</v>
+      </c>
+      <c r="H58" s="215" t="s">
+        <v>59</v>
+      </c>
+      <c r="I58" s="216"/>
+      <c r="J58" s="216"/>
+      <c r="K58" s="216"/>
+      <c r="L58" s="216"/>
+      <c r="M58" s="216"/>
+      <c r="N58" s="216"/>
+      <c r="O58" s="216"/>
+      <c r="P58" s="216"/>
+      <c r="Q58" s="216"/>
+      <c r="R58" s="217"/>
+      <c r="S58" s="218"/>
+      <c r="T58" s="219"/>
+      <c r="U58" s="219"/>
+      <c r="V58" s="219"/>
+      <c r="W58" s="219"/>
+      <c r="X58" s="220"/>
+      <c r="Y58" s="206"/>
+      <c r="Z58" s="207"/>
     </row>
     <row r="59" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A59" s="97"/>
-      <c r="B59" s="360"/>
-      <c r="C59" s="357"/>
-      <c r="D59" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="E59" s="44"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="44"/>
-      <c r="H59" s="108" t="s">
-        <v>193</v>
-      </c>
-      <c r="I59" s="108"/>
-      <c r="J59" s="108"/>
-      <c r="K59" s="335"/>
-      <c r="L59" s="336"/>
-      <c r="M59" s="335"/>
-      <c r="N59" s="336"/>
-      <c r="O59" s="67"/>
-      <c r="P59" s="307"/>
-      <c r="Q59" s="307"/>
-      <c r="R59" s="307"/>
-      <c r="S59" s="307"/>
-      <c r="T59" s="307"/>
-      <c r="U59" s="307"/>
-      <c r="V59" s="307"/>
-      <c r="W59" s="307"/>
-      <c r="X59" s="307"/>
-      <c r="Y59" s="254"/>
-      <c r="Z59" s="341"/>
+      <c r="A59" s="210"/>
+      <c r="B59" s="103"/>
+      <c r="C59" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D59" s="183" t="s">
+        <v>153</v>
+      </c>
+      <c r="E59" s="183"/>
+      <c r="F59" s="183"/>
+      <c r="G59" s="184"/>
+      <c r="H59" s="227" t="s">
+        <v>61</v>
+      </c>
+      <c r="I59" s="228"/>
+      <c r="J59" s="228"/>
+      <c r="K59" s="228"/>
+      <c r="L59" s="228"/>
+      <c r="M59" s="228"/>
+      <c r="N59" s="228"/>
+      <c r="O59" s="228"/>
+      <c r="P59" s="228"/>
+      <c r="Q59" s="228"/>
+      <c r="R59" s="229"/>
+      <c r="S59" s="218"/>
+      <c r="T59" s="219"/>
+      <c r="U59" s="219"/>
+      <c r="V59" s="219"/>
+      <c r="W59" s="219"/>
+      <c r="X59" s="220"/>
+      <c r="Y59" s="206"/>
+      <c r="Z59" s="207"/>
     </row>
     <row r="60" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A60" s="97"/>
-      <c r="B60" s="360"/>
-      <c r="C60" s="357"/>
-      <c r="D60" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="108" t="s">
-        <v>30</v>
-      </c>
-      <c r="I60" s="108"/>
-      <c r="J60" s="108"/>
-      <c r="K60" s="297" t="s">
-        <v>115</v>
-      </c>
-      <c r="L60" s="298"/>
-      <c r="M60" s="297" t="s">
-        <v>116</v>
-      </c>
-      <c r="N60" s="298"/>
-      <c r="O60" s="67"/>
-      <c r="P60" s="307"/>
-      <c r="Q60" s="307"/>
-      <c r="R60" s="307"/>
-      <c r="S60" s="307"/>
-      <c r="T60" s="307"/>
-      <c r="U60" s="307"/>
-      <c r="V60" s="307"/>
-      <c r="W60" s="307"/>
-      <c r="X60" s="307"/>
-      <c r="Y60" s="254"/>
-      <c r="Z60" s="341"/>
+      <c r="A60" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D60" s="185" t="s">
+        <v>142</v>
+      </c>
+      <c r="E60" s="185"/>
+      <c r="F60" s="185"/>
+      <c r="G60" s="186"/>
+      <c r="H60" s="227" t="s">
+        <v>169</v>
+      </c>
+      <c r="I60" s="172"/>
+      <c r="J60" s="172"/>
+      <c r="K60" s="172"/>
+      <c r="L60" s="172"/>
+      <c r="M60" s="172"/>
+      <c r="N60" s="172"/>
+      <c r="O60" s="172"/>
+      <c r="P60" s="172"/>
+      <c r="Q60" s="172"/>
+      <c r="R60" s="173"/>
+      <c r="S60" s="221"/>
+      <c r="T60" s="222"/>
+      <c r="U60" s="222"/>
+      <c r="V60" s="222"/>
+      <c r="W60" s="222"/>
+      <c r="X60" s="223"/>
+      <c r="Y60" s="206"/>
+      <c r="Z60" s="207"/>
     </row>
     <row r="61" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A61" s="98"/>
-      <c r="B61" s="361"/>
-      <c r="C61" s="358"/>
-      <c r="D61" s="344" t="s">
-        <v>245</v>
-      </c>
-      <c r="E61" s="345"/>
-      <c r="F61" s="345"/>
-      <c r="G61" s="346"/>
-      <c r="H61" s="118" t="s">
-        <v>248</v>
-      </c>
-      <c r="I61" s="118"/>
-      <c r="J61" s="118"/>
-      <c r="K61" s="362" t="s">
-        <v>246</v>
-      </c>
-      <c r="L61" s="363"/>
-      <c r="M61" s="362" t="s">
-        <v>247</v>
-      </c>
-      <c r="N61" s="363"/>
-      <c r="O61" s="364" t="s">
-        <v>249</v>
-      </c>
-      <c r="P61" s="365"/>
-      <c r="Q61" s="365"/>
-      <c r="R61" s="365"/>
-      <c r="S61" s="365"/>
-      <c r="T61" s="365"/>
-      <c r="U61" s="365"/>
-      <c r="V61" s="365"/>
-      <c r="W61" s="365"/>
-      <c r="X61" s="366"/>
-      <c r="Y61" s="342"/>
-      <c r="Z61" s="343"/>
+      <c r="A61" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" s="102"/>
+      <c r="C61" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D61" s="121" t="s">
+        <v>127</v>
+      </c>
+      <c r="E61" s="121"/>
+      <c r="F61" s="121"/>
+      <c r="G61" s="122"/>
+      <c r="H61" s="230" t="s">
+        <v>62</v>
+      </c>
+      <c r="I61" s="231"/>
+      <c r="J61" s="231"/>
+      <c r="K61" s="231"/>
+      <c r="L61" s="231"/>
+      <c r="M61" s="231"/>
+      <c r="N61" s="231"/>
+      <c r="O61" s="231"/>
+      <c r="P61" s="231"/>
+      <c r="Q61" s="231"/>
+      <c r="R61" s="232"/>
+      <c r="S61" s="221"/>
+      <c r="T61" s="222"/>
+      <c r="U61" s="222"/>
+      <c r="V61" s="222"/>
+      <c r="W61" s="222"/>
+      <c r="X61" s="223"/>
+      <c r="Y61" s="206"/>
+      <c r="Z61" s="207"/>
     </row>
     <row r="62" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A62" s="112" t="s">
-        <v>40</v>
-      </c>
-      <c r="B62" s="114" t="s">
-        <v>41</v>
-      </c>
-      <c r="C62" s="115"/>
-      <c r="D62" s="115"/>
-      <c r="E62" s="115"/>
-      <c r="F62" s="115"/>
-      <c r="G62" s="116"/>
-      <c r="H62" s="114" t="s">
-        <v>42</v>
-      </c>
-      <c r="I62" s="115"/>
-      <c r="J62" s="115"/>
-      <c r="K62" s="115"/>
-      <c r="L62" s="115"/>
-      <c r="M62" s="115"/>
-      <c r="N62" s="115"/>
-      <c r="O62" s="115"/>
-      <c r="P62" s="115"/>
-      <c r="Q62" s="115"/>
-      <c r="R62" s="150"/>
-      <c r="S62" s="114" t="s">
-        <v>43</v>
-      </c>
-      <c r="T62" s="115"/>
-      <c r="U62" s="115"/>
-      <c r="V62" s="115"/>
-      <c r="W62" s="115"/>
-      <c r="X62" s="150"/>
-      <c r="Y62" s="114" t="s">
+      <c r="A62" s="97"/>
+      <c r="B62" s="102"/>
+      <c r="C62" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D62" s="189" t="s">
+        <v>166</v>
+      </c>
+      <c r="E62" s="189" t="s">
+        <v>162</v>
+      </c>
+      <c r="F62" s="189" t="s">
+        <v>162</v>
+      </c>
+      <c r="G62" s="190" t="s">
+        <v>162</v>
+      </c>
+      <c r="H62" s="16"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="19"/>
+      <c r="P62" s="19"/>
+      <c r="Q62" s="19"/>
+      <c r="R62" s="20"/>
+      <c r="S62" s="221"/>
+      <c r="T62" s="222"/>
+      <c r="U62" s="222"/>
+      <c r="V62" s="222"/>
+      <c r="W62" s="222"/>
+      <c r="X62" s="223"/>
+      <c r="Y62" s="206"/>
+      <c r="Z62" s="207"/>
+    </row>
+    <row r="63" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A63" s="98"/>
+      <c r="B63" s="103"/>
+      <c r="C63" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="D63" s="189" t="s">
+        <v>167</v>
+      </c>
+      <c r="E63" s="189" t="s">
+        <v>162</v>
+      </c>
+      <c r="F63" s="189" t="s">
+        <v>162</v>
+      </c>
+      <c r="G63" s="190" t="s">
+        <v>162</v>
+      </c>
+      <c r="H63" s="230"/>
+      <c r="I63" s="231"/>
+      <c r="J63" s="231"/>
+      <c r="K63" s="231"/>
+      <c r="L63" s="231"/>
+      <c r="M63" s="231"/>
+      <c r="N63" s="231"/>
+      <c r="O63" s="231"/>
+      <c r="P63" s="231"/>
+      <c r="Q63" s="231"/>
+      <c r="R63" s="232"/>
+      <c r="S63" s="224"/>
+      <c r="T63" s="225"/>
+      <c r="U63" s="225"/>
+      <c r="V63" s="225"/>
+      <c r="W63" s="225"/>
+      <c r="X63" s="226"/>
+      <c r="Y63" s="208"/>
+      <c r="Z63" s="209"/>
+    </row>
+    <row r="64" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A64" s="99" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="114" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" s="115"/>
+      <c r="D64" s="115"/>
+      <c r="E64" s="115"/>
+      <c r="F64" s="115"/>
+      <c r="G64" s="116"/>
+      <c r="H64" s="211" t="s">
+        <v>65</v>
+      </c>
+      <c r="I64" s="212"/>
+      <c r="J64" s="212"/>
+      <c r="K64" s="212"/>
+      <c r="L64" s="212"/>
+      <c r="M64" s="212"/>
+      <c r="N64" s="213"/>
+      <c r="O64" s="213"/>
+      <c r="P64" s="213"/>
+      <c r="Q64" s="213"/>
+      <c r="R64" s="214"/>
+      <c r="S64" s="114" t="s">
+        <v>66</v>
+      </c>
+      <c r="T64" s="115"/>
+      <c r="U64" s="115"/>
+      <c r="V64" s="115"/>
+      <c r="W64" s="115"/>
+      <c r="X64" s="150"/>
+      <c r="Y64" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="Z62" s="116"/>
-    </row>
-    <row r="63" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A63" s="113"/>
-      <c r="B63" s="22" t="s">
+      <c r="Z64" s="116"/>
+    </row>
+    <row r="65" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A65" s="210"/>
+      <c r="B65" s="161" t="s">
         <v>123</v>
       </c>
-      <c r="C63" s="165" t="s">
-        <v>136</v>
-      </c>
-      <c r="D63" s="165"/>
-      <c r="E63" s="165"/>
-      <c r="F63" s="165"/>
-      <c r="G63" s="166"/>
-      <c r="H63" s="123" t="s">
-        <v>45</v>
-      </c>
-      <c r="I63" s="124"/>
-      <c r="J63" s="124"/>
-      <c r="K63" s="124"/>
-      <c r="L63" s="124"/>
-      <c r="M63" s="124"/>
-      <c r="N63" s="124"/>
-      <c r="O63" s="124"/>
-      <c r="P63" s="124"/>
-      <c r="Q63" s="124"/>
-      <c r="R63" s="125"/>
-      <c r="S63" s="236" t="s">
+      <c r="C65" s="174" t="s">
+        <v>132</v>
+      </c>
+      <c r="D65" s="174"/>
+      <c r="E65" s="175"/>
+      <c r="F65" s="175"/>
+      <c r="G65" s="176"/>
+      <c r="H65" s="233" t="s">
+        <v>67</v>
+      </c>
+      <c r="I65" s="234"/>
+      <c r="J65" s="234"/>
+      <c r="K65" s="234"/>
+      <c r="L65" s="234"/>
+      <c r="M65" s="234"/>
+      <c r="N65" s="234"/>
+      <c r="O65" s="234"/>
+      <c r="P65" s="234"/>
+      <c r="Q65" s="234"/>
+      <c r="R65" s="235"/>
+      <c r="S65" s="236" t="s">
         <v>46</v>
       </c>
-      <c r="T63" s="237"/>
-      <c r="U63" s="237"/>
-      <c r="V63" s="237"/>
-      <c r="W63" s="237"/>
-      <c r="X63" s="238"/>
-      <c r="Y63" s="204" t="s">
+      <c r="T65" s="237"/>
+      <c r="U65" s="237"/>
+      <c r="V65" s="237"/>
+      <c r="W65" s="237"/>
+      <c r="X65" s="238"/>
+      <c r="Y65" s="204" t="s">
         <v>141</v>
       </c>
-      <c r="Z63" s="205"/>
-    </row>
-    <row r="64" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A64" s="113"/>
-      <c r="B64" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C64" s="121" t="s">
-        <v>137</v>
-      </c>
-      <c r="D64" s="121"/>
-      <c r="E64" s="121"/>
-      <c r="F64" s="121"/>
-      <c r="G64" s="122"/>
-      <c r="H64" s="227" t="s">
-        <v>47</v>
-      </c>
-      <c r="I64" s="246"/>
-      <c r="J64" s="246"/>
-      <c r="K64" s="246"/>
-      <c r="L64" s="246"/>
-      <c r="M64" s="246"/>
-      <c r="N64" s="246"/>
-      <c r="O64" s="246"/>
-      <c r="P64" s="246"/>
-      <c r="Q64" s="246"/>
-      <c r="R64" s="247"/>
-      <c r="S64" s="283" t="s">
-        <v>48</v>
-      </c>
-      <c r="T64" s="284"/>
-      <c r="U64" s="284"/>
-      <c r="V64" s="284"/>
-      <c r="W64" s="284"/>
-      <c r="X64" s="294"/>
-      <c r="Y64" s="206"/>
-      <c r="Z64" s="207"/>
-    </row>
-    <row r="65" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A65" s="113"/>
-      <c r="B65" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="C65" s="121" t="s">
-        <v>152</v>
-      </c>
-      <c r="D65" s="121"/>
-      <c r="E65" s="121"/>
-      <c r="F65" s="121"/>
-      <c r="G65" s="122"/>
-      <c r="H65" s="227" t="s">
-        <v>49</v>
-      </c>
-      <c r="I65" s="228"/>
-      <c r="J65" s="228"/>
-      <c r="K65" s="228"/>
-      <c r="L65" s="228"/>
-      <c r="M65" s="228"/>
-      <c r="N65" s="228"/>
-      <c r="O65" s="228"/>
-      <c r="P65" s="228"/>
-      <c r="Q65" s="228"/>
-      <c r="R65" s="229"/>
-      <c r="S65" s="283"/>
-      <c r="T65" s="284"/>
-      <c r="U65" s="284"/>
-      <c r="V65" s="284"/>
-      <c r="W65" s="284"/>
-      <c r="X65" s="294"/>
-      <c r="Y65" s="206"/>
-      <c r="Z65" s="207"/>
+      <c r="Z65" s="205"/>
     </row>
     <row r="66" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A66" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B66" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="C66" s="121" t="s">
-        <v>182</v>
-      </c>
-      <c r="D66" s="121"/>
-      <c r="E66" s="121"/>
-      <c r="F66" s="121"/>
-      <c r="G66" s="122"/>
-      <c r="H66" s="227"/>
-      <c r="I66" s="228"/>
-      <c r="J66" s="228"/>
-      <c r="K66" s="228"/>
-      <c r="L66" s="228"/>
-      <c r="M66" s="228"/>
-      <c r="N66" s="228"/>
-      <c r="O66" s="228"/>
-      <c r="P66" s="228"/>
-      <c r="Q66" s="228"/>
-      <c r="R66" s="229"/>
-      <c r="S66" s="295"/>
-      <c r="T66" s="296"/>
-      <c r="U66" s="296"/>
-      <c r="V66" s="296"/>
-      <c r="W66" s="296"/>
-      <c r="X66" s="294"/>
+      <c r="A66" s="210"/>
+      <c r="B66" s="162"/>
+      <c r="C66" s="177"/>
+      <c r="D66" s="177"/>
+      <c r="E66" s="177"/>
+      <c r="F66" s="177"/>
+      <c r="G66" s="178"/>
+      <c r="H66" s="171" t="s">
+        <v>68</v>
+      </c>
+      <c r="I66" s="172"/>
+      <c r="J66" s="172"/>
+      <c r="K66" s="172"/>
+      <c r="L66" s="172"/>
+      <c r="M66" s="172"/>
+      <c r="N66" s="172"/>
+      <c r="O66" s="172"/>
+      <c r="P66" s="172"/>
+      <c r="Q66" s="172"/>
+      <c r="R66" s="173"/>
+      <c r="S66" s="167" t="s">
+        <v>69</v>
+      </c>
+      <c r="T66" s="168"/>
+      <c r="U66" s="168"/>
+      <c r="V66" s="168"/>
+      <c r="W66" s="168"/>
+      <c r="X66" s="169"/>
       <c r="Y66" s="206"/>
       <c r="Z66" s="207"/>
     </row>
     <row r="67" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A67" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="B67" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C67" s="121" t="s">
-        <v>207</v>
-      </c>
-      <c r="D67" s="121"/>
-      <c r="E67" s="121"/>
-      <c r="F67" s="121"/>
-      <c r="G67" s="122"/>
-      <c r="H67" s="227"/>
-      <c r="I67" s="228"/>
-      <c r="J67" s="228"/>
-      <c r="K67" s="228"/>
-      <c r="L67" s="228"/>
-      <c r="M67" s="228"/>
-      <c r="N67" s="228"/>
-      <c r="O67" s="228"/>
-      <c r="P67" s="228"/>
-      <c r="Q67" s="228"/>
-      <c r="R67" s="229"/>
-      <c r="S67" s="295"/>
-      <c r="T67" s="296"/>
-      <c r="U67" s="296"/>
-      <c r="V67" s="296"/>
-      <c r="W67" s="296"/>
-      <c r="X67" s="294"/>
+      <c r="A67" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67" s="163" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" s="179" t="s">
+        <v>134</v>
+      </c>
+      <c r="D67" s="179"/>
+      <c r="E67" s="179"/>
+      <c r="F67" s="179"/>
+      <c r="G67" s="180"/>
+      <c r="H67" s="171"/>
+      <c r="I67" s="172"/>
+      <c r="J67" s="172"/>
+      <c r="K67" s="172"/>
+      <c r="L67" s="172"/>
+      <c r="M67" s="172"/>
+      <c r="N67" s="172"/>
+      <c r="O67" s="172"/>
+      <c r="P67" s="172"/>
+      <c r="Q67" s="172"/>
+      <c r="R67" s="173"/>
+      <c r="S67" s="170"/>
+      <c r="T67" s="168"/>
+      <c r="U67" s="168"/>
+      <c r="V67" s="168"/>
+      <c r="W67" s="168"/>
+      <c r="X67" s="169"/>
       <c r="Y67" s="206"/>
       <c r="Z67" s="207"/>
     </row>
     <row r="68" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A68" s="98"/>
-      <c r="B68" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C68" s="183"/>
-      <c r="D68" s="183"/>
-      <c r="E68" s="183"/>
-      <c r="F68" s="183"/>
-      <c r="G68" s="184"/>
-      <c r="H68" s="227"/>
-      <c r="I68" s="228"/>
-      <c r="J68" s="228"/>
-      <c r="K68" s="228"/>
-      <c r="L68" s="228"/>
-      <c r="M68" s="228"/>
-      <c r="N68" s="228"/>
-      <c r="O68" s="228"/>
-      <c r="P68" s="228"/>
-      <c r="Q68" s="228"/>
-      <c r="R68" s="229"/>
-      <c r="S68" s="295"/>
-      <c r="T68" s="296"/>
-      <c r="U68" s="296"/>
-      <c r="V68" s="296"/>
-      <c r="W68" s="296"/>
-      <c r="X68" s="294"/>
+      <c r="A68" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B68" s="164"/>
+      <c r="C68" s="181"/>
+      <c r="D68" s="181"/>
+      <c r="E68" s="181"/>
+      <c r="F68" s="181"/>
+      <c r="G68" s="182"/>
+      <c r="H68" s="171"/>
+      <c r="I68" s="172"/>
+      <c r="J68" s="172"/>
+      <c r="K68" s="172"/>
+      <c r="L68" s="172"/>
+      <c r="M68" s="172"/>
+      <c r="N68" s="172"/>
+      <c r="O68" s="172"/>
+      <c r="P68" s="172"/>
+      <c r="Q68" s="172"/>
+      <c r="R68" s="173"/>
+      <c r="S68" s="170"/>
+      <c r="T68" s="168"/>
+      <c r="U68" s="168"/>
+      <c r="V68" s="168"/>
+      <c r="W68" s="168"/>
+      <c r="X68" s="169"/>
       <c r="Y68" s="208"/>
       <c r="Z68" s="209"/>
     </row>
     <row r="69" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A69" s="99" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B69" s="114" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C69" s="115"/>
       <c r="D69" s="115"/>
@@ -6948,26 +6946,26 @@
       <c r="F69" s="115"/>
       <c r="G69" s="116"/>
       <c r="H69" s="119" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="I69" s="146"/>
       <c r="J69" s="146"/>
       <c r="K69" s="146"/>
       <c r="L69" s="146"/>
-      <c r="M69" s="146"/>
-      <c r="N69" s="146"/>
-      <c r="O69" s="146"/>
-      <c r="P69" s="146"/>
-      <c r="Q69" s="146"/>
-      <c r="R69" s="120"/>
-      <c r="S69" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="T69" s="63"/>
-      <c r="U69" s="63"/>
-      <c r="V69" s="63"/>
-      <c r="W69" s="63"/>
-      <c r="X69" s="63"/>
+      <c r="M69" s="239"/>
+      <c r="N69" s="240"/>
+      <c r="O69" s="240"/>
+      <c r="P69" s="240"/>
+      <c r="Q69" s="240"/>
+      <c r="R69" s="241"/>
+      <c r="S69" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="T69" s="115"/>
+      <c r="U69" s="115"/>
+      <c r="V69" s="115"/>
+      <c r="W69" s="115"/>
+      <c r="X69" s="150"/>
       <c r="Y69" s="114" t="s">
         <v>44</v>
       </c>
@@ -6975,39 +6973,37 @@
     </row>
     <row r="70" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A70" s="210"/>
-      <c r="B70" s="101" t="s">
-        <v>21</v>
-      </c>
-      <c r="C70" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="D70" s="187" t="s">
-        <v>134</v>
-      </c>
-      <c r="E70" s="187"/>
-      <c r="F70" s="187"/>
-      <c r="G70" s="188"/>
+      <c r="B70" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" s="352" t="s">
+        <v>151</v>
+      </c>
+      <c r="D70" s="352"/>
+      <c r="E70" s="352"/>
+      <c r="F70" s="352"/>
+      <c r="G70" s="353"/>
       <c r="H70" s="123" t="s">
-        <v>55</v>
-      </c>
-      <c r="I70" s="124"/>
-      <c r="J70" s="124"/>
-      <c r="K70" s="124"/>
-      <c r="L70" s="124"/>
-      <c r="M70" s="124"/>
-      <c r="N70" s="124"/>
-      <c r="O70" s="124"/>
-      <c r="P70" s="124"/>
-      <c r="Q70" s="124"/>
-      <c r="R70" s="125"/>
-      <c r="S70" s="308" t="s">
-        <v>56</v>
-      </c>
-      <c r="T70" s="309"/>
-      <c r="U70" s="309"/>
-      <c r="V70" s="309"/>
-      <c r="W70" s="309"/>
-      <c r="X70" s="310"/>
+        <v>72</v>
+      </c>
+      <c r="I70" s="234"/>
+      <c r="J70" s="234"/>
+      <c r="K70" s="234"/>
+      <c r="L70" s="234"/>
+      <c r="M70" s="234"/>
+      <c r="N70" s="234"/>
+      <c r="O70" s="234"/>
+      <c r="P70" s="234"/>
+      <c r="Q70" s="234"/>
+      <c r="R70" s="234"/>
+      <c r="S70" s="236" t="s">
+        <v>46</v>
+      </c>
+      <c r="T70" s="237"/>
+      <c r="U70" s="237"/>
+      <c r="V70" s="237"/>
+      <c r="W70" s="237"/>
+      <c r="X70" s="238"/>
       <c r="Y70" s="204" t="s">
         <v>141</v>
       </c>
@@ -7015,295 +7011,263 @@
     </row>
     <row r="71" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A71" s="210"/>
-      <c r="B71" s="102"/>
-      <c r="C71" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="D71" s="189" t="s">
-        <v>166</v>
-      </c>
-      <c r="E71" s="189" t="s">
-        <v>162</v>
-      </c>
-      <c r="F71" s="189" t="s">
-        <v>162</v>
-      </c>
-      <c r="G71" s="190" t="s">
-        <v>162</v>
-      </c>
-      <c r="H71" s="215" t="s">
-        <v>57</v>
-      </c>
-      <c r="I71" s="216"/>
-      <c r="J71" s="216"/>
-      <c r="K71" s="216"/>
-      <c r="L71" s="216"/>
-      <c r="M71" s="216"/>
-      <c r="N71" s="216"/>
-      <c r="O71" s="216"/>
-      <c r="P71" s="216"/>
-      <c r="Q71" s="216"/>
-      <c r="R71" s="217"/>
-      <c r="S71" s="218"/>
-      <c r="T71" s="219"/>
-      <c r="U71" s="219"/>
-      <c r="V71" s="219"/>
-      <c r="W71" s="219"/>
-      <c r="X71" s="220"/>
-      <c r="Y71" s="206"/>
-      <c r="Z71" s="207"/>
+      <c r="B71" s="83"/>
+      <c r="C71" s="354"/>
+      <c r="D71" s="354"/>
+      <c r="E71" s="354"/>
+      <c r="F71" s="354"/>
+      <c r="G71" s="355"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
+      <c r="L71" s="36"/>
+      <c r="M71" s="36"/>
+      <c r="N71" s="36"/>
+      <c r="O71" s="36"/>
+      <c r="P71" s="36"/>
+      <c r="Q71" s="36"/>
+      <c r="R71" s="36"/>
+      <c r="S71" s="34"/>
+      <c r="T71" s="37"/>
+      <c r="U71" s="37"/>
+      <c r="V71" s="37"/>
+      <c r="W71" s="37"/>
+      <c r="X71" s="38"/>
+      <c r="Y71" s="39"/>
+      <c r="Z71" s="40"/>
     </row>
     <row r="72" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A72" s="210"/>
-      <c r="B72" s="102"/>
-      <c r="C72" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="D72" s="189" t="s">
-        <v>167</v>
-      </c>
-      <c r="E72" s="189" t="s">
-        <v>162</v>
-      </c>
-      <c r="F72" s="189" t="s">
-        <v>162</v>
-      </c>
-      <c r="G72" s="190" t="s">
-        <v>162</v>
-      </c>
-      <c r="H72" s="215" t="s">
-        <v>59</v>
-      </c>
-      <c r="I72" s="216"/>
-      <c r="J72" s="216"/>
-      <c r="K72" s="216"/>
-      <c r="L72" s="216"/>
-      <c r="M72" s="216"/>
-      <c r="N72" s="216"/>
-      <c r="O72" s="216"/>
-      <c r="P72" s="216"/>
-      <c r="Q72" s="216"/>
-      <c r="R72" s="217"/>
-      <c r="S72" s="218"/>
-      <c r="T72" s="219"/>
-      <c r="U72" s="219"/>
-      <c r="V72" s="219"/>
-      <c r="W72" s="219"/>
-      <c r="X72" s="220"/>
+      <c r="B72" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C72" s="242" t="s">
+        <v>129</v>
+      </c>
+      <c r="D72" s="242"/>
+      <c r="E72" s="242"/>
+      <c r="F72" s="242"/>
+      <c r="G72" s="243"/>
+      <c r="H72" s="227" t="s">
+        <v>73</v>
+      </c>
+      <c r="I72" s="172"/>
+      <c r="J72" s="172"/>
+      <c r="K72" s="172"/>
+      <c r="L72" s="172"/>
+      <c r="M72" s="172"/>
+      <c r="N72" s="172"/>
+      <c r="O72" s="172"/>
+      <c r="P72" s="172"/>
+      <c r="Q72" s="172"/>
+      <c r="R72" s="173"/>
+      <c r="S72" s="167" t="s">
+        <v>69</v>
+      </c>
+      <c r="T72" s="168"/>
+      <c r="U72" s="168"/>
+      <c r="V72" s="168"/>
+      <c r="W72" s="168"/>
+      <c r="X72" s="169"/>
       <c r="Y72" s="206"/>
       <c r="Z72" s="207"/>
     </row>
     <row r="73" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A73" s="210"/>
-      <c r="B73" s="103"/>
-      <c r="C73" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="D73" s="183" t="s">
-        <v>153</v>
-      </c>
-      <c r="E73" s="183"/>
-      <c r="F73" s="183"/>
-      <c r="G73" s="184"/>
+      <c r="B73" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C73" s="242" t="s">
+        <v>130</v>
+      </c>
+      <c r="D73" s="242"/>
+      <c r="E73" s="242"/>
+      <c r="F73" s="242"/>
+      <c r="G73" s="243"/>
       <c r="H73" s="227" t="s">
-        <v>61</v>
-      </c>
-      <c r="I73" s="228"/>
-      <c r="J73" s="228"/>
-      <c r="K73" s="228"/>
-      <c r="L73" s="228"/>
-      <c r="M73" s="228"/>
-      <c r="N73" s="228"/>
-      <c r="O73" s="228"/>
-      <c r="P73" s="228"/>
-      <c r="Q73" s="228"/>
-      <c r="R73" s="229"/>
-      <c r="S73" s="218"/>
-      <c r="T73" s="219"/>
-      <c r="U73" s="219"/>
-      <c r="V73" s="219"/>
-      <c r="W73" s="219"/>
-      <c r="X73" s="220"/>
+        <v>168</v>
+      </c>
+      <c r="I73" s="172"/>
+      <c r="J73" s="172"/>
+      <c r="K73" s="172"/>
+      <c r="L73" s="172"/>
+      <c r="M73" s="172"/>
+      <c r="N73" s="172"/>
+      <c r="O73" s="172"/>
+      <c r="P73" s="172"/>
+      <c r="Q73" s="172"/>
+      <c r="R73" s="173"/>
+      <c r="S73" s="170"/>
+      <c r="T73" s="168"/>
+      <c r="U73" s="168"/>
+      <c r="V73" s="168"/>
+      <c r="W73" s="168"/>
+      <c r="X73" s="169"/>
       <c r="Y73" s="206"/>
       <c r="Z73" s="207"/>
     </row>
     <row r="74" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A74" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B74" s="101" t="s">
-        <v>58</v>
-      </c>
-      <c r="C74" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="D74" s="185" t="s">
-        <v>142</v>
-      </c>
-      <c r="E74" s="185"/>
-      <c r="F74" s="185"/>
-      <c r="G74" s="186"/>
+      <c r="A74" s="210"/>
+      <c r="B74" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C74" s="248" t="s">
+        <v>211</v>
+      </c>
+      <c r="D74" s="248"/>
+      <c r="E74" s="248"/>
+      <c r="F74" s="248"/>
+      <c r="G74" s="249"/>
       <c r="H74" s="227" t="s">
-        <v>169</v>
-      </c>
-      <c r="I74" s="172"/>
-      <c r="J74" s="172"/>
-      <c r="K74" s="172"/>
-      <c r="L74" s="172"/>
-      <c r="M74" s="172"/>
-      <c r="N74" s="172"/>
-      <c r="O74" s="172"/>
-      <c r="P74" s="172"/>
-      <c r="Q74" s="172"/>
-      <c r="R74" s="173"/>
-      <c r="S74" s="221"/>
-      <c r="T74" s="222"/>
-      <c r="U74" s="222"/>
-      <c r="V74" s="222"/>
-      <c r="W74" s="222"/>
-      <c r="X74" s="223"/>
+        <v>74</v>
+      </c>
+      <c r="I74" s="244"/>
+      <c r="J74" s="244"/>
+      <c r="K74" s="244"/>
+      <c r="L74" s="244"/>
+      <c r="M74" s="244"/>
+      <c r="N74" s="244"/>
+      <c r="O74" s="244"/>
+      <c r="P74" s="244"/>
+      <c r="Q74" s="244"/>
+      <c r="R74" s="245"/>
+      <c r="S74" s="170"/>
+      <c r="T74" s="168"/>
+      <c r="U74" s="168"/>
+      <c r="V74" s="168"/>
+      <c r="W74" s="168"/>
+      <c r="X74" s="169"/>
       <c r="Y74" s="206"/>
       <c r="Z74" s="207"/>
     </row>
     <row r="75" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A75" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="B75" s="102"/>
-      <c r="C75" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="D75" s="121" t="s">
-        <v>127</v>
-      </c>
-      <c r="E75" s="121"/>
-      <c r="F75" s="121"/>
-      <c r="G75" s="122"/>
-      <c r="H75" s="230" t="s">
-        <v>62</v>
-      </c>
-      <c r="I75" s="231"/>
-      <c r="J75" s="231"/>
-      <c r="K75" s="231"/>
-      <c r="L75" s="231"/>
-      <c r="M75" s="231"/>
-      <c r="N75" s="231"/>
-      <c r="O75" s="231"/>
-      <c r="P75" s="231"/>
-      <c r="Q75" s="231"/>
-      <c r="R75" s="232"/>
-      <c r="S75" s="221"/>
-      <c r="T75" s="222"/>
-      <c r="U75" s="222"/>
-      <c r="V75" s="222"/>
-      <c r="W75" s="222"/>
-      <c r="X75" s="223"/>
+      <c r="A75" s="210"/>
+      <c r="B75" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C75" s="242"/>
+      <c r="D75" s="242"/>
+      <c r="E75" s="242"/>
+      <c r="F75" s="242"/>
+      <c r="G75" s="243"/>
+      <c r="H75" s="227" t="s">
+        <v>75</v>
+      </c>
+      <c r="I75" s="246"/>
+      <c r="J75" s="246"/>
+      <c r="K75" s="246"/>
+      <c r="L75" s="246"/>
+      <c r="M75" s="246"/>
+      <c r="N75" s="246"/>
+      <c r="O75" s="246"/>
+      <c r="P75" s="246"/>
+      <c r="Q75" s="246"/>
+      <c r="R75" s="247"/>
+      <c r="S75" s="170"/>
+      <c r="T75" s="250"/>
+      <c r="U75" s="250"/>
+      <c r="V75" s="250"/>
+      <c r="W75" s="250"/>
+      <c r="X75" s="169"/>
       <c r="Y75" s="206"/>
       <c r="Z75" s="207"/>
     </row>
     <row r="76" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A76" s="97"/>
-      <c r="B76" s="102"/>
-      <c r="C76" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="D76" s="189" t="s">
-        <v>166</v>
-      </c>
-      <c r="E76" s="189" t="s">
-        <v>162</v>
-      </c>
-      <c r="F76" s="189" t="s">
-        <v>162</v>
-      </c>
-      <c r="G76" s="190" t="s">
-        <v>162</v>
-      </c>
-      <c r="H76" s="16"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="19"/>
-      <c r="K76" s="19"/>
-      <c r="L76" s="19"/>
-      <c r="M76" s="19"/>
-      <c r="N76" s="19"/>
-      <c r="O76" s="19"/>
-      <c r="P76" s="19"/>
-      <c r="Q76" s="19"/>
-      <c r="R76" s="20"/>
-      <c r="S76" s="221"/>
-      <c r="T76" s="222"/>
-      <c r="U76" s="222"/>
-      <c r="V76" s="222"/>
-      <c r="W76" s="222"/>
-      <c r="X76" s="223"/>
+      <c r="A76" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76" s="242"/>
+      <c r="D76" s="242"/>
+      <c r="E76" s="242"/>
+      <c r="F76" s="242"/>
+      <c r="G76" s="243"/>
+      <c r="H76" s="227" t="s">
+        <v>76</v>
+      </c>
+      <c r="I76" s="172"/>
+      <c r="J76" s="172"/>
+      <c r="K76" s="172"/>
+      <c r="L76" s="172"/>
+      <c r="M76" s="172"/>
+      <c r="N76" s="172"/>
+      <c r="O76" s="172"/>
+      <c r="P76" s="172"/>
+      <c r="Q76" s="172"/>
+      <c r="R76" s="173"/>
+      <c r="S76" s="170"/>
+      <c r="T76" s="250"/>
+      <c r="U76" s="250"/>
+      <c r="V76" s="250"/>
+      <c r="W76" s="250"/>
+      <c r="X76" s="169"/>
       <c r="Y76" s="206"/>
       <c r="Z76" s="207"/>
     </row>
     <row r="77" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A77" s="98"/>
-      <c r="B77" s="103"/>
-      <c r="C77" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="D77" s="189" t="s">
-        <v>167</v>
-      </c>
-      <c r="E77" s="189" t="s">
-        <v>162</v>
-      </c>
-      <c r="F77" s="189" t="s">
-        <v>162</v>
-      </c>
-      <c r="G77" s="190" t="s">
-        <v>162</v>
-      </c>
-      <c r="H77" s="230"/>
-      <c r="I77" s="231"/>
-      <c r="J77" s="231"/>
-      <c r="K77" s="231"/>
-      <c r="L77" s="231"/>
-      <c r="M77" s="231"/>
-      <c r="N77" s="231"/>
-      <c r="O77" s="231"/>
-      <c r="P77" s="231"/>
-      <c r="Q77" s="231"/>
-      <c r="R77" s="232"/>
-      <c r="S77" s="224"/>
-      <c r="T77" s="225"/>
-      <c r="U77" s="225"/>
-      <c r="V77" s="225"/>
-      <c r="W77" s="225"/>
-      <c r="X77" s="226"/>
+      <c r="A77" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77" s="242"/>
+      <c r="D77" s="242"/>
+      <c r="E77" s="242"/>
+      <c r="F77" s="242"/>
+      <c r="G77" s="243"/>
+      <c r="H77" s="227" t="s">
+        <v>77</v>
+      </c>
+      <c r="I77" s="172"/>
+      <c r="J77" s="172"/>
+      <c r="K77" s="172"/>
+      <c r="L77" s="172"/>
+      <c r="M77" s="172"/>
+      <c r="N77" s="172"/>
+      <c r="O77" s="172"/>
+      <c r="P77" s="172"/>
+      <c r="Q77" s="172"/>
+      <c r="R77" s="173"/>
+      <c r="S77" s="251"/>
+      <c r="T77" s="252"/>
+      <c r="U77" s="252"/>
+      <c r="V77" s="252"/>
+      <c r="W77" s="252"/>
+      <c r="X77" s="253"/>
       <c r="Y77" s="208"/>
       <c r="Z77" s="209"/>
     </row>
     <row r="78" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A78" s="99" t="s">
-        <v>63</v>
+      <c r="A78" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="B78" s="114" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C78" s="115"/>
       <c r="D78" s="115"/>
       <c r="E78" s="115"/>
       <c r="F78" s="115"/>
       <c r="G78" s="116"/>
-      <c r="H78" s="211" t="s">
-        <v>65</v>
-      </c>
-      <c r="I78" s="212"/>
-      <c r="J78" s="212"/>
-      <c r="K78" s="212"/>
-      <c r="L78" s="212"/>
-      <c r="M78" s="212"/>
-      <c r="N78" s="213"/>
-      <c r="O78" s="213"/>
-      <c r="P78" s="213"/>
-      <c r="Q78" s="213"/>
-      <c r="R78" s="214"/>
+      <c r="H78" s="119" t="s">
+        <v>80</v>
+      </c>
+      <c r="I78" s="146"/>
+      <c r="J78" s="146"/>
+      <c r="K78" s="146"/>
+      <c r="L78" s="146"/>
+      <c r="M78" s="239"/>
+      <c r="N78" s="240"/>
+      <c r="O78" s="240"/>
+      <c r="P78" s="240"/>
+      <c r="Q78" s="240"/>
+      <c r="R78" s="241"/>
       <c r="S78" s="114" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="T78" s="115"/>
       <c r="U78" s="115"/>
@@ -7316,53 +7280,59 @@
       <c r="Z78" s="116"/>
     </row>
     <row r="79" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A79" s="210"/>
-      <c r="B79" s="161" t="s">
-        <v>123</v>
-      </c>
-      <c r="C79" s="174" t="s">
-        <v>132</v>
-      </c>
-      <c r="D79" s="174"/>
-      <c r="E79" s="175"/>
-      <c r="F79" s="175"/>
-      <c r="G79" s="176"/>
-      <c r="H79" s="233" t="s">
-        <v>67</v>
-      </c>
-      <c r="I79" s="234"/>
-      <c r="J79" s="234"/>
-      <c r="K79" s="234"/>
-      <c r="L79" s="234"/>
-      <c r="M79" s="234"/>
-      <c r="N79" s="234"/>
-      <c r="O79" s="234"/>
-      <c r="P79" s="234"/>
-      <c r="Q79" s="234"/>
-      <c r="R79" s="235"/>
-      <c r="S79" s="236" t="s">
+      <c r="A79" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C79" s="259" t="s">
+        <v>131</v>
+      </c>
+      <c r="D79" s="259"/>
+      <c r="E79" s="259"/>
+      <c r="F79" s="259"/>
+      <c r="G79" s="260"/>
+      <c r="H79" s="227" t="s">
+        <v>83</v>
+      </c>
+      <c r="I79" s="172"/>
+      <c r="J79" s="172"/>
+      <c r="K79" s="172"/>
+      <c r="L79" s="172"/>
+      <c r="M79" s="172"/>
+      <c r="N79" s="172"/>
+      <c r="O79" s="172"/>
+      <c r="P79" s="172"/>
+      <c r="Q79" s="172"/>
+      <c r="R79" s="172"/>
+      <c r="S79" s="254" t="s">
         <v>46</v>
       </c>
-      <c r="T79" s="237"/>
-      <c r="U79" s="237"/>
-      <c r="V79" s="237"/>
-      <c r="W79" s="237"/>
-      <c r="X79" s="238"/>
+      <c r="T79" s="255"/>
+      <c r="U79" s="255"/>
+      <c r="V79" s="255"/>
+      <c r="W79" s="255"/>
+      <c r="X79" s="256"/>
       <c r="Y79" s="204" t="s">
         <v>141</v>
       </c>
       <c r="Z79" s="205"/>
     </row>
     <row r="80" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A80" s="210"/>
-      <c r="B80" s="162"/>
-      <c r="C80" s="177"/>
-      <c r="D80" s="177"/>
-      <c r="E80" s="177"/>
-      <c r="F80" s="177"/>
-      <c r="G80" s="178"/>
-      <c r="H80" s="171" t="s">
-        <v>68</v>
+      <c r="A80" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80" s="261"/>
+      <c r="D80" s="261"/>
+      <c r="E80" s="261"/>
+      <c r="F80" s="261"/>
+      <c r="G80" s="262"/>
+      <c r="H80" s="227" t="s">
+        <v>84</v>
       </c>
       <c r="I80" s="172"/>
       <c r="J80" s="172"/>
@@ -7386,20 +7356,20 @@
       <c r="Z80" s="207"/>
     </row>
     <row r="81" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A81" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B81" s="163" t="s">
-        <v>133</v>
-      </c>
-      <c r="C81" s="179" t="s">
-        <v>134</v>
-      </c>
-      <c r="D81" s="179"/>
-      <c r="E81" s="179"/>
-      <c r="F81" s="179"/>
-      <c r="G81" s="180"/>
-      <c r="H81" s="171"/>
+      <c r="A81" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C81" s="261"/>
+      <c r="D81" s="261"/>
+      <c r="E81" s="261"/>
+      <c r="F81" s="261"/>
+      <c r="G81" s="262"/>
+      <c r="H81" s="227" t="s">
+        <v>85</v>
+      </c>
       <c r="I81" s="172"/>
       <c r="J81" s="172"/>
       <c r="K81" s="172"/>
@@ -7420,41 +7390,41 @@
       <c r="Z81" s="207"/>
     </row>
     <row r="82" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A82" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B82" s="164"/>
-      <c r="C82" s="181"/>
-      <c r="D82" s="181"/>
-      <c r="E82" s="181"/>
-      <c r="F82" s="181"/>
-      <c r="G82" s="182"/>
-      <c r="H82" s="171"/>
-      <c r="I82" s="172"/>
-      <c r="J82" s="172"/>
-      <c r="K82" s="172"/>
-      <c r="L82" s="172"/>
-      <c r="M82" s="172"/>
-      <c r="N82" s="172"/>
-      <c r="O82" s="172"/>
-      <c r="P82" s="172"/>
-      <c r="Q82" s="172"/>
-      <c r="R82" s="173"/>
-      <c r="S82" s="170"/>
-      <c r="T82" s="168"/>
-      <c r="U82" s="168"/>
-      <c r="V82" s="168"/>
-      <c r="W82" s="168"/>
-      <c r="X82" s="169"/>
+      <c r="A82" s="98"/>
+      <c r="B82" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C82" s="263"/>
+      <c r="D82" s="263"/>
+      <c r="E82" s="263"/>
+      <c r="F82" s="263"/>
+      <c r="G82" s="264"/>
+      <c r="H82" s="230"/>
+      <c r="I82" s="257"/>
+      <c r="J82" s="257"/>
+      <c r="K82" s="257"/>
+      <c r="L82" s="257"/>
+      <c r="M82" s="257"/>
+      <c r="N82" s="257"/>
+      <c r="O82" s="257"/>
+      <c r="P82" s="257"/>
+      <c r="Q82" s="257"/>
+      <c r="R82" s="258"/>
+      <c r="S82" s="251"/>
+      <c r="T82" s="252"/>
+      <c r="U82" s="252"/>
+      <c r="V82" s="252"/>
+      <c r="W82" s="252"/>
+      <c r="X82" s="253"/>
       <c r="Y82" s="208"/>
       <c r="Z82" s="209"/>
     </row>
     <row r="83" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A83" s="99" t="s">
-        <v>70</v>
+      <c r="A83" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="B83" s="114" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C83" s="115"/>
       <c r="D83" s="115"/>
@@ -7468,12 +7438,12 @@
       <c r="J83" s="146"/>
       <c r="K83" s="146"/>
       <c r="L83" s="146"/>
-      <c r="M83" s="239"/>
-      <c r="N83" s="240"/>
-      <c r="O83" s="240"/>
-      <c r="P83" s="240"/>
-      <c r="Q83" s="240"/>
-      <c r="R83" s="241"/>
+      <c r="M83" s="146"/>
+      <c r="N83" s="146"/>
+      <c r="O83" s="146"/>
+      <c r="P83" s="146"/>
+      <c r="Q83" s="146"/>
+      <c r="R83" s="120"/>
       <c r="S83" s="114" t="s">
         <v>43</v>
       </c>
@@ -7488,30 +7458,34 @@
       <c r="Z83" s="116"/>
     </row>
     <row r="84" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A84" s="210"/>
-      <c r="B84" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="C84" s="352" t="s">
-        <v>151</v>
-      </c>
-      <c r="D84" s="352"/>
-      <c r="E84" s="352"/>
-      <c r="F84" s="352"/>
-      <c r="G84" s="353"/>
+      <c r="A84" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" s="265" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D84" s="266" t="s">
+        <v>124</v>
+      </c>
+      <c r="E84" s="266"/>
+      <c r="F84" s="266"/>
+      <c r="G84" s="267"/>
       <c r="H84" s="123" t="s">
-        <v>72</v>
-      </c>
-      <c r="I84" s="234"/>
-      <c r="J84" s="234"/>
-      <c r="K84" s="234"/>
-      <c r="L84" s="234"/>
-      <c r="M84" s="234"/>
-      <c r="N84" s="234"/>
-      <c r="O84" s="234"/>
-      <c r="P84" s="234"/>
-      <c r="Q84" s="234"/>
-      <c r="R84" s="234"/>
+        <v>89</v>
+      </c>
+      <c r="I84" s="124"/>
+      <c r="J84" s="124"/>
+      <c r="K84" s="124"/>
+      <c r="L84" s="124"/>
+      <c r="M84" s="124"/>
+      <c r="N84" s="124"/>
+      <c r="O84" s="124"/>
+      <c r="P84" s="124"/>
+      <c r="Q84" s="124"/>
+      <c r="R84" s="125"/>
       <c r="S84" s="236" t="s">
         <v>46</v>
       </c>
@@ -7526,48 +7500,58 @@
       <c r="Z84" s="205"/>
     </row>
     <row r="85" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A85" s="210"/>
-      <c r="B85" s="83"/>
-      <c r="C85" s="354"/>
-      <c r="D85" s="354"/>
-      <c r="E85" s="354"/>
-      <c r="F85" s="354"/>
-      <c r="G85" s="355"/>
-      <c r="H85" s="35"/>
-      <c r="I85" s="36"/>
-      <c r="J85" s="36"/>
-      <c r="K85" s="36"/>
-      <c r="L85" s="36"/>
-      <c r="M85" s="36"/>
-      <c r="N85" s="36"/>
-      <c r="O85" s="36"/>
-      <c r="P85" s="36"/>
-      <c r="Q85" s="36"/>
-      <c r="R85" s="36"/>
-      <c r="S85" s="34"/>
-      <c r="T85" s="37"/>
-      <c r="U85" s="37"/>
-      <c r="V85" s="37"/>
-      <c r="W85" s="37"/>
-      <c r="X85" s="38"/>
-      <c r="Y85" s="39"/>
-      <c r="Z85" s="40"/>
+      <c r="A85" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" s="265"/>
+      <c r="C85" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D85" s="268" t="s">
+        <v>143</v>
+      </c>
+      <c r="E85" s="268"/>
+      <c r="F85" s="268"/>
+      <c r="G85" s="269"/>
+      <c r="H85" s="227" t="s">
+        <v>91</v>
+      </c>
+      <c r="I85" s="172"/>
+      <c r="J85" s="172"/>
+      <c r="K85" s="172"/>
+      <c r="L85" s="172"/>
+      <c r="M85" s="172"/>
+      <c r="N85" s="172"/>
+      <c r="O85" s="172"/>
+      <c r="P85" s="172"/>
+      <c r="Q85" s="172"/>
+      <c r="R85" s="173"/>
+      <c r="S85" s="283" t="s">
+        <v>48</v>
+      </c>
+      <c r="T85" s="284"/>
+      <c r="U85" s="284"/>
+      <c r="V85" s="284"/>
+      <c r="W85" s="284"/>
+      <c r="X85" s="285"/>
+      <c r="Y85" s="206"/>
+      <c r="Z85" s="207"/>
     </row>
     <row r="86" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A86" s="210"/>
-      <c r="B86" s="21" t="s">
+      <c r="A86" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B86" s="265"/>
+      <c r="C86" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C86" s="242" t="s">
-        <v>129</v>
-      </c>
-      <c r="D86" s="242"/>
-      <c r="E86" s="242"/>
-      <c r="F86" s="242"/>
-      <c r="G86" s="243"/>
-      <c r="H86" s="227" t="s">
-        <v>73</v>
-      </c>
+      <c r="D86" s="270" t="s">
+        <v>125</v>
+      </c>
+      <c r="E86" s="270"/>
+      <c r="F86" s="270"/>
+      <c r="G86" s="271"/>
+      <c r="H86" s="227"/>
       <c r="I86" s="172"/>
       <c r="J86" s="172"/>
       <c r="K86" s="172"/>
@@ -7578,1091 +7562,591 @@
       <c r="P86" s="172"/>
       <c r="Q86" s="172"/>
       <c r="R86" s="173"/>
-      <c r="S86" s="167" t="s">
-        <v>69</v>
-      </c>
-      <c r="T86" s="168"/>
-      <c r="U86" s="168"/>
-      <c r="V86" s="168"/>
-      <c r="W86" s="168"/>
-      <c r="X86" s="169"/>
+      <c r="S86" s="286"/>
+      <c r="T86" s="287"/>
+      <c r="U86" s="287"/>
+      <c r="V86" s="287"/>
+      <c r="W86" s="287"/>
+      <c r="X86" s="285"/>
       <c r="Y86" s="206"/>
       <c r="Z86" s="207"/>
     </row>
     <row r="87" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A87" s="210"/>
-      <c r="B87" s="21" t="s">
+      <c r="A87" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="B87" s="288" t="s">
+        <v>58</v>
+      </c>
+      <c r="C87" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C87" s="242" t="s">
-        <v>130</v>
-      </c>
-      <c r="D87" s="242"/>
-      <c r="E87" s="242"/>
-      <c r="F87" s="242"/>
-      <c r="G87" s="243"/>
-      <c r="H87" s="227" t="s">
-        <v>168</v>
-      </c>
-      <c r="I87" s="172"/>
-      <c r="J87" s="172"/>
-      <c r="K87" s="172"/>
-      <c r="L87" s="172"/>
-      <c r="M87" s="172"/>
-      <c r="N87" s="172"/>
-      <c r="O87" s="172"/>
-      <c r="P87" s="172"/>
-      <c r="Q87" s="172"/>
-      <c r="R87" s="173"/>
-      <c r="S87" s="170"/>
-      <c r="T87" s="168"/>
-      <c r="U87" s="168"/>
-      <c r="V87" s="168"/>
-      <c r="W87" s="168"/>
-      <c r="X87" s="169"/>
+      <c r="D87" s="268" t="s">
+        <v>126</v>
+      </c>
+      <c r="E87" s="268"/>
+      <c r="F87" s="268"/>
+      <c r="G87" s="269"/>
+      <c r="H87" s="278"/>
+      <c r="I87" s="278"/>
+      <c r="J87" s="278"/>
+      <c r="K87" s="278"/>
+      <c r="L87" s="278"/>
+      <c r="M87" s="278"/>
+      <c r="N87" s="278"/>
+      <c r="O87" s="278"/>
+      <c r="P87" s="278"/>
+      <c r="Q87" s="278"/>
+      <c r="R87" s="279"/>
+      <c r="S87" s="286"/>
+      <c r="T87" s="287"/>
+      <c r="U87" s="287"/>
+      <c r="V87" s="287"/>
+      <c r="W87" s="287"/>
+      <c r="X87" s="285"/>
       <c r="Y87" s="206"/>
       <c r="Z87" s="207"/>
     </row>
     <row r="88" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A88" s="210"/>
-      <c r="B88" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="C88" s="248" t="s">
-        <v>211</v>
-      </c>
-      <c r="D88" s="248"/>
-      <c r="E88" s="248"/>
-      <c r="F88" s="248"/>
-      <c r="G88" s="249"/>
-      <c r="H88" s="227" t="s">
-        <v>74</v>
-      </c>
-      <c r="I88" s="244"/>
-      <c r="J88" s="244"/>
-      <c r="K88" s="244"/>
-      <c r="L88" s="244"/>
-      <c r="M88" s="244"/>
-      <c r="N88" s="244"/>
-      <c r="O88" s="244"/>
-      <c r="P88" s="244"/>
-      <c r="Q88" s="244"/>
-      <c r="R88" s="245"/>
-      <c r="S88" s="170"/>
-      <c r="T88" s="168"/>
-      <c r="U88" s="168"/>
-      <c r="V88" s="168"/>
-      <c r="W88" s="168"/>
-      <c r="X88" s="169"/>
+      <c r="A88" s="97"/>
+      <c r="B88" s="265"/>
+      <c r="C88" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D88" s="268" t="s">
+        <v>142</v>
+      </c>
+      <c r="E88" s="268"/>
+      <c r="F88" s="268"/>
+      <c r="G88" s="269"/>
+      <c r="H88" s="278"/>
+      <c r="I88" s="278"/>
+      <c r="J88" s="278"/>
+      <c r="K88" s="278"/>
+      <c r="L88" s="278"/>
+      <c r="M88" s="278"/>
+      <c r="N88" s="278"/>
+      <c r="O88" s="278"/>
+      <c r="P88" s="278"/>
+      <c r="Q88" s="278"/>
+      <c r="R88" s="279"/>
+      <c r="S88" s="286"/>
+      <c r="T88" s="287"/>
+      <c r="U88" s="287"/>
+      <c r="V88" s="287"/>
+      <c r="W88" s="287"/>
+      <c r="X88" s="285"/>
       <c r="Y88" s="206"/>
       <c r="Z88" s="207"/>
     </row>
     <row r="89" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A89" s="210"/>
-      <c r="B89" s="21" t="s">
+      <c r="A89" s="97"/>
+      <c r="B89" s="265"/>
+      <c r="C89" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C89" s="242"/>
-      <c r="D89" s="242"/>
-      <c r="E89" s="242"/>
-      <c r="F89" s="242"/>
-      <c r="G89" s="243"/>
-      <c r="H89" s="227" t="s">
-        <v>75</v>
-      </c>
-      <c r="I89" s="246"/>
-      <c r="J89" s="246"/>
-      <c r="K89" s="246"/>
-      <c r="L89" s="246"/>
-      <c r="M89" s="246"/>
-      <c r="N89" s="246"/>
-      <c r="O89" s="246"/>
-      <c r="P89" s="246"/>
-      <c r="Q89" s="246"/>
-      <c r="R89" s="247"/>
-      <c r="S89" s="170"/>
-      <c r="T89" s="250"/>
-      <c r="U89" s="250"/>
-      <c r="V89" s="250"/>
-      <c r="W89" s="250"/>
-      <c r="X89" s="169"/>
+      <c r="D89" s="268" t="s">
+        <v>183</v>
+      </c>
+      <c r="E89" s="268"/>
+      <c r="F89" s="268"/>
+      <c r="G89" s="269"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
+      <c r="R89" s="18"/>
+      <c r="S89" s="286"/>
+      <c r="T89" s="287"/>
+      <c r="U89" s="287"/>
+      <c r="V89" s="287"/>
+      <c r="W89" s="287"/>
+      <c r="X89" s="285"/>
       <c r="Y89" s="206"/>
       <c r="Z89" s="207"/>
     </row>
     <row r="90" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A90" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B90" s="21" t="s">
+      <c r="A90" s="97"/>
+      <c r="B90" s="265"/>
+      <c r="C90" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C90" s="242"/>
-      <c r="D90" s="242"/>
-      <c r="E90" s="242"/>
-      <c r="F90" s="242"/>
-      <c r="G90" s="243"/>
-      <c r="H90" s="227" t="s">
-        <v>76</v>
-      </c>
-      <c r="I90" s="172"/>
-      <c r="J90" s="172"/>
-      <c r="K90" s="172"/>
-      <c r="L90" s="172"/>
-      <c r="M90" s="172"/>
-      <c r="N90" s="172"/>
-      <c r="O90" s="172"/>
-      <c r="P90" s="172"/>
-      <c r="Q90" s="172"/>
-      <c r="R90" s="173"/>
-      <c r="S90" s="170"/>
-      <c r="T90" s="250"/>
-      <c r="U90" s="250"/>
-      <c r="V90" s="250"/>
-      <c r="W90" s="250"/>
-      <c r="X90" s="169"/>
+      <c r="D90" s="268" t="s">
+        <v>184</v>
+      </c>
+      <c r="E90" s="268"/>
+      <c r="F90" s="268"/>
+      <c r="G90" s="269"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
+      <c r="R90" s="18"/>
+      <c r="S90" s="286"/>
+      <c r="T90" s="287"/>
+      <c r="U90" s="287"/>
+      <c r="V90" s="287"/>
+      <c r="W90" s="287"/>
+      <c r="X90" s="285"/>
       <c r="Y90" s="206"/>
       <c r="Z90" s="207"/>
     </row>
     <row r="91" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A91" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B91" s="21" t="s">
+      <c r="A91" s="97"/>
+      <c r="B91" s="265"/>
+      <c r="C91" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C91" s="242"/>
-      <c r="D91" s="242"/>
-      <c r="E91" s="242"/>
-      <c r="F91" s="242"/>
-      <c r="G91" s="243"/>
-      <c r="H91" s="227" t="s">
-        <v>77</v>
-      </c>
-      <c r="I91" s="172"/>
-      <c r="J91" s="172"/>
-      <c r="K91" s="172"/>
-      <c r="L91" s="172"/>
-      <c r="M91" s="172"/>
-      <c r="N91" s="172"/>
-      <c r="O91" s="172"/>
-      <c r="P91" s="172"/>
-      <c r="Q91" s="172"/>
-      <c r="R91" s="173"/>
-      <c r="S91" s="251"/>
-      <c r="T91" s="252"/>
-      <c r="U91" s="252"/>
-      <c r="V91" s="252"/>
-      <c r="W91" s="252"/>
-      <c r="X91" s="253"/>
-      <c r="Y91" s="208"/>
-      <c r="Z91" s="209"/>
+      <c r="D91" s="268" t="s">
+        <v>185</v>
+      </c>
+      <c r="E91" s="268"/>
+      <c r="F91" s="268"/>
+      <c r="G91" s="269"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="17"/>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
+      <c r="R91" s="18"/>
+      <c r="S91" s="286"/>
+      <c r="T91" s="287"/>
+      <c r="U91" s="287"/>
+      <c r="V91" s="287"/>
+      <c r="W91" s="287"/>
+      <c r="X91" s="285"/>
+      <c r="Y91" s="206"/>
+      <c r="Z91" s="207"/>
     </row>
     <row r="92" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A92" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B92" s="114" t="s">
-        <v>79</v>
-      </c>
-      <c r="C92" s="115"/>
-      <c r="D92" s="115"/>
-      <c r="E92" s="115"/>
-      <c r="F92" s="115"/>
-      <c r="G92" s="116"/>
-      <c r="H92" s="119" t="s">
-        <v>80</v>
-      </c>
-      <c r="I92" s="146"/>
-      <c r="J92" s="146"/>
-      <c r="K92" s="146"/>
-      <c r="L92" s="146"/>
-      <c r="M92" s="239"/>
-      <c r="N92" s="240"/>
-      <c r="O92" s="240"/>
-      <c r="P92" s="240"/>
-      <c r="Q92" s="240"/>
-      <c r="R92" s="241"/>
-      <c r="S92" s="114" t="s">
-        <v>81</v>
-      </c>
-      <c r="T92" s="115"/>
-      <c r="U92" s="115"/>
-      <c r="V92" s="115"/>
-      <c r="W92" s="115"/>
-      <c r="X92" s="150"/>
-      <c r="Y92" s="114" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z92" s="116"/>
+      <c r="A92" s="97"/>
+      <c r="B92" s="265"/>
+      <c r="C92" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D92" s="268" t="s">
+        <v>186</v>
+      </c>
+      <c r="E92" s="268"/>
+      <c r="F92" s="268"/>
+      <c r="G92" s="269"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="17"/>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
+      <c r="R92" s="18"/>
+      <c r="S92" s="286"/>
+      <c r="T92" s="287"/>
+      <c r="U92" s="287"/>
+      <c r="V92" s="287"/>
+      <c r="W92" s="287"/>
+      <c r="X92" s="285"/>
+      <c r="Y92" s="206"/>
+      <c r="Z92" s="207"/>
     </row>
     <row r="93" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A93" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B93" s="27" t="s">
+      <c r="A93" s="97"/>
+      <c r="B93" s="265"/>
+      <c r="C93" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C93" s="259" t="s">
-        <v>131</v>
-      </c>
-      <c r="D93" s="259"/>
-      <c r="E93" s="259"/>
-      <c r="F93" s="259"/>
-      <c r="G93" s="260"/>
-      <c r="H93" s="227" t="s">
-        <v>83</v>
-      </c>
-      <c r="I93" s="172"/>
-      <c r="J93" s="172"/>
-      <c r="K93" s="172"/>
-      <c r="L93" s="172"/>
-      <c r="M93" s="172"/>
-      <c r="N93" s="172"/>
-      <c r="O93" s="172"/>
-      <c r="P93" s="172"/>
-      <c r="Q93" s="172"/>
-      <c r="R93" s="172"/>
-      <c r="S93" s="254" t="s">
-        <v>46</v>
-      </c>
-      <c r="T93" s="255"/>
-      <c r="U93" s="255"/>
-      <c r="V93" s="255"/>
-      <c r="W93" s="255"/>
-      <c r="X93" s="256"/>
-      <c r="Y93" s="204" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z93" s="205"/>
+      <c r="D93" s="268" t="s">
+        <v>221</v>
+      </c>
+      <c r="E93" s="268"/>
+      <c r="F93" s="268"/>
+      <c r="G93" s="269"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
+      <c r="R93" s="18"/>
+      <c r="S93" s="286"/>
+      <c r="T93" s="287"/>
+      <c r="U93" s="287"/>
+      <c r="V93" s="287"/>
+      <c r="W93" s="287"/>
+      <c r="X93" s="285"/>
+      <c r="Y93" s="206"/>
+      <c r="Z93" s="207"/>
     </row>
     <row r="94" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A94" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B94" s="21" t="s">
+      <c r="A94" s="97"/>
+      <c r="B94" s="265"/>
+      <c r="C94" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C94" s="261"/>
-      <c r="D94" s="261"/>
-      <c r="E94" s="261"/>
-      <c r="F94" s="261"/>
-      <c r="G94" s="262"/>
-      <c r="H94" s="227" t="s">
-        <v>84</v>
-      </c>
-      <c r="I94" s="172"/>
-      <c r="J94" s="172"/>
-      <c r="K94" s="172"/>
-      <c r="L94" s="172"/>
-      <c r="M94" s="172"/>
-      <c r="N94" s="172"/>
-      <c r="O94" s="172"/>
-      <c r="P94" s="172"/>
-      <c r="Q94" s="172"/>
-      <c r="R94" s="173"/>
-      <c r="S94" s="167" t="s">
-        <v>69</v>
-      </c>
-      <c r="T94" s="168"/>
-      <c r="U94" s="168"/>
-      <c r="V94" s="168"/>
-      <c r="W94" s="168"/>
-      <c r="X94" s="169"/>
+      <c r="D94" s="268" t="s">
+        <v>220</v>
+      </c>
+      <c r="E94" s="268"/>
+      <c r="F94" s="268"/>
+      <c r="G94" s="269"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
+      <c r="R94" s="18"/>
+      <c r="S94" s="286"/>
+      <c r="T94" s="287"/>
+      <c r="U94" s="287"/>
+      <c r="V94" s="287"/>
+      <c r="W94" s="287"/>
+      <c r="X94" s="285"/>
       <c r="Y94" s="206"/>
       <c r="Z94" s="207"/>
     </row>
     <row r="95" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A95" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="B95" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C95" s="261"/>
-      <c r="D95" s="261"/>
-      <c r="E95" s="261"/>
-      <c r="F95" s="261"/>
-      <c r="G95" s="262"/>
-      <c r="H95" s="227" t="s">
-        <v>85</v>
-      </c>
-      <c r="I95" s="172"/>
-      <c r="J95" s="172"/>
-      <c r="K95" s="172"/>
-      <c r="L95" s="172"/>
-      <c r="M95" s="172"/>
-      <c r="N95" s="172"/>
-      <c r="O95" s="172"/>
-      <c r="P95" s="172"/>
-      <c r="Q95" s="172"/>
-      <c r="R95" s="173"/>
-      <c r="S95" s="170"/>
-      <c r="T95" s="168"/>
-      <c r="U95" s="168"/>
-      <c r="V95" s="168"/>
-      <c r="W95" s="168"/>
-      <c r="X95" s="169"/>
+      <c r="A95" s="97"/>
+      <c r="B95" s="265"/>
+      <c r="C95" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D95" s="268" t="s">
+        <v>127</v>
+      </c>
+      <c r="E95" s="268"/>
+      <c r="F95" s="268"/>
+      <c r="G95" s="269"/>
+      <c r="H95" s="278"/>
+      <c r="I95" s="278"/>
+      <c r="J95" s="278"/>
+      <c r="K95" s="278"/>
+      <c r="L95" s="278"/>
+      <c r="M95" s="278"/>
+      <c r="N95" s="278"/>
+      <c r="O95" s="278"/>
+      <c r="P95" s="278"/>
+      <c r="Q95" s="278"/>
+      <c r="R95" s="279"/>
+      <c r="S95" s="286"/>
+      <c r="T95" s="287"/>
+      <c r="U95" s="287"/>
+      <c r="V95" s="287"/>
+      <c r="W95" s="287"/>
+      <c r="X95" s="285"/>
       <c r="Y95" s="206"/>
       <c r="Z95" s="207"/>
     </row>
     <row r="96" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A96" s="98"/>
-      <c r="B96" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C96" s="263"/>
-      <c r="D96" s="263"/>
-      <c r="E96" s="263"/>
-      <c r="F96" s="263"/>
-      <c r="G96" s="264"/>
-      <c r="H96" s="230"/>
-      <c r="I96" s="257"/>
-      <c r="J96" s="257"/>
-      <c r="K96" s="257"/>
-      <c r="L96" s="257"/>
-      <c r="M96" s="257"/>
-      <c r="N96" s="257"/>
-      <c r="O96" s="257"/>
-      <c r="P96" s="257"/>
-      <c r="Q96" s="257"/>
-      <c r="R96" s="258"/>
-      <c r="S96" s="251"/>
-      <c r="T96" s="252"/>
-      <c r="U96" s="252"/>
-      <c r="V96" s="252"/>
-      <c r="W96" s="252"/>
-      <c r="X96" s="253"/>
-      <c r="Y96" s="208"/>
-      <c r="Z96" s="209"/>
+      <c r="A96" s="97"/>
+      <c r="B96" s="265"/>
+      <c r="C96" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="D96" s="268" t="s">
+        <v>188</v>
+      </c>
+      <c r="E96" s="268"/>
+      <c r="F96" s="268"/>
+      <c r="G96" s="269"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="11"/>
+      <c r="N96" s="11"/>
+      <c r="O96" s="11"/>
+      <c r="P96" s="11"/>
+      <c r="Q96" s="11"/>
+      <c r="R96" s="12"/>
+      <c r="S96" s="286"/>
+      <c r="T96" s="287"/>
+      <c r="U96" s="287"/>
+      <c r="V96" s="287"/>
+      <c r="W96" s="287"/>
+      <c r="X96" s="285"/>
+      <c r="Y96" s="206"/>
+      <c r="Z96" s="207"/>
     </row>
     <row r="97" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A97" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B97" s="114" t="s">
-        <v>87</v>
-      </c>
-      <c r="C97" s="115"/>
-      <c r="D97" s="115"/>
-      <c r="E97" s="115"/>
-      <c r="F97" s="115"/>
-      <c r="G97" s="116"/>
-      <c r="H97" s="119" t="s">
-        <v>42</v>
-      </c>
-      <c r="I97" s="146"/>
-      <c r="J97" s="146"/>
-      <c r="K97" s="146"/>
-      <c r="L97" s="146"/>
-      <c r="M97" s="146"/>
-      <c r="N97" s="146"/>
-      <c r="O97" s="146"/>
-      <c r="P97" s="146"/>
-      <c r="Q97" s="146"/>
-      <c r="R97" s="120"/>
-      <c r="S97" s="114" t="s">
-        <v>43</v>
-      </c>
-      <c r="T97" s="115"/>
-      <c r="U97" s="115"/>
-      <c r="V97" s="115"/>
-      <c r="W97" s="115"/>
-      <c r="X97" s="150"/>
-      <c r="Y97" s="114" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z97" s="116"/>
+      <c r="A97" s="97"/>
+      <c r="B97" s="265"/>
+      <c r="C97" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="D97" s="268" t="s">
+        <v>190</v>
+      </c>
+      <c r="E97" s="268"/>
+      <c r="F97" s="268"/>
+      <c r="G97" s="269"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
+      <c r="R97" s="18"/>
+      <c r="S97" s="286"/>
+      <c r="T97" s="287"/>
+      <c r="U97" s="287"/>
+      <c r="V97" s="287"/>
+      <c r="W97" s="287"/>
+      <c r="X97" s="285"/>
+      <c r="Y97" s="206"/>
+      <c r="Z97" s="207"/>
     </row>
     <row r="98" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A98" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B98" s="265" t="s">
-        <v>21</v>
-      </c>
-      <c r="C98" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="D98" s="266" t="s">
-        <v>124</v>
-      </c>
-      <c r="E98" s="266"/>
-      <c r="F98" s="266"/>
-      <c r="G98" s="267"/>
-      <c r="H98" s="123" t="s">
-        <v>89</v>
-      </c>
-      <c r="I98" s="124"/>
-      <c r="J98" s="124"/>
-      <c r="K98" s="124"/>
-      <c r="L98" s="124"/>
-      <c r="M98" s="124"/>
-      <c r="N98" s="124"/>
-      <c r="O98" s="124"/>
-      <c r="P98" s="124"/>
-      <c r="Q98" s="124"/>
-      <c r="R98" s="125"/>
-      <c r="S98" s="236" t="s">
-        <v>46</v>
-      </c>
-      <c r="T98" s="237"/>
-      <c r="U98" s="237"/>
-      <c r="V98" s="237"/>
-      <c r="W98" s="237"/>
-      <c r="X98" s="238"/>
-      <c r="Y98" s="204" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z98" s="205"/>
+      <c r="A98" s="98"/>
+      <c r="B98" s="265"/>
+      <c r="C98" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="D98" s="270" t="s">
+        <v>128</v>
+      </c>
+      <c r="E98" s="270"/>
+      <c r="F98" s="270"/>
+      <c r="G98" s="271"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="11"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
+      <c r="N98" s="11"/>
+      <c r="O98" s="11"/>
+      <c r="P98" s="11"/>
+      <c r="Q98" s="11"/>
+      <c r="R98" s="12"/>
+      <c r="S98" s="286"/>
+      <c r="T98" s="287"/>
+      <c r="U98" s="287"/>
+      <c r="V98" s="287"/>
+      <c r="W98" s="287"/>
+      <c r="X98" s="285"/>
+      <c r="Y98" s="208"/>
+      <c r="Z98" s="209"/>
     </row>
     <row r="99" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A99" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B99" s="265"/>
-      <c r="C99" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="D99" s="268" t="s">
-        <v>143</v>
-      </c>
-      <c r="E99" s="268"/>
-      <c r="F99" s="268"/>
-      <c r="G99" s="269"/>
-      <c r="H99" s="227" t="s">
-        <v>91</v>
-      </c>
-      <c r="I99" s="172"/>
-      <c r="J99" s="172"/>
-      <c r="K99" s="172"/>
-      <c r="L99" s="172"/>
-      <c r="M99" s="172"/>
-      <c r="N99" s="172"/>
-      <c r="O99" s="172"/>
-      <c r="P99" s="172"/>
-      <c r="Q99" s="172"/>
-      <c r="R99" s="173"/>
-      <c r="S99" s="283" t="s">
-        <v>48</v>
-      </c>
-      <c r="T99" s="284"/>
-      <c r="U99" s="284"/>
-      <c r="V99" s="284"/>
-      <c r="W99" s="284"/>
-      <c r="X99" s="285"/>
-      <c r="Y99" s="206"/>
-      <c r="Z99" s="207"/>
+      <c r="A99" s="280" t="s">
+        <v>92</v>
+      </c>
+      <c r="B99" s="281"/>
+      <c r="C99" s="281"/>
+      <c r="D99" s="281"/>
+      <c r="E99" s="281"/>
+      <c r="F99" s="281"/>
+      <c r="G99" s="281"/>
+      <c r="H99" s="281"/>
+      <c r="I99" s="281"/>
+      <c r="J99" s="281"/>
+      <c r="K99" s="281"/>
+      <c r="L99" s="281"/>
+      <c r="M99" s="281"/>
+      <c r="N99" s="281"/>
+      <c r="O99" s="281"/>
+      <c r="P99" s="281"/>
+      <c r="Q99" s="281"/>
+      <c r="R99" s="281"/>
+      <c r="S99" s="281"/>
+      <c r="T99" s="281"/>
+      <c r="U99" s="281"/>
+      <c r="V99" s="281"/>
+      <c r="W99" s="281"/>
+      <c r="X99" s="281"/>
+      <c r="Y99" s="281"/>
+      <c r="Z99" s="282"/>
     </row>
     <row r="100" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A100" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B100" s="265"/>
-      <c r="C100" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D100" s="270" t="s">
-        <v>125</v>
-      </c>
-      <c r="E100" s="270"/>
-      <c r="F100" s="270"/>
-      <c r="G100" s="271"/>
-      <c r="H100" s="227"/>
-      <c r="I100" s="172"/>
-      <c r="J100" s="172"/>
-      <c r="K100" s="172"/>
-      <c r="L100" s="172"/>
-      <c r="M100" s="172"/>
-      <c r="N100" s="172"/>
-      <c r="O100" s="172"/>
-      <c r="P100" s="172"/>
-      <c r="Q100" s="172"/>
-      <c r="R100" s="173"/>
-      <c r="S100" s="286"/>
-      <c r="T100" s="287"/>
-      <c r="U100" s="287"/>
-      <c r="V100" s="287"/>
-      <c r="W100" s="287"/>
-      <c r="X100" s="285"/>
-      <c r="Y100" s="206"/>
-      <c r="Z100" s="207"/>
+      <c r="A100" s="272" t="s">
+        <v>93</v>
+      </c>
+      <c r="B100" s="273"/>
+      <c r="C100" s="273"/>
+      <c r="D100" s="273"/>
+      <c r="E100" s="273"/>
+      <c r="F100" s="273"/>
+      <c r="G100" s="273"/>
+      <c r="H100" s="273"/>
+      <c r="I100" s="273"/>
+      <c r="J100" s="273"/>
+      <c r="K100" s="273"/>
+      <c r="L100" s="273"/>
+      <c r="M100" s="273"/>
+      <c r="N100" s="273"/>
+      <c r="O100" s="273"/>
+      <c r="P100" s="273"/>
+      <c r="Q100" s="273"/>
+      <c r="R100" s="273"/>
+      <c r="S100" s="273"/>
+      <c r="T100" s="273"/>
+      <c r="U100" s="273"/>
+      <c r="V100" s="273"/>
+      <c r="W100" s="273"/>
+      <c r="X100" s="273"/>
+      <c r="Y100" s="273"/>
+      <c r="Z100" s="274"/>
     </row>
     <row r="101" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A101" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="B101" s="288" t="s">
-        <v>58</v>
-      </c>
-      <c r="C101" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D101" s="268" t="s">
-        <v>126</v>
-      </c>
-      <c r="E101" s="268"/>
-      <c r="F101" s="268"/>
-      <c r="G101" s="269"/>
-      <c r="H101" s="278"/>
-      <c r="I101" s="278"/>
-      <c r="J101" s="278"/>
-      <c r="K101" s="278"/>
-      <c r="L101" s="278"/>
-      <c r="M101" s="278"/>
-      <c r="N101" s="278"/>
-      <c r="O101" s="278"/>
-      <c r="P101" s="278"/>
-      <c r="Q101" s="278"/>
-      <c r="R101" s="279"/>
-      <c r="S101" s="286"/>
-      <c r="T101" s="287"/>
-      <c r="U101" s="287"/>
-      <c r="V101" s="287"/>
-      <c r="W101" s="287"/>
-      <c r="X101" s="285"/>
-      <c r="Y101" s="206"/>
-      <c r="Z101" s="207"/>
+      <c r="A101" s="272" t="s">
+        <v>94</v>
+      </c>
+      <c r="B101" s="273"/>
+      <c r="C101" s="273"/>
+      <c r="D101" s="273"/>
+      <c r="E101" s="273"/>
+      <c r="F101" s="273"/>
+      <c r="G101" s="273"/>
+      <c r="H101" s="273"/>
+      <c r="I101" s="273"/>
+      <c r="J101" s="273"/>
+      <c r="K101" s="273"/>
+      <c r="L101" s="273"/>
+      <c r="M101" s="273"/>
+      <c r="N101" s="273"/>
+      <c r="O101" s="273"/>
+      <c r="P101" s="273"/>
+      <c r="Q101" s="273"/>
+      <c r="R101" s="273"/>
+      <c r="S101" s="273"/>
+      <c r="T101" s="273"/>
+      <c r="U101" s="273"/>
+      <c r="V101" s="273"/>
+      <c r="W101" s="273"/>
+      <c r="X101" s="273"/>
+      <c r="Y101" s="273"/>
+      <c r="Z101" s="274"/>
     </row>
     <row r="102" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A102" s="97"/>
-      <c r="B102" s="265"/>
-      <c r="C102" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="D102" s="268" t="s">
-        <v>142</v>
-      </c>
-      <c r="E102" s="268"/>
-      <c r="F102" s="268"/>
-      <c r="G102" s="269"/>
-      <c r="H102" s="278"/>
-      <c r="I102" s="278"/>
-      <c r="J102" s="278"/>
-      <c r="K102" s="278"/>
-      <c r="L102" s="278"/>
-      <c r="M102" s="278"/>
-      <c r="N102" s="278"/>
-      <c r="O102" s="278"/>
-      <c r="P102" s="278"/>
-      <c r="Q102" s="278"/>
-      <c r="R102" s="279"/>
-      <c r="S102" s="286"/>
-      <c r="T102" s="287"/>
-      <c r="U102" s="287"/>
-      <c r="V102" s="287"/>
-      <c r="W102" s="287"/>
-      <c r="X102" s="285"/>
-      <c r="Y102" s="206"/>
-      <c r="Z102" s="207"/>
+      <c r="A102" s="289" t="s">
+        <v>95</v>
+      </c>
+      <c r="B102" s="290"/>
+      <c r="C102" s="290"/>
+      <c r="D102" s="290"/>
+      <c r="E102" s="290"/>
+      <c r="F102" s="290"/>
+      <c r="G102" s="290"/>
+      <c r="H102" s="290"/>
+      <c r="I102" s="290"/>
+      <c r="J102" s="290"/>
+      <c r="K102" s="290"/>
+      <c r="L102" s="290"/>
+      <c r="M102" s="290"/>
+      <c r="N102" s="290"/>
+      <c r="O102" s="290"/>
+      <c r="P102" s="290"/>
+      <c r="Q102" s="290"/>
+      <c r="R102" s="290"/>
+      <c r="S102" s="290"/>
+      <c r="T102" s="290"/>
+      <c r="U102" s="290"/>
+      <c r="V102" s="290"/>
+      <c r="W102" s="290"/>
+      <c r="X102" s="290"/>
+      <c r="Y102" s="290"/>
+      <c r="Z102" s="291"/>
     </row>
     <row r="103" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A103" s="97"/>
-      <c r="B103" s="265"/>
-      <c r="C103" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D103" s="268" t="s">
-        <v>183</v>
-      </c>
-      <c r="E103" s="268"/>
-      <c r="F103" s="268"/>
-      <c r="G103" s="269"/>
-      <c r="H103" s="17"/>
-      <c r="I103" s="17"/>
-      <c r="J103" s="17"/>
-      <c r="K103" s="17"/>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
-      <c r="R103" s="18"/>
-      <c r="S103" s="286"/>
-      <c r="T103" s="287"/>
-      <c r="U103" s="287"/>
-      <c r="V103" s="287"/>
-      <c r="W103" s="287"/>
-      <c r="X103" s="285"/>
-      <c r="Y103" s="206"/>
-      <c r="Z103" s="207"/>
-    </row>
-    <row r="104" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A104" s="97"/>
-      <c r="B104" s="265"/>
-      <c r="C104" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D104" s="268" t="s">
-        <v>184</v>
-      </c>
-      <c r="E104" s="268"/>
-      <c r="F104" s="268"/>
-      <c r="G104" s="269"/>
-      <c r="H104" s="17"/>
-      <c r="I104" s="17"/>
-      <c r="J104" s="17"/>
-      <c r="K104" s="17"/>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
-      <c r="R104" s="18"/>
-      <c r="S104" s="286"/>
-      <c r="T104" s="287"/>
-      <c r="U104" s="287"/>
-      <c r="V104" s="287"/>
-      <c r="W104" s="287"/>
-      <c r="X104" s="285"/>
-      <c r="Y104" s="206"/>
-      <c r="Z104" s="207"/>
-    </row>
-    <row r="105" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A105" s="97"/>
-      <c r="B105" s="265"/>
-      <c r="C105" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D105" s="268" t="s">
-        <v>185</v>
-      </c>
-      <c r="E105" s="268"/>
-      <c r="F105" s="268"/>
-      <c r="G105" s="269"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="17"/>
-      <c r="J105" s="17"/>
-      <c r="K105" s="17"/>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
-      <c r="R105" s="18"/>
-      <c r="S105" s="286"/>
-      <c r="T105" s="287"/>
-      <c r="U105" s="287"/>
-      <c r="V105" s="287"/>
-      <c r="W105" s="287"/>
-      <c r="X105" s="285"/>
-      <c r="Y105" s="206"/>
-      <c r="Z105" s="207"/>
-    </row>
-    <row r="106" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A106" s="97"/>
-      <c r="B106" s="265"/>
-      <c r="C106" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D106" s="268" t="s">
-        <v>186</v>
-      </c>
-      <c r="E106" s="268"/>
-      <c r="F106" s="268"/>
-      <c r="G106" s="269"/>
-      <c r="H106" s="17"/>
-      <c r="I106" s="17"/>
-      <c r="J106" s="17"/>
-      <c r="K106" s="17"/>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
-      <c r="R106" s="18"/>
-      <c r="S106" s="286"/>
-      <c r="T106" s="287"/>
-      <c r="U106" s="287"/>
-      <c r="V106" s="287"/>
-      <c r="W106" s="287"/>
-      <c r="X106" s="285"/>
-      <c r="Y106" s="206"/>
-      <c r="Z106" s="207"/>
-    </row>
-    <row r="107" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A107" s="97"/>
-      <c r="B107" s="265"/>
-      <c r="C107" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D107" s="268" t="s">
-        <v>221</v>
-      </c>
-      <c r="E107" s="268"/>
-      <c r="F107" s="268"/>
-      <c r="G107" s="269"/>
-      <c r="H107" s="17"/>
-      <c r="I107" s="17"/>
-      <c r="J107" s="17"/>
-      <c r="K107" s="17"/>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
-      <c r="R107" s="18"/>
-      <c r="S107" s="286"/>
-      <c r="T107" s="287"/>
-      <c r="U107" s="287"/>
-      <c r="V107" s="287"/>
-      <c r="W107" s="287"/>
-      <c r="X107" s="285"/>
-      <c r="Y107" s="206"/>
-      <c r="Z107" s="207"/>
-    </row>
-    <row r="108" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A108" s="97"/>
-      <c r="B108" s="265"/>
-      <c r="C108" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D108" s="268" t="s">
-        <v>220</v>
-      </c>
-      <c r="E108" s="268"/>
-      <c r="F108" s="268"/>
-      <c r="G108" s="269"/>
-      <c r="H108" s="17"/>
-      <c r="I108" s="17"/>
-      <c r="J108" s="17"/>
-      <c r="K108" s="17"/>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
-      <c r="R108" s="18"/>
-      <c r="S108" s="286"/>
-      <c r="T108" s="287"/>
-      <c r="U108" s="287"/>
-      <c r="V108" s="287"/>
-      <c r="W108" s="287"/>
-      <c r="X108" s="285"/>
-      <c r="Y108" s="206"/>
-      <c r="Z108" s="207"/>
-    </row>
-    <row r="109" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A109" s="97"/>
-      <c r="B109" s="265"/>
-      <c r="C109" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="D109" s="268" t="s">
-        <v>127</v>
-      </c>
-      <c r="E109" s="268"/>
-      <c r="F109" s="268"/>
-      <c r="G109" s="269"/>
-      <c r="H109" s="278"/>
-      <c r="I109" s="278"/>
-      <c r="J109" s="278"/>
-      <c r="K109" s="278"/>
-      <c r="L109" s="278"/>
-      <c r="M109" s="278"/>
-      <c r="N109" s="278"/>
-      <c r="O109" s="278"/>
-      <c r="P109" s="278"/>
-      <c r="Q109" s="278"/>
-      <c r="R109" s="279"/>
-      <c r="S109" s="286"/>
-      <c r="T109" s="287"/>
-      <c r="U109" s="287"/>
-      <c r="V109" s="287"/>
-      <c r="W109" s="287"/>
-      <c r="X109" s="285"/>
-      <c r="Y109" s="206"/>
-      <c r="Z109" s="207"/>
-    </row>
-    <row r="110" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A110" s="97"/>
-      <c r="B110" s="265"/>
-      <c r="C110" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="D110" s="268" t="s">
-        <v>188</v>
-      </c>
-      <c r="E110" s="268"/>
-      <c r="F110" s="268"/>
-      <c r="G110" s="269"/>
-      <c r="H110" s="11"/>
-      <c r="I110" s="11"/>
-      <c r="J110" s="11"/>
-      <c r="K110" s="11"/>
-      <c r="L110" s="11"/>
-      <c r="M110" s="11"/>
-      <c r="N110" s="11"/>
-      <c r="O110" s="11"/>
-      <c r="P110" s="11"/>
-      <c r="Q110" s="11"/>
-      <c r="R110" s="12"/>
-      <c r="S110" s="286"/>
-      <c r="T110" s="287"/>
-      <c r="U110" s="287"/>
-      <c r="V110" s="287"/>
-      <c r="W110" s="287"/>
-      <c r="X110" s="285"/>
-      <c r="Y110" s="206"/>
-      <c r="Z110" s="207"/>
-    </row>
-    <row r="111" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A111" s="97"/>
-      <c r="B111" s="265"/>
-      <c r="C111" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="D111" s="268" t="s">
-        <v>190</v>
-      </c>
-      <c r="E111" s="268"/>
-      <c r="F111" s="268"/>
-      <c r="G111" s="269"/>
-      <c r="H111" s="17"/>
-      <c r="I111" s="17"/>
-      <c r="J111" s="17"/>
-      <c r="K111" s="17"/>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
-      <c r="R111" s="18"/>
-      <c r="S111" s="286"/>
-      <c r="T111" s="287"/>
-      <c r="U111" s="287"/>
-      <c r="V111" s="287"/>
-      <c r="W111" s="287"/>
-      <c r="X111" s="285"/>
-      <c r="Y111" s="206"/>
-      <c r="Z111" s="207"/>
-    </row>
-    <row r="112" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A112" s="98"/>
-      <c r="B112" s="265"/>
-      <c r="C112" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="D112" s="270" t="s">
-        <v>128</v>
-      </c>
-      <c r="E112" s="270"/>
-      <c r="F112" s="270"/>
-      <c r="G112" s="271"/>
-      <c r="H112" s="11"/>
-      <c r="I112" s="11"/>
-      <c r="J112" s="11"/>
-      <c r="K112" s="11"/>
-      <c r="L112" s="11"/>
-      <c r="M112" s="11"/>
-      <c r="N112" s="11"/>
-      <c r="O112" s="11"/>
-      <c r="P112" s="11"/>
-      <c r="Q112" s="11"/>
-      <c r="R112" s="12"/>
-      <c r="S112" s="286"/>
-      <c r="T112" s="287"/>
-      <c r="U112" s="287"/>
-      <c r="V112" s="287"/>
-      <c r="W112" s="287"/>
-      <c r="X112" s="285"/>
-      <c r="Y112" s="208"/>
-      <c r="Z112" s="209"/>
-    </row>
-    <row r="113" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A113" s="280" t="s">
-        <v>92</v>
-      </c>
-      <c r="B113" s="281"/>
-      <c r="C113" s="281"/>
-      <c r="D113" s="281"/>
-      <c r="E113" s="281"/>
-      <c r="F113" s="281"/>
-      <c r="G113" s="281"/>
-      <c r="H113" s="281"/>
-      <c r="I113" s="281"/>
-      <c r="J113" s="281"/>
-      <c r="K113" s="281"/>
-      <c r="L113" s="281"/>
-      <c r="M113" s="281"/>
-      <c r="N113" s="281"/>
-      <c r="O113" s="281"/>
-      <c r="P113" s="281"/>
-      <c r="Q113" s="281"/>
-      <c r="R113" s="281"/>
-      <c r="S113" s="281"/>
-      <c r="T113" s="281"/>
-      <c r="U113" s="281"/>
-      <c r="V113" s="281"/>
-      <c r="W113" s="281"/>
-      <c r="X113" s="281"/>
-      <c r="Y113" s="281"/>
-      <c r="Z113" s="282"/>
-    </row>
-    <row r="114" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A114" s="272" t="s">
-        <v>93</v>
-      </c>
-      <c r="B114" s="273"/>
-      <c r="C114" s="273"/>
-      <c r="D114" s="273"/>
-      <c r="E114" s="273"/>
-      <c r="F114" s="273"/>
-      <c r="G114" s="273"/>
-      <c r="H114" s="273"/>
-      <c r="I114" s="273"/>
-      <c r="J114" s="273"/>
-      <c r="K114" s="273"/>
-      <c r="L114" s="273"/>
-      <c r="M114" s="273"/>
-      <c r="N114" s="273"/>
-      <c r="O114" s="273"/>
-      <c r="P114" s="273"/>
-      <c r="Q114" s="273"/>
-      <c r="R114" s="273"/>
-      <c r="S114" s="273"/>
-      <c r="T114" s="273"/>
-      <c r="U114" s="273"/>
-      <c r="V114" s="273"/>
-      <c r="W114" s="273"/>
-      <c r="X114" s="273"/>
-      <c r="Y114" s="273"/>
-      <c r="Z114" s="274"/>
-    </row>
-    <row r="115" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A115" s="272" t="s">
-        <v>94</v>
-      </c>
-      <c r="B115" s="273"/>
-      <c r="C115" s="273"/>
-      <c r="D115" s="273"/>
-      <c r="E115" s="273"/>
-      <c r="F115" s="273"/>
-      <c r="G115" s="273"/>
-      <c r="H115" s="273"/>
-      <c r="I115" s="273"/>
-      <c r="J115" s="273"/>
-      <c r="K115" s="273"/>
-      <c r="L115" s="273"/>
-      <c r="M115" s="273"/>
-      <c r="N115" s="273"/>
-      <c r="O115" s="273"/>
-      <c r="P115" s="273"/>
-      <c r="Q115" s="273"/>
-      <c r="R115" s="273"/>
-      <c r="S115" s="273"/>
-      <c r="T115" s="273"/>
-      <c r="U115" s="273"/>
-      <c r="V115" s="273"/>
-      <c r="W115" s="273"/>
-      <c r="X115" s="273"/>
-      <c r="Y115" s="273"/>
-      <c r="Z115" s="274"/>
-    </row>
-    <row r="116" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A116" s="289" t="s">
-        <v>95</v>
-      </c>
-      <c r="B116" s="290"/>
-      <c r="C116" s="290"/>
-      <c r="D116" s="290"/>
-      <c r="E116" s="290"/>
-      <c r="F116" s="290"/>
-      <c r="G116" s="290"/>
-      <c r="H116" s="290"/>
-      <c r="I116" s="290"/>
-      <c r="J116" s="290"/>
-      <c r="K116" s="290"/>
-      <c r="L116" s="290"/>
-      <c r="M116" s="290"/>
-      <c r="N116" s="290"/>
-      <c r="O116" s="290"/>
-      <c r="P116" s="290"/>
-      <c r="Q116" s="290"/>
-      <c r="R116" s="290"/>
-      <c r="S116" s="290"/>
-      <c r="T116" s="290"/>
-      <c r="U116" s="290"/>
-      <c r="V116" s="290"/>
-      <c r="W116" s="290"/>
-      <c r="X116" s="290"/>
-      <c r="Y116" s="290"/>
-      <c r="Z116" s="291"/>
-    </row>
-    <row r="117" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A117" s="275" t="s">
+      <c r="A103" s="275" t="s">
         <v>187</v>
       </c>
-      <c r="B117" s="276"/>
-      <c r="C117" s="276"/>
-      <c r="D117" s="276"/>
-      <c r="E117" s="276"/>
-      <c r="F117" s="276"/>
-      <c r="G117" s="276"/>
-      <c r="H117" s="276"/>
-      <c r="I117" s="276"/>
-      <c r="J117" s="276"/>
-      <c r="K117" s="276"/>
-      <c r="L117" s="276"/>
-      <c r="M117" s="276"/>
-      <c r="N117" s="276"/>
-      <c r="O117" s="276"/>
-      <c r="P117" s="276"/>
-      <c r="Q117" s="276"/>
-      <c r="R117" s="276"/>
-      <c r="S117" s="276"/>
-      <c r="T117" s="276"/>
-      <c r="U117" s="276"/>
-      <c r="V117" s="276"/>
-      <c r="W117" s="276"/>
-      <c r="X117" s="276"/>
-      <c r="Y117" s="276"/>
-      <c r="Z117" s="277"/>
+      <c r="B103" s="276"/>
+      <c r="C103" s="276"/>
+      <c r="D103" s="276"/>
+      <c r="E103" s="276"/>
+      <c r="F103" s="276"/>
+      <c r="G103" s="276"/>
+      <c r="H103" s="276"/>
+      <c r="I103" s="276"/>
+      <c r="J103" s="276"/>
+      <c r="K103" s="276"/>
+      <c r="L103" s="276"/>
+      <c r="M103" s="276"/>
+      <c r="N103" s="276"/>
+      <c r="O103" s="276"/>
+      <c r="P103" s="276"/>
+      <c r="Q103" s="276"/>
+      <c r="R103" s="276"/>
+      <c r="S103" s="276"/>
+      <c r="T103" s="276"/>
+      <c r="U103" s="276"/>
+      <c r="V103" s="276"/>
+      <c r="W103" s="276"/>
+      <c r="X103" s="276"/>
+      <c r="Y103" s="276"/>
+      <c r="Z103" s="277"/>
     </row>
   </sheetData>
-  <mergeCells count="425">
-    <mergeCell ref="A48:A61"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:G85"/>
-    <mergeCell ref="C47:C61"/>
-    <mergeCell ref="B11:B61"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="O61:X61"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="K49:L49"/>
+  <mergeCells count="363">
+    <mergeCell ref="A33:A47"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:G71"/>
+    <mergeCell ref="C32:C47"/>
+    <mergeCell ref="B11:B47"/>
+    <mergeCell ref="H47:J47"/>
     <mergeCell ref="K47:L47"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="K55:L55"/>
     <mergeCell ref="M47:N47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="O47:X47"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="M15:N15"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="Y19:Z61"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="D76:G76"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="Y19:Z47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D62:G62"/>
     <mergeCell ref="Y18:Z18"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="M19:N19"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:X39"/>
-    <mergeCell ref="H72:R72"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:X27"/>
+    <mergeCell ref="H58:R58"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="H21:J21"/>
     <mergeCell ref="K20:L20"/>
@@ -8671,76 +8155,76 @@
     <mergeCell ref="M21:N21"/>
     <mergeCell ref="D19:E21"/>
     <mergeCell ref="F19:G19"/>
-    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="D58:G58"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="H19:J19"/>
-    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D30:G30"/>
     <mergeCell ref="Y16:Z17"/>
-    <mergeCell ref="Y71:Z77"/>
-    <mergeCell ref="Y63:Z63"/>
-    <mergeCell ref="Y64:Z68"/>
-    <mergeCell ref="Y70:Z70"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="O60:X60"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="S62:X62"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O48:X48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:X50"/>
-    <mergeCell ref="O45:X45"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="Y57:Z63"/>
+    <mergeCell ref="Y49:Z49"/>
+    <mergeCell ref="Y50:Z54"/>
+    <mergeCell ref="Y56:Z56"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:X46"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="S48:X48"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:X33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:X35"/>
+    <mergeCell ref="O30:X30"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
     <mergeCell ref="Y8:Z8"/>
     <mergeCell ref="Y9:Z15"/>
     <mergeCell ref="U9:X9"/>
-    <mergeCell ref="Y62:Z62"/>
+    <mergeCell ref="Y48:Z48"/>
     <mergeCell ref="U10:X10"/>
-    <mergeCell ref="H66:R66"/>
-    <mergeCell ref="H67:R67"/>
-    <mergeCell ref="H68:R68"/>
-    <mergeCell ref="O38:X38"/>
+    <mergeCell ref="H52:R52"/>
+    <mergeCell ref="H53:R53"/>
+    <mergeCell ref="H54:R54"/>
+    <mergeCell ref="O26:X26"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O58:X58"/>
-    <mergeCell ref="O59:X59"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="O43:X43"/>
+    <mergeCell ref="O45:X45"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="Q8:R8"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="O16:X16"/>
-    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M34:N34"/>
     <mergeCell ref="H17:J17"/>
-    <mergeCell ref="S70:X70"/>
-    <mergeCell ref="H62:R62"/>
+    <mergeCell ref="S56:X56"/>
+    <mergeCell ref="H48:R48"/>
     <mergeCell ref="O12:X12"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="O57:X57"/>
-    <mergeCell ref="O51:X51"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:X42"/>
+    <mergeCell ref="O36:X36"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="Q15:X15"/>
-    <mergeCell ref="O46:X46"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="O31:X31"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="K42:L42"/>
     <mergeCell ref="O18:X21"/>
     <mergeCell ref="I9:J10"/>
     <mergeCell ref="K9:L10"/>
@@ -8748,154 +8232,154 @@
     <mergeCell ref="O9:P10"/>
     <mergeCell ref="Q9:R10"/>
     <mergeCell ref="O13:X13"/>
-    <mergeCell ref="O47:X47"/>
-    <mergeCell ref="S63:X63"/>
-    <mergeCell ref="H64:R64"/>
-    <mergeCell ref="S64:X68"/>
-    <mergeCell ref="H65:R65"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="O32:X32"/>
+    <mergeCell ref="S49:X49"/>
+    <mergeCell ref="H50:R50"/>
+    <mergeCell ref="S50:X54"/>
+    <mergeCell ref="H51:R51"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:L46"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="S8:T10"/>
     <mergeCell ref="U8:X8"/>
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="K11:X11"/>
     <mergeCell ref="K12:L12"/>
-    <mergeCell ref="O52:S52"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="O55:X55"/>
-    <mergeCell ref="T52:X52"/>
-    <mergeCell ref="O49:X49"/>
-    <mergeCell ref="A115:Z115"/>
-    <mergeCell ref="A117:Z117"/>
-    <mergeCell ref="H109:R109"/>
-    <mergeCell ref="A113:Z113"/>
-    <mergeCell ref="A114:Z114"/>
-    <mergeCell ref="H99:R99"/>
-    <mergeCell ref="S99:X112"/>
-    <mergeCell ref="H100:R100"/>
-    <mergeCell ref="B101:B112"/>
-    <mergeCell ref="H101:R101"/>
-    <mergeCell ref="H102:R102"/>
-    <mergeCell ref="D103:G103"/>
-    <mergeCell ref="D102:G102"/>
-    <mergeCell ref="D109:G109"/>
-    <mergeCell ref="D110:G110"/>
-    <mergeCell ref="D112:G112"/>
-    <mergeCell ref="A116:Z116"/>
-    <mergeCell ref="A101:A112"/>
-    <mergeCell ref="D101:G101"/>
-    <mergeCell ref="D104:G104"/>
-    <mergeCell ref="D107:G107"/>
-    <mergeCell ref="D105:G105"/>
-    <mergeCell ref="D106:G106"/>
-    <mergeCell ref="D111:G111"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="H97:R97"/>
-    <mergeCell ref="S97:X97"/>
-    <mergeCell ref="Y97:Z97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="H98:R98"/>
-    <mergeCell ref="S98:X98"/>
+    <mergeCell ref="O37:S37"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:X40"/>
+    <mergeCell ref="T37:X37"/>
+    <mergeCell ref="O34:X34"/>
+    <mergeCell ref="A101:Z101"/>
+    <mergeCell ref="A103:Z103"/>
+    <mergeCell ref="H95:R95"/>
+    <mergeCell ref="A99:Z99"/>
+    <mergeCell ref="A100:Z100"/>
+    <mergeCell ref="H85:R85"/>
+    <mergeCell ref="S85:X98"/>
+    <mergeCell ref="H86:R86"/>
+    <mergeCell ref="B87:B98"/>
+    <mergeCell ref="H87:R87"/>
+    <mergeCell ref="H88:R88"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="D95:G95"/>
+    <mergeCell ref="D96:G96"/>
     <mergeCell ref="D98:G98"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="D100:G100"/>
-    <mergeCell ref="Y98:Z98"/>
-    <mergeCell ref="Y99:Z112"/>
-    <mergeCell ref="D108:G108"/>
-    <mergeCell ref="S93:X93"/>
-    <mergeCell ref="H94:R94"/>
-    <mergeCell ref="S94:X96"/>
-    <mergeCell ref="H95:R95"/>
-    <mergeCell ref="H96:R96"/>
-    <mergeCell ref="Y93:Z93"/>
-    <mergeCell ref="Y94:Z96"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="H92:R92"/>
-    <mergeCell ref="S92:X92"/>
-    <mergeCell ref="Y92:Z92"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="H93:R93"/>
-    <mergeCell ref="H77:R77"/>
-    <mergeCell ref="Y86:Z91"/>
-    <mergeCell ref="A83:A89"/>
+    <mergeCell ref="A102:Z102"/>
+    <mergeCell ref="A87:A98"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="D90:G90"/>
+    <mergeCell ref="D93:G93"/>
+    <mergeCell ref="D91:G91"/>
+    <mergeCell ref="D92:G92"/>
+    <mergeCell ref="D97:G97"/>
     <mergeCell ref="B83:G83"/>
     <mergeCell ref="H83:R83"/>
     <mergeCell ref="S83:X83"/>
     <mergeCell ref="Y83:Z83"/>
+    <mergeCell ref="B84:B86"/>
     <mergeCell ref="H84:R84"/>
     <mergeCell ref="S84:X84"/>
-    <mergeCell ref="H91:R91"/>
+    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="D85:G85"/>
+    <mergeCell ref="D86:G86"/>
     <mergeCell ref="Y84:Z84"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="H86:R86"/>
-    <mergeCell ref="H87:R87"/>
-    <mergeCell ref="H88:R88"/>
-    <mergeCell ref="H89:R89"/>
-    <mergeCell ref="H90:R90"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="S86:X91"/>
-    <mergeCell ref="G9:H10"/>
+    <mergeCell ref="Y85:Z98"/>
+    <mergeCell ref="D94:G94"/>
+    <mergeCell ref="S79:X79"/>
+    <mergeCell ref="H80:R80"/>
+    <mergeCell ref="S80:X82"/>
+    <mergeCell ref="H81:R81"/>
+    <mergeCell ref="H82:R82"/>
     <mergeCell ref="Y79:Z79"/>
     <mergeCell ref="Y80:Z82"/>
-    <mergeCell ref="A78:A80"/>
     <mergeCell ref="B78:G78"/>
     <mergeCell ref="H78:R78"/>
     <mergeCell ref="S78:X78"/>
-    <mergeCell ref="H71:R71"/>
-    <mergeCell ref="S71:X77"/>
+    <mergeCell ref="Y78:Z78"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H79:R79"/>
+    <mergeCell ref="H63:R63"/>
+    <mergeCell ref="Y72:Z77"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="H69:R69"/>
+    <mergeCell ref="S69:X69"/>
+    <mergeCell ref="Y69:Z69"/>
+    <mergeCell ref="H70:R70"/>
+    <mergeCell ref="S70:X70"/>
+    <mergeCell ref="H77:R77"/>
+    <mergeCell ref="Y70:Z70"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H72:R72"/>
     <mergeCell ref="H73:R73"/>
     <mergeCell ref="H74:R74"/>
     <mergeCell ref="H75:R75"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="H69:R69"/>
-    <mergeCell ref="S69:X69"/>
-    <mergeCell ref="D75:G75"/>
-    <mergeCell ref="D77:G77"/>
-    <mergeCell ref="Y69:Z69"/>
-    <mergeCell ref="H70:R70"/>
-    <mergeCell ref="Y78:Z78"/>
-    <mergeCell ref="H79:R79"/>
-    <mergeCell ref="S79:X79"/>
-    <mergeCell ref="H80:R80"/>
+    <mergeCell ref="H76:R76"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="S72:X77"/>
+    <mergeCell ref="G9:H10"/>
+    <mergeCell ref="Y65:Z65"/>
+    <mergeCell ref="Y66:Z68"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="H64:R64"/>
+    <mergeCell ref="S64:X64"/>
+    <mergeCell ref="H57:R57"/>
+    <mergeCell ref="S57:X63"/>
+    <mergeCell ref="H59:R59"/>
+    <mergeCell ref="H60:R60"/>
+    <mergeCell ref="H61:R61"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="H55:R55"/>
+    <mergeCell ref="S55:X55"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="Y55:Z55"/>
+    <mergeCell ref="H56:R56"/>
+    <mergeCell ref="Y64:Z64"/>
+    <mergeCell ref="H65:R65"/>
+    <mergeCell ref="S65:X65"/>
+    <mergeCell ref="H66:R66"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="L7:P7"/>
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="S7:X7"/>
     <mergeCell ref="K8:L8"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="S80:X82"/>
-    <mergeCell ref="H81:R81"/>
-    <mergeCell ref="H82:R82"/>
-    <mergeCell ref="C79:G80"/>
-    <mergeCell ref="C81:G82"/>
-    <mergeCell ref="D73:G73"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="D70:G70"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="S66:X68"/>
+    <mergeCell ref="H67:R67"/>
+    <mergeCell ref="H68:R68"/>
+    <mergeCell ref="C65:G66"/>
+    <mergeCell ref="C67:G68"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="D56:G56"/>
     <mergeCell ref="D57:G57"/>
-    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D46:G46"/>
     <mergeCell ref="B8:D10"/>
     <mergeCell ref="E9:F10"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="C13:C46"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="C13:C31"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="H63:R63"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H49:R49"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="X3:Z5"/>
     <mergeCell ref="E6:K6"/>
@@ -8918,68 +8402,56 @@
     <mergeCell ref="D15:G15"/>
     <mergeCell ref="D16:G16"/>
     <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="D35:G35"/>
     <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A7:A46"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A7:A31"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="D26:G26"/>
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H42:J42"/>
     <mergeCell ref="H11:J12"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="D45:G45"/>
     <mergeCell ref="O17:X17"/>
-    <mergeCell ref="O44:X44"/>
-    <mergeCell ref="O56:X56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="T53:X53"/>
-    <mergeCell ref="T54:X54"/>
-    <mergeCell ref="H52:J54"/>
-    <mergeCell ref="K52:L54"/>
-    <mergeCell ref="M52:N54"/>
-    <mergeCell ref="O53:S53"/>
-    <mergeCell ref="O54:S54"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="D52:G54"/>
+    <mergeCell ref="O29:X29"/>
+    <mergeCell ref="O41:X41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="T38:X38"/>
+    <mergeCell ref="T39:X39"/>
+    <mergeCell ref="H37:J39"/>
+    <mergeCell ref="K37:L39"/>
+    <mergeCell ref="M37:N39"/>
+    <mergeCell ref="O38:S38"/>
+    <mergeCell ref="O39:S39"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="D37:G39"/>
     <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D29:G29"/>
     <mergeCell ref="D13:G14"/>
     <mergeCell ref="H13:J14"/>
     <mergeCell ref="K13:L14"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="D36:G36"/>
     <mergeCell ref="C11:G12"/>
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="M13:N14"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:X40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:X41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:X42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:X43"/>
-    <mergeCell ref="D39:G43"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:X28"/>
+    <mergeCell ref="D27:G28"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="D23:E25"/>
     <mergeCell ref="F23:G23"/>
@@ -8998,60 +8470,10 @@
     <mergeCell ref="H25:J25"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="M25:N25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:E29"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="O26:X29"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D31:E33"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="O30:X33"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D35:E37"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="O34:X37"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:X44"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lib/excel_templates/process_design_plan_report_modified.xlsx
+++ b/lib/excel_templates/process_design_plan_report_modified.xlsx
@@ -4225,7 +4225,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="A1:Z103"/>
+  <dimension ref="A1:Z117"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <selection activeCell="AB21" sqref="AB21"/>
@@ -5365,89 +5365,79 @@
       <c r="Y25" s="254"/>
       <c r="Z25" s="341"/>
     </row>
-    <row r="26" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+    <row r="26" spans="1:26" customFormat="false">
       <c r="A26" s="100"/>
       <c r="B26" s="360"/>
       <c r="C26" s="102"/>
-      <c r="D26" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="G26" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="H26" s="117" t="s">
-        <v>148</v>
-      </c>
-      <c r="I26" s="117"/>
-      <c r="J26" s="117"/>
-      <c r="K26" s="297" t="s">
-        <v>149</v>
-      </c>
-      <c r="L26" s="298"/>
-      <c r="M26" s="297" t="s">
-        <v>150</v>
-      </c>
-      <c r="N26" s="298"/>
-      <c r="O26" s="333" t="s">
-        <v>196</v>
-      </c>
-      <c r="P26" s="334"/>
-      <c r="Q26" s="334"/>
-      <c r="R26" s="334"/>
-      <c r="S26" s="334"/>
-      <c r="T26" s="334"/>
-      <c r="U26" s="334"/>
-      <c r="V26" s="334"/>
-      <c r="W26" s="334"/>
-      <c r="X26" s="334"/>
+      <c r="D26" s="351" t="str">
+        <v>設備設計</v>
+      </c>
+      <c r="E26" s="92"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="118" t="str">
+        <v>生技（#{?progress_management_seigi_design_name_3}）</v>
+      </c>
+      <c r="I26" s="118"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="347" t="str">
+        <v>#{?progress_management_seigi_design_yotei_3}</v>
+      </c>
+      <c r="L26" s="348"/>
+      <c r="M26" s="347" t="str">
+        <v>#{?progress_management_seigi_design_kanryou_3}</v>
+      </c>
+      <c r="N26" s="348"/>
+      <c r="O26" s="378" t="str">
+        <v>設備名：#{?progress_management_seigi_equipment_name_3}</v>
+      </c>
+      <c r="P26" s="379"/>
+      <c r="Q26" s="379"/>
+      <c r="R26" s="379"/>
+      <c r="S26" s="379"/>
+      <c r="T26" s="379"/>
+      <c r="U26" s="379"/>
+      <c r="V26" s="379"/>
+      <c r="W26" s="379"/>
+      <c r="X26" s="380"/>
       <c r="Y26" s="254"/>
       <c r="Z26" s="341"/>
     </row>
-    <row r="27" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+    <row r="27" spans="1:26" customFormat="false">
       <c r="A27" s="100"/>
       <c r="B27" s="360"/>
       <c r="C27" s="102"/>
-      <c r="D27" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="118" t="s">
-        <v>228</v>
-      </c>
-      <c r="I27" s="118" t="s">
-        <v>162</v>
-      </c>
-      <c r="J27" s="118" t="s">
-        <v>162</v>
-      </c>
-      <c r="K27" s="297" t="s">
-        <v>229</v>
-      </c>
-      <c r="L27" s="298"/>
-      <c r="M27" s="297" t="s">
-        <v>230</v>
-      </c>
-      <c r="N27" s="298"/>
-      <c r="O27" s="333" t="s">
-        <v>231</v>
-      </c>
-      <c r="P27" s="334"/>
-      <c r="Q27" s="334"/>
-      <c r="R27" s="334"/>
-      <c r="S27" s="334"/>
-      <c r="T27" s="334"/>
-      <c r="U27" s="334"/>
-      <c r="V27" s="334"/>
-      <c r="W27" s="334"/>
-      <c r="X27" s="334"/>
+      <c r="D27" s="351" t="str">
+        <v>設備製作</v>
+      </c>
+      <c r="E27" s="92"/>
+      <c r="F27" s="61" t="str">
+        <v>組立</v>
+      </c>
+      <c r="G27" s="62"/>
+      <c r="H27" s="118" t="str">
+        <v>生技（#{?progress_management_seigi_assembly_name_3}）</v>
+      </c>
+      <c r="I27" s="118"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="347" t="str">
+        <v>#{?progress_management_seigi_assembly_yotei_3}</v>
+      </c>
+      <c r="L27" s="348"/>
+      <c r="M27" s="347" t="str">
+        <v>#{?progress_management_seigi_assembly_kanryou_3}</v>
+      </c>
+      <c r="N27" s="348"/>
+      <c r="O27" s="378"/>
+      <c r="P27" s="379"/>
+      <c r="Q27" s="379"/>
+      <c r="R27" s="379"/>
+      <c r="S27" s="379"/>
+      <c r="T27" s="379"/>
+      <c r="U27" s="379"/>
+      <c r="V27" s="379"/>
+      <c r="W27" s="379"/>
+      <c r="X27" s="380"/>
       <c r="Y27" s="254"/>
       <c r="Z27" s="341"/>
     </row>
@@ -5455,1490 +5445,1502 @@
       <c r="A28" s="100"/>
       <c r="B28" s="360"/>
       <c r="C28" s="102"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="33"/>
+      <c r="D28" s="351"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="61" t="str">
+        <v>配線</v>
+      </c>
+      <c r="G28" s="62"/>
       <c r="H28" s="118" t="str">
-        <v>生技（#{?dr_setsubi_designer_2}）</v>
+        <v>生技（#{?progress_management_seigi_wiring_name_3}）</v>
       </c>
       <c r="I28" s="118"/>
       <c r="J28" s="118"/>
-      <c r="K28" s="297" t="str">
-        <v>#{?dr_setsubi_yotei_2}</v>
-      </c>
-      <c r="L28" s="298"/>
-      <c r="M28" s="297" t="str">
-        <v>#{?dr_setsubi_kanryou_2}</v>
-      </c>
-      <c r="N28" s="298"/>
-      <c r="O28" s="333" t="str">
-        <v>#{?dr_setsubi_shiteki_2}</v>
-      </c>
-      <c r="P28" s="334"/>
-      <c r="Q28" s="334"/>
-      <c r="R28" s="334"/>
-      <c r="S28" s="334"/>
-      <c r="T28" s="334"/>
-      <c r="U28" s="334"/>
-      <c r="V28" s="334"/>
-      <c r="W28" s="334"/>
-      <c r="X28" s="334"/>
+      <c r="K28" s="347" t="str">
+        <v>#{?progress_management_seigi_wiring_yotei_3}</v>
+      </c>
+      <c r="L28" s="348"/>
+      <c r="M28" s="347" t="str">
+        <v>#{?progress_management_seigi_wiring_kanryou_3}</v>
+      </c>
+      <c r="N28" s="348"/>
+      <c r="O28" s="378"/>
+      <c r="P28" s="379"/>
+      <c r="Q28" s="379"/>
+      <c r="R28" s="379"/>
+      <c r="S28" s="379"/>
+      <c r="T28" s="379"/>
+      <c r="U28" s="379"/>
+      <c r="V28" s="379"/>
+      <c r="W28" s="379"/>
+      <c r="X28" s="380"/>
       <c r="Y28" s="254"/>
       <c r="Z28" s="341"/>
     </row>
-    <row r="29" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+    <row r="29" spans="1:26" customFormat="false">
       <c r="A29" s="100"/>
       <c r="B29" s="360"/>
       <c r="C29" s="102"/>
-      <c r="D29" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="108" t="s">
-        <v>30</v>
-      </c>
-      <c r="I29" s="108"/>
-      <c r="J29" s="108"/>
-      <c r="K29" s="297" t="s">
-        <v>105</v>
-      </c>
-      <c r="L29" s="298"/>
-      <c r="M29" s="297" t="s">
-        <v>106</v>
-      </c>
-      <c r="N29" s="298"/>
-      <c r="O29" s="67"/>
-      <c r="P29" s="68"/>
-      <c r="Q29" s="68"/>
-      <c r="R29" s="68"/>
-      <c r="S29" s="68"/>
-      <c r="T29" s="68"/>
-      <c r="U29" s="68"/>
-      <c r="V29" s="68"/>
-      <c r="W29" s="68"/>
-      <c r="X29" s="68"/>
+      <c r="D29" s="351"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="61" t="str">
+        <v>プログラム</v>
+      </c>
+      <c r="G29" s="62"/>
+      <c r="H29" s="118" t="str">
+        <v>生技（#{?progress_management_seigi_program_name_3}）</v>
+      </c>
+      <c r="I29" s="118"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="347" t="str">
+        <v>#{?progress_management_seigi_program_yotei_3}</v>
+      </c>
+      <c r="L29" s="348"/>
+      <c r="M29" s="347" t="str">
+        <v>#{?progress_management_seigi_program_kanryou_3}</v>
+      </c>
+      <c r="N29" s="348"/>
+      <c r="O29" s="378"/>
+      <c r="P29" s="379"/>
+      <c r="Q29" s="379"/>
+      <c r="R29" s="379"/>
+      <c r="S29" s="379"/>
+      <c r="T29" s="379"/>
+      <c r="U29" s="379"/>
+      <c r="V29" s="379"/>
+      <c r="W29" s="379"/>
+      <c r="X29" s="380"/>
       <c r="Y29" s="254"/>
       <c r="Z29" s="341"/>
     </row>
-    <row r="30" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+    <row r="30" spans="1:26" customFormat="false">
       <c r="A30" s="100"/>
       <c r="B30" s="360"/>
       <c r="C30" s="102"/>
-      <c r="D30" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="118" t="s">
-        <v>201</v>
+      <c r="D30" s="351" t="str">
+        <v>設備設計</v>
+      </c>
+      <c r="E30" s="92"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="118" t="str">
+        <v>生技（#{?progress_management_seigi_design_name_4}）</v>
       </c>
       <c r="I30" s="118"/>
       <c r="J30" s="118"/>
-      <c r="K30" s="297" t="s">
-        <v>103</v>
-      </c>
-      <c r="L30" s="298"/>
-      <c r="M30" s="297" t="s">
-        <v>104</v>
-      </c>
-      <c r="N30" s="298"/>
-      <c r="O30" s="314" t="s">
-        <v>209</v>
-      </c>
-      <c r="P30" s="315"/>
-      <c r="Q30" s="315"/>
-      <c r="R30" s="315"/>
-      <c r="S30" s="315"/>
-      <c r="T30" s="315"/>
-      <c r="U30" s="315"/>
-      <c r="V30" s="315"/>
-      <c r="W30" s="315"/>
-      <c r="X30" s="316"/>
+      <c r="K30" s="347" t="str">
+        <v>#{?progress_management_seigi_design_yotei_4}</v>
+      </c>
+      <c r="L30" s="348"/>
+      <c r="M30" s="347" t="str">
+        <v>#{?progress_management_seigi_design_kanryou_4}</v>
+      </c>
+      <c r="N30" s="348"/>
+      <c r="O30" s="378" t="str">
+        <v>設備名：#{?progress_management_seigi_equipment_name_4}</v>
+      </c>
+      <c r="P30" s="379"/>
+      <c r="Q30" s="379"/>
+      <c r="R30" s="379"/>
+      <c r="S30" s="379"/>
+      <c r="T30" s="379"/>
+      <c r="U30" s="379"/>
+      <c r="V30" s="379"/>
+      <c r="W30" s="379"/>
+      <c r="X30" s="380"/>
       <c r="Y30" s="254"/>
       <c r="Z30" s="341"/>
     </row>
-    <row r="31" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+    <row r="31" spans="1:26" customFormat="false">
       <c r="A31" s="100"/>
       <c r="B31" s="360"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="367" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="367"/>
-      <c r="F31" s="367"/>
-      <c r="G31" s="367"/>
-      <c r="H31" s="319" t="s">
-        <v>32</v>
-      </c>
-      <c r="I31" s="319"/>
-      <c r="J31" s="319"/>
-      <c r="K31" s="320" t="s">
-        <v>107</v>
-      </c>
-      <c r="L31" s="321"/>
-      <c r="M31" s="320" t="s">
-        <v>108</v>
-      </c>
-      <c r="N31" s="321"/>
-      <c r="O31" s="317"/>
-      <c r="P31" s="318"/>
-      <c r="Q31" s="318"/>
-      <c r="R31" s="318"/>
-      <c r="S31" s="318"/>
-      <c r="T31" s="318"/>
-      <c r="U31" s="318"/>
-      <c r="V31" s="318"/>
-      <c r="W31" s="318"/>
-      <c r="X31" s="318"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="351" t="str">
+        <v>設備製作</v>
+      </c>
+      <c r="E31" s="92"/>
+      <c r="F31" s="61" t="str">
+        <v>組立</v>
+      </c>
+      <c r="G31" s="62"/>
+      <c r="H31" s="118" t="str">
+        <v>生技（#{?progress_management_seigi_assembly_name_4}）</v>
+      </c>
+      <c r="I31" s="118"/>
+      <c r="J31" s="118"/>
+      <c r="K31" s="347" t="str">
+        <v>#{?progress_management_seigi_assembly_yotei_4}</v>
+      </c>
+      <c r="L31" s="348"/>
+      <c r="M31" s="347" t="str">
+        <v>#{?progress_management_seigi_assembly_kanryou_4}</v>
+      </c>
+      <c r="N31" s="348"/>
+      <c r="O31" s="378"/>
+      <c r="P31" s="379"/>
+      <c r="Q31" s="379"/>
+      <c r="R31" s="379"/>
+      <c r="S31" s="379"/>
+      <c r="T31" s="379"/>
+      <c r="U31" s="379"/>
+      <c r="V31" s="379"/>
+      <c r="W31" s="379"/>
+      <c r="X31" s="380"/>
       <c r="Y31" s="254"/>
       <c r="Z31" s="341"/>
     </row>
-    <row r="32" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A32" s="6" t="s">
-        <v>34</v>
-      </c>
+    <row r="32" spans="1:26" customFormat="false">
+      <c r="A32" s="100"/>
       <c r="B32" s="360"/>
-      <c r="C32" s="356" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="370" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="371"/>
-      <c r="F32" s="371"/>
-      <c r="G32" s="371"/>
-      <c r="H32" s="340" t="s">
-        <v>32</v>
-      </c>
-      <c r="I32" s="340"/>
-      <c r="J32" s="340"/>
-      <c r="K32" s="368" t="s">
-        <v>109</v>
-      </c>
-      <c r="L32" s="369"/>
-      <c r="M32" s="368" t="s">
-        <v>110</v>
-      </c>
-      <c r="N32" s="369"/>
-      <c r="O32" s="292"/>
-      <c r="P32" s="293"/>
-      <c r="Q32" s="293"/>
-      <c r="R32" s="293"/>
-      <c r="S32" s="293"/>
-      <c r="T32" s="293"/>
-      <c r="U32" s="293"/>
-      <c r="V32" s="293"/>
-      <c r="W32" s="293"/>
-      <c r="X32" s="293"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="351"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="61" t="str">
+        <v>配線</v>
+      </c>
+      <c r="G32" s="62"/>
+      <c r="H32" s="118" t="str">
+        <v>生技（#{?progress_management_seigi_wiring_name_4}）</v>
+      </c>
+      <c r="I32" s="118"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="347" t="str">
+        <v>#{?progress_management_seigi_wiring_yotei_4}</v>
+      </c>
+      <c r="L32" s="348"/>
+      <c r="M32" s="347" t="str">
+        <v>#{?progress_management_seigi_wiring_kanryou_4}</v>
+      </c>
+      <c r="N32" s="348"/>
+      <c r="O32" s="378"/>
+      <c r="P32" s="379"/>
+      <c r="Q32" s="379"/>
+      <c r="R32" s="379"/>
+      <c r="S32" s="379"/>
+      <c r="T32" s="379"/>
+      <c r="U32" s="379"/>
+      <c r="V32" s="379"/>
+      <c r="W32" s="379"/>
+      <c r="X32" s="380"/>
       <c r="Y32" s="254"/>
       <c r="Z32" s="341"/>
     </row>
-    <row r="33" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A33" s="97" t="s">
-        <v>37</v>
-      </c>
+    <row r="33" spans="1:26" customFormat="false">
+      <c r="A33" s="100"/>
       <c r="B33" s="360"/>
-      <c r="C33" s="357"/>
-      <c r="D33" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="108" t="s">
-        <v>32</v>
-      </c>
-      <c r="I33" s="108"/>
-      <c r="J33" s="108"/>
-      <c r="K33" s="297" t="s">
-        <v>111</v>
-      </c>
-      <c r="L33" s="298"/>
-      <c r="M33" s="297" t="s">
-        <v>112</v>
-      </c>
-      <c r="N33" s="298"/>
-      <c r="O33" s="67"/>
-      <c r="P33" s="307"/>
-      <c r="Q33" s="307"/>
-      <c r="R33" s="307"/>
-      <c r="S33" s="307"/>
-      <c r="T33" s="307"/>
-      <c r="U33" s="307"/>
-      <c r="V33" s="307"/>
-      <c r="W33" s="307"/>
-      <c r="X33" s="307"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="351"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="61" t="str">
+        <v>プログラム</v>
+      </c>
+      <c r="G33" s="62"/>
+      <c r="H33" s="118" t="str">
+        <v>生技（#{?progress_management_seigi_program_name_4}）</v>
+      </c>
+      <c r="I33" s="118"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="347" t="str">
+        <v>#{?progress_management_seigi_program_yotei_4}</v>
+      </c>
+      <c r="L33" s="348"/>
+      <c r="M33" s="347" t="str">
+        <v>#{?progress_management_seigi_program_kanryou_4}</v>
+      </c>
+      <c r="N33" s="348"/>
+      <c r="O33" s="378"/>
+      <c r="P33" s="379"/>
+      <c r="Q33" s="379"/>
+      <c r="R33" s="379"/>
+      <c r="S33" s="379"/>
+      <c r="T33" s="379"/>
+      <c r="U33" s="379"/>
+      <c r="V33" s="379"/>
+      <c r="W33" s="379"/>
+      <c r="X33" s="380"/>
       <c r="Y33" s="254"/>
       <c r="Z33" s="341"/>
     </row>
-    <row r="34" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A34" s="97"/>
+    <row r="34" spans="1:26" customFormat="false">
+      <c r="A34" s="100"/>
       <c r="B34" s="360"/>
-      <c r="C34" s="357"/>
-      <c r="D34" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="108" t="s">
-        <v>32</v>
-      </c>
-      <c r="I34" s="108"/>
-      <c r="J34" s="108"/>
-      <c r="K34" s="297" t="s">
-        <v>113</v>
-      </c>
-      <c r="L34" s="298"/>
-      <c r="M34" s="297" t="s">
-        <v>114</v>
-      </c>
-      <c r="N34" s="298"/>
-      <c r="O34" s="67"/>
-      <c r="P34" s="307"/>
-      <c r="Q34" s="307"/>
-      <c r="R34" s="307"/>
-      <c r="S34" s="307"/>
-      <c r="T34" s="307"/>
-      <c r="U34" s="307"/>
-      <c r="V34" s="307"/>
-      <c r="W34" s="307"/>
-      <c r="X34" s="307"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="351" t="str">
+        <v>設備設計</v>
+      </c>
+      <c r="E34" s="92"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="118" t="str">
+        <v>生技（#{?progress_management_seigi_design_name_5}）</v>
+      </c>
+      <c r="I34" s="118"/>
+      <c r="J34" s="118"/>
+      <c r="K34" s="347" t="str">
+        <v>#{?progress_management_seigi_design_yotei_5}</v>
+      </c>
+      <c r="L34" s="348"/>
+      <c r="M34" s="347" t="str">
+        <v>#{?progress_management_seigi_design_kanryou_5}</v>
+      </c>
+      <c r="N34" s="348"/>
+      <c r="O34" s="378" t="str">
+        <v>設備名：#{?progress_management_seigi_equipment_name_5}</v>
+      </c>
+      <c r="P34" s="379"/>
+      <c r="Q34" s="379"/>
+      <c r="R34" s="379"/>
+      <c r="S34" s="379"/>
+      <c r="T34" s="379"/>
+      <c r="U34" s="379"/>
+      <c r="V34" s="379"/>
+      <c r="W34" s="379"/>
+      <c r="X34" s="380"/>
       <c r="Y34" s="254"/>
       <c r="Z34" s="341"/>
     </row>
-    <row r="35" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A35" s="97"/>
+    <row r="35" spans="1:26" customFormat="false">
+      <c r="A35" s="100"/>
       <c r="B35" s="360"/>
-      <c r="C35" s="357"/>
-      <c r="D35" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="108" t="s">
-        <v>32</v>
-      </c>
-      <c r="I35" s="108"/>
-      <c r="J35" s="108"/>
-      <c r="K35" s="297" t="s">
-        <v>113</v>
-      </c>
-      <c r="L35" s="298"/>
-      <c r="M35" s="297" t="s">
-        <v>114</v>
-      </c>
-      <c r="N35" s="298"/>
-      <c r="O35" s="67"/>
-      <c r="P35" s="307"/>
-      <c r="Q35" s="307"/>
-      <c r="R35" s="307"/>
-      <c r="S35" s="307"/>
-      <c r="T35" s="307"/>
-      <c r="U35" s="307"/>
-      <c r="V35" s="307"/>
-      <c r="W35" s="307"/>
-      <c r="X35" s="307"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="351" t="str">
+        <v>設備製作</v>
+      </c>
+      <c r="E35" s="92"/>
+      <c r="F35" s="61" t="str">
+        <v>組立</v>
+      </c>
+      <c r="G35" s="62"/>
+      <c r="H35" s="118" t="str">
+        <v>生技（#{?progress_management_seigi_assembly_name_5}）</v>
+      </c>
+      <c r="I35" s="118"/>
+      <c r="J35" s="118"/>
+      <c r="K35" s="347" t="str">
+        <v>#{?progress_management_seigi_assembly_yotei_5}</v>
+      </c>
+      <c r="L35" s="348"/>
+      <c r="M35" s="347" t="str">
+        <v>#{?progress_management_seigi_assembly_kanryou_5}</v>
+      </c>
+      <c r="N35" s="348"/>
+      <c r="O35" s="378"/>
+      <c r="P35" s="379"/>
+      <c r="Q35" s="379"/>
+      <c r="R35" s="379"/>
+      <c r="S35" s="379"/>
+      <c r="T35" s="379"/>
+      <c r="U35" s="379"/>
+      <c r="V35" s="379"/>
+      <c r="W35" s="379"/>
+      <c r="X35" s="380"/>
       <c r="Y35" s="254"/>
       <c r="Z35" s="341"/>
     </row>
-    <row r="36" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A36" s="97"/>
+    <row r="36" spans="1:26" customFormat="false">
+      <c r="A36" s="100"/>
       <c r="B36" s="360"/>
-      <c r="C36" s="357"/>
-      <c r="D36" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="108" t="s">
-        <v>222</v>
-      </c>
-      <c r="I36" s="108"/>
-      <c r="J36" s="108"/>
-      <c r="K36" s="297" t="s">
-        <v>113</v>
-      </c>
-      <c r="L36" s="298"/>
-      <c r="M36" s="297" t="s">
-        <v>114</v>
-      </c>
-      <c r="N36" s="298"/>
-      <c r="O36" s="67"/>
-      <c r="P36" s="307"/>
-      <c r="Q36" s="307"/>
-      <c r="R36" s="307"/>
-      <c r="S36" s="307"/>
-      <c r="T36" s="307"/>
-      <c r="U36" s="307"/>
-      <c r="V36" s="307"/>
-      <c r="W36" s="307"/>
-      <c r="X36" s="307"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="351"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="61" t="str">
+        <v>配線</v>
+      </c>
+      <c r="G36" s="62"/>
+      <c r="H36" s="118" t="str">
+        <v>生技（#{?progress_management_seigi_wiring_name_5}）</v>
+      </c>
+      <c r="I36" s="118"/>
+      <c r="J36" s="118"/>
+      <c r="K36" s="347" t="str">
+        <v>#{?progress_management_seigi_wiring_yotei_5}</v>
+      </c>
+      <c r="L36" s="348"/>
+      <c r="M36" s="347" t="str">
+        <v>#{?progress_management_seigi_wiring_kanryou_5}</v>
+      </c>
+      <c r="N36" s="348"/>
+      <c r="O36" s="378"/>
+      <c r="P36" s="379"/>
+      <c r="Q36" s="379"/>
+      <c r="R36" s="379"/>
+      <c r="S36" s="379"/>
+      <c r="T36" s="379"/>
+      <c r="U36" s="379"/>
+      <c r="V36" s="379"/>
+      <c r="W36" s="379"/>
+      <c r="X36" s="380"/>
       <c r="Y36" s="254"/>
       <c r="Z36" s="341"/>
     </row>
-    <row r="37" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A37" s="97"/>
+    <row r="37" spans="1:26" customFormat="false">
+      <c r="A37" s="100"/>
       <c r="B37" s="360"/>
-      <c r="C37" s="357"/>
-      <c r="D37" s="88" t="s">
-        <v>205</v>
-      </c>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="75" t="s">
-        <v>210</v>
-      </c>
-      <c r="I37" s="76"/>
-      <c r="J37" s="77"/>
-      <c r="K37" s="81" t="s">
-        <v>107</v>
-      </c>
-      <c r="L37" s="82"/>
-      <c r="M37" s="81" t="s">
-        <v>108</v>
-      </c>
-      <c r="N37" s="82"/>
-      <c r="O37" s="72" t="s">
-        <v>216</v>
-      </c>
-      <c r="P37" s="73"/>
-      <c r="Q37" s="73"/>
-      <c r="R37" s="73"/>
-      <c r="S37" s="74"/>
-      <c r="T37" s="72" t="s">
-        <v>213</v>
-      </c>
-      <c r="U37" s="73"/>
-      <c r="V37" s="73"/>
-      <c r="W37" s="73"/>
-      <c r="X37" s="74"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="351"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="61" t="str">
+        <v>プログラム</v>
+      </c>
+      <c r="G37" s="62"/>
+      <c r="H37" s="118" t="str">
+        <v>生技（#{?progress_management_seigi_program_name_5}）</v>
+      </c>
+      <c r="I37" s="118"/>
+      <c r="J37" s="118"/>
+      <c r="K37" s="347" t="str">
+        <v>#{?progress_management_seigi_program_yotei_5}</v>
+      </c>
+      <c r="L37" s="348"/>
+      <c r="M37" s="347" t="str">
+        <v>#{?progress_management_seigi_program_kanryou_5}</v>
+      </c>
+      <c r="N37" s="348"/>
+      <c r="O37" s="378"/>
+      <c r="P37" s="379"/>
+      <c r="Q37" s="379"/>
+      <c r="R37" s="379"/>
+      <c r="S37" s="379"/>
+      <c r="T37" s="379"/>
+      <c r="U37" s="379"/>
+      <c r="V37" s="379"/>
+      <c r="W37" s="379"/>
+      <c r="X37" s="380"/>
       <c r="Y37" s="254"/>
       <c r="Z37" s="341"/>
     </row>
     <row r="38" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A38" s="97"/>
+      <c r="A38" s="100"/>
       <c r="B38" s="360"/>
-      <c r="C38" s="357"/>
-      <c r="D38" s="90"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="91"/>
-      <c r="H38" s="78"/>
-      <c r="I38" s="79"/>
-      <c r="J38" s="80"/>
-      <c r="K38" s="83"/>
-      <c r="L38" s="84"/>
-      <c r="M38" s="83"/>
-      <c r="N38" s="84"/>
-      <c r="O38" s="72" t="s">
-        <v>217</v>
-      </c>
-      <c r="P38" s="73"/>
-      <c r="Q38" s="73"/>
-      <c r="R38" s="73"/>
-      <c r="S38" s="74"/>
-      <c r="T38" s="72" t="s">
-        <v>215</v>
-      </c>
-      <c r="U38" s="73"/>
-      <c r="V38" s="73"/>
-      <c r="W38" s="73"/>
-      <c r="X38" s="74"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="G38" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="H38" s="117" t="s">
+        <v>148</v>
+      </c>
+      <c r="I38" s="117"/>
+      <c r="J38" s="117"/>
+      <c r="K38" s="297" t="s">
+        <v>149</v>
+      </c>
+      <c r="L38" s="298"/>
+      <c r="M38" s="297" t="s">
+        <v>150</v>
+      </c>
+      <c r="N38" s="298"/>
+      <c r="O38" s="333" t="s">
+        <v>196</v>
+      </c>
+      <c r="P38" s="334"/>
+      <c r="Q38" s="334"/>
+      <c r="R38" s="334"/>
+      <c r="S38" s="334"/>
+      <c r="T38" s="334"/>
+      <c r="U38" s="334"/>
+      <c r="V38" s="334"/>
+      <c r="W38" s="334"/>
+      <c r="X38" s="334"/>
       <c r="Y38" s="254"/>
       <c r="Z38" s="341"/>
     </row>
     <row r="39" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A39" s="97"/>
+      <c r="A39" s="100"/>
       <c r="B39" s="360"/>
-      <c r="C39" s="357"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="93"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="60"/>
-      <c r="M39" s="59"/>
-      <c r="N39" s="60"/>
-      <c r="O39" s="72" t="s">
-        <v>218</v>
-      </c>
-      <c r="P39" s="73"/>
-      <c r="Q39" s="73"/>
-      <c r="R39" s="73"/>
-      <c r="S39" s="74"/>
-      <c r="T39" s="72" t="s">
-        <v>214</v>
-      </c>
-      <c r="U39" s="73"/>
-      <c r="V39" s="73"/>
-      <c r="W39" s="73"/>
-      <c r="X39" s="74"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="118" t="s">
+        <v>228</v>
+      </c>
+      <c r="I39" s="118" t="s">
+        <v>162</v>
+      </c>
+      <c r="J39" s="118" t="s">
+        <v>162</v>
+      </c>
+      <c r="K39" s="297" t="s">
+        <v>229</v>
+      </c>
+      <c r="L39" s="298"/>
+      <c r="M39" s="297" t="s">
+        <v>230</v>
+      </c>
+      <c r="N39" s="298"/>
+      <c r="O39" s="333" t="s">
+        <v>231</v>
+      </c>
+      <c r="P39" s="334"/>
+      <c r="Q39" s="334"/>
+      <c r="R39" s="334"/>
+      <c r="S39" s="334"/>
+      <c r="T39" s="334"/>
+      <c r="U39" s="334"/>
+      <c r="V39" s="334"/>
+      <c r="W39" s="334"/>
+      <c r="X39" s="334"/>
       <c r="Y39" s="254"/>
       <c r="Z39" s="341"/>
     </row>
-    <row r="40" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A40" s="97"/>
+    <row r="40" spans="1:26" customFormat="false">
+      <c r="A40" s="100"/>
       <c r="B40" s="360"/>
-      <c r="C40" s="357"/>
-      <c r="D40" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I40" s="86"/>
-      <c r="J40" s="87"/>
-      <c r="K40" s="72" t="s">
-        <v>113</v>
-      </c>
-      <c r="L40" s="74"/>
-      <c r="M40" s="72" t="s">
-        <v>114</v>
-      </c>
-      <c r="N40" s="74"/>
-      <c r="O40" s="69"/>
-      <c r="P40" s="70"/>
-      <c r="Q40" s="70"/>
-      <c r="R40" s="70"/>
-      <c r="S40" s="70"/>
-      <c r="T40" s="70"/>
-      <c r="U40" s="70"/>
-      <c r="V40" s="70"/>
-      <c r="W40" s="70"/>
-      <c r="X40" s="71"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="118" t="str">
+        <v>生技（#{?dr_setsubi_designer_2}）</v>
+      </c>
+      <c r="I40" s="118"/>
+      <c r="J40" s="118"/>
+      <c r="K40" s="297" t="str">
+        <v>#{?dr_setsubi_yotei_2}</v>
+      </c>
+      <c r="L40" s="298"/>
+      <c r="M40" s="297" t="str">
+        <v>#{?dr_setsubi_kanryou_2}</v>
+      </c>
+      <c r="N40" s="298"/>
+      <c r="O40" s="333" t="str">
+        <v>#{?dr_setsubi_shiteki_2}</v>
+      </c>
+      <c r="P40" s="334"/>
+      <c r="Q40" s="334"/>
+      <c r="R40" s="334"/>
+      <c r="S40" s="334"/>
+      <c r="T40" s="334"/>
+      <c r="U40" s="334"/>
+      <c r="V40" s="334"/>
+      <c r="W40" s="334"/>
+      <c r="X40" s="334"/>
       <c r="Y40" s="254"/>
       <c r="Z40" s="341"/>
     </row>
-    <row r="41" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A41" s="97"/>
+    <row r="41" spans="1:26" customFormat="false">
+      <c r="A41" s="100"/>
       <c r="B41" s="360"/>
-      <c r="C41" s="357"/>
-      <c r="D41" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I41" s="86"/>
-      <c r="J41" s="87"/>
-      <c r="K41" s="72" t="s">
-        <v>113</v>
-      </c>
-      <c r="L41" s="74"/>
-      <c r="M41" s="72" t="s">
-        <v>114</v>
-      </c>
-      <c r="N41" s="74"/>
-      <c r="O41" s="69"/>
-      <c r="P41" s="70"/>
-      <c r="Q41" s="70"/>
-      <c r="R41" s="70"/>
-      <c r="S41" s="70"/>
-      <c r="T41" s="70"/>
-      <c r="U41" s="70"/>
-      <c r="V41" s="70"/>
-      <c r="W41" s="70"/>
-      <c r="X41" s="71"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="118" t="str">
+        <v>生技（#{?dr_setsubi_designer_3}）</v>
+      </c>
+      <c r="I41" s="118"/>
+      <c r="J41" s="118"/>
+      <c r="K41" s="297" t="str">
+        <v>#{?dr_setsubi_yotei_3}</v>
+      </c>
+      <c r="L41" s="298"/>
+      <c r="M41" s="297" t="str">
+        <v>#{?dr_setsubi_kanryou_3}</v>
+      </c>
+      <c r="N41" s="298"/>
+      <c r="O41" s="333" t="str">
+        <v>#{?dr_setsubi_shiteki_3}</v>
+      </c>
+      <c r="P41" s="334"/>
+      <c r="Q41" s="334"/>
+      <c r="R41" s="334"/>
+      <c r="S41" s="334"/>
+      <c r="T41" s="334"/>
+      <c r="U41" s="334"/>
+      <c r="V41" s="334"/>
+      <c r="W41" s="334"/>
+      <c r="X41" s="334"/>
       <c r="Y41" s="254"/>
       <c r="Z41" s="341"/>
     </row>
-    <row r="42" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A42" s="97"/>
+    <row r="42" spans="1:26" customFormat="false">
+      <c r="A42" s="100"/>
       <c r="B42" s="360"/>
-      <c r="C42" s="357"/>
-      <c r="D42" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="108" t="s">
-        <v>32</v>
-      </c>
-      <c r="I42" s="108"/>
-      <c r="J42" s="108"/>
-      <c r="K42" s="297" t="s">
-        <v>194</v>
+      <c r="C42" s="102"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="118" t="str">
+        <v>生技（#{?dr_setsubi_designer_4}）</v>
+      </c>
+      <c r="I42" s="118"/>
+      <c r="J42" s="118"/>
+      <c r="K42" s="297" t="str">
+        <v>#{?dr_setsubi_yotei_4}</v>
       </c>
       <c r="L42" s="298"/>
-      <c r="M42" s="297" t="s">
-        <v>195</v>
+      <c r="M42" s="297" t="str">
+        <v>#{?dr_setsubi_kanryou_4}</v>
       </c>
       <c r="N42" s="298"/>
-      <c r="O42" s="67"/>
-      <c r="P42" s="307"/>
-      <c r="Q42" s="307"/>
-      <c r="R42" s="307"/>
-      <c r="S42" s="307"/>
-      <c r="T42" s="307"/>
-      <c r="U42" s="307"/>
-      <c r="V42" s="307"/>
-      <c r="W42" s="307"/>
-      <c r="X42" s="307"/>
+      <c r="O42" s="333" t="str">
+        <v>#{?dr_setsubi_shiteki_4}</v>
+      </c>
+      <c r="P42" s="334"/>
+      <c r="Q42" s="334"/>
+      <c r="R42" s="334"/>
+      <c r="S42" s="334"/>
+      <c r="T42" s="334"/>
+      <c r="U42" s="334"/>
+      <c r="V42" s="334"/>
+      <c r="W42" s="334"/>
+      <c r="X42" s="334"/>
       <c r="Y42" s="254"/>
       <c r="Z42" s="341"/>
     </row>
-    <row r="43" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A43" s="97"/>
+    <row r="43" spans="1:26" customFormat="false">
+      <c r="A43" s="100"/>
       <c r="B43" s="360"/>
-      <c r="C43" s="357"/>
-      <c r="D43" s="32" t="s">
-        <v>190</v>
-      </c>
+      <c r="C43" s="102"/>
+      <c r="D43" s="31"/>
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
       <c r="G43" s="33"/>
-      <c r="H43" s="118" t="s">
-        <v>224</v>
+      <c r="H43" s="118" t="str">
+        <v>生技（#{?dr_setsubi_designer_5}）</v>
       </c>
       <c r="I43" s="118"/>
       <c r="J43" s="118"/>
-      <c r="K43" s="297" t="s">
-        <v>225</v>
+      <c r="K43" s="297" t="str">
+        <v>#{?dr_setsubi_yotei_5}</v>
       </c>
       <c r="L43" s="298"/>
-      <c r="M43" s="297" t="s">
-        <v>226</v>
+      <c r="M43" s="297" t="str">
+        <v>#{?dr_setsubi_kanryou_5}</v>
       </c>
       <c r="N43" s="298"/>
-      <c r="O43" s="314" t="s">
-        <v>227</v>
-      </c>
-      <c r="P43" s="315"/>
-      <c r="Q43" s="315"/>
-      <c r="R43" s="315"/>
-      <c r="S43" s="315"/>
-      <c r="T43" s="315"/>
-      <c r="U43" s="315"/>
-      <c r="V43" s="315"/>
-      <c r="W43" s="315"/>
-      <c r="X43" s="316"/>
+      <c r="O43" s="333" t="str">
+        <v>#{?dr_setsubi_shiteki_5}</v>
+      </c>
+      <c r="P43" s="334"/>
+      <c r="Q43" s="334"/>
+      <c r="R43" s="334"/>
+      <c r="S43" s="334"/>
+      <c r="T43" s="334"/>
+      <c r="U43" s="334"/>
+      <c r="V43" s="334"/>
+      <c r="W43" s="334"/>
+      <c r="X43" s="334"/>
       <c r="Y43" s="254"/>
       <c r="Z43" s="341"/>
     </row>
-    <row r="44" spans="1:26" customFormat="false">
-      <c r="A44" s="97"/>
+    <row r="44" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A44" s="100"/>
       <c r="B44" s="360"/>
-      <c r="C44" s="357"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="118" t="str">
-        <v>品証（#{?msa_crosstab_person_in_charge_2}）</v>
-      </c>
-      <c r="I44" s="118"/>
-      <c r="J44" s="118"/>
-      <c r="K44" s="297" t="str">
-        <v>#{?msa_crosstab_yotei_2}</v>
+      <c r="C44" s="102"/>
+      <c r="D44" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="108" t="s">
+        <v>30</v>
+      </c>
+      <c r="I44" s="108"/>
+      <c r="J44" s="108"/>
+      <c r="K44" s="297" t="s">
+        <v>105</v>
       </c>
       <c r="L44" s="298"/>
-      <c r="M44" s="297" t="str">
-        <v>#{?msa_crosstab_kanryou_2}</v>
+      <c r="M44" s="297" t="s">
+        <v>106</v>
       </c>
       <c r="N44" s="298"/>
-      <c r="O44" s="314" t="str">
-        <v>#{?inspector_name_a_2}：#{?inspector_a_result_2}、#{?inspector_name_b_2}：#{?inspector_b_result_2}、#{?inspector_name_c_2}：#{?inspector_c_result_2}</v>
-      </c>
-      <c r="P44" s="315"/>
-      <c r="Q44" s="315"/>
-      <c r="R44" s="315"/>
-      <c r="S44" s="315"/>
-      <c r="T44" s="315"/>
-      <c r="U44" s="315"/>
-      <c r="V44" s="315"/>
-      <c r="W44" s="315"/>
-      <c r="X44" s="316"/>
+      <c r="O44" s="67"/>
+      <c r="P44" s="68"/>
+      <c r="Q44" s="68"/>
+      <c r="R44" s="68"/>
+      <c r="S44" s="68"/>
+      <c r="T44" s="68"/>
+      <c r="U44" s="68"/>
+      <c r="V44" s="68"/>
+      <c r="W44" s="68"/>
+      <c r="X44" s="68"/>
       <c r="Y44" s="254"/>
       <c r="Z44" s="341"/>
     </row>
     <row r="45" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A45" s="97"/>
+      <c r="A45" s="100"/>
       <c r="B45" s="360"/>
-      <c r="C45" s="357"/>
-      <c r="D45" s="43" t="s">
-        <v>192</v>
+      <c r="C45" s="102"/>
+      <c r="D45" s="44" t="s">
+        <v>31</v>
       </c>
       <c r="E45" s="44"/>
       <c r="F45" s="44"/>
       <c r="G45" s="44"/>
-      <c r="H45" s="108" t="s">
-        <v>193</v>
-      </c>
-      <c r="I45" s="108"/>
-      <c r="J45" s="108"/>
-      <c r="K45" s="335"/>
-      <c r="L45" s="336"/>
-      <c r="M45" s="335"/>
-      <c r="N45" s="336"/>
-      <c r="O45" s="67"/>
-      <c r="P45" s="307"/>
-      <c r="Q45" s="307"/>
-      <c r="R45" s="307"/>
-      <c r="S45" s="307"/>
-      <c r="T45" s="307"/>
-      <c r="U45" s="307"/>
-      <c r="V45" s="307"/>
-      <c r="W45" s="307"/>
-      <c r="X45" s="307"/>
+      <c r="H45" s="118" t="s">
+        <v>201</v>
+      </c>
+      <c r="I45" s="118"/>
+      <c r="J45" s="118"/>
+      <c r="K45" s="297" t="s">
+        <v>103</v>
+      </c>
+      <c r="L45" s="298"/>
+      <c r="M45" s="297" t="s">
+        <v>104</v>
+      </c>
+      <c r="N45" s="298"/>
+      <c r="O45" s="314" t="s">
+        <v>209</v>
+      </c>
+      <c r="P45" s="315"/>
+      <c r="Q45" s="315"/>
+      <c r="R45" s="315"/>
+      <c r="S45" s="315"/>
+      <c r="T45" s="315"/>
+      <c r="U45" s="315"/>
+      <c r="V45" s="315"/>
+      <c r="W45" s="315"/>
+      <c r="X45" s="316"/>
       <c r="Y45" s="254"/>
       <c r="Z45" s="341"/>
     </row>
     <row r="46" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A46" s="97"/>
+      <c r="A46" s="100"/>
       <c r="B46" s="360"/>
-      <c r="C46" s="357"/>
-      <c r="D46" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="108" t="s">
-        <v>30</v>
-      </c>
-      <c r="I46" s="108"/>
-      <c r="J46" s="108"/>
-      <c r="K46" s="297" t="s">
-        <v>115</v>
-      </c>
-      <c r="L46" s="298"/>
-      <c r="M46" s="297" t="s">
-        <v>116</v>
-      </c>
-      <c r="N46" s="298"/>
-      <c r="O46" s="67"/>
-      <c r="P46" s="307"/>
-      <c r="Q46" s="307"/>
-      <c r="R46" s="307"/>
-      <c r="S46" s="307"/>
-      <c r="T46" s="307"/>
-      <c r="U46" s="307"/>
-      <c r="V46" s="307"/>
-      <c r="W46" s="307"/>
-      <c r="X46" s="307"/>
+      <c r="C46" s="103"/>
+      <c r="D46" s="367" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="367"/>
+      <c r="F46" s="367"/>
+      <c r="G46" s="367"/>
+      <c r="H46" s="319" t="s">
+        <v>32</v>
+      </c>
+      <c r="I46" s="319"/>
+      <c r="J46" s="319"/>
+      <c r="K46" s="320" t="s">
+        <v>107</v>
+      </c>
+      <c r="L46" s="321"/>
+      <c r="M46" s="320" t="s">
+        <v>108</v>
+      </c>
+      <c r="N46" s="321"/>
+      <c r="O46" s="317"/>
+      <c r="P46" s="318"/>
+      <c r="Q46" s="318"/>
+      <c r="R46" s="318"/>
+      <c r="S46" s="318"/>
+      <c r="T46" s="318"/>
+      <c r="U46" s="318"/>
+      <c r="V46" s="318"/>
+      <c r="W46" s="318"/>
+      <c r="X46" s="318"/>
       <c r="Y46" s="254"/>
       <c r="Z46" s="341"/>
     </row>
     <row r="47" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A47" s="98"/>
-      <c r="B47" s="361"/>
-      <c r="C47" s="358"/>
-      <c r="D47" s="344" t="s">
+      <c r="A47" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="360"/>
+      <c r="C47" s="356" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="370" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="371"/>
+      <c r="F47" s="371"/>
+      <c r="G47" s="371"/>
+      <c r="H47" s="340" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" s="340"/>
+      <c r="J47" s="340"/>
+      <c r="K47" s="368" t="s">
+        <v>109</v>
+      </c>
+      <c r="L47" s="369"/>
+      <c r="M47" s="368" t="s">
+        <v>110</v>
+      </c>
+      <c r="N47" s="369"/>
+      <c r="O47" s="292"/>
+      <c r="P47" s="293"/>
+      <c r="Q47" s="293"/>
+      <c r="R47" s="293"/>
+      <c r="S47" s="293"/>
+      <c r="T47" s="293"/>
+      <c r="U47" s="293"/>
+      <c r="V47" s="293"/>
+      <c r="W47" s="293"/>
+      <c r="X47" s="293"/>
+      <c r="Y47" s="254"/>
+      <c r="Z47" s="341"/>
+    </row>
+    <row r="48" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A48" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="360"/>
+      <c r="C48" s="357"/>
+      <c r="D48" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="I48" s="108"/>
+      <c r="J48" s="108"/>
+      <c r="K48" s="297" t="s">
+        <v>111</v>
+      </c>
+      <c r="L48" s="298"/>
+      <c r="M48" s="297" t="s">
+        <v>112</v>
+      </c>
+      <c r="N48" s="298"/>
+      <c r="O48" s="67"/>
+      <c r="P48" s="307"/>
+      <c r="Q48" s="307"/>
+      <c r="R48" s="307"/>
+      <c r="S48" s="307"/>
+      <c r="T48" s="307"/>
+      <c r="U48" s="307"/>
+      <c r="V48" s="307"/>
+      <c r="W48" s="307"/>
+      <c r="X48" s="307"/>
+      <c r="Y48" s="254"/>
+      <c r="Z48" s="341"/>
+    </row>
+    <row r="49" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A49" s="97"/>
+      <c r="B49" s="360"/>
+      <c r="C49" s="357"/>
+      <c r="D49" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" s="108"/>
+      <c r="J49" s="108"/>
+      <c r="K49" s="297" t="s">
+        <v>113</v>
+      </c>
+      <c r="L49" s="298"/>
+      <c r="M49" s="297" t="s">
+        <v>114</v>
+      </c>
+      <c r="N49" s="298"/>
+      <c r="O49" s="67"/>
+      <c r="P49" s="307"/>
+      <c r="Q49" s="307"/>
+      <c r="R49" s="307"/>
+      <c r="S49" s="307"/>
+      <c r="T49" s="307"/>
+      <c r="U49" s="307"/>
+      <c r="V49" s="307"/>
+      <c r="W49" s="307"/>
+      <c r="X49" s="307"/>
+      <c r="Y49" s="254"/>
+      <c r="Z49" s="341"/>
+    </row>
+    <row r="50" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A50" s="97"/>
+      <c r="B50" s="360"/>
+      <c r="C50" s="357"/>
+      <c r="D50" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="I50" s="108"/>
+      <c r="J50" s="108"/>
+      <c r="K50" s="297" t="s">
+        <v>113</v>
+      </c>
+      <c r="L50" s="298"/>
+      <c r="M50" s="297" t="s">
+        <v>114</v>
+      </c>
+      <c r="N50" s="298"/>
+      <c r="O50" s="67"/>
+      <c r="P50" s="307"/>
+      <c r="Q50" s="307"/>
+      <c r="R50" s="307"/>
+      <c r="S50" s="307"/>
+      <c r="T50" s="307"/>
+      <c r="U50" s="307"/>
+      <c r="V50" s="307"/>
+      <c r="W50" s="307"/>
+      <c r="X50" s="307"/>
+      <c r="Y50" s="254"/>
+      <c r="Z50" s="341"/>
+    </row>
+    <row r="51" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A51" s="97"/>
+      <c r="B51" s="360"/>
+      <c r="C51" s="357"/>
+      <c r="D51" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="108" t="s">
+        <v>222</v>
+      </c>
+      <c r="I51" s="108"/>
+      <c r="J51" s="108"/>
+      <c r="K51" s="297" t="s">
+        <v>113</v>
+      </c>
+      <c r="L51" s="298"/>
+      <c r="M51" s="297" t="s">
+        <v>114</v>
+      </c>
+      <c r="N51" s="298"/>
+      <c r="O51" s="67"/>
+      <c r="P51" s="307"/>
+      <c r="Q51" s="307"/>
+      <c r="R51" s="307"/>
+      <c r="S51" s="307"/>
+      <c r="T51" s="307"/>
+      <c r="U51" s="307"/>
+      <c r="V51" s="307"/>
+      <c r="W51" s="307"/>
+      <c r="X51" s="307"/>
+      <c r="Y51" s="254"/>
+      <c r="Z51" s="341"/>
+    </row>
+    <row r="52" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A52" s="97"/>
+      <c r="B52" s="360"/>
+      <c r="C52" s="357"/>
+      <c r="D52" s="88" t="s">
+        <v>205</v>
+      </c>
+      <c r="E52" s="88"/>
+      <c r="F52" s="88"/>
+      <c r="G52" s="89"/>
+      <c r="H52" s="75" t="s">
+        <v>210</v>
+      </c>
+      <c r="I52" s="76"/>
+      <c r="J52" s="77"/>
+      <c r="K52" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="L52" s="82"/>
+      <c r="M52" s="81" t="s">
+        <v>108</v>
+      </c>
+      <c r="N52" s="82"/>
+      <c r="O52" s="72" t="s">
+        <v>216</v>
+      </c>
+      <c r="P52" s="73"/>
+      <c r="Q52" s="73"/>
+      <c r="R52" s="73"/>
+      <c r="S52" s="74"/>
+      <c r="T52" s="72" t="s">
+        <v>213</v>
+      </c>
+      <c r="U52" s="73"/>
+      <c r="V52" s="73"/>
+      <c r="W52" s="73"/>
+      <c r="X52" s="74"/>
+      <c r="Y52" s="254"/>
+      <c r="Z52" s="341"/>
+    </row>
+    <row r="53" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A53" s="97"/>
+      <c r="B53" s="360"/>
+      <c r="C53" s="357"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="91"/>
+      <c r="H53" s="78"/>
+      <c r="I53" s="79"/>
+      <c r="J53" s="80"/>
+      <c r="K53" s="83"/>
+      <c r="L53" s="84"/>
+      <c r="M53" s="83"/>
+      <c r="N53" s="84"/>
+      <c r="O53" s="72" t="s">
+        <v>217</v>
+      </c>
+      <c r="P53" s="73"/>
+      <c r="Q53" s="73"/>
+      <c r="R53" s="73"/>
+      <c r="S53" s="74"/>
+      <c r="T53" s="72" t="s">
+        <v>215</v>
+      </c>
+      <c r="U53" s="73"/>
+      <c r="V53" s="73"/>
+      <c r="W53" s="73"/>
+      <c r="X53" s="74"/>
+      <c r="Y53" s="254"/>
+      <c r="Z53" s="341"/>
+    </row>
+    <row r="54" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A54" s="97"/>
+      <c r="B54" s="360"/>
+      <c r="C54" s="357"/>
+      <c r="D54" s="92"/>
+      <c r="E54" s="92"/>
+      <c r="F54" s="92"/>
+      <c r="G54" s="93"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="56"/>
+      <c r="K54" s="59"/>
+      <c r="L54" s="60"/>
+      <c r="M54" s="59"/>
+      <c r="N54" s="60"/>
+      <c r="O54" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="P54" s="73"/>
+      <c r="Q54" s="73"/>
+      <c r="R54" s="73"/>
+      <c r="S54" s="74"/>
+      <c r="T54" s="72" t="s">
+        <v>214</v>
+      </c>
+      <c r="U54" s="73"/>
+      <c r="V54" s="73"/>
+      <c r="W54" s="73"/>
+      <c r="X54" s="74"/>
+      <c r="Y54" s="254"/>
+      <c r="Z54" s="341"/>
+    </row>
+    <row r="55" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A55" s="97"/>
+      <c r="B55" s="360"/>
+      <c r="C55" s="357"/>
+      <c r="D55" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I55" s="86"/>
+      <c r="J55" s="87"/>
+      <c r="K55" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="L55" s="74"/>
+      <c r="M55" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="N55" s="74"/>
+      <c r="O55" s="69"/>
+      <c r="P55" s="70"/>
+      <c r="Q55" s="70"/>
+      <c r="R55" s="70"/>
+      <c r="S55" s="70"/>
+      <c r="T55" s="70"/>
+      <c r="U55" s="70"/>
+      <c r="V55" s="70"/>
+      <c r="W55" s="70"/>
+      <c r="X55" s="71"/>
+      <c r="Y55" s="254"/>
+      <c r="Z55" s="341"/>
+    </row>
+    <row r="56" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A56" s="97"/>
+      <c r="B56" s="360"/>
+      <c r="C56" s="357"/>
+      <c r="D56" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I56" s="86"/>
+      <c r="J56" s="87"/>
+      <c r="K56" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="L56" s="74"/>
+      <c r="M56" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="N56" s="74"/>
+      <c r="O56" s="69"/>
+      <c r="P56" s="70"/>
+      <c r="Q56" s="70"/>
+      <c r="R56" s="70"/>
+      <c r="S56" s="70"/>
+      <c r="T56" s="70"/>
+      <c r="U56" s="70"/>
+      <c r="V56" s="70"/>
+      <c r="W56" s="70"/>
+      <c r="X56" s="71"/>
+      <c r="Y56" s="254"/>
+      <c r="Z56" s="341"/>
+    </row>
+    <row r="57" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A57" s="97"/>
+      <c r="B57" s="360"/>
+      <c r="C57" s="357"/>
+      <c r="D57" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="I57" s="108"/>
+      <c r="J57" s="108"/>
+      <c r="K57" s="297" t="s">
+        <v>194</v>
+      </c>
+      <c r="L57" s="298"/>
+      <c r="M57" s="297" t="s">
+        <v>195</v>
+      </c>
+      <c r="N57" s="298"/>
+      <c r="O57" s="67"/>
+      <c r="P57" s="307"/>
+      <c r="Q57" s="307"/>
+      <c r="R57" s="307"/>
+      <c r="S57" s="307"/>
+      <c r="T57" s="307"/>
+      <c r="U57" s="307"/>
+      <c r="V57" s="307"/>
+      <c r="W57" s="307"/>
+      <c r="X57" s="307"/>
+      <c r="Y57" s="254"/>
+      <c r="Z57" s="341"/>
+    </row>
+    <row r="58" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A58" s="97"/>
+      <c r="B58" s="360"/>
+      <c r="C58" s="357"/>
+      <c r="D58" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="118" t="s">
+        <v>224</v>
+      </c>
+      <c r="I58" s="118"/>
+      <c r="J58" s="118"/>
+      <c r="K58" s="297" t="s">
+        <v>225</v>
+      </c>
+      <c r="L58" s="298"/>
+      <c r="M58" s="297" t="s">
+        <v>226</v>
+      </c>
+      <c r="N58" s="298"/>
+      <c r="O58" s="314" t="s">
+        <v>227</v>
+      </c>
+      <c r="P58" s="315"/>
+      <c r="Q58" s="315"/>
+      <c r="R58" s="315"/>
+      <c r="S58" s="315"/>
+      <c r="T58" s="315"/>
+      <c r="U58" s="315"/>
+      <c r="V58" s="315"/>
+      <c r="W58" s="315"/>
+      <c r="X58" s="316"/>
+      <c r="Y58" s="254"/>
+      <c r="Z58" s="341"/>
+    </row>
+    <row r="59" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A59" s="97"/>
+      <c r="B59" s="360"/>
+      <c r="C59" s="357"/>
+      <c r="D59" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="108" t="s">
+        <v>193</v>
+      </c>
+      <c r="I59" s="108"/>
+      <c r="J59" s="108"/>
+      <c r="K59" s="335"/>
+      <c r="L59" s="336"/>
+      <c r="M59" s="335"/>
+      <c r="N59" s="336"/>
+      <c r="O59" s="67"/>
+      <c r="P59" s="307"/>
+      <c r="Q59" s="307"/>
+      <c r="R59" s="307"/>
+      <c r="S59" s="307"/>
+      <c r="T59" s="307"/>
+      <c r="U59" s="307"/>
+      <c r="V59" s="307"/>
+      <c r="W59" s="307"/>
+      <c r="X59" s="307"/>
+      <c r="Y59" s="254"/>
+      <c r="Z59" s="341"/>
+    </row>
+    <row r="60" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A60" s="97"/>
+      <c r="B60" s="360"/>
+      <c r="C60" s="357"/>
+      <c r="D60" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="108" t="s">
+        <v>30</v>
+      </c>
+      <c r="I60" s="108"/>
+      <c r="J60" s="108"/>
+      <c r="K60" s="297" t="s">
+        <v>115</v>
+      </c>
+      <c r="L60" s="298"/>
+      <c r="M60" s="297" t="s">
+        <v>116</v>
+      </c>
+      <c r="N60" s="298"/>
+      <c r="O60" s="67"/>
+      <c r="P60" s="307"/>
+      <c r="Q60" s="307"/>
+      <c r="R60" s="307"/>
+      <c r="S60" s="307"/>
+      <c r="T60" s="307"/>
+      <c r="U60" s="307"/>
+      <c r="V60" s="307"/>
+      <c r="W60" s="307"/>
+      <c r="X60" s="307"/>
+      <c r="Y60" s="254"/>
+      <c r="Z60" s="341"/>
+    </row>
+    <row r="61" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A61" s="98"/>
+      <c r="B61" s="361"/>
+      <c r="C61" s="358"/>
+      <c r="D61" s="344" t="s">
         <v>245</v>
       </c>
-      <c r="E47" s="345"/>
-      <c r="F47" s="345"/>
-      <c r="G47" s="346"/>
-      <c r="H47" s="118" t="s">
+      <c r="E61" s="345"/>
+      <c r="F61" s="345"/>
+      <c r="G61" s="346"/>
+      <c r="H61" s="118" t="s">
         <v>248</v>
       </c>
-      <c r="I47" s="118"/>
-      <c r="J47" s="118"/>
-      <c r="K47" s="362" t="s">
+      <c r="I61" s="118"/>
+      <c r="J61" s="118"/>
+      <c r="K61" s="362" t="s">
         <v>246</v>
       </c>
-      <c r="L47" s="363"/>
-      <c r="M47" s="362" t="s">
+      <c r="L61" s="363"/>
+      <c r="M61" s="362" t="s">
         <v>247</v>
       </c>
-      <c r="N47" s="363"/>
-      <c r="O47" s="364" t="s">
+      <c r="N61" s="363"/>
+      <c r="O61" s="364" t="s">
         <v>249</v>
       </c>
-      <c r="P47" s="365"/>
-      <c r="Q47" s="365"/>
-      <c r="R47" s="365"/>
-      <c r="S47" s="365"/>
-      <c r="T47" s="365"/>
-      <c r="U47" s="365"/>
-      <c r="V47" s="365"/>
-      <c r="W47" s="365"/>
-      <c r="X47" s="366"/>
-      <c r="Y47" s="342"/>
-      <c r="Z47" s="343"/>
-    </row>
-    <row r="48" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A48" s="112" t="s">
+      <c r="P61" s="365"/>
+      <c r="Q61" s="365"/>
+      <c r="R61" s="365"/>
+      <c r="S61" s="365"/>
+      <c r="T61" s="365"/>
+      <c r="U61" s="365"/>
+      <c r="V61" s="365"/>
+      <c r="W61" s="365"/>
+      <c r="X61" s="366"/>
+      <c r="Y61" s="342"/>
+      <c r="Z61" s="343"/>
+    </row>
+    <row r="62" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A62" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="114" t="s">
+      <c r="B62" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="115"/>
-      <c r="D48" s="115"/>
-      <c r="E48" s="115"/>
-      <c r="F48" s="115"/>
-      <c r="G48" s="116"/>
-      <c r="H48" s="114" t="s">
+      <c r="C62" s="115"/>
+      <c r="D62" s="115"/>
+      <c r="E62" s="115"/>
+      <c r="F62" s="115"/>
+      <c r="G62" s="116"/>
+      <c r="H62" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="I48" s="115"/>
-      <c r="J48" s="115"/>
-      <c r="K48" s="115"/>
-      <c r="L48" s="115"/>
-      <c r="M48" s="115"/>
-      <c r="N48" s="115"/>
-      <c r="O48" s="115"/>
-      <c r="P48" s="115"/>
-      <c r="Q48" s="115"/>
-      <c r="R48" s="150"/>
-      <c r="S48" s="114" t="s">
+      <c r="I62" s="115"/>
+      <c r="J62" s="115"/>
+      <c r="K62" s="115"/>
+      <c r="L62" s="115"/>
+      <c r="M62" s="115"/>
+      <c r="N62" s="115"/>
+      <c r="O62" s="115"/>
+      <c r="P62" s="115"/>
+      <c r="Q62" s="115"/>
+      <c r="R62" s="150"/>
+      <c r="S62" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="T48" s="115"/>
-      <c r="U48" s="115"/>
-      <c r="V48" s="115"/>
-      <c r="W48" s="115"/>
-      <c r="X48" s="150"/>
-      <c r="Y48" s="114" t="s">
+      <c r="T62" s="115"/>
+      <c r="U62" s="115"/>
+      <c r="V62" s="115"/>
+      <c r="W62" s="115"/>
+      <c r="X62" s="150"/>
+      <c r="Y62" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="Z48" s="116"/>
-    </row>
-    <row r="49" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A49" s="113"/>
-      <c r="B49" s="22" t="s">
+      <c r="Z62" s="116"/>
+    </row>
+    <row r="63" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A63" s="113"/>
+      <c r="B63" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="165" t="s">
+      <c r="C63" s="165" t="s">
         <v>136</v>
       </c>
-      <c r="D49" s="165"/>
-      <c r="E49" s="165"/>
-      <c r="F49" s="165"/>
-      <c r="G49" s="166"/>
-      <c r="H49" s="123" t="s">
+      <c r="D63" s="165"/>
+      <c r="E63" s="165"/>
+      <c r="F63" s="165"/>
+      <c r="G63" s="166"/>
+      <c r="H63" s="123" t="s">
         <v>45</v>
       </c>
-      <c r="I49" s="124"/>
-      <c r="J49" s="124"/>
-      <c r="K49" s="124"/>
-      <c r="L49" s="124"/>
-      <c r="M49" s="124"/>
-      <c r="N49" s="124"/>
-      <c r="O49" s="124"/>
-      <c r="P49" s="124"/>
-      <c r="Q49" s="124"/>
-      <c r="R49" s="125"/>
-      <c r="S49" s="236" t="s">
+      <c r="I63" s="124"/>
+      <c r="J63" s="124"/>
+      <c r="K63" s="124"/>
+      <c r="L63" s="124"/>
+      <c r="M63" s="124"/>
+      <c r="N63" s="124"/>
+      <c r="O63" s="124"/>
+      <c r="P63" s="124"/>
+      <c r="Q63" s="124"/>
+      <c r="R63" s="125"/>
+      <c r="S63" s="236" t="s">
         <v>46</v>
       </c>
-      <c r="T49" s="237"/>
-      <c r="U49" s="237"/>
-      <c r="V49" s="237"/>
-      <c r="W49" s="237"/>
-      <c r="X49" s="238"/>
-      <c r="Y49" s="204" t="s">
+      <c r="T63" s="237"/>
+      <c r="U63" s="237"/>
+      <c r="V63" s="237"/>
+      <c r="W63" s="237"/>
+      <c r="X63" s="238"/>
+      <c r="Y63" s="204" t="s">
         <v>141</v>
       </c>
-      <c r="Z49" s="205"/>
-    </row>
-    <row r="50" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A50" s="113"/>
-      <c r="B50" s="23" t="s">
+      <c r="Z63" s="205"/>
+    </row>
+    <row r="64" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A64" s="113"/>
+      <c r="B64" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="C50" s="121" t="s">
+      <c r="C64" s="121" t="s">
         <v>137</v>
       </c>
-      <c r="D50" s="121"/>
-      <c r="E50" s="121"/>
-      <c r="F50" s="121"/>
-      <c r="G50" s="122"/>
-      <c r="H50" s="227" t="s">
+      <c r="D64" s="121"/>
+      <c r="E64" s="121"/>
+      <c r="F64" s="121"/>
+      <c r="G64" s="122"/>
+      <c r="H64" s="227" t="s">
         <v>47</v>
       </c>
-      <c r="I50" s="246"/>
-      <c r="J50" s="246"/>
-      <c r="K50" s="246"/>
-      <c r="L50" s="246"/>
-      <c r="M50" s="246"/>
-      <c r="N50" s="246"/>
-      <c r="O50" s="246"/>
-      <c r="P50" s="246"/>
-      <c r="Q50" s="246"/>
-      <c r="R50" s="247"/>
-      <c r="S50" s="283" t="s">
+      <c r="I64" s="246"/>
+      <c r="J64" s="246"/>
+      <c r="K64" s="246"/>
+      <c r="L64" s="246"/>
+      <c r="M64" s="246"/>
+      <c r="N64" s="246"/>
+      <c r="O64" s="246"/>
+      <c r="P64" s="246"/>
+      <c r="Q64" s="246"/>
+      <c r="R64" s="247"/>
+      <c r="S64" s="283" t="s">
         <v>48</v>
       </c>
-      <c r="T50" s="284"/>
-      <c r="U50" s="284"/>
-      <c r="V50" s="284"/>
-      <c r="W50" s="284"/>
-      <c r="X50" s="294"/>
-      <c r="Y50" s="206"/>
-      <c r="Z50" s="207"/>
-    </row>
-    <row r="51" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A51" s="113"/>
-      <c r="B51" s="24" t="s">
+      <c r="T64" s="284"/>
+      <c r="U64" s="284"/>
+      <c r="V64" s="284"/>
+      <c r="W64" s="284"/>
+      <c r="X64" s="294"/>
+      <c r="Y64" s="206"/>
+      <c r="Z64" s="207"/>
+    </row>
+    <row r="65" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A65" s="113"/>
+      <c r="B65" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C51" s="121" t="s">
+      <c r="C65" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="D51" s="121"/>
-      <c r="E51" s="121"/>
-      <c r="F51" s="121"/>
-      <c r="G51" s="122"/>
-      <c r="H51" s="227" t="s">
+      <c r="D65" s="121"/>
+      <c r="E65" s="121"/>
+      <c r="F65" s="121"/>
+      <c r="G65" s="122"/>
+      <c r="H65" s="227" t="s">
         <v>49</v>
       </c>
-      <c r="I51" s="228"/>
-      <c r="J51" s="228"/>
-      <c r="K51" s="228"/>
-      <c r="L51" s="228"/>
-      <c r="M51" s="228"/>
-      <c r="N51" s="228"/>
-      <c r="O51" s="228"/>
-      <c r="P51" s="228"/>
-      <c r="Q51" s="228"/>
-      <c r="R51" s="229"/>
-      <c r="S51" s="283"/>
-      <c r="T51" s="284"/>
-      <c r="U51" s="284"/>
-      <c r="V51" s="284"/>
-      <c r="W51" s="284"/>
-      <c r="X51" s="294"/>
-      <c r="Y51" s="206"/>
-      <c r="Z51" s="207"/>
-    </row>
-    <row r="52" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A52" s="8" t="s">
+      <c r="I65" s="228"/>
+      <c r="J65" s="228"/>
+      <c r="K65" s="228"/>
+      <c r="L65" s="228"/>
+      <c r="M65" s="228"/>
+      <c r="N65" s="228"/>
+      <c r="O65" s="228"/>
+      <c r="P65" s="228"/>
+      <c r="Q65" s="228"/>
+      <c r="R65" s="229"/>
+      <c r="S65" s="283"/>
+      <c r="T65" s="284"/>
+      <c r="U65" s="284"/>
+      <c r="V65" s="284"/>
+      <c r="W65" s="284"/>
+      <c r="X65" s="294"/>
+      <c r="Y65" s="206"/>
+      <c r="Z65" s="207"/>
+    </row>
+    <row r="66" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A66" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B66" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="C52" s="121" t="s">
+      <c r="C66" s="121" t="s">
         <v>182</v>
       </c>
-      <c r="D52" s="121"/>
-      <c r="E52" s="121"/>
-      <c r="F52" s="121"/>
-      <c r="G52" s="122"/>
-      <c r="H52" s="227"/>
-      <c r="I52" s="228"/>
-      <c r="J52" s="228"/>
-      <c r="K52" s="228"/>
-      <c r="L52" s="228"/>
-      <c r="M52" s="228"/>
-      <c r="N52" s="228"/>
-      <c r="O52" s="228"/>
-      <c r="P52" s="228"/>
-      <c r="Q52" s="228"/>
-      <c r="R52" s="229"/>
-      <c r="S52" s="295"/>
-      <c r="T52" s="296"/>
-      <c r="U52" s="296"/>
-      <c r="V52" s="296"/>
-      <c r="W52" s="296"/>
-      <c r="X52" s="294"/>
-      <c r="Y52" s="206"/>
-      <c r="Z52" s="207"/>
-    </row>
-    <row r="53" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A53" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C53" s="121" t="s">
-        <v>207</v>
-      </c>
-      <c r="D53" s="121"/>
-      <c r="E53" s="121"/>
-      <c r="F53" s="121"/>
-      <c r="G53" s="122"/>
-      <c r="H53" s="227"/>
-      <c r="I53" s="228"/>
-      <c r="J53" s="228"/>
-      <c r="K53" s="228"/>
-      <c r="L53" s="228"/>
-      <c r="M53" s="228"/>
-      <c r="N53" s="228"/>
-      <c r="O53" s="228"/>
-      <c r="P53" s="228"/>
-      <c r="Q53" s="228"/>
-      <c r="R53" s="229"/>
-      <c r="S53" s="295"/>
-      <c r="T53" s="296"/>
-      <c r="U53" s="296"/>
-      <c r="V53" s="296"/>
-      <c r="W53" s="296"/>
-      <c r="X53" s="294"/>
-      <c r="Y53" s="206"/>
-      <c r="Z53" s="207"/>
-    </row>
-    <row r="54" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A54" s="98"/>
-      <c r="B54" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C54" s="183"/>
-      <c r="D54" s="183"/>
-      <c r="E54" s="183"/>
-      <c r="F54" s="183"/>
-      <c r="G54" s="184"/>
-      <c r="H54" s="227"/>
-      <c r="I54" s="228"/>
-      <c r="J54" s="228"/>
-      <c r="K54" s="228"/>
-      <c r="L54" s="228"/>
-      <c r="M54" s="228"/>
-      <c r="N54" s="228"/>
-      <c r="O54" s="228"/>
-      <c r="P54" s="228"/>
-      <c r="Q54" s="228"/>
-      <c r="R54" s="229"/>
-      <c r="S54" s="295"/>
-      <c r="T54" s="296"/>
-      <c r="U54" s="296"/>
-      <c r="V54" s="296"/>
-      <c r="W54" s="296"/>
-      <c r="X54" s="294"/>
-      <c r="Y54" s="208"/>
-      <c r="Z54" s="209"/>
-    </row>
-    <row r="55" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A55" s="99" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" s="115"/>
-      <c r="D55" s="115"/>
-      <c r="E55" s="115"/>
-      <c r="F55" s="115"/>
-      <c r="G55" s="116"/>
-      <c r="H55" s="119" t="s">
-        <v>53</v>
-      </c>
-      <c r="I55" s="146"/>
-      <c r="J55" s="146"/>
-      <c r="K55" s="146"/>
-      <c r="L55" s="146"/>
-      <c r="M55" s="146"/>
-      <c r="N55" s="146"/>
-      <c r="O55" s="146"/>
-      <c r="P55" s="146"/>
-      <c r="Q55" s="146"/>
-      <c r="R55" s="120"/>
-      <c r="S55" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="T55" s="63"/>
-      <c r="U55" s="63"/>
-      <c r="V55" s="63"/>
-      <c r="W55" s="63"/>
-      <c r="X55" s="63"/>
-      <c r="Y55" s="114" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z55" s="116"/>
-    </row>
-    <row r="56" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A56" s="210"/>
-      <c r="B56" s="101" t="s">
-        <v>21</v>
-      </c>
-      <c r="C56" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="D56" s="187" t="s">
-        <v>134</v>
-      </c>
-      <c r="E56" s="187"/>
-      <c r="F56" s="187"/>
-      <c r="G56" s="188"/>
-      <c r="H56" s="123" t="s">
-        <v>55</v>
-      </c>
-      <c r="I56" s="124"/>
-      <c r="J56" s="124"/>
-      <c r="K56" s="124"/>
-      <c r="L56" s="124"/>
-      <c r="M56" s="124"/>
-      <c r="N56" s="124"/>
-      <c r="O56" s="124"/>
-      <c r="P56" s="124"/>
-      <c r="Q56" s="124"/>
-      <c r="R56" s="125"/>
-      <c r="S56" s="308" t="s">
-        <v>56</v>
-      </c>
-      <c r="T56" s="309"/>
-      <c r="U56" s="309"/>
-      <c r="V56" s="309"/>
-      <c r="W56" s="309"/>
-      <c r="X56" s="310"/>
-      <c r="Y56" s="204" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z56" s="205"/>
-    </row>
-    <row r="57" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A57" s="210"/>
-      <c r="B57" s="102"/>
-      <c r="C57" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="D57" s="189" t="s">
-        <v>166</v>
-      </c>
-      <c r="E57" s="189" t="s">
-        <v>162</v>
-      </c>
-      <c r="F57" s="189" t="s">
-        <v>162</v>
-      </c>
-      <c r="G57" s="190" t="s">
-        <v>162</v>
-      </c>
-      <c r="H57" s="215" t="s">
-        <v>57</v>
-      </c>
-      <c r="I57" s="216"/>
-      <c r="J57" s="216"/>
-      <c r="K57" s="216"/>
-      <c r="L57" s="216"/>
-      <c r="M57" s="216"/>
-      <c r="N57" s="216"/>
-      <c r="O57" s="216"/>
-      <c r="P57" s="216"/>
-      <c r="Q57" s="216"/>
-      <c r="R57" s="217"/>
-      <c r="S57" s="218"/>
-      <c r="T57" s="219"/>
-      <c r="U57" s="219"/>
-      <c r="V57" s="219"/>
-      <c r="W57" s="219"/>
-      <c r="X57" s="220"/>
-      <c r="Y57" s="206"/>
-      <c r="Z57" s="207"/>
-    </row>
-    <row r="58" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A58" s="210"/>
-      <c r="B58" s="102"/>
-      <c r="C58" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="D58" s="189" t="s">
-        <v>167</v>
-      </c>
-      <c r="E58" s="189" t="s">
-        <v>162</v>
-      </c>
-      <c r="F58" s="189" t="s">
-        <v>162</v>
-      </c>
-      <c r="G58" s="190" t="s">
-        <v>162</v>
-      </c>
-      <c r="H58" s="215" t="s">
-        <v>59</v>
-      </c>
-      <c r="I58" s="216"/>
-      <c r="J58" s="216"/>
-      <c r="K58" s="216"/>
-      <c r="L58" s="216"/>
-      <c r="M58" s="216"/>
-      <c r="N58" s="216"/>
-      <c r="O58" s="216"/>
-      <c r="P58" s="216"/>
-      <c r="Q58" s="216"/>
-      <c r="R58" s="217"/>
-      <c r="S58" s="218"/>
-      <c r="T58" s="219"/>
-      <c r="U58" s="219"/>
-      <c r="V58" s="219"/>
-      <c r="W58" s="219"/>
-      <c r="X58" s="220"/>
-      <c r="Y58" s="206"/>
-      <c r="Z58" s="207"/>
-    </row>
-    <row r="59" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A59" s="210"/>
-      <c r="B59" s="103"/>
-      <c r="C59" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="D59" s="183" t="s">
-        <v>153</v>
-      </c>
-      <c r="E59" s="183"/>
-      <c r="F59" s="183"/>
-      <c r="G59" s="184"/>
-      <c r="H59" s="227" t="s">
-        <v>61</v>
-      </c>
-      <c r="I59" s="228"/>
-      <c r="J59" s="228"/>
-      <c r="K59" s="228"/>
-      <c r="L59" s="228"/>
-      <c r="M59" s="228"/>
-      <c r="N59" s="228"/>
-      <c r="O59" s="228"/>
-      <c r="P59" s="228"/>
-      <c r="Q59" s="228"/>
-      <c r="R59" s="229"/>
-      <c r="S59" s="218"/>
-      <c r="T59" s="219"/>
-      <c r="U59" s="219"/>
-      <c r="V59" s="219"/>
-      <c r="W59" s="219"/>
-      <c r="X59" s="220"/>
-      <c r="Y59" s="206"/>
-      <c r="Z59" s="207"/>
-    </row>
-    <row r="60" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A60" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" s="101" t="s">
-        <v>58</v>
-      </c>
-      <c r="C60" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="D60" s="185" t="s">
-        <v>142</v>
-      </c>
-      <c r="E60" s="185"/>
-      <c r="F60" s="185"/>
-      <c r="G60" s="186"/>
-      <c r="H60" s="227" t="s">
-        <v>169</v>
-      </c>
-      <c r="I60" s="172"/>
-      <c r="J60" s="172"/>
-      <c r="K60" s="172"/>
-      <c r="L60" s="172"/>
-      <c r="M60" s="172"/>
-      <c r="N60" s="172"/>
-      <c r="O60" s="172"/>
-      <c r="P60" s="172"/>
-      <c r="Q60" s="172"/>
-      <c r="R60" s="173"/>
-      <c r="S60" s="221"/>
-      <c r="T60" s="222"/>
-      <c r="U60" s="222"/>
-      <c r="V60" s="222"/>
-      <c r="W60" s="222"/>
-      <c r="X60" s="223"/>
-      <c r="Y60" s="206"/>
-      <c r="Z60" s="207"/>
-    </row>
-    <row r="61" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A61" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="B61" s="102"/>
-      <c r="C61" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="D61" s="121" t="s">
-        <v>127</v>
-      </c>
-      <c r="E61" s="121"/>
-      <c r="F61" s="121"/>
-      <c r="G61" s="122"/>
-      <c r="H61" s="230" t="s">
-        <v>62</v>
-      </c>
-      <c r="I61" s="231"/>
-      <c r="J61" s="231"/>
-      <c r="K61" s="231"/>
-      <c r="L61" s="231"/>
-      <c r="M61" s="231"/>
-      <c r="N61" s="231"/>
-      <c r="O61" s="231"/>
-      <c r="P61" s="231"/>
-      <c r="Q61" s="231"/>
-      <c r="R61" s="232"/>
-      <c r="S61" s="221"/>
-      <c r="T61" s="222"/>
-      <c r="U61" s="222"/>
-      <c r="V61" s="222"/>
-      <c r="W61" s="222"/>
-      <c r="X61" s="223"/>
-      <c r="Y61" s="206"/>
-      <c r="Z61" s="207"/>
-    </row>
-    <row r="62" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A62" s="97"/>
-      <c r="B62" s="102"/>
-      <c r="C62" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="D62" s="189" t="s">
-        <v>166</v>
-      </c>
-      <c r="E62" s="189" t="s">
-        <v>162</v>
-      </c>
-      <c r="F62" s="189" t="s">
-        <v>162</v>
-      </c>
-      <c r="G62" s="190" t="s">
-        <v>162</v>
-      </c>
-      <c r="H62" s="16"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="19"/>
-      <c r="P62" s="19"/>
-      <c r="Q62" s="19"/>
-      <c r="R62" s="20"/>
-      <c r="S62" s="221"/>
-      <c r="T62" s="222"/>
-      <c r="U62" s="222"/>
-      <c r="V62" s="222"/>
-      <c r="W62" s="222"/>
-      <c r="X62" s="223"/>
-      <c r="Y62" s="206"/>
-      <c r="Z62" s="207"/>
-    </row>
-    <row r="63" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A63" s="98"/>
-      <c r="B63" s="103"/>
-      <c r="C63" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="D63" s="189" t="s">
-        <v>167</v>
-      </c>
-      <c r="E63" s="189" t="s">
-        <v>162</v>
-      </c>
-      <c r="F63" s="189" t="s">
-        <v>162</v>
-      </c>
-      <c r="G63" s="190" t="s">
-        <v>162</v>
-      </c>
-      <c r="H63" s="230"/>
-      <c r="I63" s="231"/>
-      <c r="J63" s="231"/>
-      <c r="K63" s="231"/>
-      <c r="L63" s="231"/>
-      <c r="M63" s="231"/>
-      <c r="N63" s="231"/>
-      <c r="O63" s="231"/>
-      <c r="P63" s="231"/>
-      <c r="Q63" s="231"/>
-      <c r="R63" s="232"/>
-      <c r="S63" s="224"/>
-      <c r="T63" s="225"/>
-      <c r="U63" s="225"/>
-      <c r="V63" s="225"/>
-      <c r="W63" s="225"/>
-      <c r="X63" s="226"/>
-      <c r="Y63" s="208"/>
-      <c r="Z63" s="209"/>
-    </row>
-    <row r="64" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A64" s="99" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" s="114" t="s">
-        <v>64</v>
-      </c>
-      <c r="C64" s="115"/>
-      <c r="D64" s="115"/>
-      <c r="E64" s="115"/>
-      <c r="F64" s="115"/>
-      <c r="G64" s="116"/>
-      <c r="H64" s="211" t="s">
-        <v>65</v>
-      </c>
-      <c r="I64" s="212"/>
-      <c r="J64" s="212"/>
-      <c r="K64" s="212"/>
-      <c r="L64" s="212"/>
-      <c r="M64" s="212"/>
-      <c r="N64" s="213"/>
-      <c r="O64" s="213"/>
-      <c r="P64" s="213"/>
-      <c r="Q64" s="213"/>
-      <c r="R64" s="214"/>
-      <c r="S64" s="114" t="s">
-        <v>66</v>
-      </c>
-      <c r="T64" s="115"/>
-      <c r="U64" s="115"/>
-      <c r="V64" s="115"/>
-      <c r="W64" s="115"/>
-      <c r="X64" s="150"/>
-      <c r="Y64" s="114" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z64" s="116"/>
-    </row>
-    <row r="65" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A65" s="210"/>
-      <c r="B65" s="161" t="s">
-        <v>123</v>
-      </c>
-      <c r="C65" s="174" t="s">
-        <v>132</v>
-      </c>
-      <c r="D65" s="174"/>
-      <c r="E65" s="175"/>
-      <c r="F65" s="175"/>
-      <c r="G65" s="176"/>
-      <c r="H65" s="233" t="s">
-        <v>67</v>
-      </c>
-      <c r="I65" s="234"/>
-      <c r="J65" s="234"/>
-      <c r="K65" s="234"/>
-      <c r="L65" s="234"/>
-      <c r="M65" s="234"/>
-      <c r="N65" s="234"/>
-      <c r="O65" s="234"/>
-      <c r="P65" s="234"/>
-      <c r="Q65" s="234"/>
-      <c r="R65" s="235"/>
-      <c r="S65" s="236" t="s">
-        <v>46</v>
-      </c>
-      <c r="T65" s="237"/>
-      <c r="U65" s="237"/>
-      <c r="V65" s="237"/>
-      <c r="W65" s="237"/>
-      <c r="X65" s="238"/>
-      <c r="Y65" s="204" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z65" s="205"/>
-    </row>
-    <row r="66" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A66" s="210"/>
-      <c r="B66" s="162"/>
-      <c r="C66" s="177"/>
-      <c r="D66" s="177"/>
-      <c r="E66" s="177"/>
-      <c r="F66" s="177"/>
-      <c r="G66" s="178"/>
-      <c r="H66" s="171" t="s">
-        <v>68</v>
-      </c>
-      <c r="I66" s="172"/>
-      <c r="J66" s="172"/>
-      <c r="K66" s="172"/>
-      <c r="L66" s="172"/>
-      <c r="M66" s="172"/>
-      <c r="N66" s="172"/>
-      <c r="O66" s="172"/>
-      <c r="P66" s="172"/>
-      <c r="Q66" s="172"/>
-      <c r="R66" s="173"/>
-      <c r="S66" s="167" t="s">
-        <v>69</v>
-      </c>
-      <c r="T66" s="168"/>
-      <c r="U66" s="168"/>
-      <c r="V66" s="168"/>
-      <c r="W66" s="168"/>
-      <c r="X66" s="169"/>
+      <c r="D66" s="121"/>
+      <c r="E66" s="121"/>
+      <c r="F66" s="121"/>
+      <c r="G66" s="122"/>
+      <c r="H66" s="227"/>
+      <c r="I66" s="228"/>
+      <c r="J66" s="228"/>
+      <c r="K66" s="228"/>
+      <c r="L66" s="228"/>
+      <c r="M66" s="228"/>
+      <c r="N66" s="228"/>
+      <c r="O66" s="228"/>
+      <c r="P66" s="228"/>
+      <c r="Q66" s="228"/>
+      <c r="R66" s="229"/>
+      <c r="S66" s="295"/>
+      <c r="T66" s="296"/>
+      <c r="U66" s="296"/>
+      <c r="V66" s="296"/>
+      <c r="W66" s="296"/>
+      <c r="X66" s="294"/>
       <c r="Y66" s="206"/>
       <c r="Z66" s="207"/>
     </row>
     <row r="67" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A67" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B67" s="163" t="s">
-        <v>133</v>
-      </c>
-      <c r="C67" s="179" t="s">
-        <v>134</v>
-      </c>
-      <c r="D67" s="179"/>
-      <c r="E67" s="179"/>
-      <c r="F67" s="179"/>
-      <c r="G67" s="180"/>
-      <c r="H67" s="171"/>
-      <c r="I67" s="172"/>
-      <c r="J67" s="172"/>
-      <c r="K67" s="172"/>
-      <c r="L67" s="172"/>
-      <c r="M67" s="172"/>
-      <c r="N67" s="172"/>
-      <c r="O67" s="172"/>
-      <c r="P67" s="172"/>
-      <c r="Q67" s="172"/>
-      <c r="R67" s="173"/>
-      <c r="S67" s="170"/>
-      <c r="T67" s="168"/>
-      <c r="U67" s="168"/>
-      <c r="V67" s="168"/>
-      <c r="W67" s="168"/>
-      <c r="X67" s="169"/>
+      <c r="A67" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="D67" s="121"/>
+      <c r="E67" s="121"/>
+      <c r="F67" s="121"/>
+      <c r="G67" s="122"/>
+      <c r="H67" s="227"/>
+      <c r="I67" s="228"/>
+      <c r="J67" s="228"/>
+      <c r="K67" s="228"/>
+      <c r="L67" s="228"/>
+      <c r="M67" s="228"/>
+      <c r="N67" s="228"/>
+      <c r="O67" s="228"/>
+      <c r="P67" s="228"/>
+      <c r="Q67" s="228"/>
+      <c r="R67" s="229"/>
+      <c r="S67" s="295"/>
+      <c r="T67" s="296"/>
+      <c r="U67" s="296"/>
+      <c r="V67" s="296"/>
+      <c r="W67" s="296"/>
+      <c r="X67" s="294"/>
       <c r="Y67" s="206"/>
       <c r="Z67" s="207"/>
     </row>
     <row r="68" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A68" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B68" s="164"/>
-      <c r="C68" s="181"/>
-      <c r="D68" s="181"/>
-      <c r="E68" s="181"/>
-      <c r="F68" s="181"/>
-      <c r="G68" s="182"/>
-      <c r="H68" s="171"/>
-      <c r="I68" s="172"/>
-      <c r="J68" s="172"/>
-      <c r="K68" s="172"/>
-      <c r="L68" s="172"/>
-      <c r="M68" s="172"/>
-      <c r="N68" s="172"/>
-      <c r="O68" s="172"/>
-      <c r="P68" s="172"/>
-      <c r="Q68" s="172"/>
-      <c r="R68" s="173"/>
-      <c r="S68" s="170"/>
-      <c r="T68" s="168"/>
-      <c r="U68" s="168"/>
-      <c r="V68" s="168"/>
-      <c r="W68" s="168"/>
-      <c r="X68" s="169"/>
+      <c r="A68" s="98"/>
+      <c r="B68" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" s="183"/>
+      <c r="D68" s="183"/>
+      <c r="E68" s="183"/>
+      <c r="F68" s="183"/>
+      <c r="G68" s="184"/>
+      <c r="H68" s="227"/>
+      <c r="I68" s="228"/>
+      <c r="J68" s="228"/>
+      <c r="K68" s="228"/>
+      <c r="L68" s="228"/>
+      <c r="M68" s="228"/>
+      <c r="N68" s="228"/>
+      <c r="O68" s="228"/>
+      <c r="P68" s="228"/>
+      <c r="Q68" s="228"/>
+      <c r="R68" s="229"/>
+      <c r="S68" s="295"/>
+      <c r="T68" s="296"/>
+      <c r="U68" s="296"/>
+      <c r="V68" s="296"/>
+      <c r="W68" s="296"/>
+      <c r="X68" s="294"/>
       <c r="Y68" s="208"/>
       <c r="Z68" s="209"/>
     </row>
     <row r="69" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A69" s="99" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B69" s="114" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C69" s="115"/>
       <c r="D69" s="115"/>
@@ -6946,26 +6948,26 @@
       <c r="F69" s="115"/>
       <c r="G69" s="116"/>
       <c r="H69" s="119" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I69" s="146"/>
       <c r="J69" s="146"/>
       <c r="K69" s="146"/>
       <c r="L69" s="146"/>
-      <c r="M69" s="239"/>
-      <c r="N69" s="240"/>
-      <c r="O69" s="240"/>
-      <c r="P69" s="240"/>
-      <c r="Q69" s="240"/>
-      <c r="R69" s="241"/>
-      <c r="S69" s="114" t="s">
-        <v>43</v>
-      </c>
-      <c r="T69" s="115"/>
-      <c r="U69" s="115"/>
-      <c r="V69" s="115"/>
-      <c r="W69" s="115"/>
-      <c r="X69" s="150"/>
+      <c r="M69" s="146"/>
+      <c r="N69" s="146"/>
+      <c r="O69" s="146"/>
+      <c r="P69" s="146"/>
+      <c r="Q69" s="146"/>
+      <c r="R69" s="120"/>
+      <c r="S69" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="T69" s="63"/>
+      <c r="U69" s="63"/>
+      <c r="V69" s="63"/>
+      <c r="W69" s="63"/>
+      <c r="X69" s="63"/>
       <c r="Y69" s="114" t="s">
         <v>44</v>
       </c>
@@ -6973,37 +6975,39 @@
     </row>
     <row r="70" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A70" s="210"/>
-      <c r="B70" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="C70" s="352" t="s">
-        <v>151</v>
-      </c>
-      <c r="D70" s="352"/>
-      <c r="E70" s="352"/>
-      <c r="F70" s="352"/>
-      <c r="G70" s="353"/>
+      <c r="B70" s="101" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D70" s="187" t="s">
+        <v>134</v>
+      </c>
+      <c r="E70" s="187"/>
+      <c r="F70" s="187"/>
+      <c r="G70" s="188"/>
       <c r="H70" s="123" t="s">
-        <v>72</v>
-      </c>
-      <c r="I70" s="234"/>
-      <c r="J70" s="234"/>
-      <c r="K70" s="234"/>
-      <c r="L70" s="234"/>
-      <c r="M70" s="234"/>
-      <c r="N70" s="234"/>
-      <c r="O70" s="234"/>
-      <c r="P70" s="234"/>
-      <c r="Q70" s="234"/>
-      <c r="R70" s="234"/>
-      <c r="S70" s="236" t="s">
-        <v>46</v>
-      </c>
-      <c r="T70" s="237"/>
-      <c r="U70" s="237"/>
-      <c r="V70" s="237"/>
-      <c r="W70" s="237"/>
-      <c r="X70" s="238"/>
+        <v>55</v>
+      </c>
+      <c r="I70" s="124"/>
+      <c r="J70" s="124"/>
+      <c r="K70" s="124"/>
+      <c r="L70" s="124"/>
+      <c r="M70" s="124"/>
+      <c r="N70" s="124"/>
+      <c r="O70" s="124"/>
+      <c r="P70" s="124"/>
+      <c r="Q70" s="124"/>
+      <c r="R70" s="125"/>
+      <c r="S70" s="308" t="s">
+        <v>56</v>
+      </c>
+      <c r="T70" s="309"/>
+      <c r="U70" s="309"/>
+      <c r="V70" s="309"/>
+      <c r="W70" s="309"/>
+      <c r="X70" s="310"/>
       <c r="Y70" s="204" t="s">
         <v>141</v>
       </c>
@@ -7011,263 +7015,295 @@
     </row>
     <row r="71" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A71" s="210"/>
-      <c r="B71" s="83"/>
-      <c r="C71" s="354"/>
-      <c r="D71" s="354"/>
-      <c r="E71" s="354"/>
-      <c r="F71" s="354"/>
-      <c r="G71" s="355"/>
-      <c r="H71" s="35"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="36"/>
-      <c r="K71" s="36"/>
-      <c r="L71" s="36"/>
-      <c r="M71" s="36"/>
-      <c r="N71" s="36"/>
-      <c r="O71" s="36"/>
-      <c r="P71" s="36"/>
-      <c r="Q71" s="36"/>
-      <c r="R71" s="36"/>
-      <c r="S71" s="34"/>
-      <c r="T71" s="37"/>
-      <c r="U71" s="37"/>
-      <c r="V71" s="37"/>
-      <c r="W71" s="37"/>
-      <c r="X71" s="38"/>
-      <c r="Y71" s="39"/>
-      <c r="Z71" s="40"/>
+      <c r="B71" s="102"/>
+      <c r="C71" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D71" s="189" t="s">
+        <v>166</v>
+      </c>
+      <c r="E71" s="189" t="s">
+        <v>162</v>
+      </c>
+      <c r="F71" s="189" t="s">
+        <v>162</v>
+      </c>
+      <c r="G71" s="190" t="s">
+        <v>162</v>
+      </c>
+      <c r="H71" s="215" t="s">
+        <v>57</v>
+      </c>
+      <c r="I71" s="216"/>
+      <c r="J71" s="216"/>
+      <c r="K71" s="216"/>
+      <c r="L71" s="216"/>
+      <c r="M71" s="216"/>
+      <c r="N71" s="216"/>
+      <c r="O71" s="216"/>
+      <c r="P71" s="216"/>
+      <c r="Q71" s="216"/>
+      <c r="R71" s="217"/>
+      <c r="S71" s="218"/>
+      <c r="T71" s="219"/>
+      <c r="U71" s="219"/>
+      <c r="V71" s="219"/>
+      <c r="W71" s="219"/>
+      <c r="X71" s="220"/>
+      <c r="Y71" s="206"/>
+      <c r="Z71" s="207"/>
     </row>
     <row r="72" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A72" s="210"/>
-      <c r="B72" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C72" s="242" t="s">
-        <v>129</v>
-      </c>
-      <c r="D72" s="242"/>
-      <c r="E72" s="242"/>
-      <c r="F72" s="242"/>
-      <c r="G72" s="243"/>
-      <c r="H72" s="227" t="s">
-        <v>73</v>
-      </c>
-      <c r="I72" s="172"/>
-      <c r="J72" s="172"/>
-      <c r="K72" s="172"/>
-      <c r="L72" s="172"/>
-      <c r="M72" s="172"/>
-      <c r="N72" s="172"/>
-      <c r="O72" s="172"/>
-      <c r="P72" s="172"/>
-      <c r="Q72" s="172"/>
-      <c r="R72" s="173"/>
-      <c r="S72" s="167" t="s">
-        <v>69</v>
-      </c>
-      <c r="T72" s="168"/>
-      <c r="U72" s="168"/>
-      <c r="V72" s="168"/>
-      <c r="W72" s="168"/>
-      <c r="X72" s="169"/>
+      <c r="B72" s="102"/>
+      <c r="C72" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="D72" s="189" t="s">
+        <v>167</v>
+      </c>
+      <c r="E72" s="189" t="s">
+        <v>162</v>
+      </c>
+      <c r="F72" s="189" t="s">
+        <v>162</v>
+      </c>
+      <c r="G72" s="190" t="s">
+        <v>162</v>
+      </c>
+      <c r="H72" s="215" t="s">
+        <v>59</v>
+      </c>
+      <c r="I72" s="216"/>
+      <c r="J72" s="216"/>
+      <c r="K72" s="216"/>
+      <c r="L72" s="216"/>
+      <c r="M72" s="216"/>
+      <c r="N72" s="216"/>
+      <c r="O72" s="216"/>
+      <c r="P72" s="216"/>
+      <c r="Q72" s="216"/>
+      <c r="R72" s="217"/>
+      <c r="S72" s="218"/>
+      <c r="T72" s="219"/>
+      <c r="U72" s="219"/>
+      <c r="V72" s="219"/>
+      <c r="W72" s="219"/>
+      <c r="X72" s="220"/>
       <c r="Y72" s="206"/>
       <c r="Z72" s="207"/>
     </row>
     <row r="73" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A73" s="210"/>
-      <c r="B73" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C73" s="242" t="s">
-        <v>130</v>
-      </c>
-      <c r="D73" s="242"/>
-      <c r="E73" s="242"/>
-      <c r="F73" s="242"/>
-      <c r="G73" s="243"/>
+      <c r="B73" s="103"/>
+      <c r="C73" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D73" s="183" t="s">
+        <v>153</v>
+      </c>
+      <c r="E73" s="183"/>
+      <c r="F73" s="183"/>
+      <c r="G73" s="184"/>
       <c r="H73" s="227" t="s">
-        <v>168</v>
-      </c>
-      <c r="I73" s="172"/>
-      <c r="J73" s="172"/>
-      <c r="K73" s="172"/>
-      <c r="L73" s="172"/>
-      <c r="M73" s="172"/>
-      <c r="N73" s="172"/>
-      <c r="O73" s="172"/>
-      <c r="P73" s="172"/>
-      <c r="Q73" s="172"/>
-      <c r="R73" s="173"/>
-      <c r="S73" s="170"/>
-      <c r="T73" s="168"/>
-      <c r="U73" s="168"/>
-      <c r="V73" s="168"/>
-      <c r="W73" s="168"/>
-      <c r="X73" s="169"/>
+        <v>61</v>
+      </c>
+      <c r="I73" s="228"/>
+      <c r="J73" s="228"/>
+      <c r="K73" s="228"/>
+      <c r="L73" s="228"/>
+      <c r="M73" s="228"/>
+      <c r="N73" s="228"/>
+      <c r="O73" s="228"/>
+      <c r="P73" s="228"/>
+      <c r="Q73" s="228"/>
+      <c r="R73" s="229"/>
+      <c r="S73" s="218"/>
+      <c r="T73" s="219"/>
+      <c r="U73" s="219"/>
+      <c r="V73" s="219"/>
+      <c r="W73" s="219"/>
+      <c r="X73" s="220"/>
       <c r="Y73" s="206"/>
       <c r="Z73" s="207"/>
     </row>
     <row r="74" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A74" s="210"/>
-      <c r="B74" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="C74" s="248" t="s">
-        <v>211</v>
-      </c>
-      <c r="D74" s="248"/>
-      <c r="E74" s="248"/>
-      <c r="F74" s="248"/>
-      <c r="G74" s="249"/>
+      <c r="A74" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B74" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D74" s="185" t="s">
+        <v>142</v>
+      </c>
+      <c r="E74" s="185"/>
+      <c r="F74" s="185"/>
+      <c r="G74" s="186"/>
       <c r="H74" s="227" t="s">
-        <v>74</v>
-      </c>
-      <c r="I74" s="244"/>
-      <c r="J74" s="244"/>
-      <c r="K74" s="244"/>
-      <c r="L74" s="244"/>
-      <c r="M74" s="244"/>
-      <c r="N74" s="244"/>
-      <c r="O74" s="244"/>
-      <c r="P74" s="244"/>
-      <c r="Q74" s="244"/>
-      <c r="R74" s="245"/>
-      <c r="S74" s="170"/>
-      <c r="T74" s="168"/>
-      <c r="U74" s="168"/>
-      <c r="V74" s="168"/>
-      <c r="W74" s="168"/>
-      <c r="X74" s="169"/>
+        <v>169</v>
+      </c>
+      <c r="I74" s="172"/>
+      <c r="J74" s="172"/>
+      <c r="K74" s="172"/>
+      <c r="L74" s="172"/>
+      <c r="M74" s="172"/>
+      <c r="N74" s="172"/>
+      <c r="O74" s="172"/>
+      <c r="P74" s="172"/>
+      <c r="Q74" s="172"/>
+      <c r="R74" s="173"/>
+      <c r="S74" s="221"/>
+      <c r="T74" s="222"/>
+      <c r="U74" s="222"/>
+      <c r="V74" s="222"/>
+      <c r="W74" s="222"/>
+      <c r="X74" s="223"/>
       <c r="Y74" s="206"/>
       <c r="Z74" s="207"/>
     </row>
     <row r="75" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A75" s="210"/>
-      <c r="B75" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C75" s="242"/>
-      <c r="D75" s="242"/>
-      <c r="E75" s="242"/>
-      <c r="F75" s="242"/>
-      <c r="G75" s="243"/>
-      <c r="H75" s="227" t="s">
-        <v>75</v>
-      </c>
-      <c r="I75" s="246"/>
-      <c r="J75" s="246"/>
-      <c r="K75" s="246"/>
-      <c r="L75" s="246"/>
-      <c r="M75" s="246"/>
-      <c r="N75" s="246"/>
-      <c r="O75" s="246"/>
-      <c r="P75" s="246"/>
-      <c r="Q75" s="246"/>
-      <c r="R75" s="247"/>
-      <c r="S75" s="170"/>
-      <c r="T75" s="250"/>
-      <c r="U75" s="250"/>
-      <c r="V75" s="250"/>
-      <c r="W75" s="250"/>
-      <c r="X75" s="169"/>
+      <c r="A75" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="B75" s="102"/>
+      <c r="C75" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D75" s="121" t="s">
+        <v>127</v>
+      </c>
+      <c r="E75" s="121"/>
+      <c r="F75" s="121"/>
+      <c r="G75" s="122"/>
+      <c r="H75" s="230" t="s">
+        <v>62</v>
+      </c>
+      <c r="I75" s="231"/>
+      <c r="J75" s="231"/>
+      <c r="K75" s="231"/>
+      <c r="L75" s="231"/>
+      <c r="M75" s="231"/>
+      <c r="N75" s="231"/>
+      <c r="O75" s="231"/>
+      <c r="P75" s="231"/>
+      <c r="Q75" s="231"/>
+      <c r="R75" s="232"/>
+      <c r="S75" s="221"/>
+      <c r="T75" s="222"/>
+      <c r="U75" s="222"/>
+      <c r="V75" s="222"/>
+      <c r="W75" s="222"/>
+      <c r="X75" s="223"/>
       <c r="Y75" s="206"/>
       <c r="Z75" s="207"/>
     </row>
     <row r="76" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A76" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B76" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C76" s="242"/>
-      <c r="D76" s="242"/>
-      <c r="E76" s="242"/>
-      <c r="F76" s="242"/>
-      <c r="G76" s="243"/>
-      <c r="H76" s="227" t="s">
-        <v>76</v>
-      </c>
-      <c r="I76" s="172"/>
-      <c r="J76" s="172"/>
-      <c r="K76" s="172"/>
-      <c r="L76" s="172"/>
-      <c r="M76" s="172"/>
-      <c r="N76" s="172"/>
-      <c r="O76" s="172"/>
-      <c r="P76" s="172"/>
-      <c r="Q76" s="172"/>
-      <c r="R76" s="173"/>
-      <c r="S76" s="170"/>
-      <c r="T76" s="250"/>
-      <c r="U76" s="250"/>
-      <c r="V76" s="250"/>
-      <c r="W76" s="250"/>
-      <c r="X76" s="169"/>
+      <c r="A76" s="97"/>
+      <c r="B76" s="102"/>
+      <c r="C76" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D76" s="189" t="s">
+        <v>166</v>
+      </c>
+      <c r="E76" s="189" t="s">
+        <v>162</v>
+      </c>
+      <c r="F76" s="189" t="s">
+        <v>162</v>
+      </c>
+      <c r="G76" s="190" t="s">
+        <v>162</v>
+      </c>
+      <c r="H76" s="16"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="19"/>
+      <c r="L76" s="19"/>
+      <c r="M76" s="19"/>
+      <c r="N76" s="19"/>
+      <c r="O76" s="19"/>
+      <c r="P76" s="19"/>
+      <c r="Q76" s="19"/>
+      <c r="R76" s="20"/>
+      <c r="S76" s="221"/>
+      <c r="T76" s="222"/>
+      <c r="U76" s="222"/>
+      <c r="V76" s="222"/>
+      <c r="W76" s="222"/>
+      <c r="X76" s="223"/>
       <c r="Y76" s="206"/>
       <c r="Z76" s="207"/>
     </row>
     <row r="77" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A77" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B77" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C77" s="242"/>
-      <c r="D77" s="242"/>
-      <c r="E77" s="242"/>
-      <c r="F77" s="242"/>
-      <c r="G77" s="243"/>
-      <c r="H77" s="227" t="s">
-        <v>77</v>
-      </c>
-      <c r="I77" s="172"/>
-      <c r="J77" s="172"/>
-      <c r="K77" s="172"/>
-      <c r="L77" s="172"/>
-      <c r="M77" s="172"/>
-      <c r="N77" s="172"/>
-      <c r="O77" s="172"/>
-      <c r="P77" s="172"/>
-      <c r="Q77" s="172"/>
-      <c r="R77" s="173"/>
-      <c r="S77" s="251"/>
-      <c r="T77" s="252"/>
-      <c r="U77" s="252"/>
-      <c r="V77" s="252"/>
-      <c r="W77" s="252"/>
-      <c r="X77" s="253"/>
+      <c r="A77" s="98"/>
+      <c r="B77" s="103"/>
+      <c r="C77" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="D77" s="189" t="s">
+        <v>167</v>
+      </c>
+      <c r="E77" s="189" t="s">
+        <v>162</v>
+      </c>
+      <c r="F77" s="189" t="s">
+        <v>162</v>
+      </c>
+      <c r="G77" s="190" t="s">
+        <v>162</v>
+      </c>
+      <c r="H77" s="230"/>
+      <c r="I77" s="231"/>
+      <c r="J77" s="231"/>
+      <c r="K77" s="231"/>
+      <c r="L77" s="231"/>
+      <c r="M77" s="231"/>
+      <c r="N77" s="231"/>
+      <c r="O77" s="231"/>
+      <c r="P77" s="231"/>
+      <c r="Q77" s="231"/>
+      <c r="R77" s="232"/>
+      <c r="S77" s="224"/>
+      <c r="T77" s="225"/>
+      <c r="U77" s="225"/>
+      <c r="V77" s="225"/>
+      <c r="W77" s="225"/>
+      <c r="X77" s="226"/>
       <c r="Y77" s="208"/>
       <c r="Z77" s="209"/>
     </row>
     <row r="78" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A78" s="9" t="s">
-        <v>78</v>
+      <c r="A78" s="99" t="s">
+        <v>63</v>
       </c>
       <c r="B78" s="114" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C78" s="115"/>
       <c r="D78" s="115"/>
       <c r="E78" s="115"/>
       <c r="F78" s="115"/>
       <c r="G78" s="116"/>
-      <c r="H78" s="119" t="s">
-        <v>80</v>
-      </c>
-      <c r="I78" s="146"/>
-      <c r="J78" s="146"/>
-      <c r="K78" s="146"/>
-      <c r="L78" s="146"/>
-      <c r="M78" s="239"/>
-      <c r="N78" s="240"/>
-      <c r="O78" s="240"/>
-      <c r="P78" s="240"/>
-      <c r="Q78" s="240"/>
-      <c r="R78" s="241"/>
+      <c r="H78" s="211" t="s">
+        <v>65</v>
+      </c>
+      <c r="I78" s="212"/>
+      <c r="J78" s="212"/>
+      <c r="K78" s="212"/>
+      <c r="L78" s="212"/>
+      <c r="M78" s="212"/>
+      <c r="N78" s="213"/>
+      <c r="O78" s="213"/>
+      <c r="P78" s="213"/>
+      <c r="Q78" s="213"/>
+      <c r="R78" s="214"/>
       <c r="S78" s="114" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="T78" s="115"/>
       <c r="U78" s="115"/>
@@ -7280,59 +7316,53 @@
       <c r="Z78" s="116"/>
     </row>
     <row r="79" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A79" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B79" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C79" s="259" t="s">
-        <v>131</v>
-      </c>
-      <c r="D79" s="259"/>
-      <c r="E79" s="259"/>
-      <c r="F79" s="259"/>
-      <c r="G79" s="260"/>
-      <c r="H79" s="227" t="s">
-        <v>83</v>
-      </c>
-      <c r="I79" s="172"/>
-      <c r="J79" s="172"/>
-      <c r="K79" s="172"/>
-      <c r="L79" s="172"/>
-      <c r="M79" s="172"/>
-      <c r="N79" s="172"/>
-      <c r="O79" s="172"/>
-      <c r="P79" s="172"/>
-      <c r="Q79" s="172"/>
-      <c r="R79" s="172"/>
-      <c r="S79" s="254" t="s">
+      <c r="A79" s="210"/>
+      <c r="B79" s="161" t="s">
+        <v>123</v>
+      </c>
+      <c r="C79" s="174" t="s">
+        <v>132</v>
+      </c>
+      <c r="D79" s="174"/>
+      <c r="E79" s="175"/>
+      <c r="F79" s="175"/>
+      <c r="G79" s="176"/>
+      <c r="H79" s="233" t="s">
+        <v>67</v>
+      </c>
+      <c r="I79" s="234"/>
+      <c r="J79" s="234"/>
+      <c r="K79" s="234"/>
+      <c r="L79" s="234"/>
+      <c r="M79" s="234"/>
+      <c r="N79" s="234"/>
+      <c r="O79" s="234"/>
+      <c r="P79" s="234"/>
+      <c r="Q79" s="234"/>
+      <c r="R79" s="235"/>
+      <c r="S79" s="236" t="s">
         <v>46</v>
       </c>
-      <c r="T79" s="255"/>
-      <c r="U79" s="255"/>
-      <c r="V79" s="255"/>
-      <c r="W79" s="255"/>
-      <c r="X79" s="256"/>
+      <c r="T79" s="237"/>
+      <c r="U79" s="237"/>
+      <c r="V79" s="237"/>
+      <c r="W79" s="237"/>
+      <c r="X79" s="238"/>
       <c r="Y79" s="204" t="s">
         <v>141</v>
       </c>
       <c r="Z79" s="205"/>
     </row>
     <row r="80" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A80" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B80" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C80" s="261"/>
-      <c r="D80" s="261"/>
-      <c r="E80" s="261"/>
-      <c r="F80" s="261"/>
-      <c r="G80" s="262"/>
-      <c r="H80" s="227" t="s">
-        <v>84</v>
+      <c r="A80" s="210"/>
+      <c r="B80" s="162"/>
+      <c r="C80" s="177"/>
+      <c r="D80" s="177"/>
+      <c r="E80" s="177"/>
+      <c r="F80" s="177"/>
+      <c r="G80" s="178"/>
+      <c r="H80" s="171" t="s">
+        <v>68</v>
       </c>
       <c r="I80" s="172"/>
       <c r="J80" s="172"/>
@@ -7356,20 +7386,20 @@
       <c r="Z80" s="207"/>
     </row>
     <row r="81" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A81" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="B81" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C81" s="261"/>
-      <c r="D81" s="261"/>
-      <c r="E81" s="261"/>
-      <c r="F81" s="261"/>
-      <c r="G81" s="262"/>
-      <c r="H81" s="227" t="s">
-        <v>85</v>
-      </c>
+      <c r="A81" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B81" s="163" t="s">
+        <v>133</v>
+      </c>
+      <c r="C81" s="179" t="s">
+        <v>134</v>
+      </c>
+      <c r="D81" s="179"/>
+      <c r="E81" s="179"/>
+      <c r="F81" s="179"/>
+      <c r="G81" s="180"/>
+      <c r="H81" s="171"/>
       <c r="I81" s="172"/>
       <c r="J81" s="172"/>
       <c r="K81" s="172"/>
@@ -7390,41 +7420,41 @@
       <c r="Z81" s="207"/>
     </row>
     <row r="82" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A82" s="98"/>
-      <c r="B82" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C82" s="263"/>
-      <c r="D82" s="263"/>
-      <c r="E82" s="263"/>
-      <c r="F82" s="263"/>
-      <c r="G82" s="264"/>
-      <c r="H82" s="230"/>
-      <c r="I82" s="257"/>
-      <c r="J82" s="257"/>
-      <c r="K82" s="257"/>
-      <c r="L82" s="257"/>
-      <c r="M82" s="257"/>
-      <c r="N82" s="257"/>
-      <c r="O82" s="257"/>
-      <c r="P82" s="257"/>
-      <c r="Q82" s="257"/>
-      <c r="R82" s="258"/>
-      <c r="S82" s="251"/>
-      <c r="T82" s="252"/>
-      <c r="U82" s="252"/>
-      <c r="V82" s="252"/>
-      <c r="W82" s="252"/>
-      <c r="X82" s="253"/>
+      <c r="A82" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B82" s="164"/>
+      <c r="C82" s="181"/>
+      <c r="D82" s="181"/>
+      <c r="E82" s="181"/>
+      <c r="F82" s="181"/>
+      <c r="G82" s="182"/>
+      <c r="H82" s="171"/>
+      <c r="I82" s="172"/>
+      <c r="J82" s="172"/>
+      <c r="K82" s="172"/>
+      <c r="L82" s="172"/>
+      <c r="M82" s="172"/>
+      <c r="N82" s="172"/>
+      <c r="O82" s="172"/>
+      <c r="P82" s="172"/>
+      <c r="Q82" s="172"/>
+      <c r="R82" s="173"/>
+      <c r="S82" s="170"/>
+      <c r="T82" s="168"/>
+      <c r="U82" s="168"/>
+      <c r="V82" s="168"/>
+      <c r="W82" s="168"/>
+      <c r="X82" s="169"/>
       <c r="Y82" s="208"/>
       <c r="Z82" s="209"/>
     </row>
     <row r="83" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A83" s="10" t="s">
-        <v>86</v>
+      <c r="A83" s="99" t="s">
+        <v>70</v>
       </c>
       <c r="B83" s="114" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C83" s="115"/>
       <c r="D83" s="115"/>
@@ -7438,12 +7468,12 @@
       <c r="J83" s="146"/>
       <c r="K83" s="146"/>
       <c r="L83" s="146"/>
-      <c r="M83" s="146"/>
-      <c r="N83" s="146"/>
-      <c r="O83" s="146"/>
-      <c r="P83" s="146"/>
-      <c r="Q83" s="146"/>
-      <c r="R83" s="120"/>
+      <c r="M83" s="239"/>
+      <c r="N83" s="240"/>
+      <c r="O83" s="240"/>
+      <c r="P83" s="240"/>
+      <c r="Q83" s="240"/>
+      <c r="R83" s="241"/>
       <c r="S83" s="114" t="s">
         <v>43</v>
       </c>
@@ -7458,34 +7488,30 @@
       <c r="Z83" s="116"/>
     </row>
     <row r="84" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A84" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B84" s="265" t="s">
-        <v>21</v>
-      </c>
-      <c r="C84" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="D84" s="266" t="s">
-        <v>124</v>
-      </c>
-      <c r="E84" s="266"/>
-      <c r="F84" s="266"/>
-      <c r="G84" s="267"/>
+      <c r="A84" s="210"/>
+      <c r="B84" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="C84" s="352" t="s">
+        <v>151</v>
+      </c>
+      <c r="D84" s="352"/>
+      <c r="E84" s="352"/>
+      <c r="F84" s="352"/>
+      <c r="G84" s="353"/>
       <c r="H84" s="123" t="s">
-        <v>89</v>
-      </c>
-      <c r="I84" s="124"/>
-      <c r="J84" s="124"/>
-      <c r="K84" s="124"/>
-      <c r="L84" s="124"/>
-      <c r="M84" s="124"/>
-      <c r="N84" s="124"/>
-      <c r="O84" s="124"/>
-      <c r="P84" s="124"/>
-      <c r="Q84" s="124"/>
-      <c r="R84" s="125"/>
+        <v>72</v>
+      </c>
+      <c r="I84" s="234"/>
+      <c r="J84" s="234"/>
+      <c r="K84" s="234"/>
+      <c r="L84" s="234"/>
+      <c r="M84" s="234"/>
+      <c r="N84" s="234"/>
+      <c r="O84" s="234"/>
+      <c r="P84" s="234"/>
+      <c r="Q84" s="234"/>
+      <c r="R84" s="234"/>
       <c r="S84" s="236" t="s">
         <v>46</v>
       </c>
@@ -7500,58 +7526,48 @@
       <c r="Z84" s="205"/>
     </row>
     <row r="85" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A85" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85" s="265"/>
-      <c r="C85" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="D85" s="268" t="s">
-        <v>143</v>
-      </c>
-      <c r="E85" s="268"/>
-      <c r="F85" s="268"/>
-      <c r="G85" s="269"/>
-      <c r="H85" s="227" t="s">
-        <v>91</v>
-      </c>
-      <c r="I85" s="172"/>
-      <c r="J85" s="172"/>
-      <c r="K85" s="172"/>
-      <c r="L85" s="172"/>
-      <c r="M85" s="172"/>
-      <c r="N85" s="172"/>
-      <c r="O85" s="172"/>
-      <c r="P85" s="172"/>
-      <c r="Q85" s="172"/>
-      <c r="R85" s="173"/>
-      <c r="S85" s="283" t="s">
-        <v>48</v>
-      </c>
-      <c r="T85" s="284"/>
-      <c r="U85" s="284"/>
-      <c r="V85" s="284"/>
-      <c r="W85" s="284"/>
-      <c r="X85" s="285"/>
-      <c r="Y85" s="206"/>
-      <c r="Z85" s="207"/>
+      <c r="A85" s="210"/>
+      <c r="B85" s="83"/>
+      <c r="C85" s="354"/>
+      <c r="D85" s="354"/>
+      <c r="E85" s="354"/>
+      <c r="F85" s="354"/>
+      <c r="G85" s="355"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="36"/>
+      <c r="K85" s="36"/>
+      <c r="L85" s="36"/>
+      <c r="M85" s="36"/>
+      <c r="N85" s="36"/>
+      <c r="O85" s="36"/>
+      <c r="P85" s="36"/>
+      <c r="Q85" s="36"/>
+      <c r="R85" s="36"/>
+      <c r="S85" s="34"/>
+      <c r="T85" s="37"/>
+      <c r="U85" s="37"/>
+      <c r="V85" s="37"/>
+      <c r="W85" s="37"/>
+      <c r="X85" s="38"/>
+      <c r="Y85" s="39"/>
+      <c r="Z85" s="40"/>
     </row>
     <row r="86" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A86" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B86" s="265"/>
-      <c r="C86" s="30" t="s">
+      <c r="A86" s="210"/>
+      <c r="B86" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D86" s="270" t="s">
-        <v>125</v>
-      </c>
-      <c r="E86" s="270"/>
-      <c r="F86" s="270"/>
-      <c r="G86" s="271"/>
-      <c r="H86" s="227"/>
+      <c r="C86" s="242" t="s">
+        <v>129</v>
+      </c>
+      <c r="D86" s="242"/>
+      <c r="E86" s="242"/>
+      <c r="F86" s="242"/>
+      <c r="G86" s="243"/>
+      <c r="H86" s="227" t="s">
+        <v>73</v>
+      </c>
       <c r="I86" s="172"/>
       <c r="J86" s="172"/>
       <c r="K86" s="172"/>
@@ -7562,591 +7578,1091 @@
       <c r="P86" s="172"/>
       <c r="Q86" s="172"/>
       <c r="R86" s="173"/>
-      <c r="S86" s="286"/>
-      <c r="T86" s="287"/>
-      <c r="U86" s="287"/>
-      <c r="V86" s="287"/>
-      <c r="W86" s="287"/>
-      <c r="X86" s="285"/>
+      <c r="S86" s="167" t="s">
+        <v>69</v>
+      </c>
+      <c r="T86" s="168"/>
+      <c r="U86" s="168"/>
+      <c r="V86" s="168"/>
+      <c r="W86" s="168"/>
+      <c r="X86" s="169"/>
       <c r="Y86" s="206"/>
       <c r="Z86" s="207"/>
     </row>
     <row r="87" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A87" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="B87" s="288" t="s">
-        <v>58</v>
-      </c>
-      <c r="C87" s="27" t="s">
+      <c r="A87" s="210"/>
+      <c r="B87" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D87" s="268" t="s">
-        <v>126</v>
-      </c>
-      <c r="E87" s="268"/>
-      <c r="F87" s="268"/>
-      <c r="G87" s="269"/>
-      <c r="H87" s="278"/>
-      <c r="I87" s="278"/>
-      <c r="J87" s="278"/>
-      <c r="K87" s="278"/>
-      <c r="L87" s="278"/>
-      <c r="M87" s="278"/>
-      <c r="N87" s="278"/>
-      <c r="O87" s="278"/>
-      <c r="P87" s="278"/>
-      <c r="Q87" s="278"/>
-      <c r="R87" s="279"/>
-      <c r="S87" s="286"/>
-      <c r="T87" s="287"/>
-      <c r="U87" s="287"/>
-      <c r="V87" s="287"/>
-      <c r="W87" s="287"/>
-      <c r="X87" s="285"/>
+      <c r="C87" s="242" t="s">
+        <v>130</v>
+      </c>
+      <c r="D87" s="242"/>
+      <c r="E87" s="242"/>
+      <c r="F87" s="242"/>
+      <c r="G87" s="243"/>
+      <c r="H87" s="227" t="s">
+        <v>168</v>
+      </c>
+      <c r="I87" s="172"/>
+      <c r="J87" s="172"/>
+      <c r="K87" s="172"/>
+      <c r="L87" s="172"/>
+      <c r="M87" s="172"/>
+      <c r="N87" s="172"/>
+      <c r="O87" s="172"/>
+      <c r="P87" s="172"/>
+      <c r="Q87" s="172"/>
+      <c r="R87" s="173"/>
+      <c r="S87" s="170"/>
+      <c r="T87" s="168"/>
+      <c r="U87" s="168"/>
+      <c r="V87" s="168"/>
+      <c r="W87" s="168"/>
+      <c r="X87" s="169"/>
       <c r="Y87" s="206"/>
       <c r="Z87" s="207"/>
     </row>
     <row r="88" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A88" s="97"/>
-      <c r="B88" s="265"/>
-      <c r="C88" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="D88" s="268" t="s">
-        <v>142</v>
-      </c>
-      <c r="E88" s="268"/>
-      <c r="F88" s="268"/>
-      <c r="G88" s="269"/>
-      <c r="H88" s="278"/>
-      <c r="I88" s="278"/>
-      <c r="J88" s="278"/>
-      <c r="K88" s="278"/>
-      <c r="L88" s="278"/>
-      <c r="M88" s="278"/>
-      <c r="N88" s="278"/>
-      <c r="O88" s="278"/>
-      <c r="P88" s="278"/>
-      <c r="Q88" s="278"/>
-      <c r="R88" s="279"/>
-      <c r="S88" s="286"/>
-      <c r="T88" s="287"/>
-      <c r="U88" s="287"/>
-      <c r="V88" s="287"/>
-      <c r="W88" s="287"/>
-      <c r="X88" s="285"/>
+      <c r="A88" s="210"/>
+      <c r="B88" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C88" s="248" t="s">
+        <v>211</v>
+      </c>
+      <c r="D88" s="248"/>
+      <c r="E88" s="248"/>
+      <c r="F88" s="248"/>
+      <c r="G88" s="249"/>
+      <c r="H88" s="227" t="s">
+        <v>74</v>
+      </c>
+      <c r="I88" s="244"/>
+      <c r="J88" s="244"/>
+      <c r="K88" s="244"/>
+      <c r="L88" s="244"/>
+      <c r="M88" s="244"/>
+      <c r="N88" s="244"/>
+      <c r="O88" s="244"/>
+      <c r="P88" s="244"/>
+      <c r="Q88" s="244"/>
+      <c r="R88" s="245"/>
+      <c r="S88" s="170"/>
+      <c r="T88" s="168"/>
+      <c r="U88" s="168"/>
+      <c r="V88" s="168"/>
+      <c r="W88" s="168"/>
+      <c r="X88" s="169"/>
       <c r="Y88" s="206"/>
       <c r="Z88" s="207"/>
     </row>
     <row r="89" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A89" s="97"/>
-      <c r="B89" s="265"/>
-      <c r="C89" s="27" t="s">
+      <c r="A89" s="210"/>
+      <c r="B89" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D89" s="268" t="s">
-        <v>183</v>
-      </c>
-      <c r="E89" s="268"/>
-      <c r="F89" s="268"/>
-      <c r="G89" s="269"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="17"/>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
-      <c r="R89" s="18"/>
-      <c r="S89" s="286"/>
-      <c r="T89" s="287"/>
-      <c r="U89" s="287"/>
-      <c r="V89" s="287"/>
-      <c r="W89" s="287"/>
-      <c r="X89" s="285"/>
+      <c r="C89" s="242"/>
+      <c r="D89" s="242"/>
+      <c r="E89" s="242"/>
+      <c r="F89" s="242"/>
+      <c r="G89" s="243"/>
+      <c r="H89" s="227" t="s">
+        <v>75</v>
+      </c>
+      <c r="I89" s="246"/>
+      <c r="J89" s="246"/>
+      <c r="K89" s="246"/>
+      <c r="L89" s="246"/>
+      <c r="M89" s="246"/>
+      <c r="N89" s="246"/>
+      <c r="O89" s="246"/>
+      <c r="P89" s="246"/>
+      <c r="Q89" s="246"/>
+      <c r="R89" s="247"/>
+      <c r="S89" s="170"/>
+      <c r="T89" s="250"/>
+      <c r="U89" s="250"/>
+      <c r="V89" s="250"/>
+      <c r="W89" s="250"/>
+      <c r="X89" s="169"/>
       <c r="Y89" s="206"/>
       <c r="Z89" s="207"/>
     </row>
     <row r="90" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A90" s="97"/>
-      <c r="B90" s="265"/>
-      <c r="C90" s="27" t="s">
+      <c r="A90" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B90" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D90" s="268" t="s">
-        <v>184</v>
-      </c>
-      <c r="E90" s="268"/>
-      <c r="F90" s="268"/>
-      <c r="G90" s="269"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="17"/>
-      <c r="J90" s="17"/>
-      <c r="K90" s="17"/>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
-      <c r="R90" s="18"/>
-      <c r="S90" s="286"/>
-      <c r="T90" s="287"/>
-      <c r="U90" s="287"/>
-      <c r="V90" s="287"/>
-      <c r="W90" s="287"/>
-      <c r="X90" s="285"/>
+      <c r="C90" s="242"/>
+      <c r="D90" s="242"/>
+      <c r="E90" s="242"/>
+      <c r="F90" s="242"/>
+      <c r="G90" s="243"/>
+      <c r="H90" s="227" t="s">
+        <v>76</v>
+      </c>
+      <c r="I90" s="172"/>
+      <c r="J90" s="172"/>
+      <c r="K90" s="172"/>
+      <c r="L90" s="172"/>
+      <c r="M90" s="172"/>
+      <c r="N90" s="172"/>
+      <c r="O90" s="172"/>
+      <c r="P90" s="172"/>
+      <c r="Q90" s="172"/>
+      <c r="R90" s="173"/>
+      <c r="S90" s="170"/>
+      <c r="T90" s="250"/>
+      <c r="U90" s="250"/>
+      <c r="V90" s="250"/>
+      <c r="W90" s="250"/>
+      <c r="X90" s="169"/>
       <c r="Y90" s="206"/>
       <c r="Z90" s="207"/>
     </row>
     <row r="91" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A91" s="97"/>
-      <c r="B91" s="265"/>
-      <c r="C91" s="27" t="s">
+      <c r="A91" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B91" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D91" s="268" t="s">
-        <v>185</v>
-      </c>
-      <c r="E91" s="268"/>
-      <c r="F91" s="268"/>
-      <c r="G91" s="269"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="17"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
-      <c r="R91" s="18"/>
-      <c r="S91" s="286"/>
-      <c r="T91" s="287"/>
-      <c r="U91" s="287"/>
-      <c r="V91" s="287"/>
-      <c r="W91" s="287"/>
-      <c r="X91" s="285"/>
-      <c r="Y91" s="206"/>
-      <c r="Z91" s="207"/>
+      <c r="C91" s="242"/>
+      <c r="D91" s="242"/>
+      <c r="E91" s="242"/>
+      <c r="F91" s="242"/>
+      <c r="G91" s="243"/>
+      <c r="H91" s="227" t="s">
+        <v>77</v>
+      </c>
+      <c r="I91" s="172"/>
+      <c r="J91" s="172"/>
+      <c r="K91" s="172"/>
+      <c r="L91" s="172"/>
+      <c r="M91" s="172"/>
+      <c r="N91" s="172"/>
+      <c r="O91" s="172"/>
+      <c r="P91" s="172"/>
+      <c r="Q91" s="172"/>
+      <c r="R91" s="173"/>
+      <c r="S91" s="251"/>
+      <c r="T91" s="252"/>
+      <c r="U91" s="252"/>
+      <c r="V91" s="252"/>
+      <c r="W91" s="252"/>
+      <c r="X91" s="253"/>
+      <c r="Y91" s="208"/>
+      <c r="Z91" s="209"/>
     </row>
     <row r="92" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A92" s="97"/>
-      <c r="B92" s="265"/>
-      <c r="C92" s="27" t="s">
+      <c r="A92" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B92" s="114" t="s">
+        <v>79</v>
+      </c>
+      <c r="C92" s="115"/>
+      <c r="D92" s="115"/>
+      <c r="E92" s="115"/>
+      <c r="F92" s="115"/>
+      <c r="G92" s="116"/>
+      <c r="H92" s="119" t="s">
+        <v>80</v>
+      </c>
+      <c r="I92" s="146"/>
+      <c r="J92" s="146"/>
+      <c r="K92" s="146"/>
+      <c r="L92" s="146"/>
+      <c r="M92" s="239"/>
+      <c r="N92" s="240"/>
+      <c r="O92" s="240"/>
+      <c r="P92" s="240"/>
+      <c r="Q92" s="240"/>
+      <c r="R92" s="241"/>
+      <c r="S92" s="114" t="s">
+        <v>81</v>
+      </c>
+      <c r="T92" s="115"/>
+      <c r="U92" s="115"/>
+      <c r="V92" s="115"/>
+      <c r="W92" s="115"/>
+      <c r="X92" s="150"/>
+      <c r="Y92" s="114" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z92" s="116"/>
+    </row>
+    <row r="93" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A93" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B93" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D92" s="268" t="s">
-        <v>186</v>
-      </c>
-      <c r="E92" s="268"/>
-      <c r="F92" s="268"/>
-      <c r="G92" s="269"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="17"/>
-      <c r="J92" s="17"/>
-      <c r="K92" s="17"/>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
-      <c r="R92" s="18"/>
-      <c r="S92" s="286"/>
-      <c r="T92" s="287"/>
-      <c r="U92" s="287"/>
-      <c r="V92" s="287"/>
-      <c r="W92" s="287"/>
-      <c r="X92" s="285"/>
-      <c r="Y92" s="206"/>
-      <c r="Z92" s="207"/>
-    </row>
-    <row r="93" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A93" s="97"/>
-      <c r="B93" s="265"/>
-      <c r="C93" s="27" t="s">
+      <c r="C93" s="259" t="s">
+        <v>131</v>
+      </c>
+      <c r="D93" s="259"/>
+      <c r="E93" s="259"/>
+      <c r="F93" s="259"/>
+      <c r="G93" s="260"/>
+      <c r="H93" s="227" t="s">
+        <v>83</v>
+      </c>
+      <c r="I93" s="172"/>
+      <c r="J93" s="172"/>
+      <c r="K93" s="172"/>
+      <c r="L93" s="172"/>
+      <c r="M93" s="172"/>
+      <c r="N93" s="172"/>
+      <c r="O93" s="172"/>
+      <c r="P93" s="172"/>
+      <c r="Q93" s="172"/>
+      <c r="R93" s="172"/>
+      <c r="S93" s="254" t="s">
+        <v>46</v>
+      </c>
+      <c r="T93" s="255"/>
+      <c r="U93" s="255"/>
+      <c r="V93" s="255"/>
+      <c r="W93" s="255"/>
+      <c r="X93" s="256"/>
+      <c r="Y93" s="204" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z93" s="205"/>
+    </row>
+    <row r="94" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A94" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D93" s="268" t="s">
-        <v>221</v>
-      </c>
-      <c r="E93" s="268"/>
-      <c r="F93" s="268"/>
-      <c r="G93" s="269"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
-      <c r="R93" s="18"/>
-      <c r="S93" s="286"/>
-      <c r="T93" s="287"/>
-      <c r="U93" s="287"/>
-      <c r="V93" s="287"/>
-      <c r="W93" s="287"/>
-      <c r="X93" s="285"/>
-      <c r="Y93" s="206"/>
-      <c r="Z93" s="207"/>
-    </row>
-    <row r="94" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A94" s="97"/>
-      <c r="B94" s="265"/>
-      <c r="C94" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D94" s="268" t="s">
-        <v>220</v>
-      </c>
-      <c r="E94" s="268"/>
-      <c r="F94" s="268"/>
-      <c r="G94" s="269"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="17"/>
-      <c r="J94" s="17"/>
-      <c r="K94" s="17"/>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
-      <c r="R94" s="18"/>
-      <c r="S94" s="286"/>
-      <c r="T94" s="287"/>
-      <c r="U94" s="287"/>
-      <c r="V94" s="287"/>
-      <c r="W94" s="287"/>
-      <c r="X94" s="285"/>
+      <c r="C94" s="261"/>
+      <c r="D94" s="261"/>
+      <c r="E94" s="261"/>
+      <c r="F94" s="261"/>
+      <c r="G94" s="262"/>
+      <c r="H94" s="227" t="s">
+        <v>84</v>
+      </c>
+      <c r="I94" s="172"/>
+      <c r="J94" s="172"/>
+      <c r="K94" s="172"/>
+      <c r="L94" s="172"/>
+      <c r="M94" s="172"/>
+      <c r="N94" s="172"/>
+      <c r="O94" s="172"/>
+      <c r="P94" s="172"/>
+      <c r="Q94" s="172"/>
+      <c r="R94" s="173"/>
+      <c r="S94" s="167" t="s">
+        <v>69</v>
+      </c>
+      <c r="T94" s="168"/>
+      <c r="U94" s="168"/>
+      <c r="V94" s="168"/>
+      <c r="W94" s="168"/>
+      <c r="X94" s="169"/>
       <c r="Y94" s="206"/>
       <c r="Z94" s="207"/>
     </row>
     <row r="95" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A95" s="97"/>
-      <c r="B95" s="265"/>
-      <c r="C95" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="D95" s="268" t="s">
-        <v>127</v>
-      </c>
-      <c r="E95" s="268"/>
-      <c r="F95" s="268"/>
-      <c r="G95" s="269"/>
-      <c r="H95" s="278"/>
-      <c r="I95" s="278"/>
-      <c r="J95" s="278"/>
-      <c r="K95" s="278"/>
-      <c r="L95" s="278"/>
-      <c r="M95" s="278"/>
-      <c r="N95" s="278"/>
-      <c r="O95" s="278"/>
-      <c r="P95" s="278"/>
-      <c r="Q95" s="278"/>
-      <c r="R95" s="279"/>
-      <c r="S95" s="286"/>
-      <c r="T95" s="287"/>
-      <c r="U95" s="287"/>
-      <c r="V95" s="287"/>
-      <c r="W95" s="287"/>
-      <c r="X95" s="285"/>
+      <c r="A95" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C95" s="261"/>
+      <c r="D95" s="261"/>
+      <c r="E95" s="261"/>
+      <c r="F95" s="261"/>
+      <c r="G95" s="262"/>
+      <c r="H95" s="227" t="s">
+        <v>85</v>
+      </c>
+      <c r="I95" s="172"/>
+      <c r="J95" s="172"/>
+      <c r="K95" s="172"/>
+      <c r="L95" s="172"/>
+      <c r="M95" s="172"/>
+      <c r="N95" s="172"/>
+      <c r="O95" s="172"/>
+      <c r="P95" s="172"/>
+      <c r="Q95" s="172"/>
+      <c r="R95" s="173"/>
+      <c r="S95" s="170"/>
+      <c r="T95" s="168"/>
+      <c r="U95" s="168"/>
+      <c r="V95" s="168"/>
+      <c r="W95" s="168"/>
+      <c r="X95" s="169"/>
       <c r="Y95" s="206"/>
       <c r="Z95" s="207"/>
     </row>
     <row r="96" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A96" s="97"/>
-      <c r="B96" s="265"/>
-      <c r="C96" s="24" t="s">
+      <c r="A96" s="98"/>
+      <c r="B96" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C96" s="263"/>
+      <c r="D96" s="263"/>
+      <c r="E96" s="263"/>
+      <c r="F96" s="263"/>
+      <c r="G96" s="264"/>
+      <c r="H96" s="230"/>
+      <c r="I96" s="257"/>
+      <c r="J96" s="257"/>
+      <c r="K96" s="257"/>
+      <c r="L96" s="257"/>
+      <c r="M96" s="257"/>
+      <c r="N96" s="257"/>
+      <c r="O96" s="257"/>
+      <c r="P96" s="257"/>
+      <c r="Q96" s="257"/>
+      <c r="R96" s="258"/>
+      <c r="S96" s="251"/>
+      <c r="T96" s="252"/>
+      <c r="U96" s="252"/>
+      <c r="V96" s="252"/>
+      <c r="W96" s="252"/>
+      <c r="X96" s="253"/>
+      <c r="Y96" s="208"/>
+      <c r="Z96" s="209"/>
+    </row>
+    <row r="97" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A97" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B97" s="114" t="s">
+        <v>87</v>
+      </c>
+      <c r="C97" s="115"/>
+      <c r="D97" s="115"/>
+      <c r="E97" s="115"/>
+      <c r="F97" s="115"/>
+      <c r="G97" s="116"/>
+      <c r="H97" s="119" t="s">
+        <v>42</v>
+      </c>
+      <c r="I97" s="146"/>
+      <c r="J97" s="146"/>
+      <c r="K97" s="146"/>
+      <c r="L97" s="146"/>
+      <c r="M97" s="146"/>
+      <c r="N97" s="146"/>
+      <c r="O97" s="146"/>
+      <c r="P97" s="146"/>
+      <c r="Q97" s="146"/>
+      <c r="R97" s="120"/>
+      <c r="S97" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="T97" s="115"/>
+      <c r="U97" s="115"/>
+      <c r="V97" s="115"/>
+      <c r="W97" s="115"/>
+      <c r="X97" s="150"/>
+      <c r="Y97" s="114" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z97" s="116"/>
+    </row>
+    <row r="98" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A98" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B98" s="265" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D98" s="266" t="s">
+        <v>124</v>
+      </c>
+      <c r="E98" s="266"/>
+      <c r="F98" s="266"/>
+      <c r="G98" s="267"/>
+      <c r="H98" s="123" t="s">
+        <v>89</v>
+      </c>
+      <c r="I98" s="124"/>
+      <c r="J98" s="124"/>
+      <c r="K98" s="124"/>
+      <c r="L98" s="124"/>
+      <c r="M98" s="124"/>
+      <c r="N98" s="124"/>
+      <c r="O98" s="124"/>
+      <c r="P98" s="124"/>
+      <c r="Q98" s="124"/>
+      <c r="R98" s="125"/>
+      <c r="S98" s="236" t="s">
+        <v>46</v>
+      </c>
+      <c r="T98" s="237"/>
+      <c r="U98" s="237"/>
+      <c r="V98" s="237"/>
+      <c r="W98" s="237"/>
+      <c r="X98" s="238"/>
+      <c r="Y98" s="204" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z98" s="205"/>
+    </row>
+    <row r="99" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A99" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B99" s="265"/>
+      <c r="C99" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D99" s="268" t="s">
+        <v>143</v>
+      </c>
+      <c r="E99" s="268"/>
+      <c r="F99" s="268"/>
+      <c r="G99" s="269"/>
+      <c r="H99" s="227" t="s">
+        <v>91</v>
+      </c>
+      <c r="I99" s="172"/>
+      <c r="J99" s="172"/>
+      <c r="K99" s="172"/>
+      <c r="L99" s="172"/>
+      <c r="M99" s="172"/>
+      <c r="N99" s="172"/>
+      <c r="O99" s="172"/>
+      <c r="P99" s="172"/>
+      <c r="Q99" s="172"/>
+      <c r="R99" s="173"/>
+      <c r="S99" s="283" t="s">
+        <v>48</v>
+      </c>
+      <c r="T99" s="284"/>
+      <c r="U99" s="284"/>
+      <c r="V99" s="284"/>
+      <c r="W99" s="284"/>
+      <c r="X99" s="285"/>
+      <c r="Y99" s="206"/>
+      <c r="Z99" s="207"/>
+    </row>
+    <row r="100" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A100" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B100" s="265"/>
+      <c r="C100" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D100" s="270" t="s">
+        <v>125</v>
+      </c>
+      <c r="E100" s="270"/>
+      <c r="F100" s="270"/>
+      <c r="G100" s="271"/>
+      <c r="H100" s="227"/>
+      <c r="I100" s="172"/>
+      <c r="J100" s="172"/>
+      <c r="K100" s="172"/>
+      <c r="L100" s="172"/>
+      <c r="M100" s="172"/>
+      <c r="N100" s="172"/>
+      <c r="O100" s="172"/>
+      <c r="P100" s="172"/>
+      <c r="Q100" s="172"/>
+      <c r="R100" s="173"/>
+      <c r="S100" s="286"/>
+      <c r="T100" s="287"/>
+      <c r="U100" s="287"/>
+      <c r="V100" s="287"/>
+      <c r="W100" s="287"/>
+      <c r="X100" s="285"/>
+      <c r="Y100" s="206"/>
+      <c r="Z100" s="207"/>
+    </row>
+    <row r="101" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A101" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="B101" s="288" t="s">
+        <v>58</v>
+      </c>
+      <c r="C101" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D101" s="268" t="s">
+        <v>126</v>
+      </c>
+      <c r="E101" s="268"/>
+      <c r="F101" s="268"/>
+      <c r="G101" s="269"/>
+      <c r="H101" s="278"/>
+      <c r="I101" s="278"/>
+      <c r="J101" s="278"/>
+      <c r="K101" s="278"/>
+      <c r="L101" s="278"/>
+      <c r="M101" s="278"/>
+      <c r="N101" s="278"/>
+      <c r="O101" s="278"/>
+      <c r="P101" s="278"/>
+      <c r="Q101" s="278"/>
+      <c r="R101" s="279"/>
+      <c r="S101" s="286"/>
+      <c r="T101" s="287"/>
+      <c r="U101" s="287"/>
+      <c r="V101" s="287"/>
+      <c r="W101" s="287"/>
+      <c r="X101" s="285"/>
+      <c r="Y101" s="206"/>
+      <c r="Z101" s="207"/>
+    </row>
+    <row r="102" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A102" s="97"/>
+      <c r="B102" s="265"/>
+      <c r="C102" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D102" s="268" t="s">
+        <v>142</v>
+      </c>
+      <c r="E102" s="268"/>
+      <c r="F102" s="268"/>
+      <c r="G102" s="269"/>
+      <c r="H102" s="278"/>
+      <c r="I102" s="278"/>
+      <c r="J102" s="278"/>
+      <c r="K102" s="278"/>
+      <c r="L102" s="278"/>
+      <c r="M102" s="278"/>
+      <c r="N102" s="278"/>
+      <c r="O102" s="278"/>
+      <c r="P102" s="278"/>
+      <c r="Q102" s="278"/>
+      <c r="R102" s="279"/>
+      <c r="S102" s="286"/>
+      <c r="T102" s="287"/>
+      <c r="U102" s="287"/>
+      <c r="V102" s="287"/>
+      <c r="W102" s="287"/>
+      <c r="X102" s="285"/>
+      <c r="Y102" s="206"/>
+      <c r="Z102" s="207"/>
+    </row>
+    <row r="103" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A103" s="97"/>
+      <c r="B103" s="265"/>
+      <c r="C103" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D103" s="268" t="s">
+        <v>183</v>
+      </c>
+      <c r="E103" s="268"/>
+      <c r="F103" s="268"/>
+      <c r="G103" s="269"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="17"/>
+      <c r="J103" s="17"/>
+      <c r="K103" s="17"/>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
+      <c r="R103" s="18"/>
+      <c r="S103" s="286"/>
+      <c r="T103" s="287"/>
+      <c r="U103" s="287"/>
+      <c r="V103" s="287"/>
+      <c r="W103" s="287"/>
+      <c r="X103" s="285"/>
+      <c r="Y103" s="206"/>
+      <c r="Z103" s="207"/>
+    </row>
+    <row r="104" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A104" s="97"/>
+      <c r="B104" s="265"/>
+      <c r="C104" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D104" s="268" t="s">
+        <v>184</v>
+      </c>
+      <c r="E104" s="268"/>
+      <c r="F104" s="268"/>
+      <c r="G104" s="269"/>
+      <c r="H104" s="17"/>
+      <c r="I104" s="17"/>
+      <c r="J104" s="17"/>
+      <c r="K104" s="17"/>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
+      <c r="R104" s="18"/>
+      <c r="S104" s="286"/>
+      <c r="T104" s="287"/>
+      <c r="U104" s="287"/>
+      <c r="V104" s="287"/>
+      <c r="W104" s="287"/>
+      <c r="X104" s="285"/>
+      <c r="Y104" s="206"/>
+      <c r="Z104" s="207"/>
+    </row>
+    <row r="105" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A105" s="97"/>
+      <c r="B105" s="265"/>
+      <c r="C105" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D105" s="268" t="s">
+        <v>185</v>
+      </c>
+      <c r="E105" s="268"/>
+      <c r="F105" s="268"/>
+      <c r="G105" s="269"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="17"/>
+      <c r="J105" s="17"/>
+      <c r="K105" s="17"/>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
+      <c r="R105" s="18"/>
+      <c r="S105" s="286"/>
+      <c r="T105" s="287"/>
+      <c r="U105" s="287"/>
+      <c r="V105" s="287"/>
+      <c r="W105" s="287"/>
+      <c r="X105" s="285"/>
+      <c r="Y105" s="206"/>
+      <c r="Z105" s="207"/>
+    </row>
+    <row r="106" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A106" s="97"/>
+      <c r="B106" s="265"/>
+      <c r="C106" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D106" s="268" t="s">
+        <v>186</v>
+      </c>
+      <c r="E106" s="268"/>
+      <c r="F106" s="268"/>
+      <c r="G106" s="269"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="17"/>
+      <c r="J106" s="17"/>
+      <c r="K106" s="17"/>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
+      <c r="R106" s="18"/>
+      <c r="S106" s="286"/>
+      <c r="T106" s="287"/>
+      <c r="U106" s="287"/>
+      <c r="V106" s="287"/>
+      <c r="W106" s="287"/>
+      <c r="X106" s="285"/>
+      <c r="Y106" s="206"/>
+      <c r="Z106" s="207"/>
+    </row>
+    <row r="107" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A107" s="97"/>
+      <c r="B107" s="265"/>
+      <c r="C107" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D107" s="268" t="s">
+        <v>221</v>
+      </c>
+      <c r="E107" s="268"/>
+      <c r="F107" s="268"/>
+      <c r="G107" s="269"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="17"/>
+      <c r="J107" s="17"/>
+      <c r="K107" s="17"/>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
+      <c r="R107" s="18"/>
+      <c r="S107" s="286"/>
+      <c r="T107" s="287"/>
+      <c r="U107" s="287"/>
+      <c r="V107" s="287"/>
+      <c r="W107" s="287"/>
+      <c r="X107" s="285"/>
+      <c r="Y107" s="206"/>
+      <c r="Z107" s="207"/>
+    </row>
+    <row r="108" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A108" s="97"/>
+      <c r="B108" s="265"/>
+      <c r="C108" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D108" s="268" t="s">
+        <v>220</v>
+      </c>
+      <c r="E108" s="268"/>
+      <c r="F108" s="268"/>
+      <c r="G108" s="269"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="17"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="17"/>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
+      <c r="R108" s="18"/>
+      <c r="S108" s="286"/>
+      <c r="T108" s="287"/>
+      <c r="U108" s="287"/>
+      <c r="V108" s="287"/>
+      <c r="W108" s="287"/>
+      <c r="X108" s="285"/>
+      <c r="Y108" s="206"/>
+      <c r="Z108" s="207"/>
+    </row>
+    <row r="109" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A109" s="97"/>
+      <c r="B109" s="265"/>
+      <c r="C109" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D109" s="268" t="s">
+        <v>127</v>
+      </c>
+      <c r="E109" s="268"/>
+      <c r="F109" s="268"/>
+      <c r="G109" s="269"/>
+      <c r="H109" s="278"/>
+      <c r="I109" s="278"/>
+      <c r="J109" s="278"/>
+      <c r="K109" s="278"/>
+      <c r="L109" s="278"/>
+      <c r="M109" s="278"/>
+      <c r="N109" s="278"/>
+      <c r="O109" s="278"/>
+      <c r="P109" s="278"/>
+      <c r="Q109" s="278"/>
+      <c r="R109" s="279"/>
+      <c r="S109" s="286"/>
+      <c r="T109" s="287"/>
+      <c r="U109" s="287"/>
+      <c r="V109" s="287"/>
+      <c r="W109" s="287"/>
+      <c r="X109" s="285"/>
+      <c r="Y109" s="206"/>
+      <c r="Z109" s="207"/>
+    </row>
+    <row r="110" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A110" s="97"/>
+      <c r="B110" s="265"/>
+      <c r="C110" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="D96" s="268" t="s">
+      <c r="D110" s="268" t="s">
         <v>188</v>
       </c>
-      <c r="E96" s="268"/>
-      <c r="F96" s="268"/>
-      <c r="G96" s="269"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="11"/>
-      <c r="J96" s="11"/>
-      <c r="K96" s="11"/>
-      <c r="L96" s="11"/>
-      <c r="M96" s="11"/>
-      <c r="N96" s="11"/>
-      <c r="O96" s="11"/>
-      <c r="P96" s="11"/>
-      <c r="Q96" s="11"/>
-      <c r="R96" s="12"/>
-      <c r="S96" s="286"/>
-      <c r="T96" s="287"/>
-      <c r="U96" s="287"/>
-      <c r="V96" s="287"/>
-      <c r="W96" s="287"/>
-      <c r="X96" s="285"/>
-      <c r="Y96" s="206"/>
-      <c r="Z96" s="207"/>
-    </row>
-    <row r="97" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A97" s="97"/>
-      <c r="B97" s="265"/>
-      <c r="C97" s="24" t="s">
+      <c r="E110" s="268"/>
+      <c r="F110" s="268"/>
+      <c r="G110" s="269"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11"/>
+      <c r="J110" s="11"/>
+      <c r="K110" s="11"/>
+      <c r="L110" s="11"/>
+      <c r="M110" s="11"/>
+      <c r="N110" s="11"/>
+      <c r="O110" s="11"/>
+      <c r="P110" s="11"/>
+      <c r="Q110" s="11"/>
+      <c r="R110" s="12"/>
+      <c r="S110" s="286"/>
+      <c r="T110" s="287"/>
+      <c r="U110" s="287"/>
+      <c r="V110" s="287"/>
+      <c r="W110" s="287"/>
+      <c r="X110" s="285"/>
+      <c r="Y110" s="206"/>
+      <c r="Z110" s="207"/>
+    </row>
+    <row r="111" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A111" s="97"/>
+      <c r="B111" s="265"/>
+      <c r="C111" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="D97" s="268" t="s">
+      <c r="D111" s="268" t="s">
         <v>190</v>
       </c>
-      <c r="E97" s="268"/>
-      <c r="F97" s="268"/>
-      <c r="G97" s="269"/>
-      <c r="H97" s="17"/>
-      <c r="I97" s="17"/>
-      <c r="J97" s="17"/>
-      <c r="K97" s="17"/>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
-      <c r="R97" s="18"/>
-      <c r="S97" s="286"/>
-      <c r="T97" s="287"/>
-      <c r="U97" s="287"/>
-      <c r="V97" s="287"/>
-      <c r="W97" s="287"/>
-      <c r="X97" s="285"/>
-      <c r="Y97" s="206"/>
-      <c r="Z97" s="207"/>
-    </row>
-    <row r="98" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A98" s="98"/>
-      <c r="B98" s="265"/>
-      <c r="C98" s="24" t="s">
+      <c r="E111" s="268"/>
+      <c r="F111" s="268"/>
+      <c r="G111" s="269"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="17"/>
+      <c r="J111" s="17"/>
+      <c r="K111" s="17"/>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
+      <c r="R111" s="18"/>
+      <c r="S111" s="286"/>
+      <c r="T111" s="287"/>
+      <c r="U111" s="287"/>
+      <c r="V111" s="287"/>
+      <c r="W111" s="287"/>
+      <c r="X111" s="285"/>
+      <c r="Y111" s="206"/>
+      <c r="Z111" s="207"/>
+    </row>
+    <row r="112" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A112" s="98"/>
+      <c r="B112" s="265"/>
+      <c r="C112" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="D98" s="270" t="s">
+      <c r="D112" s="270" t="s">
         <v>128</v>
       </c>
-      <c r="E98" s="270"/>
-      <c r="F98" s="270"/>
-      <c r="G98" s="271"/>
-      <c r="H98" s="11"/>
-      <c r="I98" s="11"/>
-      <c r="J98" s="11"/>
-      <c r="K98" s="11"/>
-      <c r="L98" s="11"/>
-      <c r="M98" s="11"/>
-      <c r="N98" s="11"/>
-      <c r="O98" s="11"/>
-      <c r="P98" s="11"/>
-      <c r="Q98" s="11"/>
-      <c r="R98" s="12"/>
-      <c r="S98" s="286"/>
-      <c r="T98" s="287"/>
-      <c r="U98" s="287"/>
-      <c r="V98" s="287"/>
-      <c r="W98" s="287"/>
-      <c r="X98" s="285"/>
-      <c r="Y98" s="208"/>
-      <c r="Z98" s="209"/>
-    </row>
-    <row r="99" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A99" s="280" t="s">
+      <c r="E112" s="270"/>
+      <c r="F112" s="270"/>
+      <c r="G112" s="271"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="11"/>
+      <c r="J112" s="11"/>
+      <c r="K112" s="11"/>
+      <c r="L112" s="11"/>
+      <c r="M112" s="11"/>
+      <c r="N112" s="11"/>
+      <c r="O112" s="11"/>
+      <c r="P112" s="11"/>
+      <c r="Q112" s="11"/>
+      <c r="R112" s="12"/>
+      <c r="S112" s="286"/>
+      <c r="T112" s="287"/>
+      <c r="U112" s="287"/>
+      <c r="V112" s="287"/>
+      <c r="W112" s="287"/>
+      <c r="X112" s="285"/>
+      <c r="Y112" s="208"/>
+      <c r="Z112" s="209"/>
+    </row>
+    <row r="113" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A113" s="280" t="s">
         <v>92</v>
       </c>
-      <c r="B99" s="281"/>
-      <c r="C99" s="281"/>
-      <c r="D99" s="281"/>
-      <c r="E99" s="281"/>
-      <c r="F99" s="281"/>
-      <c r="G99" s="281"/>
-      <c r="H99" s="281"/>
-      <c r="I99" s="281"/>
-      <c r="J99" s="281"/>
-      <c r="K99" s="281"/>
-      <c r="L99" s="281"/>
-      <c r="M99" s="281"/>
-      <c r="N99" s="281"/>
-      <c r="O99" s="281"/>
-      <c r="P99" s="281"/>
-      <c r="Q99" s="281"/>
-      <c r="R99" s="281"/>
-      <c r="S99" s="281"/>
-      <c r="T99" s="281"/>
-      <c r="U99" s="281"/>
-      <c r="V99" s="281"/>
-      <c r="W99" s="281"/>
-      <c r="X99" s="281"/>
-      <c r="Y99" s="281"/>
-      <c r="Z99" s="282"/>
-    </row>
-    <row r="100" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A100" s="272" t="s">
+      <c r="B113" s="281"/>
+      <c r="C113" s="281"/>
+      <c r="D113" s="281"/>
+      <c r="E113" s="281"/>
+      <c r="F113" s="281"/>
+      <c r="G113" s="281"/>
+      <c r="H113" s="281"/>
+      <c r="I113" s="281"/>
+      <c r="J113" s="281"/>
+      <c r="K113" s="281"/>
+      <c r="L113" s="281"/>
+      <c r="M113" s="281"/>
+      <c r="N113" s="281"/>
+      <c r="O113" s="281"/>
+      <c r="P113" s="281"/>
+      <c r="Q113" s="281"/>
+      <c r="R113" s="281"/>
+      <c r="S113" s="281"/>
+      <c r="T113" s="281"/>
+      <c r="U113" s="281"/>
+      <c r="V113" s="281"/>
+      <c r="W113" s="281"/>
+      <c r="X113" s="281"/>
+      <c r="Y113" s="281"/>
+      <c r="Z113" s="282"/>
+    </row>
+    <row r="114" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A114" s="272" t="s">
         <v>93</v>
       </c>
-      <c r="B100" s="273"/>
-      <c r="C100" s="273"/>
-      <c r="D100" s="273"/>
-      <c r="E100" s="273"/>
-      <c r="F100" s="273"/>
-      <c r="G100" s="273"/>
-      <c r="H100" s="273"/>
-      <c r="I100" s="273"/>
-      <c r="J100" s="273"/>
-      <c r="K100" s="273"/>
-      <c r="L100" s="273"/>
-      <c r="M100" s="273"/>
-      <c r="N100" s="273"/>
-      <c r="O100" s="273"/>
-      <c r="P100" s="273"/>
-      <c r="Q100" s="273"/>
-      <c r="R100" s="273"/>
-      <c r="S100" s="273"/>
-      <c r="T100" s="273"/>
-      <c r="U100" s="273"/>
-      <c r="V100" s="273"/>
-      <c r="W100" s="273"/>
-      <c r="X100" s="273"/>
-      <c r="Y100" s="273"/>
-      <c r="Z100" s="274"/>
-    </row>
-    <row r="101" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A101" s="272" t="s">
+      <c r="B114" s="273"/>
+      <c r="C114" s="273"/>
+      <c r="D114" s="273"/>
+      <c r="E114" s="273"/>
+      <c r="F114" s="273"/>
+      <c r="G114" s="273"/>
+      <c r="H114" s="273"/>
+      <c r="I114" s="273"/>
+      <c r="J114" s="273"/>
+      <c r="K114" s="273"/>
+      <c r="L114" s="273"/>
+      <c r="M114" s="273"/>
+      <c r="N114" s="273"/>
+      <c r="O114" s="273"/>
+      <c r="P114" s="273"/>
+      <c r="Q114" s="273"/>
+      <c r="R114" s="273"/>
+      <c r="S114" s="273"/>
+      <c r="T114" s="273"/>
+      <c r="U114" s="273"/>
+      <c r="V114" s="273"/>
+      <c r="W114" s="273"/>
+      <c r="X114" s="273"/>
+      <c r="Y114" s="273"/>
+      <c r="Z114" s="274"/>
+    </row>
+    <row r="115" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A115" s="272" t="s">
         <v>94</v>
       </c>
-      <c r="B101" s="273"/>
-      <c r="C101" s="273"/>
-      <c r="D101" s="273"/>
-      <c r="E101" s="273"/>
-      <c r="F101" s="273"/>
-      <c r="G101" s="273"/>
-      <c r="H101" s="273"/>
-      <c r="I101" s="273"/>
-      <c r="J101" s="273"/>
-      <c r="K101" s="273"/>
-      <c r="L101" s="273"/>
-      <c r="M101" s="273"/>
-      <c r="N101" s="273"/>
-      <c r="O101" s="273"/>
-      <c r="P101" s="273"/>
-      <c r="Q101" s="273"/>
-      <c r="R101" s="273"/>
-      <c r="S101" s="273"/>
-      <c r="T101" s="273"/>
-      <c r="U101" s="273"/>
-      <c r="V101" s="273"/>
-      <c r="W101" s="273"/>
-      <c r="X101" s="273"/>
-      <c r="Y101" s="273"/>
-      <c r="Z101" s="274"/>
-    </row>
-    <row r="102" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A102" s="289" t="s">
+      <c r="B115" s="273"/>
+      <c r="C115" s="273"/>
+      <c r="D115" s="273"/>
+      <c r="E115" s="273"/>
+      <c r="F115" s="273"/>
+      <c r="G115" s="273"/>
+      <c r="H115" s="273"/>
+      <c r="I115" s="273"/>
+      <c r="J115" s="273"/>
+      <c r="K115" s="273"/>
+      <c r="L115" s="273"/>
+      <c r="M115" s="273"/>
+      <c r="N115" s="273"/>
+      <c r="O115" s="273"/>
+      <c r="P115" s="273"/>
+      <c r="Q115" s="273"/>
+      <c r="R115" s="273"/>
+      <c r="S115" s="273"/>
+      <c r="T115" s="273"/>
+      <c r="U115" s="273"/>
+      <c r="V115" s="273"/>
+      <c r="W115" s="273"/>
+      <c r="X115" s="273"/>
+      <c r="Y115" s="273"/>
+      <c r="Z115" s="274"/>
+    </row>
+    <row r="116" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A116" s="289" t="s">
         <v>95</v>
       </c>
-      <c r="B102" s="290"/>
-      <c r="C102" s="290"/>
-      <c r="D102" s="290"/>
-      <c r="E102" s="290"/>
-      <c r="F102" s="290"/>
-      <c r="G102" s="290"/>
-      <c r="H102" s="290"/>
-      <c r="I102" s="290"/>
-      <c r="J102" s="290"/>
-      <c r="K102" s="290"/>
-      <c r="L102" s="290"/>
-      <c r="M102" s="290"/>
-      <c r="N102" s="290"/>
-      <c r="O102" s="290"/>
-      <c r="P102" s="290"/>
-      <c r="Q102" s="290"/>
-      <c r="R102" s="290"/>
-      <c r="S102" s="290"/>
-      <c r="T102" s="290"/>
-      <c r="U102" s="290"/>
-      <c r="V102" s="290"/>
-      <c r="W102" s="290"/>
-      <c r="X102" s="290"/>
-      <c r="Y102" s="290"/>
-      <c r="Z102" s="291"/>
-    </row>
-    <row r="103" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A103" s="275" t="s">
+      <c r="B116" s="290"/>
+      <c r="C116" s="290"/>
+      <c r="D116" s="290"/>
+      <c r="E116" s="290"/>
+      <c r="F116" s="290"/>
+      <c r="G116" s="290"/>
+      <c r="H116" s="290"/>
+      <c r="I116" s="290"/>
+      <c r="J116" s="290"/>
+      <c r="K116" s="290"/>
+      <c r="L116" s="290"/>
+      <c r="M116" s="290"/>
+      <c r="N116" s="290"/>
+      <c r="O116" s="290"/>
+      <c r="P116" s="290"/>
+      <c r="Q116" s="290"/>
+      <c r="R116" s="290"/>
+      <c r="S116" s="290"/>
+      <c r="T116" s="290"/>
+      <c r="U116" s="290"/>
+      <c r="V116" s="290"/>
+      <c r="W116" s="290"/>
+      <c r="X116" s="290"/>
+      <c r="Y116" s="290"/>
+      <c r="Z116" s="291"/>
+    </row>
+    <row r="117" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A117" s="275" t="s">
         <v>187</v>
       </c>
-      <c r="B103" s="276"/>
-      <c r="C103" s="276"/>
-      <c r="D103" s="276"/>
-      <c r="E103" s="276"/>
-      <c r="F103" s="276"/>
-      <c r="G103" s="276"/>
-      <c r="H103" s="276"/>
-      <c r="I103" s="276"/>
-      <c r="J103" s="276"/>
-      <c r="K103" s="276"/>
-      <c r="L103" s="276"/>
-      <c r="M103" s="276"/>
-      <c r="N103" s="276"/>
-      <c r="O103" s="276"/>
-      <c r="P103" s="276"/>
-      <c r="Q103" s="276"/>
-      <c r="R103" s="276"/>
-      <c r="S103" s="276"/>
-      <c r="T103" s="276"/>
-      <c r="U103" s="276"/>
-      <c r="V103" s="276"/>
-      <c r="W103" s="276"/>
-      <c r="X103" s="276"/>
-      <c r="Y103" s="276"/>
-      <c r="Z103" s="277"/>
+      <c r="B117" s="276"/>
+      <c r="C117" s="276"/>
+      <c r="D117" s="276"/>
+      <c r="E117" s="276"/>
+      <c r="F117" s="276"/>
+      <c r="G117" s="276"/>
+      <c r="H117" s="276"/>
+      <c r="I117" s="276"/>
+      <c r="J117" s="276"/>
+      <c r="K117" s="276"/>
+      <c r="L117" s="276"/>
+      <c r="M117" s="276"/>
+      <c r="N117" s="276"/>
+      <c r="O117" s="276"/>
+      <c r="P117" s="276"/>
+      <c r="Q117" s="276"/>
+      <c r="R117" s="276"/>
+      <c r="S117" s="276"/>
+      <c r="T117" s="276"/>
+      <c r="U117" s="276"/>
+      <c r="V117" s="276"/>
+      <c r="W117" s="276"/>
+      <c r="X117" s="276"/>
+      <c r="Y117" s="276"/>
+      <c r="Z117" s="277"/>
     </row>
   </sheetData>
-  <mergeCells count="363">
-    <mergeCell ref="A33:A47"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:G71"/>
-    <mergeCell ref="C32:C47"/>
-    <mergeCell ref="B11:B47"/>
-    <mergeCell ref="H47:J47"/>
+  <mergeCells count="425">
+    <mergeCell ref="A48:A61"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:G85"/>
+    <mergeCell ref="C47:C61"/>
+    <mergeCell ref="B11:B61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="O61:X61"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="K49:L49"/>
     <mergeCell ref="K47:L47"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="K55:L55"/>
     <mergeCell ref="M47:N47"/>
-    <mergeCell ref="O47:X47"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D48:G48"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="M15:N15"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="Y19:Z47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="Y19:Z61"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="D76:G76"/>
     <mergeCell ref="Y18:Z18"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="M19:N19"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:X27"/>
-    <mergeCell ref="H58:R58"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:X39"/>
+    <mergeCell ref="H72:R72"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="H21:J21"/>
     <mergeCell ref="K20:L20"/>
@@ -8155,76 +8671,76 @@
     <mergeCell ref="M21:N21"/>
     <mergeCell ref="D19:E21"/>
     <mergeCell ref="F19:G19"/>
-    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="D72:G72"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="H19:J19"/>
-    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D45:G45"/>
     <mergeCell ref="Y16:Z17"/>
-    <mergeCell ref="Y57:Z63"/>
-    <mergeCell ref="Y49:Z49"/>
-    <mergeCell ref="Y50:Z54"/>
-    <mergeCell ref="Y56:Z56"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:X46"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="S48:X48"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:X33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:X35"/>
-    <mergeCell ref="O30:X30"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="Y71:Z77"/>
+    <mergeCell ref="Y63:Z63"/>
+    <mergeCell ref="Y64:Z68"/>
+    <mergeCell ref="Y70:Z70"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="O60:X60"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="S62:X62"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:X48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:X50"/>
+    <mergeCell ref="O45:X45"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
     <mergeCell ref="Y8:Z8"/>
     <mergeCell ref="Y9:Z15"/>
     <mergeCell ref="U9:X9"/>
-    <mergeCell ref="Y48:Z48"/>
+    <mergeCell ref="Y62:Z62"/>
     <mergeCell ref="U10:X10"/>
-    <mergeCell ref="H52:R52"/>
-    <mergeCell ref="H53:R53"/>
-    <mergeCell ref="H54:R54"/>
-    <mergeCell ref="O26:X26"/>
+    <mergeCell ref="H66:R66"/>
+    <mergeCell ref="H67:R67"/>
+    <mergeCell ref="H68:R68"/>
+    <mergeCell ref="O38:X38"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O43:X43"/>
-    <mergeCell ref="O45:X45"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O58:X58"/>
+    <mergeCell ref="O59:X59"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:N59"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="Q8:R8"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="O16:X16"/>
-    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M49:N49"/>
     <mergeCell ref="H17:J17"/>
-    <mergeCell ref="S56:X56"/>
-    <mergeCell ref="H48:R48"/>
+    <mergeCell ref="S70:X70"/>
+    <mergeCell ref="H62:R62"/>
     <mergeCell ref="O12:X12"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:X42"/>
-    <mergeCell ref="O36:X36"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="O57:X57"/>
+    <mergeCell ref="O51:X51"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="Q15:X15"/>
-    <mergeCell ref="O31:X31"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="O46:X46"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="K57:L57"/>
     <mergeCell ref="O18:X21"/>
     <mergeCell ref="I9:J10"/>
     <mergeCell ref="K9:L10"/>
@@ -8232,154 +8748,154 @@
     <mergeCell ref="O9:P10"/>
     <mergeCell ref="Q9:R10"/>
     <mergeCell ref="O13:X13"/>
-    <mergeCell ref="O32:X32"/>
-    <mergeCell ref="S49:X49"/>
-    <mergeCell ref="H50:R50"/>
-    <mergeCell ref="S50:X54"/>
-    <mergeCell ref="H51:R51"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="O47:X47"/>
+    <mergeCell ref="S63:X63"/>
+    <mergeCell ref="H64:R64"/>
+    <mergeCell ref="S64:X68"/>
+    <mergeCell ref="H65:R65"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="K60:L60"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="S8:T10"/>
     <mergeCell ref="U8:X8"/>
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="K11:X11"/>
     <mergeCell ref="K12:L12"/>
-    <mergeCell ref="O37:S37"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:X40"/>
-    <mergeCell ref="T37:X37"/>
-    <mergeCell ref="O34:X34"/>
-    <mergeCell ref="A101:Z101"/>
-    <mergeCell ref="A103:Z103"/>
+    <mergeCell ref="O52:S52"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="O55:X55"/>
+    <mergeCell ref="T52:X52"/>
+    <mergeCell ref="O49:X49"/>
+    <mergeCell ref="A115:Z115"/>
+    <mergeCell ref="A117:Z117"/>
+    <mergeCell ref="H109:R109"/>
+    <mergeCell ref="A113:Z113"/>
+    <mergeCell ref="A114:Z114"/>
+    <mergeCell ref="H99:R99"/>
+    <mergeCell ref="S99:X112"/>
+    <mergeCell ref="H100:R100"/>
+    <mergeCell ref="B101:B112"/>
+    <mergeCell ref="H101:R101"/>
+    <mergeCell ref="H102:R102"/>
+    <mergeCell ref="D103:G103"/>
+    <mergeCell ref="D102:G102"/>
+    <mergeCell ref="D109:G109"/>
+    <mergeCell ref="D110:G110"/>
+    <mergeCell ref="D112:G112"/>
+    <mergeCell ref="A116:Z116"/>
+    <mergeCell ref="A101:A112"/>
+    <mergeCell ref="D101:G101"/>
+    <mergeCell ref="D104:G104"/>
+    <mergeCell ref="D107:G107"/>
+    <mergeCell ref="D105:G105"/>
+    <mergeCell ref="D106:G106"/>
+    <mergeCell ref="D111:G111"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="H97:R97"/>
+    <mergeCell ref="S97:X97"/>
+    <mergeCell ref="Y97:Z97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="H98:R98"/>
+    <mergeCell ref="S98:X98"/>
+    <mergeCell ref="D98:G98"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="D100:G100"/>
+    <mergeCell ref="Y98:Z98"/>
+    <mergeCell ref="Y99:Z112"/>
+    <mergeCell ref="D108:G108"/>
+    <mergeCell ref="S93:X93"/>
+    <mergeCell ref="H94:R94"/>
+    <mergeCell ref="S94:X96"/>
     <mergeCell ref="H95:R95"/>
-    <mergeCell ref="A99:Z99"/>
-    <mergeCell ref="A100:Z100"/>
-    <mergeCell ref="H85:R85"/>
-    <mergeCell ref="S85:X98"/>
-    <mergeCell ref="H86:R86"/>
-    <mergeCell ref="B87:B98"/>
-    <mergeCell ref="H87:R87"/>
-    <mergeCell ref="H88:R88"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="D95:G95"/>
-    <mergeCell ref="D96:G96"/>
-    <mergeCell ref="D98:G98"/>
-    <mergeCell ref="A102:Z102"/>
-    <mergeCell ref="A87:A98"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="D90:G90"/>
-    <mergeCell ref="D93:G93"/>
-    <mergeCell ref="D91:G91"/>
-    <mergeCell ref="D92:G92"/>
-    <mergeCell ref="D97:G97"/>
+    <mergeCell ref="H96:R96"/>
+    <mergeCell ref="Y93:Z93"/>
+    <mergeCell ref="Y94:Z96"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="H92:R92"/>
+    <mergeCell ref="S92:X92"/>
+    <mergeCell ref="Y92:Z92"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H93:R93"/>
+    <mergeCell ref="H77:R77"/>
+    <mergeCell ref="Y86:Z91"/>
+    <mergeCell ref="A83:A89"/>
     <mergeCell ref="B83:G83"/>
     <mergeCell ref="H83:R83"/>
     <mergeCell ref="S83:X83"/>
     <mergeCell ref="Y83:Z83"/>
-    <mergeCell ref="B84:B86"/>
     <mergeCell ref="H84:R84"/>
     <mergeCell ref="S84:X84"/>
-    <mergeCell ref="D84:G84"/>
-    <mergeCell ref="D85:G85"/>
-    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="H91:R91"/>
     <mergeCell ref="Y84:Z84"/>
-    <mergeCell ref="Y85:Z98"/>
-    <mergeCell ref="D94:G94"/>
-    <mergeCell ref="S79:X79"/>
-    <mergeCell ref="H80:R80"/>
-    <mergeCell ref="S80:X82"/>
-    <mergeCell ref="H81:R81"/>
-    <mergeCell ref="H82:R82"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H86:R86"/>
+    <mergeCell ref="H87:R87"/>
+    <mergeCell ref="H88:R88"/>
+    <mergeCell ref="H89:R89"/>
+    <mergeCell ref="H90:R90"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="S86:X91"/>
+    <mergeCell ref="G9:H10"/>
     <mergeCell ref="Y79:Z79"/>
     <mergeCell ref="Y80:Z82"/>
+    <mergeCell ref="A78:A80"/>
     <mergeCell ref="B78:G78"/>
     <mergeCell ref="H78:R78"/>
     <mergeCell ref="S78:X78"/>
-    <mergeCell ref="Y78:Z78"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="H79:R79"/>
-    <mergeCell ref="H63:R63"/>
-    <mergeCell ref="Y72:Z77"/>
-    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="H71:R71"/>
+    <mergeCell ref="S71:X77"/>
+    <mergeCell ref="H73:R73"/>
+    <mergeCell ref="H74:R74"/>
+    <mergeCell ref="H75:R75"/>
+    <mergeCell ref="A69:A73"/>
     <mergeCell ref="B69:G69"/>
     <mergeCell ref="H69:R69"/>
     <mergeCell ref="S69:X69"/>
+    <mergeCell ref="D75:G75"/>
+    <mergeCell ref="D77:G77"/>
     <mergeCell ref="Y69:Z69"/>
     <mergeCell ref="H70:R70"/>
-    <mergeCell ref="S70:X70"/>
-    <mergeCell ref="H77:R77"/>
-    <mergeCell ref="Y70:Z70"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="H72:R72"/>
-    <mergeCell ref="H73:R73"/>
-    <mergeCell ref="H74:R74"/>
-    <mergeCell ref="H75:R75"/>
-    <mergeCell ref="H76:R76"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="S72:X77"/>
-    <mergeCell ref="G9:H10"/>
-    <mergeCell ref="Y65:Z65"/>
-    <mergeCell ref="Y66:Z68"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="H64:R64"/>
-    <mergeCell ref="S64:X64"/>
-    <mergeCell ref="H57:R57"/>
-    <mergeCell ref="S57:X63"/>
-    <mergeCell ref="H59:R59"/>
-    <mergeCell ref="H60:R60"/>
-    <mergeCell ref="H61:R61"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="H55:R55"/>
-    <mergeCell ref="S55:X55"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="Y55:Z55"/>
-    <mergeCell ref="H56:R56"/>
-    <mergeCell ref="Y64:Z64"/>
-    <mergeCell ref="H65:R65"/>
-    <mergeCell ref="S65:X65"/>
-    <mergeCell ref="H66:R66"/>
+    <mergeCell ref="Y78:Z78"/>
+    <mergeCell ref="H79:R79"/>
+    <mergeCell ref="S79:X79"/>
+    <mergeCell ref="H80:R80"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="L7:P7"/>
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="S7:X7"/>
     <mergeCell ref="K8:L8"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="S66:X68"/>
-    <mergeCell ref="H67:R67"/>
-    <mergeCell ref="H68:R68"/>
-    <mergeCell ref="C65:G66"/>
-    <mergeCell ref="C67:G68"/>
-    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="S80:X82"/>
+    <mergeCell ref="H81:R81"/>
+    <mergeCell ref="H82:R82"/>
+    <mergeCell ref="C79:G80"/>
+    <mergeCell ref="C81:G82"/>
+    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D57:G57"/>
     <mergeCell ref="D60:G60"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D46:G46"/>
     <mergeCell ref="B8:D10"/>
     <mergeCell ref="E9:F10"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="C13:C31"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="C13:C46"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H49:R49"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H63:R63"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="X3:Z5"/>
     <mergeCell ref="E6:K6"/>
@@ -8402,56 +8918,68 @@
     <mergeCell ref="D15:G15"/>
     <mergeCell ref="D16:G16"/>
     <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D50:G50"/>
     <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A7:A31"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A7:A46"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="D38:G38"/>
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H57:J57"/>
     <mergeCell ref="H11:J12"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="D59:G59"/>
     <mergeCell ref="O17:X17"/>
-    <mergeCell ref="O29:X29"/>
-    <mergeCell ref="O41:X41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="T38:X38"/>
-    <mergeCell ref="T39:X39"/>
-    <mergeCell ref="H37:J39"/>
-    <mergeCell ref="K37:L39"/>
-    <mergeCell ref="M37:N39"/>
-    <mergeCell ref="O38:S38"/>
-    <mergeCell ref="O39:S39"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="D37:G39"/>
+    <mergeCell ref="O44:X44"/>
+    <mergeCell ref="O56:X56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="T53:X53"/>
+    <mergeCell ref="T54:X54"/>
+    <mergeCell ref="H52:J54"/>
+    <mergeCell ref="K52:L54"/>
+    <mergeCell ref="M52:N54"/>
+    <mergeCell ref="O53:S53"/>
+    <mergeCell ref="O54:S54"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="D52:G54"/>
     <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D44:G44"/>
     <mergeCell ref="D13:G14"/>
     <mergeCell ref="H13:J14"/>
     <mergeCell ref="K13:L14"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D51:G51"/>
     <mergeCell ref="C11:G12"/>
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="M13:N14"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:X28"/>
-    <mergeCell ref="D27:G28"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:X40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:X41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:X42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:X43"/>
+    <mergeCell ref="D39:G43"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="D23:E25"/>
     <mergeCell ref="F23:G23"/>
@@ -8470,10 +8998,60 @@
     <mergeCell ref="H25:J25"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="M25:N25"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:X44"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:E29"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="O26:X29"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:E33"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="O30:X33"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D35:E37"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="O34:X37"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lib/excel_templates/process_design_plan_report_modified.xlsx
+++ b/lib/excel_templates/process_design_plan_report_modified.xlsx
@@ -4198,7 +4198,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="A1:Z103"/>
+  <dimension ref="A1:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A76" zoomScale="160" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
       <selection activeCell="D82" sqref="D82:G82"/>
@@ -6007,39 +6007,35 @@
       <c r="Y43" s="234"/>
       <c r="Z43" s="336"/>
     </row>
-    <row r="44" spans="1:26" customFormat="false">
+    <row r="44" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A44" s="75"/>
       <c r="B44" s="355"/>
       <c r="C44" s="352"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="303" t="str">
-        <v>品証（#{?msa_crosstab_person_in_charge_2}）</v>
-      </c>
-      <c r="I44" s="303"/>
-      <c r="J44" s="303"/>
-      <c r="K44" s="277" t="str">
-        <v>#{?msa_crosstab_yotei_2}</v>
-      </c>
-      <c r="L44" s="278"/>
-      <c r="M44" s="277" t="str">
-        <v>#{?msa_crosstab_kanryou_2}</v>
-      </c>
-      <c r="N44" s="278"/>
-      <c r="O44" s="298" t="str">
-        <v>#{?inspector_name_a_2}：#{?inspector_a_result_2}、#{?inspector_name_b_2}：#{?inspector_b_result_2}、#{?inspector_name_c_2}：#{?inspector_c_result_2}</v>
-      </c>
-      <c r="P44" s="299"/>
-      <c r="Q44" s="299"/>
-      <c r="R44" s="299"/>
-      <c r="S44" s="299"/>
-      <c r="T44" s="299"/>
-      <c r="U44" s="299"/>
-      <c r="V44" s="299"/>
-      <c r="W44" s="299"/>
-      <c r="X44" s="300"/>
+      <c r="D44" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="86" t="s">
+        <v>185</v>
+      </c>
+      <c r="I44" s="86"/>
+      <c r="J44" s="86"/>
+      <c r="K44" s="330"/>
+      <c r="L44" s="331"/>
+      <c r="M44" s="330"/>
+      <c r="N44" s="331"/>
+      <c r="O44" s="290"/>
+      <c r="P44" s="291"/>
+      <c r="Q44" s="291"/>
+      <c r="R44" s="291"/>
+      <c r="S44" s="291"/>
+      <c r="T44" s="291"/>
+      <c r="U44" s="291"/>
+      <c r="V44" s="291"/>
+      <c r="W44" s="291"/>
+      <c r="X44" s="291"/>
       <c r="Y44" s="234"/>
       <c r="Z44" s="336"/>
     </row>
@@ -6047,21 +6043,25 @@
       <c r="A45" s="75"/>
       <c r="B45" s="355"/>
       <c r="C45" s="352"/>
-      <c r="D45" s="33" t="s">
-        <v>184</v>
+      <c r="D45" s="34" t="s">
+        <v>39</v>
       </c>
       <c r="E45" s="34"/>
       <c r="F45" s="34"/>
       <c r="G45" s="34"/>
       <c r="H45" s="86" t="s">
-        <v>185</v>
+        <v>30</v>
       </c>
       <c r="I45" s="86"/>
       <c r="J45" s="86"/>
-      <c r="K45" s="330"/>
-      <c r="L45" s="331"/>
-      <c r="M45" s="330"/>
-      <c r="N45" s="331"/>
+      <c r="K45" s="277" t="s">
+        <v>114</v>
+      </c>
+      <c r="L45" s="278"/>
+      <c r="M45" s="277" t="s">
+        <v>115</v>
+      </c>
+      <c r="N45" s="278"/>
       <c r="O45" s="290"/>
       <c r="P45" s="291"/>
       <c r="Q45" s="291"/>
@@ -6076,183 +6076,181 @@
       <c r="Z45" s="336"/>
     </row>
     <row r="46" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A46" s="75"/>
-      <c r="B46" s="355"/>
-      <c r="C46" s="352"/>
-      <c r="D46" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="I46" s="86"/>
-      <c r="J46" s="86"/>
-      <c r="K46" s="277" t="s">
-        <v>114</v>
-      </c>
-      <c r="L46" s="278"/>
-      <c r="M46" s="277" t="s">
-        <v>115</v>
-      </c>
-      <c r="N46" s="278"/>
-      <c r="O46" s="290"/>
-      <c r="P46" s="291"/>
-      <c r="Q46" s="291"/>
-      <c r="R46" s="291"/>
-      <c r="S46" s="291"/>
-      <c r="T46" s="291"/>
-      <c r="U46" s="291"/>
-      <c r="V46" s="291"/>
-      <c r="W46" s="291"/>
-      <c r="X46" s="291"/>
-      <c r="Y46" s="234"/>
-      <c r="Z46" s="336"/>
+      <c r="A46" s="76"/>
+      <c r="B46" s="356"/>
+      <c r="C46" s="353"/>
+      <c r="D46" s="339" t="s">
+        <v>232</v>
+      </c>
+      <c r="E46" s="340"/>
+      <c r="F46" s="340"/>
+      <c r="G46" s="341"/>
+      <c r="H46" s="303" t="s">
+        <v>235</v>
+      </c>
+      <c r="I46" s="303"/>
+      <c r="J46" s="303"/>
+      <c r="K46" s="357" t="s">
+        <v>233</v>
+      </c>
+      <c r="L46" s="358"/>
+      <c r="M46" s="357" t="s">
+        <v>234</v>
+      </c>
+      <c r="N46" s="358"/>
+      <c r="O46" s="359" t="s">
+        <v>236</v>
+      </c>
+      <c r="P46" s="360"/>
+      <c r="Q46" s="360"/>
+      <c r="R46" s="360"/>
+      <c r="S46" s="360"/>
+      <c r="T46" s="360"/>
+      <c r="U46" s="360"/>
+      <c r="V46" s="360"/>
+      <c r="W46" s="360"/>
+      <c r="X46" s="361"/>
+      <c r="Y46" s="337"/>
+      <c r="Z46" s="338"/>
     </row>
     <row r="47" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A47" s="76"/>
-      <c r="B47" s="356"/>
-      <c r="C47" s="353"/>
-      <c r="D47" s="339" t="s">
-        <v>232</v>
-      </c>
-      <c r="E47" s="340"/>
-      <c r="F47" s="340"/>
-      <c r="G47" s="341"/>
-      <c r="H47" s="303" t="s">
-        <v>235</v>
-      </c>
-      <c r="I47" s="303"/>
-      <c r="J47" s="303"/>
-      <c r="K47" s="357" t="s">
-        <v>233</v>
-      </c>
-      <c r="L47" s="358"/>
-      <c r="M47" s="357" t="s">
-        <v>234</v>
-      </c>
-      <c r="N47" s="358"/>
-      <c r="O47" s="359" t="s">
-        <v>236</v>
-      </c>
-      <c r="P47" s="360"/>
-      <c r="Q47" s="360"/>
-      <c r="R47" s="360"/>
-      <c r="S47" s="360"/>
-      <c r="T47" s="360"/>
-      <c r="U47" s="360"/>
-      <c r="V47" s="360"/>
-      <c r="W47" s="360"/>
-      <c r="X47" s="361"/>
-      <c r="Y47" s="337"/>
-      <c r="Z47" s="338"/>
+      <c r="A47" s="90" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="93"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="93"/>
+      <c r="G47" s="94"/>
+      <c r="H47" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47" s="93"/>
+      <c r="J47" s="93"/>
+      <c r="K47" s="93"/>
+      <c r="L47" s="93"/>
+      <c r="M47" s="93"/>
+      <c r="N47" s="93"/>
+      <c r="O47" s="93"/>
+      <c r="P47" s="93"/>
+      <c r="Q47" s="93"/>
+      <c r="R47" s="132"/>
+      <c r="S47" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="T47" s="93"/>
+      <c r="U47" s="93"/>
+      <c r="V47" s="93"/>
+      <c r="W47" s="93"/>
+      <c r="X47" s="132"/>
+      <c r="Y47" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z47" s="94"/>
     </row>
     <row r="48" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A48" s="90" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="C48" s="93"/>
-      <c r="D48" s="93"/>
-      <c r="E48" s="93"/>
-      <c r="F48" s="93"/>
-      <c r="G48" s="94"/>
-      <c r="H48" s="92" t="s">
-        <v>42</v>
-      </c>
-      <c r="I48" s="93"/>
-      <c r="J48" s="93"/>
-      <c r="K48" s="93"/>
-      <c r="L48" s="93"/>
-      <c r="M48" s="93"/>
-      <c r="N48" s="93"/>
-      <c r="O48" s="93"/>
-      <c r="P48" s="93"/>
-      <c r="Q48" s="93"/>
-      <c r="R48" s="132"/>
-      <c r="S48" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="T48" s="93"/>
-      <c r="U48" s="93"/>
-      <c r="V48" s="93"/>
-      <c r="W48" s="93"/>
-      <c r="X48" s="132"/>
-      <c r="Y48" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z48" s="94"/>
+      <c r="A48" s="91"/>
+      <c r="B48" s="367" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="145" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="145"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="145"/>
+      <c r="G48" s="146"/>
+      <c r="H48" s="105" t="s">
+        <v>45</v>
+      </c>
+      <c r="I48" s="106"/>
+      <c r="J48" s="106"/>
+      <c r="K48" s="106"/>
+      <c r="L48" s="106"/>
+      <c r="M48" s="106"/>
+      <c r="N48" s="106"/>
+      <c r="O48" s="106"/>
+      <c r="P48" s="106"/>
+      <c r="Q48" s="106"/>
+      <c r="R48" s="107"/>
+      <c r="S48" s="216" t="s">
+        <v>46</v>
+      </c>
+      <c r="T48" s="217"/>
+      <c r="U48" s="217"/>
+      <c r="V48" s="217"/>
+      <c r="W48" s="217"/>
+      <c r="X48" s="218"/>
+      <c r="Y48" s="184" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z48" s="185"/>
     </row>
     <row r="49" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A49" s="91"/>
       <c r="B49" s="367" t="s">
         <v>132</v>
       </c>
-      <c r="C49" s="145" t="s">
-        <v>135</v>
-      </c>
-      <c r="D49" s="145"/>
-      <c r="E49" s="145"/>
-      <c r="F49" s="145"/>
-      <c r="G49" s="146"/>
-      <c r="H49" s="105" t="s">
-        <v>45</v>
-      </c>
-      <c r="I49" s="106"/>
-      <c r="J49" s="106"/>
-      <c r="K49" s="106"/>
-      <c r="L49" s="106"/>
-      <c r="M49" s="106"/>
-      <c r="N49" s="106"/>
-      <c r="O49" s="106"/>
-      <c r="P49" s="106"/>
-      <c r="Q49" s="106"/>
-      <c r="R49" s="107"/>
-      <c r="S49" s="216" t="s">
-        <v>46</v>
-      </c>
-      <c r="T49" s="217"/>
-      <c r="U49" s="217"/>
-      <c r="V49" s="217"/>
-      <c r="W49" s="217"/>
-      <c r="X49" s="218"/>
-      <c r="Y49" s="184" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z49" s="185"/>
+      <c r="C49" s="103" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" s="103"/>
+      <c r="E49" s="103"/>
+      <c r="F49" s="103"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="207" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" s="226"/>
+      <c r="J49" s="226"/>
+      <c r="K49" s="226"/>
+      <c r="L49" s="226"/>
+      <c r="M49" s="226"/>
+      <c r="N49" s="226"/>
+      <c r="O49" s="226"/>
+      <c r="P49" s="226"/>
+      <c r="Q49" s="226"/>
+      <c r="R49" s="227"/>
+      <c r="S49" s="263" t="s">
+        <v>48</v>
+      </c>
+      <c r="T49" s="264"/>
+      <c r="U49" s="264"/>
+      <c r="V49" s="264"/>
+      <c r="W49" s="264"/>
+      <c r="X49" s="274"/>
+      <c r="Y49" s="186"/>
+      <c r="Z49" s="187"/>
     </row>
     <row r="50" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A50" s="91"/>
       <c r="B50" s="367" t="s">
-        <v>132</v>
+        <v>238</v>
       </c>
       <c r="C50" s="103" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="D50" s="103"/>
       <c r="E50" s="103"/>
       <c r="F50" s="103"/>
       <c r="G50" s="104"/>
       <c r="H50" s="207" t="s">
-        <v>47</v>
-      </c>
-      <c r="I50" s="226"/>
-      <c r="J50" s="226"/>
-      <c r="K50" s="226"/>
-      <c r="L50" s="226"/>
-      <c r="M50" s="226"/>
-      <c r="N50" s="226"/>
-      <c r="O50" s="226"/>
-      <c r="P50" s="226"/>
-      <c r="Q50" s="226"/>
-      <c r="R50" s="227"/>
-      <c r="S50" s="263" t="s">
-        <v>48</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="I50" s="208"/>
+      <c r="J50" s="208"/>
+      <c r="K50" s="208"/>
+      <c r="L50" s="208"/>
+      <c r="M50" s="208"/>
+      <c r="N50" s="208"/>
+      <c r="O50" s="208"/>
+      <c r="P50" s="208"/>
+      <c r="Q50" s="208"/>
+      <c r="R50" s="209"/>
+      <c r="S50" s="263"/>
       <c r="T50" s="264"/>
       <c r="U50" s="264"/>
       <c r="V50" s="264"/>
@@ -6262,20 +6260,20 @@
       <c r="Z50" s="187"/>
     </row>
     <row r="51" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A51" s="91"/>
+      <c r="A51" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="B51" s="367" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C51" s="103" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="D51" s="103"/>
       <c r="E51" s="103"/>
       <c r="F51" s="103"/>
       <c r="G51" s="104"/>
-      <c r="H51" s="207" t="s">
-        <v>49</v>
-      </c>
+      <c r="H51" s="207"/>
       <c r="I51" s="208"/>
       <c r="J51" s="208"/>
       <c r="K51" s="208"/>
@@ -6286,24 +6284,24 @@
       <c r="P51" s="208"/>
       <c r="Q51" s="208"/>
       <c r="R51" s="209"/>
-      <c r="S51" s="263"/>
-      <c r="T51" s="264"/>
-      <c r="U51" s="264"/>
-      <c r="V51" s="264"/>
-      <c r="W51" s="264"/>
+      <c r="S51" s="275"/>
+      <c r="T51" s="276"/>
+      <c r="U51" s="276"/>
+      <c r="V51" s="276"/>
+      <c r="W51" s="276"/>
       <c r="X51" s="274"/>
       <c r="Y51" s="186"/>
       <c r="Z51" s="187"/>
     </row>
     <row r="52" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A52" s="8" t="s">
-        <v>34</v>
+      <c r="A52" s="75" t="s">
+        <v>37</v>
       </c>
       <c r="B52" s="367" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C52" s="103" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="D52" s="103"/>
       <c r="E52" s="103"/>
@@ -6330,19 +6328,15 @@
       <c r="Z52" s="187"/>
     </row>
     <row r="53" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A53" s="75" t="s">
-        <v>37</v>
-      </c>
+      <c r="A53" s="76"/>
       <c r="B53" s="367" t="s">
         <v>240</v>
       </c>
-      <c r="C53" s="103" t="s">
-        <v>197</v>
-      </c>
-      <c r="D53" s="103"/>
-      <c r="E53" s="103"/>
-      <c r="F53" s="103"/>
-      <c r="G53" s="104"/>
+      <c r="C53" s="163"/>
+      <c r="D53" s="163"/>
+      <c r="E53" s="163"/>
+      <c r="F53" s="163"/>
+      <c r="G53" s="164"/>
       <c r="H53" s="207"/>
       <c r="I53" s="208"/>
       <c r="J53" s="208"/>
@@ -6360,125 +6354,135 @@
       <c r="V53" s="276"/>
       <c r="W53" s="276"/>
       <c r="X53" s="274"/>
-      <c r="Y53" s="186"/>
-      <c r="Z53" s="187"/>
+      <c r="Y53" s="188"/>
+      <c r="Z53" s="189"/>
     </row>
     <row r="54" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A54" s="76"/>
-      <c r="B54" s="367" t="s">
-        <v>240</v>
-      </c>
-      <c r="C54" s="163"/>
-      <c r="D54" s="163"/>
-      <c r="E54" s="163"/>
-      <c r="F54" s="163"/>
-      <c r="G54" s="164"/>
-      <c r="H54" s="207"/>
-      <c r="I54" s="208"/>
-      <c r="J54" s="208"/>
-      <c r="K54" s="208"/>
-      <c r="L54" s="208"/>
-      <c r="M54" s="208"/>
-      <c r="N54" s="208"/>
-      <c r="O54" s="208"/>
-      <c r="P54" s="208"/>
-      <c r="Q54" s="208"/>
-      <c r="R54" s="209"/>
-      <c r="S54" s="275"/>
-      <c r="T54" s="276"/>
-      <c r="U54" s="276"/>
-      <c r="V54" s="276"/>
-      <c r="W54" s="276"/>
-      <c r="X54" s="274"/>
-      <c r="Y54" s="188"/>
-      <c r="Z54" s="189"/>
+      <c r="A54" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="93"/>
+      <c r="D54" s="93"/>
+      <c r="E54" s="93"/>
+      <c r="F54" s="93"/>
+      <c r="G54" s="94"/>
+      <c r="H54" s="101" t="s">
+        <v>52</v>
+      </c>
+      <c r="I54" s="128"/>
+      <c r="J54" s="128"/>
+      <c r="K54" s="128"/>
+      <c r="L54" s="128"/>
+      <c r="M54" s="128"/>
+      <c r="N54" s="128"/>
+      <c r="O54" s="128"/>
+      <c r="P54" s="128"/>
+      <c r="Q54" s="128"/>
+      <c r="R54" s="102"/>
+      <c r="S54" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="T54" s="53"/>
+      <c r="U54" s="53"/>
+      <c r="V54" s="53"/>
+      <c r="W54" s="53"/>
+      <c r="X54" s="53"/>
+      <c r="Y54" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z54" s="94"/>
     </row>
     <row r="55" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A55" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="B55" s="92" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55" s="93"/>
-      <c r="D55" s="93"/>
-      <c r="E55" s="93"/>
-      <c r="F55" s="93"/>
-      <c r="G55" s="94"/>
-      <c r="H55" s="101" t="s">
-        <v>52</v>
-      </c>
-      <c r="I55" s="128"/>
-      <c r="J55" s="128"/>
-      <c r="K55" s="128"/>
-      <c r="L55" s="128"/>
-      <c r="M55" s="128"/>
-      <c r="N55" s="128"/>
-      <c r="O55" s="128"/>
-      <c r="P55" s="128"/>
-      <c r="Q55" s="128"/>
-      <c r="R55" s="102"/>
-      <c r="S55" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="T55" s="53"/>
-      <c r="U55" s="53"/>
-      <c r="V55" s="53"/>
-      <c r="W55" s="53"/>
-      <c r="X55" s="53"/>
-      <c r="Y55" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z55" s="94"/>
+      <c r="A55" s="190"/>
+      <c r="B55" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="367" t="s">
+        <v>132</v>
+      </c>
+      <c r="D55" s="167" t="s">
+        <v>133</v>
+      </c>
+      <c r="E55" s="167"/>
+      <c r="F55" s="167"/>
+      <c r="G55" s="168"/>
+      <c r="H55" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="I55" s="106"/>
+      <c r="J55" s="106"/>
+      <c r="K55" s="106"/>
+      <c r="L55" s="106"/>
+      <c r="M55" s="106"/>
+      <c r="N55" s="106"/>
+      <c r="O55" s="106"/>
+      <c r="P55" s="106"/>
+      <c r="Q55" s="106"/>
+      <c r="R55" s="107"/>
+      <c r="S55" s="292" t="s">
+        <v>55</v>
+      </c>
+      <c r="T55" s="293"/>
+      <c r="U55" s="293"/>
+      <c r="V55" s="293"/>
+      <c r="W55" s="293"/>
+      <c r="X55" s="294"/>
+      <c r="Y55" s="184" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z55" s="185"/>
     </row>
     <row r="56" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A56" s="190"/>
-      <c r="B56" s="79" t="s">
-        <v>21</v>
-      </c>
+      <c r="B56" s="80"/>
       <c r="C56" s="367" t="s">
-        <v>132</v>
-      </c>
-      <c r="D56" s="167" t="s">
-        <v>133</v>
-      </c>
-      <c r="E56" s="167"/>
-      <c r="F56" s="167"/>
-      <c r="G56" s="168"/>
-      <c r="H56" s="105" t="s">
-        <v>54</v>
-      </c>
-      <c r="I56" s="106"/>
-      <c r="J56" s="106"/>
-      <c r="K56" s="106"/>
-      <c r="L56" s="106"/>
-      <c r="M56" s="106"/>
-      <c r="N56" s="106"/>
-      <c r="O56" s="106"/>
-      <c r="P56" s="106"/>
-      <c r="Q56" s="106"/>
-      <c r="R56" s="107"/>
-      <c r="S56" s="292" t="s">
-        <v>55</v>
-      </c>
-      <c r="T56" s="293"/>
-      <c r="U56" s="293"/>
-      <c r="V56" s="293"/>
-      <c r="W56" s="293"/>
-      <c r="X56" s="294"/>
-      <c r="Y56" s="184" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z56" s="185"/>
+        <v>241</v>
+      </c>
+      <c r="D56" s="169" t="s">
+        <v>159</v>
+      </c>
+      <c r="E56" s="169" t="s">
+        <v>155</v>
+      </c>
+      <c r="F56" s="169" t="s">
+        <v>155</v>
+      </c>
+      <c r="G56" s="170" t="s">
+        <v>155</v>
+      </c>
+      <c r="H56" s="195" t="s">
+        <v>56</v>
+      </c>
+      <c r="I56" s="196"/>
+      <c r="J56" s="196"/>
+      <c r="K56" s="196"/>
+      <c r="L56" s="196"/>
+      <c r="M56" s="196"/>
+      <c r="N56" s="196"/>
+      <c r="O56" s="196"/>
+      <c r="P56" s="196"/>
+      <c r="Q56" s="196"/>
+      <c r="R56" s="197"/>
+      <c r="S56" s="198"/>
+      <c r="T56" s="199"/>
+      <c r="U56" s="199"/>
+      <c r="V56" s="199"/>
+      <c r="W56" s="199"/>
+      <c r="X56" s="200"/>
+      <c r="Y56" s="186"/>
+      <c r="Z56" s="187"/>
     </row>
     <row r="57" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A57" s="190"/>
       <c r="B57" s="80"/>
       <c r="C57" s="367" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D57" s="169" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E57" s="169" t="s">
         <v>155</v>
@@ -6490,7 +6494,7 @@
         <v>155</v>
       </c>
       <c r="H57" s="195" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I57" s="196"/>
       <c r="J57" s="196"/>
@@ -6513,35 +6517,29 @@
     </row>
     <row r="58" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A58" s="190"/>
-      <c r="B58" s="80"/>
+      <c r="B58" s="81"/>
       <c r="C58" s="367" t="s">
-        <v>242</v>
-      </c>
-      <c r="D58" s="169" t="s">
-        <v>160</v>
-      </c>
-      <c r="E58" s="169" t="s">
-        <v>155</v>
-      </c>
-      <c r="F58" s="169" t="s">
-        <v>155</v>
-      </c>
-      <c r="G58" s="170" t="s">
-        <v>155</v>
-      </c>
-      <c r="H58" s="195" t="s">
-        <v>58</v>
-      </c>
-      <c r="I58" s="196"/>
-      <c r="J58" s="196"/>
-      <c r="K58" s="196"/>
-      <c r="L58" s="196"/>
-      <c r="M58" s="196"/>
-      <c r="N58" s="196"/>
-      <c r="O58" s="196"/>
-      <c r="P58" s="196"/>
-      <c r="Q58" s="196"/>
-      <c r="R58" s="197"/>
+        <v>243</v>
+      </c>
+      <c r="D58" s="163" t="s">
+        <v>152</v>
+      </c>
+      <c r="E58" s="163"/>
+      <c r="F58" s="163"/>
+      <c r="G58" s="164"/>
+      <c r="H58" s="207" t="s">
+        <v>60</v>
+      </c>
+      <c r="I58" s="208"/>
+      <c r="J58" s="208"/>
+      <c r="K58" s="208"/>
+      <c r="L58" s="208"/>
+      <c r="M58" s="208"/>
+      <c r="N58" s="208"/>
+      <c r="O58" s="208"/>
+      <c r="P58" s="208"/>
+      <c r="Q58" s="208"/>
+      <c r="R58" s="209"/>
       <c r="S58" s="198"/>
       <c r="T58" s="199"/>
       <c r="U58" s="199"/>
@@ -6552,68 +6550,70 @@
       <c r="Z58" s="187"/>
     </row>
     <row r="59" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A59" s="190"/>
-      <c r="B59" s="81"/>
+      <c r="A59" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="79" t="s">
+        <v>57</v>
+      </c>
       <c r="C59" s="367" t="s">
         <v>243</v>
       </c>
-      <c r="D59" s="163" t="s">
-        <v>152</v>
-      </c>
-      <c r="E59" s="163"/>
-      <c r="F59" s="163"/>
-      <c r="G59" s="164"/>
+      <c r="D59" s="165" t="s">
+        <v>141</v>
+      </c>
+      <c r="E59" s="165"/>
+      <c r="F59" s="165"/>
+      <c r="G59" s="166"/>
       <c r="H59" s="207" t="s">
-        <v>60</v>
-      </c>
-      <c r="I59" s="208"/>
-      <c r="J59" s="208"/>
-      <c r="K59" s="208"/>
-      <c r="L59" s="208"/>
-      <c r="M59" s="208"/>
-      <c r="N59" s="208"/>
-      <c r="O59" s="208"/>
-      <c r="P59" s="208"/>
-      <c r="Q59" s="208"/>
-      <c r="R59" s="209"/>
-      <c r="S59" s="198"/>
-      <c r="T59" s="199"/>
-      <c r="U59" s="199"/>
-      <c r="V59" s="199"/>
-      <c r="W59" s="199"/>
-      <c r="X59" s="200"/>
+        <v>162</v>
+      </c>
+      <c r="I59" s="152"/>
+      <c r="J59" s="152"/>
+      <c r="K59" s="152"/>
+      <c r="L59" s="152"/>
+      <c r="M59" s="152"/>
+      <c r="N59" s="152"/>
+      <c r="O59" s="152"/>
+      <c r="P59" s="152"/>
+      <c r="Q59" s="152"/>
+      <c r="R59" s="153"/>
+      <c r="S59" s="201"/>
+      <c r="T59" s="202"/>
+      <c r="U59" s="202"/>
+      <c r="V59" s="202"/>
+      <c r="W59" s="202"/>
+      <c r="X59" s="203"/>
       <c r="Y59" s="186"/>
       <c r="Z59" s="187"/>
     </row>
     <row r="60" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A60" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60" s="79" t="s">
-        <v>57</v>
-      </c>
+      <c r="A60" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="80"/>
       <c r="C60" s="367" t="s">
-        <v>243</v>
-      </c>
-      <c r="D60" s="165" t="s">
-        <v>141</v>
-      </c>
-      <c r="E60" s="165"/>
-      <c r="F60" s="165"/>
-      <c r="G60" s="166"/>
-      <c r="H60" s="207" t="s">
-        <v>162</v>
-      </c>
-      <c r="I60" s="152"/>
-      <c r="J60" s="152"/>
-      <c r="K60" s="152"/>
-      <c r="L60" s="152"/>
-      <c r="M60" s="152"/>
-      <c r="N60" s="152"/>
-      <c r="O60" s="152"/>
-      <c r="P60" s="152"/>
-      <c r="Q60" s="152"/>
-      <c r="R60" s="153"/>
+        <v>244</v>
+      </c>
+      <c r="D60" s="103" t="s">
+        <v>126</v>
+      </c>
+      <c r="E60" s="103"/>
+      <c r="F60" s="103"/>
+      <c r="G60" s="104"/>
+      <c r="H60" s="210" t="s">
+        <v>61</v>
+      </c>
+      <c r="I60" s="211"/>
+      <c r="J60" s="211"/>
+      <c r="K60" s="211"/>
+      <c r="L60" s="211"/>
+      <c r="M60" s="211"/>
+      <c r="N60" s="211"/>
+      <c r="O60" s="211"/>
+      <c r="P60" s="211"/>
+      <c r="Q60" s="211"/>
+      <c r="R60" s="212"/>
       <c r="S60" s="201"/>
       <c r="T60" s="202"/>
       <c r="U60" s="202"/>
@@ -6624,32 +6624,34 @@
       <c r="Z60" s="187"/>
     </row>
     <row r="61" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A61" s="75" t="s">
-        <v>37</v>
-      </c>
+      <c r="A61" s="75"/>
       <c r="B61" s="80"/>
       <c r="C61" s="367" t="s">
-        <v>244</v>
-      </c>
-      <c r="D61" s="103" t="s">
-        <v>126</v>
-      </c>
-      <c r="E61" s="103"/>
-      <c r="F61" s="103"/>
-      <c r="G61" s="104"/>
-      <c r="H61" s="210" t="s">
-        <v>61</v>
-      </c>
-      <c r="I61" s="211"/>
-      <c r="J61" s="211"/>
-      <c r="K61" s="211"/>
-      <c r="L61" s="211"/>
-      <c r="M61" s="211"/>
-      <c r="N61" s="211"/>
-      <c r="O61" s="211"/>
-      <c r="P61" s="211"/>
-      <c r="Q61" s="211"/>
-      <c r="R61" s="212"/>
+        <v>241</v>
+      </c>
+      <c r="D61" s="169" t="s">
+        <v>159</v>
+      </c>
+      <c r="E61" s="169" t="s">
+        <v>155</v>
+      </c>
+      <c r="F61" s="169" t="s">
+        <v>155</v>
+      </c>
+      <c r="G61" s="170" t="s">
+        <v>155</v>
+      </c>
+      <c r="H61" s="16"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="20"/>
       <c r="S61" s="201"/>
       <c r="T61" s="202"/>
       <c r="U61" s="202"/>
@@ -6660,13 +6662,13 @@
       <c r="Z61" s="187"/>
     </row>
     <row r="62" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A62" s="75"/>
-      <c r="B62" s="80"/>
+      <c r="A62" s="76"/>
+      <c r="B62" s="81"/>
       <c r="C62" s="367" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D62" s="169" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E62" s="169" t="s">
         <v>155</v>
@@ -6677,151 +6679,149 @@
       <c r="G62" s="170" t="s">
         <v>155</v>
       </c>
-      <c r="H62" s="16"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="19"/>
-      <c r="P62" s="19"/>
-      <c r="Q62" s="19"/>
-      <c r="R62" s="20"/>
-      <c r="S62" s="201"/>
-      <c r="T62" s="202"/>
-      <c r="U62" s="202"/>
-      <c r="V62" s="202"/>
-      <c r="W62" s="202"/>
-      <c r="X62" s="203"/>
-      <c r="Y62" s="186"/>
-      <c r="Z62" s="187"/>
+      <c r="H62" s="210"/>
+      <c r="I62" s="211"/>
+      <c r="J62" s="211"/>
+      <c r="K62" s="211"/>
+      <c r="L62" s="211"/>
+      <c r="M62" s="211"/>
+      <c r="N62" s="211"/>
+      <c r="O62" s="211"/>
+      <c r="P62" s="211"/>
+      <c r="Q62" s="211"/>
+      <c r="R62" s="212"/>
+      <c r="S62" s="204"/>
+      <c r="T62" s="205"/>
+      <c r="U62" s="205"/>
+      <c r="V62" s="205"/>
+      <c r="W62" s="205"/>
+      <c r="X62" s="206"/>
+      <c r="Y62" s="188"/>
+      <c r="Z62" s="189"/>
     </row>
     <row r="63" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A63" s="76"/>
-      <c r="B63" s="81"/>
-      <c r="C63" s="367" t="s">
-        <v>242</v>
-      </c>
-      <c r="D63" s="169" t="s">
-        <v>160</v>
-      </c>
-      <c r="E63" s="169" t="s">
-        <v>155</v>
-      </c>
-      <c r="F63" s="169" t="s">
-        <v>155</v>
-      </c>
-      <c r="G63" s="170" t="s">
-        <v>155</v>
-      </c>
-      <c r="H63" s="210"/>
-      <c r="I63" s="211"/>
-      <c r="J63" s="211"/>
-      <c r="K63" s="211"/>
-      <c r="L63" s="211"/>
-      <c r="M63" s="211"/>
-      <c r="N63" s="211"/>
-      <c r="O63" s="211"/>
-      <c r="P63" s="211"/>
-      <c r="Q63" s="211"/>
-      <c r="R63" s="212"/>
-      <c r="S63" s="204"/>
-      <c r="T63" s="205"/>
-      <c r="U63" s="205"/>
-      <c r="V63" s="205"/>
-      <c r="W63" s="205"/>
-      <c r="X63" s="206"/>
-      <c r="Y63" s="188"/>
-      <c r="Z63" s="189"/>
+      <c r="A63" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="93"/>
+      <c r="D63" s="93"/>
+      <c r="E63" s="93"/>
+      <c r="F63" s="93"/>
+      <c r="G63" s="94"/>
+      <c r="H63" s="191" t="s">
+        <v>64</v>
+      </c>
+      <c r="I63" s="192"/>
+      <c r="J63" s="192"/>
+      <c r="K63" s="192"/>
+      <c r="L63" s="192"/>
+      <c r="M63" s="192"/>
+      <c r="N63" s="193"/>
+      <c r="O63" s="193"/>
+      <c r="P63" s="193"/>
+      <c r="Q63" s="193"/>
+      <c r="R63" s="194"/>
+      <c r="S63" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="T63" s="93"/>
+      <c r="U63" s="93"/>
+      <c r="V63" s="93"/>
+      <c r="W63" s="93"/>
+      <c r="X63" s="132"/>
+      <c r="Y63" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z63" s="94"/>
     </row>
     <row r="64" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A64" s="77" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" s="92" t="s">
-        <v>63</v>
-      </c>
-      <c r="C64" s="93"/>
-      <c r="D64" s="93"/>
-      <c r="E64" s="93"/>
-      <c r="F64" s="93"/>
-      <c r="G64" s="94"/>
-      <c r="H64" s="191" t="s">
-        <v>64</v>
-      </c>
-      <c r="I64" s="192"/>
-      <c r="J64" s="192"/>
-      <c r="K64" s="192"/>
-      <c r="L64" s="192"/>
-      <c r="M64" s="192"/>
-      <c r="N64" s="193"/>
-      <c r="O64" s="193"/>
-      <c r="P64" s="193"/>
-      <c r="Q64" s="193"/>
-      <c r="R64" s="194"/>
-      <c r="S64" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="T64" s="93"/>
-      <c r="U64" s="93"/>
-      <c r="V64" s="93"/>
-      <c r="W64" s="93"/>
-      <c r="X64" s="132"/>
-      <c r="Y64" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z64" s="94"/>
+      <c r="A64" s="190"/>
+      <c r="B64" s="367" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" s="154" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" s="154"/>
+      <c r="E64" s="155"/>
+      <c r="F64" s="155"/>
+      <c r="G64" s="156"/>
+      <c r="H64" s="213" t="s">
+        <v>66</v>
+      </c>
+      <c r="I64" s="214"/>
+      <c r="J64" s="214"/>
+      <c r="K64" s="214"/>
+      <c r="L64" s="214"/>
+      <c r="M64" s="214"/>
+      <c r="N64" s="214"/>
+      <c r="O64" s="214"/>
+      <c r="P64" s="214"/>
+      <c r="Q64" s="214"/>
+      <c r="R64" s="215"/>
+      <c r="S64" s="216" t="s">
+        <v>46</v>
+      </c>
+      <c r="T64" s="217"/>
+      <c r="U64" s="217"/>
+      <c r="V64" s="217"/>
+      <c r="W64" s="217"/>
+      <c r="X64" s="218"/>
+      <c r="Y64" s="184" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z64" s="185"/>
     </row>
     <row r="65" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A65" s="190"/>
-      <c r="B65" s="367" t="s">
+      <c r="B65" s="367"/>
+      <c r="C65" s="157"/>
+      <c r="D65" s="157"/>
+      <c r="E65" s="157"/>
+      <c r="F65" s="157"/>
+      <c r="G65" s="158"/>
+      <c r="H65" s="151" t="s">
+        <v>67</v>
+      </c>
+      <c r="I65" s="152"/>
+      <c r="J65" s="152"/>
+      <c r="K65" s="152"/>
+      <c r="L65" s="152"/>
+      <c r="M65" s="152"/>
+      <c r="N65" s="152"/>
+      <c r="O65" s="152"/>
+      <c r="P65" s="152"/>
+      <c r="Q65" s="152"/>
+      <c r="R65" s="153"/>
+      <c r="S65" s="147" t="s">
+        <v>68</v>
+      </c>
+      <c r="T65" s="148"/>
+      <c r="U65" s="148"/>
+      <c r="V65" s="148"/>
+      <c r="W65" s="148"/>
+      <c r="X65" s="149"/>
+      <c r="Y65" s="186"/>
+      <c r="Z65" s="187"/>
+    </row>
+    <row r="66" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A66" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B66" s="367" t="s">
         <v>132</v>
       </c>
-      <c r="C65" s="154" t="s">
-        <v>131</v>
-      </c>
-      <c r="D65" s="154"/>
-      <c r="E65" s="155"/>
-      <c r="F65" s="155"/>
-      <c r="G65" s="156"/>
-      <c r="H65" s="213" t="s">
-        <v>66</v>
-      </c>
-      <c r="I65" s="214"/>
-      <c r="J65" s="214"/>
-      <c r="K65" s="214"/>
-      <c r="L65" s="214"/>
-      <c r="M65" s="214"/>
-      <c r="N65" s="214"/>
-      <c r="O65" s="214"/>
-      <c r="P65" s="214"/>
-      <c r="Q65" s="214"/>
-      <c r="R65" s="215"/>
-      <c r="S65" s="216" t="s">
-        <v>46</v>
-      </c>
-      <c r="T65" s="217"/>
-      <c r="U65" s="217"/>
-      <c r="V65" s="217"/>
-      <c r="W65" s="217"/>
-      <c r="X65" s="218"/>
-      <c r="Y65" s="184" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z65" s="185"/>
-    </row>
-    <row r="66" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A66" s="190"/>
-      <c r="B66" s="367"/>
-      <c r="C66" s="157"/>
-      <c r="D66" s="157"/>
-      <c r="E66" s="157"/>
-      <c r="F66" s="157"/>
-      <c r="G66" s="158"/>
-      <c r="H66" s="151" t="s">
-        <v>67</v>
-      </c>
+      <c r="C66" s="159" t="s">
+        <v>133</v>
+      </c>
+      <c r="D66" s="159"/>
+      <c r="E66" s="159"/>
+      <c r="F66" s="159"/>
+      <c r="G66" s="160"/>
+      <c r="H66" s="151"/>
       <c r="I66" s="152"/>
       <c r="J66" s="152"/>
       <c r="K66" s="152"/>
@@ -6832,9 +6832,7 @@
       <c r="P66" s="152"/>
       <c r="Q66" s="152"/>
       <c r="R66" s="153"/>
-      <c r="S66" s="147" t="s">
-        <v>68</v>
-      </c>
+      <c r="S66" s="150"/>
       <c r="T66" s="148"/>
       <c r="U66" s="148"/>
       <c r="V66" s="148"/>
@@ -6844,19 +6842,15 @@
       <c r="Z66" s="187"/>
     </row>
     <row r="67" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A67" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B67" s="367" t="s">
-        <v>132</v>
-      </c>
-      <c r="C67" s="159" t="s">
-        <v>133</v>
-      </c>
-      <c r="D67" s="159"/>
-      <c r="E67" s="159"/>
-      <c r="F67" s="159"/>
-      <c r="G67" s="160"/>
+      <c r="A67" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67" s="367"/>
+      <c r="C67" s="161"/>
+      <c r="D67" s="161"/>
+      <c r="E67" s="161"/>
+      <c r="F67" s="161"/>
+      <c r="G67" s="162"/>
       <c r="H67" s="151"/>
       <c r="I67" s="152"/>
       <c r="J67" s="152"/>
@@ -6874,142 +6868,148 @@
       <c r="V67" s="148"/>
       <c r="W67" s="148"/>
       <c r="X67" s="149"/>
-      <c r="Y67" s="186"/>
-      <c r="Z67" s="187"/>
+      <c r="Y67" s="188"/>
+      <c r="Z67" s="189"/>
     </row>
     <row r="68" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A68" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B68" s="367"/>
-      <c r="C68" s="161"/>
-      <c r="D68" s="161"/>
-      <c r="E68" s="161"/>
-      <c r="F68" s="161"/>
-      <c r="G68" s="162"/>
-      <c r="H68" s="151"/>
-      <c r="I68" s="152"/>
-      <c r="J68" s="152"/>
-      <c r="K68" s="152"/>
-      <c r="L68" s="152"/>
-      <c r="M68" s="152"/>
-      <c r="N68" s="152"/>
-      <c r="O68" s="152"/>
-      <c r="P68" s="152"/>
-      <c r="Q68" s="152"/>
-      <c r="R68" s="153"/>
-      <c r="S68" s="150"/>
-      <c r="T68" s="148"/>
-      <c r="U68" s="148"/>
-      <c r="V68" s="148"/>
-      <c r="W68" s="148"/>
-      <c r="X68" s="149"/>
-      <c r="Y68" s="188"/>
-      <c r="Z68" s="189"/>
+      <c r="A68" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" s="93"/>
+      <c r="D68" s="93"/>
+      <c r="E68" s="93"/>
+      <c r="F68" s="93"/>
+      <c r="G68" s="94"/>
+      <c r="H68" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="I68" s="128"/>
+      <c r="J68" s="128"/>
+      <c r="K68" s="128"/>
+      <c r="L68" s="128"/>
+      <c r="M68" s="219"/>
+      <c r="N68" s="220"/>
+      <c r="O68" s="220"/>
+      <c r="P68" s="220"/>
+      <c r="Q68" s="220"/>
+      <c r="R68" s="221"/>
+      <c r="S68" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="T68" s="93"/>
+      <c r="U68" s="93"/>
+      <c r="V68" s="93"/>
+      <c r="W68" s="93"/>
+      <c r="X68" s="132"/>
+      <c r="Y68" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z68" s="94"/>
     </row>
     <row r="69" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A69" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" s="92" t="s">
-        <v>70</v>
-      </c>
-      <c r="C69" s="93"/>
-      <c r="D69" s="93"/>
-      <c r="E69" s="93"/>
-      <c r="F69" s="93"/>
-      <c r="G69" s="94"/>
-      <c r="H69" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="I69" s="128"/>
-      <c r="J69" s="128"/>
-      <c r="K69" s="128"/>
-      <c r="L69" s="128"/>
-      <c r="M69" s="219"/>
-      <c r="N69" s="220"/>
-      <c r="O69" s="220"/>
-      <c r="P69" s="220"/>
-      <c r="Q69" s="220"/>
-      <c r="R69" s="221"/>
-      <c r="S69" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="T69" s="93"/>
-      <c r="U69" s="93"/>
-      <c r="V69" s="93"/>
-      <c r="W69" s="93"/>
-      <c r="X69" s="132"/>
-      <c r="Y69" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z69" s="94"/>
+      <c r="A69" s="190"/>
+      <c r="B69" s="367" t="s">
+        <v>245</v>
+      </c>
+      <c r="C69" s="347" t="s">
+        <v>150</v>
+      </c>
+      <c r="D69" s="347"/>
+      <c r="E69" s="347"/>
+      <c r="F69" s="347"/>
+      <c r="G69" s="348"/>
+      <c r="H69" s="105" t="s">
+        <v>71</v>
+      </c>
+      <c r="I69" s="214"/>
+      <c r="J69" s="214"/>
+      <c r="K69" s="214"/>
+      <c r="L69" s="214"/>
+      <c r="M69" s="214"/>
+      <c r="N69" s="214"/>
+      <c r="O69" s="214"/>
+      <c r="P69" s="214"/>
+      <c r="Q69" s="214"/>
+      <c r="R69" s="214"/>
+      <c r="S69" s="216" t="s">
+        <v>46</v>
+      </c>
+      <c r="T69" s="217"/>
+      <c r="U69" s="217"/>
+      <c r="V69" s="217"/>
+      <c r="W69" s="217"/>
+      <c r="X69" s="218"/>
+      <c r="Y69" s="184" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z69" s="185"/>
     </row>
     <row r="70" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A70" s="190"/>
-      <c r="B70" s="367" t="s">
-        <v>245</v>
-      </c>
-      <c r="C70" s="347" t="s">
-        <v>150</v>
-      </c>
-      <c r="D70" s="347"/>
-      <c r="E70" s="347"/>
-      <c r="F70" s="347"/>
-      <c r="G70" s="348"/>
-      <c r="H70" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="I70" s="214"/>
-      <c r="J70" s="214"/>
-      <c r="K70" s="214"/>
-      <c r="L70" s="214"/>
-      <c r="M70" s="214"/>
-      <c r="N70" s="214"/>
-      <c r="O70" s="214"/>
-      <c r="P70" s="214"/>
-      <c r="Q70" s="214"/>
-      <c r="R70" s="214"/>
-      <c r="S70" s="216" t="s">
-        <v>46</v>
-      </c>
-      <c r="T70" s="217"/>
-      <c r="U70" s="217"/>
-      <c r="V70" s="217"/>
-      <c r="W70" s="217"/>
-      <c r="X70" s="218"/>
-      <c r="Y70" s="184" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z70" s="185"/>
+      <c r="B70" s="367"/>
+      <c r="C70" s="349"/>
+      <c r="D70" s="349"/>
+      <c r="E70" s="349"/>
+      <c r="F70" s="349"/>
+      <c r="G70" s="350"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="26"/>
+      <c r="M70" s="26"/>
+      <c r="N70" s="26"/>
+      <c r="O70" s="26"/>
+      <c r="P70" s="26"/>
+      <c r="Q70" s="26"/>
+      <c r="R70" s="26"/>
+      <c r="S70" s="24"/>
+      <c r="T70" s="27"/>
+      <c r="U70" s="27"/>
+      <c r="V70" s="27"/>
+      <c r="W70" s="27"/>
+      <c r="X70" s="28"/>
+      <c r="Y70" s="29"/>
+      <c r="Z70" s="30"/>
     </row>
     <row r="71" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A71" s="190"/>
-      <c r="B71" s="367"/>
-      <c r="C71" s="349"/>
-      <c r="D71" s="349"/>
-      <c r="E71" s="349"/>
-      <c r="F71" s="349"/>
-      <c r="G71" s="350"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="26"/>
-      <c r="J71" s="26"/>
-      <c r="K71" s="26"/>
-      <c r="L71" s="26"/>
-      <c r="M71" s="26"/>
-      <c r="N71" s="26"/>
-      <c r="O71" s="26"/>
-      <c r="P71" s="26"/>
-      <c r="Q71" s="26"/>
-      <c r="R71" s="26"/>
-      <c r="S71" s="24"/>
-      <c r="T71" s="27"/>
-      <c r="U71" s="27"/>
-      <c r="V71" s="27"/>
-      <c r="W71" s="27"/>
-      <c r="X71" s="28"/>
-      <c r="Y71" s="29"/>
-      <c r="Z71" s="30"/>
+      <c r="B71" s="367" t="s">
+        <v>240</v>
+      </c>
+      <c r="C71" s="222" t="s">
+        <v>128</v>
+      </c>
+      <c r="D71" s="222"/>
+      <c r="E71" s="222"/>
+      <c r="F71" s="222"/>
+      <c r="G71" s="223"/>
+      <c r="H71" s="207" t="s">
+        <v>72</v>
+      </c>
+      <c r="I71" s="152"/>
+      <c r="J71" s="152"/>
+      <c r="K71" s="152"/>
+      <c r="L71" s="152"/>
+      <c r="M71" s="152"/>
+      <c r="N71" s="152"/>
+      <c r="O71" s="152"/>
+      <c r="P71" s="152"/>
+      <c r="Q71" s="152"/>
+      <c r="R71" s="153"/>
+      <c r="S71" s="147" t="s">
+        <v>68</v>
+      </c>
+      <c r="T71" s="148"/>
+      <c r="U71" s="148"/>
+      <c r="V71" s="148"/>
+      <c r="W71" s="148"/>
+      <c r="X71" s="149"/>
+      <c r="Y71" s="186"/>
+      <c r="Z71" s="187"/>
     </row>
     <row r="72" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A72" s="190"/>
@@ -7017,14 +7017,14 @@
         <v>240</v>
       </c>
       <c r="C72" s="222" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D72" s="222"/>
       <c r="E72" s="222"/>
       <c r="F72" s="222"/>
       <c r="G72" s="223"/>
       <c r="H72" s="207" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="I72" s="152"/>
       <c r="J72" s="152"/>
@@ -7036,9 +7036,7 @@
       <c r="P72" s="152"/>
       <c r="Q72" s="152"/>
       <c r="R72" s="153"/>
-      <c r="S72" s="147" t="s">
-        <v>68</v>
-      </c>
+      <c r="S72" s="150"/>
       <c r="T72" s="148"/>
       <c r="U72" s="148"/>
       <c r="V72" s="148"/>
@@ -7050,28 +7048,28 @@
     <row r="73" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A73" s="190"/>
       <c r="B73" s="367" t="s">
-        <v>240</v>
-      </c>
-      <c r="C73" s="222" t="s">
-        <v>129</v>
-      </c>
-      <c r="D73" s="222"/>
-      <c r="E73" s="222"/>
-      <c r="F73" s="222"/>
-      <c r="G73" s="223"/>
+        <v>246</v>
+      </c>
+      <c r="C73" s="228" t="s">
+        <v>201</v>
+      </c>
+      <c r="D73" s="228"/>
+      <c r="E73" s="228"/>
+      <c r="F73" s="228"/>
+      <c r="G73" s="229"/>
       <c r="H73" s="207" t="s">
-        <v>161</v>
-      </c>
-      <c r="I73" s="152"/>
-      <c r="J73" s="152"/>
-      <c r="K73" s="152"/>
-      <c r="L73" s="152"/>
-      <c r="M73" s="152"/>
-      <c r="N73" s="152"/>
-      <c r="O73" s="152"/>
-      <c r="P73" s="152"/>
-      <c r="Q73" s="152"/>
-      <c r="R73" s="153"/>
+        <v>73</v>
+      </c>
+      <c r="I73" s="224"/>
+      <c r="J73" s="224"/>
+      <c r="K73" s="224"/>
+      <c r="L73" s="224"/>
+      <c r="M73" s="224"/>
+      <c r="N73" s="224"/>
+      <c r="O73" s="224"/>
+      <c r="P73" s="224"/>
+      <c r="Q73" s="224"/>
+      <c r="R73" s="225"/>
       <c r="S73" s="150"/>
       <c r="T73" s="148"/>
       <c r="U73" s="148"/>
@@ -7084,39 +7082,39 @@
     <row r="74" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A74" s="190"/>
       <c r="B74" s="367" t="s">
-        <v>246</v>
-      </c>
-      <c r="C74" s="228" t="s">
-        <v>201</v>
-      </c>
-      <c r="D74" s="228"/>
-      <c r="E74" s="228"/>
-      <c r="F74" s="228"/>
-      <c r="G74" s="229"/>
+        <v>240</v>
+      </c>
+      <c r="C74" s="222"/>
+      <c r="D74" s="222"/>
+      <c r="E74" s="222"/>
+      <c r="F74" s="222"/>
+      <c r="G74" s="223"/>
       <c r="H74" s="207" t="s">
-        <v>73</v>
-      </c>
-      <c r="I74" s="224"/>
-      <c r="J74" s="224"/>
-      <c r="K74" s="224"/>
-      <c r="L74" s="224"/>
-      <c r="M74" s="224"/>
-      <c r="N74" s="224"/>
-      <c r="O74" s="224"/>
-      <c r="P74" s="224"/>
-      <c r="Q74" s="224"/>
-      <c r="R74" s="225"/>
+        <v>74</v>
+      </c>
+      <c r="I74" s="226"/>
+      <c r="J74" s="226"/>
+      <c r="K74" s="226"/>
+      <c r="L74" s="226"/>
+      <c r="M74" s="226"/>
+      <c r="N74" s="226"/>
+      <c r="O74" s="226"/>
+      <c r="P74" s="226"/>
+      <c r="Q74" s="226"/>
+      <c r="R74" s="227"/>
       <c r="S74" s="150"/>
-      <c r="T74" s="148"/>
-      <c r="U74" s="148"/>
-      <c r="V74" s="148"/>
-      <c r="W74" s="148"/>
+      <c r="T74" s="230"/>
+      <c r="U74" s="230"/>
+      <c r="V74" s="230"/>
+      <c r="W74" s="230"/>
       <c r="X74" s="149"/>
       <c r="Y74" s="186"/>
       <c r="Z74" s="187"/>
     </row>
     <row r="75" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A75" s="190"/>
+      <c r="A75" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="B75" s="367" t="s">
         <v>240</v>
       </c>
@@ -7126,18 +7124,18 @@
       <c r="F75" s="222"/>
       <c r="G75" s="223"/>
       <c r="H75" s="207" t="s">
-        <v>74</v>
-      </c>
-      <c r="I75" s="226"/>
-      <c r="J75" s="226"/>
-      <c r="K75" s="226"/>
-      <c r="L75" s="226"/>
-      <c r="M75" s="226"/>
-      <c r="N75" s="226"/>
-      <c r="O75" s="226"/>
-      <c r="P75" s="226"/>
-      <c r="Q75" s="226"/>
-      <c r="R75" s="227"/>
+        <v>75</v>
+      </c>
+      <c r="I75" s="152"/>
+      <c r="J75" s="152"/>
+      <c r="K75" s="152"/>
+      <c r="L75" s="152"/>
+      <c r="M75" s="152"/>
+      <c r="N75" s="152"/>
+      <c r="O75" s="152"/>
+      <c r="P75" s="152"/>
+      <c r="Q75" s="152"/>
+      <c r="R75" s="153"/>
       <c r="S75" s="150"/>
       <c r="T75" s="230"/>
       <c r="U75" s="230"/>
@@ -7148,8 +7146,8 @@
       <c r="Z75" s="187"/>
     </row>
     <row r="76" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A76" s="6" t="s">
-        <v>34</v>
+      <c r="A76" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="B76" s="367" t="s">
         <v>240</v>
@@ -7160,7 +7158,7 @@
       <c r="F76" s="222"/>
       <c r="G76" s="223"/>
       <c r="H76" s="207" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I76" s="152"/>
       <c r="J76" s="152"/>
@@ -7172,103 +7170,107 @@
       <c r="P76" s="152"/>
       <c r="Q76" s="152"/>
       <c r="R76" s="153"/>
-      <c r="S76" s="150"/>
-      <c r="T76" s="230"/>
-      <c r="U76" s="230"/>
-      <c r="V76" s="230"/>
-      <c r="W76" s="230"/>
-      <c r="X76" s="149"/>
-      <c r="Y76" s="186"/>
-      <c r="Z76" s="187"/>
+      <c r="S76" s="231"/>
+      <c r="T76" s="232"/>
+      <c r="U76" s="232"/>
+      <c r="V76" s="232"/>
+      <c r="W76" s="232"/>
+      <c r="X76" s="233"/>
+      <c r="Y76" s="188"/>
+      <c r="Z76" s="189"/>
     </row>
     <row r="77" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A77" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B77" s="367" t="s">
+      <c r="A77" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" s="92" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" s="93"/>
+      <c r="D77" s="93"/>
+      <c r="E77" s="93"/>
+      <c r="F77" s="93"/>
+      <c r="G77" s="94"/>
+      <c r="H77" s="101" t="s">
+        <v>79</v>
+      </c>
+      <c r="I77" s="128"/>
+      <c r="J77" s="128"/>
+      <c r="K77" s="128"/>
+      <c r="L77" s="128"/>
+      <c r="M77" s="219"/>
+      <c r="N77" s="220"/>
+      <c r="O77" s="220"/>
+      <c r="P77" s="220"/>
+      <c r="Q77" s="220"/>
+      <c r="R77" s="221"/>
+      <c r="S77" s="92" t="s">
+        <v>80</v>
+      </c>
+      <c r="T77" s="93"/>
+      <c r="U77" s="93"/>
+      <c r="V77" s="93"/>
+      <c r="W77" s="93"/>
+      <c r="X77" s="132"/>
+      <c r="Y77" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z77" s="94"/>
+    </row>
+    <row r="78" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A78" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" s="367" t="s">
         <v>240</v>
       </c>
-      <c r="C77" s="222"/>
-      <c r="D77" s="222"/>
-      <c r="E77" s="222"/>
-      <c r="F77" s="222"/>
-      <c r="G77" s="223"/>
-      <c r="H77" s="207" t="s">
-        <v>76</v>
-      </c>
-      <c r="I77" s="152"/>
-      <c r="J77" s="152"/>
-      <c r="K77" s="152"/>
-      <c r="L77" s="152"/>
-      <c r="M77" s="152"/>
-      <c r="N77" s="152"/>
-      <c r="O77" s="152"/>
-      <c r="P77" s="152"/>
-      <c r="Q77" s="152"/>
-      <c r="R77" s="153"/>
-      <c r="S77" s="231"/>
-      <c r="T77" s="232"/>
-      <c r="U77" s="232"/>
-      <c r="V77" s="232"/>
-      <c r="W77" s="232"/>
-      <c r="X77" s="233"/>
-      <c r="Y77" s="188"/>
-      <c r="Z77" s="189"/>
-    </row>
-    <row r="78" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A78" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78" s="92" t="s">
-        <v>78</v>
-      </c>
-      <c r="C78" s="93"/>
-      <c r="D78" s="93"/>
-      <c r="E78" s="93"/>
-      <c r="F78" s="93"/>
-      <c r="G78" s="94"/>
-      <c r="H78" s="101" t="s">
-        <v>79</v>
-      </c>
-      <c r="I78" s="128"/>
-      <c r="J78" s="128"/>
-      <c r="K78" s="128"/>
-      <c r="L78" s="128"/>
-      <c r="M78" s="219"/>
-      <c r="N78" s="220"/>
-      <c r="O78" s="220"/>
-      <c r="P78" s="220"/>
-      <c r="Q78" s="220"/>
-      <c r="R78" s="221"/>
-      <c r="S78" s="92" t="s">
-        <v>80</v>
-      </c>
-      <c r="T78" s="93"/>
-      <c r="U78" s="93"/>
-      <c r="V78" s="93"/>
-      <c r="W78" s="93"/>
-      <c r="X78" s="132"/>
-      <c r="Y78" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z78" s="94"/>
+      <c r="C78" s="239" t="s">
+        <v>130</v>
+      </c>
+      <c r="D78" s="239"/>
+      <c r="E78" s="239"/>
+      <c r="F78" s="239"/>
+      <c r="G78" s="240"/>
+      <c r="H78" s="207" t="s">
+        <v>82</v>
+      </c>
+      <c r="I78" s="152"/>
+      <c r="J78" s="152"/>
+      <c r="K78" s="152"/>
+      <c r="L78" s="152"/>
+      <c r="M78" s="152"/>
+      <c r="N78" s="152"/>
+      <c r="O78" s="152"/>
+      <c r="P78" s="152"/>
+      <c r="Q78" s="152"/>
+      <c r="R78" s="152"/>
+      <c r="S78" s="234" t="s">
+        <v>46</v>
+      </c>
+      <c r="T78" s="235"/>
+      <c r="U78" s="235"/>
+      <c r="V78" s="235"/>
+      <c r="W78" s="235"/>
+      <c r="X78" s="236"/>
+      <c r="Y78" s="184" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z78" s="185"/>
     </row>
     <row r="79" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A79" s="6" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="B79" s="367" t="s">
         <v>240</v>
       </c>
-      <c r="C79" s="239" t="s">
-        <v>130</v>
-      </c>
-      <c r="D79" s="239"/>
-      <c r="E79" s="239"/>
-      <c r="F79" s="239"/>
-      <c r="G79" s="240"/>
+      <c r="C79" s="241"/>
+      <c r="D79" s="241"/>
+      <c r="E79" s="241"/>
+      <c r="F79" s="241"/>
+      <c r="G79" s="242"/>
       <c r="H79" s="207" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I79" s="152"/>
       <c r="J79" s="152"/>
@@ -7279,23 +7281,21 @@
       <c r="O79" s="152"/>
       <c r="P79" s="152"/>
       <c r="Q79" s="152"/>
-      <c r="R79" s="152"/>
-      <c r="S79" s="234" t="s">
-        <v>46</v>
-      </c>
-      <c r="T79" s="235"/>
-      <c r="U79" s="235"/>
-      <c r="V79" s="235"/>
-      <c r="W79" s="235"/>
-      <c r="X79" s="236"/>
-      <c r="Y79" s="184" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z79" s="185"/>
+      <c r="R79" s="153"/>
+      <c r="S79" s="147" t="s">
+        <v>68</v>
+      </c>
+      <c r="T79" s="148"/>
+      <c r="U79" s="148"/>
+      <c r="V79" s="148"/>
+      <c r="W79" s="148"/>
+      <c r="X79" s="149"/>
+      <c r="Y79" s="186"/>
+      <c r="Z79" s="187"/>
     </row>
     <row r="80" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A80" s="6" t="s">
-        <v>34</v>
+      <c r="A80" s="75" t="s">
+        <v>37</v>
       </c>
       <c r="B80" s="367" t="s">
         <v>240</v>
@@ -7306,7 +7306,7 @@
       <c r="F80" s="241"/>
       <c r="G80" s="242"/>
       <c r="H80" s="207" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I80" s="152"/>
       <c r="J80" s="152"/>
@@ -7318,9 +7318,7 @@
       <c r="P80" s="152"/>
       <c r="Q80" s="152"/>
       <c r="R80" s="153"/>
-      <c r="S80" s="147" t="s">
-        <v>68</v>
-      </c>
+      <c r="S80" s="150"/>
       <c r="T80" s="148"/>
       <c r="U80" s="148"/>
       <c r="V80" s="148"/>
@@ -7330,166 +7328,168 @@
       <c r="Z80" s="187"/>
     </row>
     <row r="81" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A81" s="75" t="s">
-        <v>37</v>
-      </c>
+      <c r="A81" s="76"/>
       <c r="B81" s="367" t="s">
         <v>240</v>
       </c>
-      <c r="C81" s="241"/>
-      <c r="D81" s="241"/>
-      <c r="E81" s="241"/>
-      <c r="F81" s="241"/>
-      <c r="G81" s="242"/>
-      <c r="H81" s="207" t="s">
-        <v>84</v>
-      </c>
-      <c r="I81" s="152"/>
-      <c r="J81" s="152"/>
-      <c r="K81" s="152"/>
-      <c r="L81" s="152"/>
-      <c r="M81" s="152"/>
-      <c r="N81" s="152"/>
-      <c r="O81" s="152"/>
-      <c r="P81" s="152"/>
-      <c r="Q81" s="152"/>
-      <c r="R81" s="153"/>
-      <c r="S81" s="150"/>
-      <c r="T81" s="148"/>
-      <c r="U81" s="148"/>
-      <c r="V81" s="148"/>
-      <c r="W81" s="148"/>
-      <c r="X81" s="149"/>
-      <c r="Y81" s="186"/>
-      <c r="Z81" s="187"/>
+      <c r="C81" s="243"/>
+      <c r="D81" s="243"/>
+      <c r="E81" s="243"/>
+      <c r="F81" s="243"/>
+      <c r="G81" s="244"/>
+      <c r="H81" s="210"/>
+      <c r="I81" s="237"/>
+      <c r="J81" s="237"/>
+      <c r="K81" s="237"/>
+      <c r="L81" s="237"/>
+      <c r="M81" s="237"/>
+      <c r="N81" s="237"/>
+      <c r="O81" s="237"/>
+      <c r="P81" s="237"/>
+      <c r="Q81" s="237"/>
+      <c r="R81" s="238"/>
+      <c r="S81" s="231"/>
+      <c r="T81" s="232"/>
+      <c r="U81" s="232"/>
+      <c r="V81" s="232"/>
+      <c r="W81" s="232"/>
+      <c r="X81" s="233"/>
+      <c r="Y81" s="188"/>
+      <c r="Z81" s="189"/>
     </row>
     <row r="82" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A82" s="76"/>
-      <c r="B82" s="367" t="s">
-        <v>240</v>
-      </c>
-      <c r="C82" s="243"/>
-      <c r="D82" s="243"/>
-      <c r="E82" s="243"/>
-      <c r="F82" s="243"/>
-      <c r="G82" s="244"/>
-      <c r="H82" s="210"/>
-      <c r="I82" s="237"/>
-      <c r="J82" s="237"/>
-      <c r="K82" s="237"/>
-      <c r="L82" s="237"/>
-      <c r="M82" s="237"/>
-      <c r="N82" s="237"/>
-      <c r="O82" s="237"/>
-      <c r="P82" s="237"/>
-      <c r="Q82" s="237"/>
-      <c r="R82" s="238"/>
-      <c r="S82" s="231"/>
-      <c r="T82" s="232"/>
-      <c r="U82" s="232"/>
-      <c r="V82" s="232"/>
-      <c r="W82" s="232"/>
-      <c r="X82" s="233"/>
-      <c r="Y82" s="188"/>
-      <c r="Z82" s="189"/>
+      <c r="A82" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" s="93"/>
+      <c r="D82" s="93"/>
+      <c r="E82" s="93"/>
+      <c r="F82" s="93"/>
+      <c r="G82" s="94"/>
+      <c r="H82" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="I82" s="128"/>
+      <c r="J82" s="128"/>
+      <c r="K82" s="128"/>
+      <c r="L82" s="128"/>
+      <c r="M82" s="128"/>
+      <c r="N82" s="128"/>
+      <c r="O82" s="128"/>
+      <c r="P82" s="128"/>
+      <c r="Q82" s="128"/>
+      <c r="R82" s="102"/>
+      <c r="S82" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="T82" s="93"/>
+      <c r="U82" s="93"/>
+      <c r="V82" s="93"/>
+      <c r="W82" s="93"/>
+      <c r="X82" s="132"/>
+      <c r="Y82" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z82" s="94"/>
     </row>
     <row r="83" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A83" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="C83" s="93"/>
-      <c r="D83" s="93"/>
-      <c r="E83" s="93"/>
-      <c r="F83" s="93"/>
-      <c r="G83" s="94"/>
-      <c r="H83" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="I83" s="128"/>
-      <c r="J83" s="128"/>
-      <c r="K83" s="128"/>
-      <c r="L83" s="128"/>
-      <c r="M83" s="128"/>
-      <c r="N83" s="128"/>
-      <c r="O83" s="128"/>
-      <c r="P83" s="128"/>
-      <c r="Q83" s="128"/>
-      <c r="R83" s="102"/>
-      <c r="S83" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="T83" s="93"/>
-      <c r="U83" s="93"/>
-      <c r="V83" s="93"/>
-      <c r="W83" s="93"/>
-      <c r="X83" s="132"/>
-      <c r="Y83" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z83" s="94"/>
+      <c r="A83" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" s="245" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" s="367" t="s">
+        <v>132</v>
+      </c>
+      <c r="D83" s="246" t="s">
+        <v>123</v>
+      </c>
+      <c r="E83" s="246"/>
+      <c r="F83" s="246"/>
+      <c r="G83" s="247"/>
+      <c r="H83" s="105" t="s">
+        <v>88</v>
+      </c>
+      <c r="I83" s="106"/>
+      <c r="J83" s="106"/>
+      <c r="K83" s="106"/>
+      <c r="L83" s="106"/>
+      <c r="M83" s="106"/>
+      <c r="N83" s="106"/>
+      <c r="O83" s="106"/>
+      <c r="P83" s="106"/>
+      <c r="Q83" s="106"/>
+      <c r="R83" s="107"/>
+      <c r="S83" s="216" t="s">
+        <v>46</v>
+      </c>
+      <c r="T83" s="217"/>
+      <c r="U83" s="217"/>
+      <c r="V83" s="217"/>
+      <c r="W83" s="217"/>
+      <c r="X83" s="218"/>
+      <c r="Y83" s="184" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z83" s="185"/>
     </row>
     <row r="84" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A84" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B84" s="245" t="s">
-        <v>21</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B84" s="245"/>
       <c r="C84" s="367" t="s">
-        <v>132</v>
-      </c>
-      <c r="D84" s="246" t="s">
-        <v>123</v>
-      </c>
-      <c r="E84" s="246"/>
-      <c r="F84" s="246"/>
-      <c r="G84" s="247"/>
-      <c r="H84" s="105" t="s">
-        <v>88</v>
-      </c>
-      <c r="I84" s="106"/>
-      <c r="J84" s="106"/>
-      <c r="K84" s="106"/>
-      <c r="L84" s="106"/>
-      <c r="M84" s="106"/>
-      <c r="N84" s="106"/>
-      <c r="O84" s="106"/>
-      <c r="P84" s="106"/>
-      <c r="Q84" s="106"/>
-      <c r="R84" s="107"/>
-      <c r="S84" s="216" t="s">
-        <v>46</v>
-      </c>
-      <c r="T84" s="217"/>
-      <c r="U84" s="217"/>
-      <c r="V84" s="217"/>
-      <c r="W84" s="217"/>
-      <c r="X84" s="218"/>
-      <c r="Y84" s="184" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z84" s="185"/>
+        <v>243</v>
+      </c>
+      <c r="D84" s="248" t="s">
+        <v>142</v>
+      </c>
+      <c r="E84" s="248"/>
+      <c r="F84" s="248"/>
+      <c r="G84" s="249"/>
+      <c r="H84" s="207" t="s">
+        <v>90</v>
+      </c>
+      <c r="I84" s="152"/>
+      <c r="J84" s="152"/>
+      <c r="K84" s="152"/>
+      <c r="L84" s="152"/>
+      <c r="M84" s="152"/>
+      <c r="N84" s="152"/>
+      <c r="O84" s="152"/>
+      <c r="P84" s="152"/>
+      <c r="Q84" s="152"/>
+      <c r="R84" s="153"/>
+      <c r="S84" s="263" t="s">
+        <v>48</v>
+      </c>
+      <c r="T84" s="264"/>
+      <c r="U84" s="264"/>
+      <c r="V84" s="264"/>
+      <c r="W84" s="264"/>
+      <c r="X84" s="265"/>
+      <c r="Y84" s="186"/>
+      <c r="Z84" s="187"/>
     </row>
     <row r="85" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A85" s="8" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="B85" s="245"/>
       <c r="C85" s="367" t="s">
-        <v>243</v>
-      </c>
-      <c r="D85" s="248" t="s">
-        <v>142</v>
-      </c>
-      <c r="E85" s="248"/>
-      <c r="F85" s="248"/>
-      <c r="G85" s="249"/>
-      <c r="H85" s="207" t="s">
-        <v>90</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="D85" s="250" t="s">
+        <v>124</v>
+      </c>
+      <c r="E85" s="250"/>
+      <c r="F85" s="250"/>
+      <c r="G85" s="251"/>
+      <c r="H85" s="207"/>
       <c r="I85" s="152"/>
       <c r="J85" s="152"/>
       <c r="K85" s="152"/>
@@ -7500,42 +7500,42 @@
       <c r="P85" s="152"/>
       <c r="Q85" s="152"/>
       <c r="R85" s="153"/>
-      <c r="S85" s="263" t="s">
-        <v>48</v>
-      </c>
-      <c r="T85" s="264"/>
-      <c r="U85" s="264"/>
-      <c r="V85" s="264"/>
-      <c r="W85" s="264"/>
+      <c r="S85" s="266"/>
+      <c r="T85" s="267"/>
+      <c r="U85" s="267"/>
+      <c r="V85" s="267"/>
+      <c r="W85" s="267"/>
       <c r="X85" s="265"/>
       <c r="Y85" s="186"/>
       <c r="Z85" s="187"/>
     </row>
     <row r="86" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A86" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B86" s="245"/>
+      <c r="A86" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="B86" s="268" t="s">
+        <v>57</v>
+      </c>
       <c r="C86" s="367" t="s">
         <v>240</v>
       </c>
-      <c r="D86" s="250" t="s">
-        <v>124</v>
-      </c>
-      <c r="E86" s="250"/>
-      <c r="F86" s="250"/>
-      <c r="G86" s="251"/>
-      <c r="H86" s="207"/>
-      <c r="I86" s="152"/>
-      <c r="J86" s="152"/>
-      <c r="K86" s="152"/>
-      <c r="L86" s="152"/>
-      <c r="M86" s="152"/>
-      <c r="N86" s="152"/>
-      <c r="O86" s="152"/>
-      <c r="P86" s="152"/>
-      <c r="Q86" s="152"/>
-      <c r="R86" s="153"/>
+      <c r="D86" s="248" t="s">
+        <v>125</v>
+      </c>
+      <c r="E86" s="248"/>
+      <c r="F86" s="248"/>
+      <c r="G86" s="249"/>
+      <c r="H86" s="258"/>
+      <c r="I86" s="258"/>
+      <c r="J86" s="258"/>
+      <c r="K86" s="258"/>
+      <c r="L86" s="258"/>
+      <c r="M86" s="258"/>
+      <c r="N86" s="258"/>
+      <c r="O86" s="258"/>
+      <c r="P86" s="258"/>
+      <c r="Q86" s="258"/>
+      <c r="R86" s="259"/>
       <c r="S86" s="266"/>
       <c r="T86" s="267"/>
       <c r="U86" s="267"/>
@@ -7546,17 +7546,13 @@
       <c r="Z86" s="187"/>
     </row>
     <row r="87" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A87" s="75" t="s">
-        <v>37</v>
-      </c>
-      <c r="B87" s="268" t="s">
-        <v>57</v>
-      </c>
+      <c r="A87" s="75"/>
+      <c r="B87" s="245"/>
       <c r="C87" s="367" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D87" s="248" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="E87" s="248"/>
       <c r="F87" s="248"/>
@@ -7585,25 +7581,25 @@
       <c r="A88" s="75"/>
       <c r="B88" s="245"/>
       <c r="C88" s="367" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D88" s="248" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="E88" s="248"/>
       <c r="F88" s="248"/>
       <c r="G88" s="249"/>
-      <c r="H88" s="258"/>
-      <c r="I88" s="258"/>
-      <c r="J88" s="258"/>
-      <c r="K88" s="258"/>
-      <c r="L88" s="258"/>
-      <c r="M88" s="258"/>
-      <c r="N88" s="258"/>
-      <c r="O88" s="258"/>
-      <c r="P88" s="258"/>
-      <c r="Q88" s="258"/>
-      <c r="R88" s="259"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
+      <c r="R88" s="18"/>
       <c r="S88" s="266"/>
       <c r="T88" s="267"/>
       <c r="U88" s="267"/>
@@ -7620,7 +7616,7 @@
         <v>240</v>
       </c>
       <c r="D89" s="248" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E89" s="248"/>
       <c r="F89" s="248"/>
@@ -7652,7 +7648,7 @@
         <v>240</v>
       </c>
       <c r="D90" s="248" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E90" s="248"/>
       <c r="F90" s="248"/>
@@ -7684,7 +7680,7 @@
         <v>240</v>
       </c>
       <c r="D91" s="248" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E91" s="248"/>
       <c r="F91" s="248"/>
@@ -7716,7 +7712,7 @@
         <v>240</v>
       </c>
       <c r="D92" s="248" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="E92" s="248"/>
       <c r="F92" s="248"/>
@@ -7748,7 +7744,7 @@
         <v>240</v>
       </c>
       <c r="D93" s="248" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E93" s="248"/>
       <c r="F93" s="248"/>
@@ -7777,25 +7773,25 @@
       <c r="A94" s="75"/>
       <c r="B94" s="245"/>
       <c r="C94" s="367" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D94" s="248" t="s">
-        <v>208</v>
+        <v>126</v>
       </c>
       <c r="E94" s="248"/>
       <c r="F94" s="248"/>
       <c r="G94" s="249"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="17"/>
-      <c r="J94" s="17"/>
-      <c r="K94" s="17"/>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
-      <c r="R94" s="18"/>
+      <c r="H94" s="258"/>
+      <c r="I94" s="258"/>
+      <c r="J94" s="258"/>
+      <c r="K94" s="258"/>
+      <c r="L94" s="258"/>
+      <c r="M94" s="258"/>
+      <c r="N94" s="258"/>
+      <c r="O94" s="258"/>
+      <c r="P94" s="258"/>
+      <c r="Q94" s="258"/>
+      <c r="R94" s="259"/>
       <c r="S94" s="266"/>
       <c r="T94" s="267"/>
       <c r="U94" s="267"/>
@@ -7809,25 +7805,25 @@
       <c r="A95" s="75"/>
       <c r="B95" s="245"/>
       <c r="C95" s="367" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D95" s="248" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="E95" s="248"/>
       <c r="F95" s="248"/>
       <c r="G95" s="249"/>
-      <c r="H95" s="258"/>
-      <c r="I95" s="258"/>
-      <c r="J95" s="258"/>
-      <c r="K95" s="258"/>
-      <c r="L95" s="258"/>
-      <c r="M95" s="258"/>
-      <c r="N95" s="258"/>
-      <c r="O95" s="258"/>
-      <c r="P95" s="258"/>
-      <c r="Q95" s="258"/>
-      <c r="R95" s="259"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="11"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
+      <c r="O95" s="11"/>
+      <c r="P95" s="11"/>
+      <c r="Q95" s="11"/>
+      <c r="R95" s="12"/>
       <c r="S95" s="266"/>
       <c r="T95" s="267"/>
       <c r="U95" s="267"/>
@@ -7841,25 +7837,25 @@
       <c r="A96" s="75"/>
       <c r="B96" s="245"/>
       <c r="C96" s="367" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D96" s="248" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E96" s="248"/>
       <c r="F96" s="248"/>
       <c r="G96" s="249"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="11"/>
-      <c r="J96" s="11"/>
-      <c r="K96" s="11"/>
-      <c r="L96" s="11"/>
-      <c r="M96" s="11"/>
-      <c r="N96" s="11"/>
-      <c r="O96" s="11"/>
-      <c r="P96" s="11"/>
-      <c r="Q96" s="11"/>
-      <c r="R96" s="12"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
+      <c r="R96" s="18"/>
       <c r="S96" s="266"/>
       <c r="T96" s="267"/>
       <c r="U96" s="267"/>
@@ -7870,102 +7866,100 @@
       <c r="Z96" s="187"/>
     </row>
     <row r="97" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A97" s="75"/>
+      <c r="A97" s="76"/>
       <c r="B97" s="245"/>
       <c r="C97" s="367" t="s">
-        <v>248</v>
-      </c>
-      <c r="D97" s="248" t="s">
-        <v>182</v>
-      </c>
-      <c r="E97" s="248"/>
-      <c r="F97" s="248"/>
-      <c r="G97" s="249"/>
-      <c r="H97" s="17"/>
-      <c r="I97" s="17"/>
-      <c r="J97" s="17"/>
-      <c r="K97" s="17"/>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
-      <c r="R97" s="18"/>
+        <v>249</v>
+      </c>
+      <c r="D97" s="250" t="s">
+        <v>127</v>
+      </c>
+      <c r="E97" s="250"/>
+      <c r="F97" s="250"/>
+      <c r="G97" s="251"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="11"/>
+      <c r="Q97" s="11"/>
+      <c r="R97" s="12"/>
       <c r="S97" s="266"/>
       <c r="T97" s="267"/>
       <c r="U97" s="267"/>
       <c r="V97" s="267"/>
       <c r="W97" s="267"/>
       <c r="X97" s="265"/>
-      <c r="Y97" s="186"/>
-      <c r="Z97" s="187"/>
+      <c r="Y97" s="188"/>
+      <c r="Z97" s="189"/>
     </row>
     <row r="98" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A98" s="76"/>
-      <c r="B98" s="245"/>
-      <c r="C98" s="367" t="s">
-        <v>249</v>
-      </c>
-      <c r="D98" s="250" t="s">
-        <v>127</v>
-      </c>
-      <c r="E98" s="250"/>
-      <c r="F98" s="250"/>
-      <c r="G98" s="251"/>
-      <c r="H98" s="11"/>
-      <c r="I98" s="11"/>
-      <c r="J98" s="11"/>
-      <c r="K98" s="11"/>
-      <c r="L98" s="11"/>
-      <c r="M98" s="11"/>
-      <c r="N98" s="11"/>
-      <c r="O98" s="11"/>
-      <c r="P98" s="11"/>
-      <c r="Q98" s="11"/>
-      <c r="R98" s="12"/>
-      <c r="S98" s="266"/>
-      <c r="T98" s="267"/>
-      <c r="U98" s="267"/>
-      <c r="V98" s="267"/>
-      <c r="W98" s="267"/>
-      <c r="X98" s="265"/>
-      <c r="Y98" s="188"/>
-      <c r="Z98" s="189"/>
+      <c r="A98" s="260" t="s">
+        <v>91</v>
+      </c>
+      <c r="B98" s="261"/>
+      <c r="C98" s="261"/>
+      <c r="D98" s="261"/>
+      <c r="E98" s="261"/>
+      <c r="F98" s="261"/>
+      <c r="G98" s="261"/>
+      <c r="H98" s="261"/>
+      <c r="I98" s="261"/>
+      <c r="J98" s="261"/>
+      <c r="K98" s="261"/>
+      <c r="L98" s="261"/>
+      <c r="M98" s="261"/>
+      <c r="N98" s="261"/>
+      <c r="O98" s="261"/>
+      <c r="P98" s="261"/>
+      <c r="Q98" s="261"/>
+      <c r="R98" s="261"/>
+      <c r="S98" s="261"/>
+      <c r="T98" s="261"/>
+      <c r="U98" s="261"/>
+      <c r="V98" s="261"/>
+      <c r="W98" s="261"/>
+      <c r="X98" s="261"/>
+      <c r="Y98" s="261"/>
+      <c r="Z98" s="262"/>
     </row>
     <row r="99" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A99" s="260" t="s">
-        <v>91</v>
-      </c>
-      <c r="B99" s="261"/>
-      <c r="C99" s="261"/>
-      <c r="D99" s="261"/>
-      <c r="E99" s="261"/>
-      <c r="F99" s="261"/>
-      <c r="G99" s="261"/>
-      <c r="H99" s="261"/>
-      <c r="I99" s="261"/>
-      <c r="J99" s="261"/>
-      <c r="K99" s="261"/>
-      <c r="L99" s="261"/>
-      <c r="M99" s="261"/>
-      <c r="N99" s="261"/>
-      <c r="O99" s="261"/>
-      <c r="P99" s="261"/>
-      <c r="Q99" s="261"/>
-      <c r="R99" s="261"/>
-      <c r="S99" s="261"/>
-      <c r="T99" s="261"/>
-      <c r="U99" s="261"/>
-      <c r="V99" s="261"/>
-      <c r="W99" s="261"/>
-      <c r="X99" s="261"/>
-      <c r="Y99" s="261"/>
-      <c r="Z99" s="262"/>
+      <c r="A99" s="252" t="s">
+        <v>92</v>
+      </c>
+      <c r="B99" s="253"/>
+      <c r="C99" s="253"/>
+      <c r="D99" s="253"/>
+      <c r="E99" s="253"/>
+      <c r="F99" s="253"/>
+      <c r="G99" s="253"/>
+      <c r="H99" s="253"/>
+      <c r="I99" s="253"/>
+      <c r="J99" s="253"/>
+      <c r="K99" s="253"/>
+      <c r="L99" s="253"/>
+      <c r="M99" s="253"/>
+      <c r="N99" s="253"/>
+      <c r="O99" s="253"/>
+      <c r="P99" s="253"/>
+      <c r="Q99" s="253"/>
+      <c r="R99" s="253"/>
+      <c r="S99" s="253"/>
+      <c r="T99" s="253"/>
+      <c r="U99" s="253"/>
+      <c r="V99" s="253"/>
+      <c r="W99" s="253"/>
+      <c r="X99" s="253"/>
+      <c r="Y99" s="253"/>
+      <c r="Z99" s="254"/>
     </row>
     <row r="100" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A100" s="252" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B100" s="253"/>
       <c r="C100" s="253"/>
@@ -7994,108 +7988,78 @@
       <c r="Z100" s="254"/>
     </row>
     <row r="101" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A101" s="252" t="s">
-        <v>93</v>
-      </c>
-      <c r="B101" s="253"/>
-      <c r="C101" s="253"/>
-      <c r="D101" s="253"/>
-      <c r="E101" s="253"/>
-      <c r="F101" s="253"/>
-      <c r="G101" s="253"/>
-      <c r="H101" s="253"/>
-      <c r="I101" s="253"/>
-      <c r="J101" s="253"/>
-      <c r="K101" s="253"/>
-      <c r="L101" s="253"/>
-      <c r="M101" s="253"/>
-      <c r="N101" s="253"/>
-      <c r="O101" s="253"/>
-      <c r="P101" s="253"/>
-      <c r="Q101" s="253"/>
-      <c r="R101" s="253"/>
-      <c r="S101" s="253"/>
-      <c r="T101" s="253"/>
-      <c r="U101" s="253"/>
-      <c r="V101" s="253"/>
-      <c r="W101" s="253"/>
-      <c r="X101" s="253"/>
-      <c r="Y101" s="253"/>
-      <c r="Z101" s="254"/>
+      <c r="A101" s="269" t="s">
+        <v>94</v>
+      </c>
+      <c r="B101" s="270"/>
+      <c r="C101" s="270"/>
+      <c r="D101" s="270"/>
+      <c r="E101" s="270"/>
+      <c r="F101" s="270"/>
+      <c r="G101" s="270"/>
+      <c r="H101" s="270"/>
+      <c r="I101" s="270"/>
+      <c r="J101" s="270"/>
+      <c r="K101" s="270"/>
+      <c r="L101" s="270"/>
+      <c r="M101" s="270"/>
+      <c r="N101" s="270"/>
+      <c r="O101" s="270"/>
+      <c r="P101" s="270"/>
+      <c r="Q101" s="270"/>
+      <c r="R101" s="270"/>
+      <c r="S101" s="270"/>
+      <c r="T101" s="270"/>
+      <c r="U101" s="270"/>
+      <c r="V101" s="270"/>
+      <c r="W101" s="270"/>
+      <c r="X101" s="270"/>
+      <c r="Y101" s="270"/>
+      <c r="Z101" s="271"/>
     </row>
     <row r="102" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A102" s="269" t="s">
-        <v>94</v>
-      </c>
-      <c r="B102" s="270"/>
-      <c r="C102" s="270"/>
-      <c r="D102" s="270"/>
-      <c r="E102" s="270"/>
-      <c r="F102" s="270"/>
-      <c r="G102" s="270"/>
-      <c r="H102" s="270"/>
-      <c r="I102" s="270"/>
-      <c r="J102" s="270"/>
-      <c r="K102" s="270"/>
-      <c r="L102" s="270"/>
-      <c r="M102" s="270"/>
-      <c r="N102" s="270"/>
-      <c r="O102" s="270"/>
-      <c r="P102" s="270"/>
-      <c r="Q102" s="270"/>
-      <c r="R102" s="270"/>
-      <c r="S102" s="270"/>
-      <c r="T102" s="270"/>
-      <c r="U102" s="270"/>
-      <c r="V102" s="270"/>
-      <c r="W102" s="270"/>
-      <c r="X102" s="270"/>
-      <c r="Y102" s="270"/>
-      <c r="Z102" s="271"/>
-    </row>
-    <row r="103" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A103" s="255" t="s">
+      <c r="A102" s="255" t="s">
         <v>180</v>
       </c>
-      <c r="B103" s="256"/>
-      <c r="C103" s="256"/>
-      <c r="D103" s="256"/>
-      <c r="E103" s="256"/>
-      <c r="F103" s="256"/>
-      <c r="G103" s="256"/>
-      <c r="H103" s="256"/>
-      <c r="I103" s="256"/>
-      <c r="J103" s="256"/>
-      <c r="K103" s="256"/>
-      <c r="L103" s="256"/>
-      <c r="M103" s="256"/>
-      <c r="N103" s="256"/>
-      <c r="O103" s="256"/>
-      <c r="P103" s="256"/>
-      <c r="Q103" s="256"/>
-      <c r="R103" s="256"/>
-      <c r="S103" s="256"/>
-      <c r="T103" s="256"/>
-      <c r="U103" s="256"/>
-      <c r="V103" s="256"/>
-      <c r="W103" s="256"/>
-      <c r="X103" s="256"/>
-      <c r="Y103" s="256"/>
-      <c r="Z103" s="257"/>
+      <c r="B102" s="256"/>
+      <c r="C102" s="256"/>
+      <c r="D102" s="256"/>
+      <c r="E102" s="256"/>
+      <c r="F102" s="256"/>
+      <c r="G102" s="256"/>
+      <c r="H102" s="256"/>
+      <c r="I102" s="256"/>
+      <c r="J102" s="256"/>
+      <c r="K102" s="256"/>
+      <c r="L102" s="256"/>
+      <c r="M102" s="256"/>
+      <c r="N102" s="256"/>
+      <c r="O102" s="256"/>
+      <c r="P102" s="256"/>
+      <c r="Q102" s="256"/>
+      <c r="R102" s="256"/>
+      <c r="S102" s="256"/>
+      <c r="T102" s="256"/>
+      <c r="U102" s="256"/>
+      <c r="V102" s="256"/>
+      <c r="W102" s="256"/>
+      <c r="X102" s="256"/>
+      <c r="Y102" s="256"/>
+      <c r="Z102" s="257"/>
     </row>
   </sheetData>
-  <mergeCells count="360">
-    <mergeCell ref="A33:A47"/>
-    <mergeCell ref="C70:G71"/>
-    <mergeCell ref="C32:C47"/>
-    <mergeCell ref="B11:B47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="O47:X47"/>
+  <mergeCells count="356">
+    <mergeCell ref="A33:A46"/>
+    <mergeCell ref="C69:G70"/>
+    <mergeCell ref="C32:C46"/>
+    <mergeCell ref="B11:B46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:X46"/>
     <mergeCell ref="D31:G31"/>
+    <mergeCell ref="C52:G52"/>
     <mergeCell ref="C53:G53"/>
-    <mergeCell ref="C54:G54"/>
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="D40:G40"/>
@@ -8108,9 +8072,9 @@
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="H29:J29"/>
     <mergeCell ref="K29:L29"/>
-    <mergeCell ref="Y19:Z47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="Y19:Z46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D61:G61"/>
     <mergeCell ref="Y18:Z18"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="M18:N18"/>
@@ -8119,7 +8083,7 @@
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="M27:N27"/>
     <mergeCell ref="O27:X27"/>
-    <mergeCell ref="H58:R58"/>
+    <mergeCell ref="H57:R57"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="H21:J21"/>
     <mergeCell ref="K20:L20"/>
@@ -8128,21 +8092,21 @@
     <mergeCell ref="M21:N21"/>
     <mergeCell ref="D19:E21"/>
     <mergeCell ref="F19:G19"/>
-    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="D57:G57"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="Y16:Z17"/>
-    <mergeCell ref="Y57:Z63"/>
-    <mergeCell ref="Y49:Z49"/>
-    <mergeCell ref="Y50:Z54"/>
-    <mergeCell ref="Y56:Z56"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:X46"/>
+    <mergeCell ref="Y56:Z62"/>
+    <mergeCell ref="Y48:Z48"/>
+    <mergeCell ref="Y49:Z53"/>
+    <mergeCell ref="Y55:Z55"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:X45"/>
     <mergeCell ref="H30:J30"/>
     <mergeCell ref="K30:L30"/>
     <mergeCell ref="M30:N30"/>
-    <mergeCell ref="S48:X48"/>
+    <mergeCell ref="S47:X47"/>
     <mergeCell ref="H32:J32"/>
     <mergeCell ref="H33:J33"/>
     <mergeCell ref="K33:L33"/>
@@ -8159,20 +8123,20 @@
     <mergeCell ref="Y8:Z8"/>
     <mergeCell ref="Y9:Z15"/>
     <mergeCell ref="U9:X9"/>
-    <mergeCell ref="Y48:Z48"/>
+    <mergeCell ref="Y47:Z47"/>
     <mergeCell ref="U10:X10"/>
+    <mergeCell ref="H51:R51"/>
     <mergeCell ref="H52:R52"/>
     <mergeCell ref="H53:R53"/>
-    <mergeCell ref="H54:R54"/>
     <mergeCell ref="O26:X26"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="O43:X43"/>
-    <mergeCell ref="O45:X45"/>
+    <mergeCell ref="O44:X44"/>
     <mergeCell ref="K43:L43"/>
     <mergeCell ref="M43:N43"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="Q8:R8"/>
     <mergeCell ref="K16:L16"/>
@@ -8180,8 +8144,8 @@
     <mergeCell ref="O16:X16"/>
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="H17:J17"/>
-    <mergeCell ref="S56:X56"/>
-    <mergeCell ref="H48:R48"/>
+    <mergeCell ref="S55:X55"/>
+    <mergeCell ref="H47:R47"/>
     <mergeCell ref="O12:X12"/>
     <mergeCell ref="M42:N42"/>
     <mergeCell ref="O42:X42"/>
@@ -8200,7 +8164,7 @@
     <mergeCell ref="K42:L42"/>
     <mergeCell ref="O18:X21"/>
     <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H44:J44"/>
     <mergeCell ref="O17:X17"/>
     <mergeCell ref="O29:X29"/>
     <mergeCell ref="O41:X41"/>
@@ -8211,12 +8175,12 @@
     <mergeCell ref="Q9:R10"/>
     <mergeCell ref="O13:X13"/>
     <mergeCell ref="O32:X32"/>
-    <mergeCell ref="S49:X49"/>
+    <mergeCell ref="S48:X48"/>
+    <mergeCell ref="H49:R49"/>
+    <mergeCell ref="S49:X53"/>
     <mergeCell ref="H50:R50"/>
-    <mergeCell ref="S50:X54"/>
-    <mergeCell ref="H51:R51"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:L45"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="S8:T10"/>
     <mergeCell ref="U8:X8"/>
@@ -8228,108 +8192,108 @@
     <mergeCell ref="O40:X40"/>
     <mergeCell ref="T37:X37"/>
     <mergeCell ref="O34:X34"/>
+    <mergeCell ref="A100:Z100"/>
+    <mergeCell ref="A102:Z102"/>
+    <mergeCell ref="H94:R94"/>
+    <mergeCell ref="A98:Z98"/>
+    <mergeCell ref="A99:Z99"/>
+    <mergeCell ref="H84:R84"/>
+    <mergeCell ref="S84:X97"/>
+    <mergeCell ref="H85:R85"/>
+    <mergeCell ref="B86:B97"/>
+    <mergeCell ref="H86:R86"/>
+    <mergeCell ref="H87:R87"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="D94:G94"/>
+    <mergeCell ref="D95:G95"/>
+    <mergeCell ref="D97:G97"/>
     <mergeCell ref="A101:Z101"/>
-    <mergeCell ref="A103:Z103"/>
-    <mergeCell ref="H95:R95"/>
-    <mergeCell ref="A99:Z99"/>
-    <mergeCell ref="A100:Z100"/>
-    <mergeCell ref="H85:R85"/>
-    <mergeCell ref="S85:X98"/>
-    <mergeCell ref="H86:R86"/>
-    <mergeCell ref="B87:B98"/>
-    <mergeCell ref="H87:R87"/>
-    <mergeCell ref="H88:R88"/>
+    <mergeCell ref="A86:A97"/>
+    <mergeCell ref="D86:G86"/>
     <mergeCell ref="D89:G89"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="D95:G95"/>
+    <mergeCell ref="D92:G92"/>
+    <mergeCell ref="D90:G90"/>
+    <mergeCell ref="D91:G91"/>
     <mergeCell ref="D96:G96"/>
-    <mergeCell ref="D98:G98"/>
-    <mergeCell ref="A102:Z102"/>
-    <mergeCell ref="A87:A98"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="D90:G90"/>
-    <mergeCell ref="D93:G93"/>
-    <mergeCell ref="D91:G91"/>
-    <mergeCell ref="D92:G92"/>
-    <mergeCell ref="D97:G97"/>
-    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="H82:R82"/>
+    <mergeCell ref="S82:X82"/>
+    <mergeCell ref="Y82:Z82"/>
+    <mergeCell ref="B83:B85"/>
     <mergeCell ref="H83:R83"/>
     <mergeCell ref="S83:X83"/>
-    <mergeCell ref="Y83:Z83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="H84:R84"/>
-    <mergeCell ref="S84:X84"/>
+    <mergeCell ref="D83:G83"/>
     <mergeCell ref="D84:G84"/>
     <mergeCell ref="D85:G85"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="Y84:Z84"/>
-    <mergeCell ref="Y85:Z98"/>
-    <mergeCell ref="D94:G94"/>
-    <mergeCell ref="S72:X77"/>
-    <mergeCell ref="S79:X79"/>
+    <mergeCell ref="Y83:Z83"/>
+    <mergeCell ref="Y84:Z97"/>
+    <mergeCell ref="D93:G93"/>
+    <mergeCell ref="S71:X76"/>
+    <mergeCell ref="S78:X78"/>
+    <mergeCell ref="H79:R79"/>
+    <mergeCell ref="S79:X81"/>
     <mergeCell ref="H80:R80"/>
-    <mergeCell ref="S80:X82"/>
     <mergeCell ref="H81:R81"/>
-    <mergeCell ref="H82:R82"/>
-    <mergeCell ref="Y79:Z79"/>
-    <mergeCell ref="Y80:Z82"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="H78:R78"/>
-    <mergeCell ref="S78:X78"/>
     <mergeCell ref="Y78:Z78"/>
+    <mergeCell ref="Y79:Z81"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="H77:R77"/>
+    <mergeCell ref="S77:X77"/>
+    <mergeCell ref="Y77:Z77"/>
+    <mergeCell ref="C78:G78"/>
     <mergeCell ref="C79:G79"/>
     <mergeCell ref="C80:G80"/>
     <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="H79:R79"/>
-    <mergeCell ref="S65:X65"/>
-    <mergeCell ref="H66:R66"/>
-    <mergeCell ref="H63:R63"/>
-    <mergeCell ref="Y72:Z77"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="H78:R78"/>
+    <mergeCell ref="S64:X64"/>
+    <mergeCell ref="H65:R65"/>
+    <mergeCell ref="H62:R62"/>
+    <mergeCell ref="Y71:Z76"/>
+    <mergeCell ref="A68:A74"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="H68:R68"/>
+    <mergeCell ref="S68:X68"/>
+    <mergeCell ref="Y68:Z68"/>
     <mergeCell ref="H69:R69"/>
     <mergeCell ref="S69:X69"/>
+    <mergeCell ref="H76:R76"/>
     <mergeCell ref="Y69:Z69"/>
-    <mergeCell ref="H70:R70"/>
-    <mergeCell ref="S70:X70"/>
-    <mergeCell ref="H77:R77"/>
-    <mergeCell ref="Y70:Z70"/>
+    <mergeCell ref="C74:G74"/>
     <mergeCell ref="C75:G75"/>
     <mergeCell ref="C76:G76"/>
-    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H71:R71"/>
     <mergeCell ref="H72:R72"/>
     <mergeCell ref="H73:R73"/>
     <mergeCell ref="H74:R74"/>
     <mergeCell ref="H75:R75"/>
-    <mergeCell ref="H76:R76"/>
+    <mergeCell ref="C71:G71"/>
     <mergeCell ref="C72:G72"/>
     <mergeCell ref="C73:G73"/>
-    <mergeCell ref="C74:G74"/>
     <mergeCell ref="B8:D10"/>
     <mergeCell ref="E9:F10"/>
     <mergeCell ref="G9:H10"/>
-    <mergeCell ref="Y65:Z65"/>
-    <mergeCell ref="Y66:Z68"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="H64:R64"/>
-    <mergeCell ref="S64:X64"/>
-    <mergeCell ref="H57:R57"/>
-    <mergeCell ref="S57:X63"/>
+    <mergeCell ref="Y64:Z64"/>
+    <mergeCell ref="Y65:Z67"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="H63:R63"/>
+    <mergeCell ref="S63:X63"/>
+    <mergeCell ref="H56:R56"/>
+    <mergeCell ref="S56:X62"/>
+    <mergeCell ref="H58:R58"/>
     <mergeCell ref="H59:R59"/>
     <mergeCell ref="H60:R60"/>
-    <mergeCell ref="H61:R61"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="H54:R54"/>
+    <mergeCell ref="S54:X54"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="Y54:Z54"/>
     <mergeCell ref="H55:R55"/>
-    <mergeCell ref="S55:X55"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="Y55:Z55"/>
-    <mergeCell ref="H56:R56"/>
-    <mergeCell ref="Y64:Z64"/>
-    <mergeCell ref="H65:R65"/>
+    <mergeCell ref="Y63:Z63"/>
+    <mergeCell ref="H64:R64"/>
     <mergeCell ref="O14:X14"/>
     <mergeCell ref="D15:G15"/>
     <mergeCell ref="A5:K5"/>
@@ -8337,21 +8301,21 @@
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="S7:X7"/>
     <mergeCell ref="K8:L8"/>
+    <mergeCell ref="C48:G48"/>
     <mergeCell ref="C49:G49"/>
     <mergeCell ref="C50:G50"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="S66:X68"/>
+    <mergeCell ref="S65:X67"/>
+    <mergeCell ref="H66:R66"/>
     <mergeCell ref="H67:R67"/>
-    <mergeCell ref="H68:R68"/>
-    <mergeCell ref="C65:G66"/>
-    <mergeCell ref="C67:G68"/>
+    <mergeCell ref="C64:G65"/>
+    <mergeCell ref="C66:G67"/>
+    <mergeCell ref="D58:G58"/>
     <mergeCell ref="D59:G59"/>
-    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="D55:G55"/>
     <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D57:G57"/>
     <mergeCell ref="D34:G34"/>
     <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D45:G45"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="X3:Z5"/>
     <mergeCell ref="E6:K6"/>
@@ -8370,12 +8334,12 @@
     <mergeCell ref="L2:Z2"/>
     <mergeCell ref="A2:K3"/>
     <mergeCell ref="F4:K4"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A52:A53"/>
     <mergeCell ref="A7:A31"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="B55:B58"/>
     <mergeCell ref="D26:G26"/>
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="E8:F8"/>
@@ -8384,16 +8348,16 @@
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="H42:J42"/>
     <mergeCell ref="H11:J12"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:G47"/>
     <mergeCell ref="H26:J26"/>
-    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D44:G44"/>
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="D37:G39"/>
     <mergeCell ref="C13:C31"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H49:R49"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H48:R48"/>
     <mergeCell ref="T38:X38"/>
     <mergeCell ref="T39:X39"/>
     <mergeCell ref="H37:J39"/>
@@ -8441,10 +8405,6 @@
     <mergeCell ref="H25:J25"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="M25:N25"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:X44"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lib/excel_templates/process_design_plan_report_modified.xlsx
+++ b/lib/excel_templates/process_design_plan_report_modified.xlsx
@@ -4236,7 +4236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="A1:Z102"/>
+  <dimension ref="A1:Z103"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G1" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
       <selection activeCell="U9" sqref="U9:X10"/>
@@ -5975,35 +5975,39 @@
       <c r="Y43" s="141"/>
       <c r="Z43" s="142"/>
     </row>
-    <row r="44" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+    <row r="44" spans="1:26" customFormat="false">
       <c r="A44" s="70"/>
       <c r="B44" s="80"/>
       <c r="C44" s="77"/>
-      <c r="D44" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="40" t="s">
-        <v>178</v>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="40" t="str">
+        <v>品証（#{?msa_crosstab_person_in_charge_2}）</v>
       </c>
       <c r="I44" s="40"/>
       <c r="J44" s="40"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="54"/>
-      <c r="M44" s="52"/>
-      <c r="N44" s="54"/>
-      <c r="O44" s="50"/>
-      <c r="P44" s="51"/>
-      <c r="Q44" s="51"/>
-      <c r="R44" s="51"/>
-      <c r="S44" s="51"/>
-      <c r="T44" s="51"/>
-      <c r="U44" s="51"/>
-      <c r="V44" s="51"/>
-      <c r="W44" s="51"/>
-      <c r="X44" s="51"/>
+      <c r="K44" s="38" t="str">
+        <v>#{?msa_crosstab_yotei_2}</v>
+      </c>
+      <c r="L44" s="39"/>
+      <c r="M44" s="38" t="str">
+        <v>#{?msa_crosstab_kanryou_2}</v>
+      </c>
+      <c r="N44" s="39"/>
+      <c r="O44" s="121" t="str">
+        <v>#{?inspector_name_a_2}：#{?inspector_a_result_2}、#{?inspector_name_b_2}：#{?inspector_b_result_2}、#{?inspector_name_c_2}：#{?inspector_c_result_2}</v>
+      </c>
+      <c r="P44" s="122"/>
+      <c r="Q44" s="122"/>
+      <c r="R44" s="122"/>
+      <c r="S44" s="122"/>
+      <c r="T44" s="122"/>
+      <c r="U44" s="122"/>
+      <c r="V44" s="122"/>
+      <c r="W44" s="122"/>
+      <c r="X44" s="123"/>
       <c r="Y44" s="141"/>
       <c r="Z44" s="142"/>
     </row>
@@ -6011,25 +6015,21 @@
       <c r="A45" s="70"/>
       <c r="B45" s="80"/>
       <c r="C45" s="77"/>
-      <c r="D45" s="37" t="s">
-        <v>36</v>
+      <c r="D45" s="36" t="s">
+        <v>177</v>
       </c>
       <c r="E45" s="37"/>
       <c r="F45" s="37"/>
       <c r="G45" s="37"/>
       <c r="H45" s="40" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="I45" s="40"/>
       <c r="J45" s="40"/>
-      <c r="K45" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="L45" s="39"/>
-      <c r="M45" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="N45" s="39"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="54"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="54"/>
       <c r="O45" s="50"/>
       <c r="P45" s="51"/>
       <c r="Q45" s="51"/>
@@ -6044,181 +6044,183 @@
       <c r="Z45" s="142"/>
     </row>
     <row r="46" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A46" s="71"/>
-      <c r="B46" s="81"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="256" t="s">
-        <v>223</v>
-      </c>
-      <c r="E46" s="257"/>
-      <c r="F46" s="257"/>
-      <c r="G46" s="258"/>
+      <c r="A46" s="70"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
       <c r="H46" s="40" t="s">
-        <v>226</v>
+        <v>27</v>
       </c>
       <c r="I46" s="40"/>
       <c r="J46" s="40"/>
-      <c r="K46" s="82" t="s">
+      <c r="K46" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="L46" s="39"/>
+      <c r="M46" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="N46" s="39"/>
+      <c r="O46" s="50"/>
+      <c r="P46" s="51"/>
+      <c r="Q46" s="51"/>
+      <c r="R46" s="51"/>
+      <c r="S46" s="51"/>
+      <c r="T46" s="51"/>
+      <c r="U46" s="51"/>
+      <c r="V46" s="51"/>
+      <c r="W46" s="51"/>
+      <c r="X46" s="51"/>
+      <c r="Y46" s="141"/>
+      <c r="Z46" s="142"/>
+    </row>
+    <row r="47" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A47" s="71"/>
+      <c r="B47" s="81"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="256" t="s">
+        <v>223</v>
+      </c>
+      <c r="E47" s="257"/>
+      <c r="F47" s="257"/>
+      <c r="G47" s="258"/>
+      <c r="H47" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="82" t="s">
         <v>224</v>
       </c>
-      <c r="L46" s="83"/>
-      <c r="M46" s="82" t="s">
+      <c r="L47" s="83"/>
+      <c r="M47" s="82" t="s">
         <v>225</v>
       </c>
-      <c r="N46" s="83"/>
-      <c r="O46" s="84" t="s">
+      <c r="N47" s="83"/>
+      <c r="O47" s="84" t="s">
         <v>227</v>
       </c>
-      <c r="P46" s="85"/>
-      <c r="Q46" s="85"/>
-      <c r="R46" s="85"/>
-      <c r="S46" s="85"/>
-      <c r="T46" s="85"/>
-      <c r="U46" s="85"/>
-      <c r="V46" s="85"/>
-      <c r="W46" s="85"/>
-      <c r="X46" s="86"/>
-      <c r="Y46" s="143"/>
-      <c r="Z46" s="144"/>
-    </row>
-    <row r="47" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A47" s="363" t="s">
+      <c r="P47" s="85"/>
+      <c r="Q47" s="85"/>
+      <c r="R47" s="85"/>
+      <c r="S47" s="85"/>
+      <c r="T47" s="85"/>
+      <c r="U47" s="85"/>
+      <c r="V47" s="85"/>
+      <c r="W47" s="85"/>
+      <c r="X47" s="86"/>
+      <c r="Y47" s="143"/>
+      <c r="Z47" s="144"/>
+    </row>
+    <row r="48" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A48" s="363" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="98" t="s">
+      <c r="B48" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="99"/>
-      <c r="D47" s="99"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="99"/>
-      <c r="G47" s="188"/>
-      <c r="H47" s="98" t="s">
+      <c r="C48" s="99"/>
+      <c r="D48" s="99"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="99"/>
+      <c r="G48" s="188"/>
+      <c r="H48" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="I47" s="99"/>
-      <c r="J47" s="99"/>
-      <c r="K47" s="99"/>
-      <c r="L47" s="99"/>
-      <c r="M47" s="99"/>
-      <c r="N47" s="99"/>
-      <c r="O47" s="99"/>
-      <c r="P47" s="99"/>
-      <c r="Q47" s="99"/>
-      <c r="R47" s="100"/>
-      <c r="S47" s="98" t="s">
+      <c r="I48" s="99"/>
+      <c r="J48" s="99"/>
+      <c r="K48" s="99"/>
+      <c r="L48" s="99"/>
+      <c r="M48" s="99"/>
+      <c r="N48" s="99"/>
+      <c r="O48" s="99"/>
+      <c r="P48" s="99"/>
+      <c r="Q48" s="99"/>
+      <c r="R48" s="100"/>
+      <c r="S48" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="T47" s="99"/>
-      <c r="U47" s="99"/>
-      <c r="V47" s="99"/>
-      <c r="W47" s="99"/>
-      <c r="X47" s="100"/>
-      <c r="Y47" s="98" t="s">
+      <c r="T48" s="99"/>
+      <c r="U48" s="99"/>
+      <c r="V48" s="99"/>
+      <c r="W48" s="99"/>
+      <c r="X48" s="100"/>
+      <c r="Y48" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="Z47" s="188"/>
-    </row>
-    <row r="48" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A48" s="364"/>
-      <c r="B48" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="C48" s="293" t="s">
-        <v>132</v>
-      </c>
-      <c r="D48" s="293"/>
-      <c r="E48" s="293"/>
-      <c r="F48" s="293"/>
-      <c r="G48" s="294"/>
-      <c r="H48" s="192" t="s">
-        <v>42</v>
-      </c>
-      <c r="I48" s="193"/>
-      <c r="J48" s="193"/>
-      <c r="K48" s="193"/>
-      <c r="L48" s="193"/>
-      <c r="M48" s="193"/>
-      <c r="N48" s="193"/>
-      <c r="O48" s="193"/>
-      <c r="P48" s="193"/>
-      <c r="Q48" s="193"/>
-      <c r="R48" s="194"/>
-      <c r="S48" s="195" t="s">
-        <v>43</v>
-      </c>
-      <c r="T48" s="196"/>
-      <c r="U48" s="196"/>
-      <c r="V48" s="196"/>
-      <c r="W48" s="196"/>
-      <c r="X48" s="197"/>
-      <c r="Y48" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z48" s="49"/>
+      <c r="Z48" s="188"/>
     </row>
     <row r="49" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A49" s="364"/>
       <c r="B49" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="C49" s="88" t="s">
-        <v>133</v>
-      </c>
-      <c r="D49" s="88"/>
-      <c r="E49" s="88"/>
-      <c r="F49" s="88"/>
-      <c r="G49" s="89"/>
-      <c r="H49" s="172" t="s">
-        <v>44</v>
-      </c>
-      <c r="I49" s="227"/>
-      <c r="J49" s="227"/>
-      <c r="K49" s="227"/>
-      <c r="L49" s="227"/>
-      <c r="M49" s="227"/>
-      <c r="N49" s="227"/>
-      <c r="O49" s="227"/>
-      <c r="P49" s="227"/>
-      <c r="Q49" s="227"/>
-      <c r="R49" s="228"/>
-      <c r="S49" s="175" t="s">
-        <v>45</v>
-      </c>
-      <c r="T49" s="176"/>
-      <c r="U49" s="176"/>
-      <c r="V49" s="176"/>
-      <c r="W49" s="176"/>
-      <c r="X49" s="269"/>
-      <c r="Y49" s="44"/>
-      <c r="Z49" s="45"/>
+      <c r="C49" s="293" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49" s="293"/>
+      <c r="E49" s="293"/>
+      <c r="F49" s="293"/>
+      <c r="G49" s="294"/>
+      <c r="H49" s="192" t="s">
+        <v>42</v>
+      </c>
+      <c r="I49" s="193"/>
+      <c r="J49" s="193"/>
+      <c r="K49" s="193"/>
+      <c r="L49" s="193"/>
+      <c r="M49" s="193"/>
+      <c r="N49" s="193"/>
+      <c r="O49" s="193"/>
+      <c r="P49" s="193"/>
+      <c r="Q49" s="193"/>
+      <c r="R49" s="194"/>
+      <c r="S49" s="195" t="s">
+        <v>43</v>
+      </c>
+      <c r="T49" s="196"/>
+      <c r="U49" s="196"/>
+      <c r="V49" s="196"/>
+      <c r="W49" s="196"/>
+      <c r="X49" s="197"/>
+      <c r="Y49" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z49" s="49"/>
     </row>
     <row r="50" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A50" s="364"/>
-      <c r="B50" s="33" t="s">
-        <v>229</v>
+      <c r="B50" s="32" t="s">
+        <v>240</v>
       </c>
       <c r="C50" s="88" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D50" s="88"/>
       <c r="E50" s="88"/>
       <c r="F50" s="88"/>
       <c r="G50" s="89"/>
       <c r="H50" s="172" t="s">
-        <v>46</v>
-      </c>
-      <c r="I50" s="246"/>
-      <c r="J50" s="246"/>
-      <c r="K50" s="246"/>
-      <c r="L50" s="246"/>
-      <c r="M50" s="246"/>
-      <c r="N50" s="246"/>
-      <c r="O50" s="246"/>
-      <c r="P50" s="246"/>
-      <c r="Q50" s="246"/>
-      <c r="R50" s="247"/>
-      <c r="S50" s="175"/>
+        <v>44</v>
+      </c>
+      <c r="I50" s="227"/>
+      <c r="J50" s="227"/>
+      <c r="K50" s="227"/>
+      <c r="L50" s="227"/>
+      <c r="M50" s="227"/>
+      <c r="N50" s="227"/>
+      <c r="O50" s="227"/>
+      <c r="P50" s="227"/>
+      <c r="Q50" s="227"/>
+      <c r="R50" s="228"/>
+      <c r="S50" s="175" t="s">
+        <v>45</v>
+      </c>
       <c r="T50" s="176"/>
       <c r="U50" s="176"/>
       <c r="V50" s="176"/>
@@ -6228,20 +6230,20 @@
       <c r="Z50" s="45"/>
     </row>
     <row r="51" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A51" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A51" s="364"/>
       <c r="B51" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C51" s="88" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="D51" s="88"/>
       <c r="E51" s="88"/>
       <c r="F51" s="88"/>
       <c r="G51" s="89"/>
-      <c r="H51" s="172"/>
+      <c r="H51" s="172" t="s">
+        <v>46</v>
+      </c>
       <c r="I51" s="246"/>
       <c r="J51" s="246"/>
       <c r="K51" s="246"/>
@@ -6252,24 +6254,24 @@
       <c r="P51" s="246"/>
       <c r="Q51" s="246"/>
       <c r="R51" s="247"/>
-      <c r="S51" s="270"/>
-      <c r="T51" s="271"/>
-      <c r="U51" s="271"/>
-      <c r="V51" s="271"/>
-      <c r="W51" s="271"/>
+      <c r="S51" s="175"/>
+      <c r="T51" s="176"/>
+      <c r="U51" s="176"/>
+      <c r="V51" s="176"/>
+      <c r="W51" s="176"/>
       <c r="X51" s="269"/>
       <c r="Y51" s="44"/>
       <c r="Z51" s="45"/>
     </row>
     <row r="52" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A52" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="B52" s="32" t="s">
-        <v>240</v>
+      <c r="A52" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>230</v>
       </c>
       <c r="C52" s="88" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="D52" s="88"/>
       <c r="E52" s="88"/>
@@ -6296,15 +6298,19 @@
       <c r="Z52" s="45"/>
     </row>
     <row r="53" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A53" s="71"/>
+      <c r="A53" s="70" t="s">
+        <v>34</v>
+      </c>
       <c r="B53" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="C53" s="90"/>
-      <c r="D53" s="90"/>
-      <c r="E53" s="90"/>
-      <c r="F53" s="90"/>
-      <c r="G53" s="91"/>
+      <c r="C53" s="88" t="s">
+        <v>188</v>
+      </c>
+      <c r="D53" s="88"/>
+      <c r="E53" s="88"/>
+      <c r="F53" s="88"/>
+      <c r="G53" s="89"/>
       <c r="H53" s="172"/>
       <c r="I53" s="246"/>
       <c r="J53" s="246"/>
@@ -6322,135 +6328,125 @@
       <c r="V53" s="271"/>
       <c r="W53" s="271"/>
       <c r="X53" s="269"/>
-      <c r="Y53" s="46"/>
-      <c r="Z53" s="47"/>
+      <c r="Y53" s="44"/>
+      <c r="Z53" s="45"/>
     </row>
     <row r="54" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A54" s="220" t="s">
+      <c r="A54" s="71"/>
+      <c r="B54" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C54" s="90"/>
+      <c r="D54" s="90"/>
+      <c r="E54" s="90"/>
+      <c r="F54" s="90"/>
+      <c r="G54" s="91"/>
+      <c r="H54" s="172"/>
+      <c r="I54" s="246"/>
+      <c r="J54" s="246"/>
+      <c r="K54" s="246"/>
+      <c r="L54" s="246"/>
+      <c r="M54" s="246"/>
+      <c r="N54" s="246"/>
+      <c r="O54" s="246"/>
+      <c r="P54" s="246"/>
+      <c r="Q54" s="246"/>
+      <c r="R54" s="247"/>
+      <c r="S54" s="270"/>
+      <c r="T54" s="271"/>
+      <c r="U54" s="271"/>
+      <c r="V54" s="271"/>
+      <c r="W54" s="271"/>
+      <c r="X54" s="269"/>
+      <c r="Y54" s="46"/>
+      <c r="Z54" s="47"/>
+    </row>
+    <row r="55" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A55" s="220" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="98" t="s">
+      <c r="B55" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="99"/>
-      <c r="D54" s="99"/>
-      <c r="E54" s="99"/>
-      <c r="F54" s="99"/>
-      <c r="G54" s="188"/>
-      <c r="H54" s="189" t="s">
+      <c r="C55" s="99"/>
+      <c r="D55" s="99"/>
+      <c r="E55" s="99"/>
+      <c r="F55" s="99"/>
+      <c r="G55" s="188"/>
+      <c r="H55" s="189" t="s">
         <v>49</v>
       </c>
-      <c r="I54" s="190"/>
-      <c r="J54" s="190"/>
-      <c r="K54" s="190"/>
-      <c r="L54" s="190"/>
-      <c r="M54" s="190"/>
-      <c r="N54" s="190"/>
-      <c r="O54" s="190"/>
-      <c r="P54" s="190"/>
-      <c r="Q54" s="190"/>
-      <c r="R54" s="191"/>
-      <c r="S54" s="250" t="s">
+      <c r="I55" s="190"/>
+      <c r="J55" s="190"/>
+      <c r="K55" s="190"/>
+      <c r="L55" s="190"/>
+      <c r="M55" s="190"/>
+      <c r="N55" s="190"/>
+      <c r="O55" s="190"/>
+      <c r="P55" s="190"/>
+      <c r="Q55" s="190"/>
+      <c r="R55" s="191"/>
+      <c r="S55" s="250" t="s">
         <v>50</v>
       </c>
-      <c r="T54" s="250"/>
-      <c r="U54" s="250"/>
-      <c r="V54" s="250"/>
-      <c r="W54" s="250"/>
-      <c r="X54" s="250"/>
-      <c r="Y54" s="98" t="s">
+      <c r="T55" s="250"/>
+      <c r="U55" s="250"/>
+      <c r="V55" s="250"/>
+      <c r="W55" s="250"/>
+      <c r="X55" s="250"/>
+      <c r="Y55" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="Z54" s="188"/>
-    </row>
-    <row r="55" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A55" s="221"/>
-      <c r="B55" s="275" t="s">
-        <v>20</v>
-      </c>
-      <c r="C55" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="D55" s="289" t="s">
-        <v>130</v>
-      </c>
-      <c r="E55" s="289"/>
-      <c r="F55" s="289"/>
-      <c r="G55" s="290"/>
-      <c r="H55" s="192" t="s">
-        <v>51</v>
-      </c>
-      <c r="I55" s="193"/>
-      <c r="J55" s="193"/>
-      <c r="K55" s="193"/>
-      <c r="L55" s="193"/>
-      <c r="M55" s="193"/>
-      <c r="N55" s="193"/>
-      <c r="O55" s="193"/>
-      <c r="P55" s="193"/>
-      <c r="Q55" s="193"/>
-      <c r="R55" s="194"/>
-      <c r="S55" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="T55" s="42"/>
-      <c r="U55" s="42"/>
-      <c r="V55" s="42"/>
-      <c r="W55" s="42"/>
-      <c r="X55" s="43"/>
-      <c r="Y55" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z55" s="49"/>
+      <c r="Z55" s="188"/>
     </row>
     <row r="56" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A56" s="221"/>
-      <c r="B56" s="276"/>
-      <c r="C56" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="D56" s="251" t="s">
-        <v>156</v>
-      </c>
-      <c r="E56" s="251" t="s">
-        <v>152</v>
-      </c>
-      <c r="F56" s="251" t="s">
-        <v>152</v>
-      </c>
-      <c r="G56" s="252" t="s">
-        <v>152</v>
-      </c>
-      <c r="H56" s="234" t="s">
-        <v>53</v>
-      </c>
-      <c r="I56" s="235"/>
-      <c r="J56" s="235"/>
-      <c r="K56" s="235"/>
-      <c r="L56" s="235"/>
-      <c r="M56" s="235"/>
-      <c r="N56" s="235"/>
-      <c r="O56" s="235"/>
-      <c r="P56" s="235"/>
-      <c r="Q56" s="235"/>
-      <c r="R56" s="236"/>
-      <c r="S56" s="237"/>
-      <c r="T56" s="238"/>
-      <c r="U56" s="238"/>
-      <c r="V56" s="238"/>
-      <c r="W56" s="238"/>
-      <c r="X56" s="239"/>
-      <c r="Y56" s="44"/>
-      <c r="Z56" s="45"/>
+      <c r="B56" s="275" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="D56" s="289" t="s">
+        <v>130</v>
+      </c>
+      <c r="E56" s="289"/>
+      <c r="F56" s="289"/>
+      <c r="G56" s="290"/>
+      <c r="H56" s="192" t="s">
+        <v>51</v>
+      </c>
+      <c r="I56" s="193"/>
+      <c r="J56" s="193"/>
+      <c r="K56" s="193"/>
+      <c r="L56" s="193"/>
+      <c r="M56" s="193"/>
+      <c r="N56" s="193"/>
+      <c r="O56" s="193"/>
+      <c r="P56" s="193"/>
+      <c r="Q56" s="193"/>
+      <c r="R56" s="194"/>
+      <c r="S56" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="T56" s="42"/>
+      <c r="U56" s="42"/>
+      <c r="V56" s="42"/>
+      <c r="W56" s="42"/>
+      <c r="X56" s="43"/>
+      <c r="Y56" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z56" s="49"/>
     </row>
     <row r="57" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A57" s="221"/>
       <c r="B57" s="276"/>
       <c r="C57" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D57" s="251" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E57" s="251" t="s">
         <v>152</v>
@@ -6462,7 +6458,7 @@
         <v>152</v>
       </c>
       <c r="H57" s="234" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I57" s="235"/>
       <c r="J57" s="235"/>
@@ -6485,29 +6481,35 @@
     </row>
     <row r="58" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A58" s="221"/>
-      <c r="B58" s="277"/>
+      <c r="B58" s="276"/>
       <c r="C58" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="D58" s="90" t="s">
-        <v>149</v>
-      </c>
-      <c r="E58" s="90"/>
-      <c r="F58" s="90"/>
-      <c r="G58" s="91"/>
-      <c r="H58" s="172" t="s">
-        <v>57</v>
-      </c>
-      <c r="I58" s="246"/>
-      <c r="J58" s="246"/>
-      <c r="K58" s="246"/>
-      <c r="L58" s="246"/>
-      <c r="M58" s="246"/>
-      <c r="N58" s="246"/>
-      <c r="O58" s="246"/>
-      <c r="P58" s="246"/>
-      <c r="Q58" s="246"/>
-      <c r="R58" s="247"/>
+        <v>232</v>
+      </c>
+      <c r="D58" s="251" t="s">
+        <v>157</v>
+      </c>
+      <c r="E58" s="251" t="s">
+        <v>152</v>
+      </c>
+      <c r="F58" s="251" t="s">
+        <v>152</v>
+      </c>
+      <c r="G58" s="252" t="s">
+        <v>152</v>
+      </c>
+      <c r="H58" s="234" t="s">
+        <v>55</v>
+      </c>
+      <c r="I58" s="235"/>
+      <c r="J58" s="235"/>
+      <c r="K58" s="235"/>
+      <c r="L58" s="235"/>
+      <c r="M58" s="235"/>
+      <c r="N58" s="235"/>
+      <c r="O58" s="235"/>
+      <c r="P58" s="235"/>
+      <c r="Q58" s="235"/>
+      <c r="R58" s="236"/>
       <c r="S58" s="237"/>
       <c r="T58" s="238"/>
       <c r="U58" s="238"/>
@@ -6518,70 +6520,68 @@
       <c r="Z58" s="45"/>
     </row>
     <row r="59" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A59" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="275" t="s">
-        <v>54</v>
-      </c>
+      <c r="A59" s="221"/>
+      <c r="B59" s="277"/>
       <c r="C59" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="D59" s="287" t="s">
-        <v>138</v>
-      </c>
-      <c r="E59" s="287"/>
-      <c r="F59" s="287"/>
-      <c r="G59" s="288"/>
+      <c r="D59" s="90" t="s">
+        <v>149</v>
+      </c>
+      <c r="E59" s="90"/>
+      <c r="F59" s="90"/>
+      <c r="G59" s="91"/>
       <c r="H59" s="172" t="s">
-        <v>159</v>
-      </c>
-      <c r="I59" s="173"/>
-      <c r="J59" s="173"/>
-      <c r="K59" s="173"/>
-      <c r="L59" s="173"/>
-      <c r="M59" s="173"/>
-      <c r="N59" s="173"/>
-      <c r="O59" s="173"/>
-      <c r="P59" s="173"/>
-      <c r="Q59" s="173"/>
-      <c r="R59" s="174"/>
-      <c r="S59" s="240"/>
-      <c r="T59" s="241"/>
-      <c r="U59" s="241"/>
-      <c r="V59" s="241"/>
-      <c r="W59" s="241"/>
-      <c r="X59" s="242"/>
+        <v>57</v>
+      </c>
+      <c r="I59" s="246"/>
+      <c r="J59" s="246"/>
+      <c r="K59" s="246"/>
+      <c r="L59" s="246"/>
+      <c r="M59" s="246"/>
+      <c r="N59" s="246"/>
+      <c r="O59" s="246"/>
+      <c r="P59" s="246"/>
+      <c r="Q59" s="246"/>
+      <c r="R59" s="247"/>
+      <c r="S59" s="237"/>
+      <c r="T59" s="238"/>
+      <c r="U59" s="238"/>
+      <c r="V59" s="238"/>
+      <c r="W59" s="238"/>
+      <c r="X59" s="239"/>
       <c r="Y59" s="44"/>
       <c r="Z59" s="45"/>
     </row>
     <row r="60" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A60" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="B60" s="276"/>
+      <c r="A60" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" s="275" t="s">
+        <v>54</v>
+      </c>
       <c r="C60" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="D60" s="88" t="s">
-        <v>123</v>
-      </c>
-      <c r="E60" s="88"/>
-      <c r="F60" s="88"/>
-      <c r="G60" s="89"/>
-      <c r="H60" s="209" t="s">
-        <v>58</v>
-      </c>
-      <c r="I60" s="248"/>
-      <c r="J60" s="248"/>
-      <c r="K60" s="248"/>
-      <c r="L60" s="248"/>
-      <c r="M60" s="248"/>
-      <c r="N60" s="248"/>
-      <c r="O60" s="248"/>
-      <c r="P60" s="248"/>
-      <c r="Q60" s="248"/>
-      <c r="R60" s="249"/>
+        <v>233</v>
+      </c>
+      <c r="D60" s="287" t="s">
+        <v>138</v>
+      </c>
+      <c r="E60" s="287"/>
+      <c r="F60" s="287"/>
+      <c r="G60" s="288"/>
+      <c r="H60" s="172" t="s">
+        <v>159</v>
+      </c>
+      <c r="I60" s="173"/>
+      <c r="J60" s="173"/>
+      <c r="K60" s="173"/>
+      <c r="L60" s="173"/>
+      <c r="M60" s="173"/>
+      <c r="N60" s="173"/>
+      <c r="O60" s="173"/>
+      <c r="P60" s="173"/>
+      <c r="Q60" s="173"/>
+      <c r="R60" s="174"/>
       <c r="S60" s="240"/>
       <c r="T60" s="241"/>
       <c r="U60" s="241"/>
@@ -6592,34 +6592,32 @@
       <c r="Z60" s="45"/>
     </row>
     <row r="61" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A61" s="70"/>
+      <c r="A61" s="70" t="s">
+        <v>34</v>
+      </c>
       <c r="B61" s="276"/>
       <c r="C61" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="D61" s="251" t="s">
-        <v>156</v>
-      </c>
-      <c r="E61" s="251" t="s">
-        <v>152</v>
-      </c>
-      <c r="F61" s="251" t="s">
-        <v>152</v>
-      </c>
-      <c r="G61" s="252" t="s">
-        <v>152</v>
-      </c>
-      <c r="H61" s="16"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="19"/>
-      <c r="P61" s="19"/>
-      <c r="Q61" s="19"/>
-      <c r="R61" s="20"/>
+        <v>234</v>
+      </c>
+      <c r="D61" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="E61" s="88"/>
+      <c r="F61" s="88"/>
+      <c r="G61" s="89"/>
+      <c r="H61" s="209" t="s">
+        <v>58</v>
+      </c>
+      <c r="I61" s="248"/>
+      <c r="J61" s="248"/>
+      <c r="K61" s="248"/>
+      <c r="L61" s="248"/>
+      <c r="M61" s="248"/>
+      <c r="N61" s="248"/>
+      <c r="O61" s="248"/>
+      <c r="P61" s="248"/>
+      <c r="Q61" s="248"/>
+      <c r="R61" s="249"/>
       <c r="S61" s="240"/>
       <c r="T61" s="241"/>
       <c r="U61" s="241"/>
@@ -6630,13 +6628,13 @@
       <c r="Z61" s="45"/>
     </row>
     <row r="62" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A62" s="71"/>
-      <c r="B62" s="277"/>
+      <c r="A62" s="70"/>
+      <c r="B62" s="276"/>
       <c r="C62" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D62" s="251" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E62" s="251" t="s">
         <v>152</v>
@@ -6647,149 +6645,151 @@
       <c r="G62" s="252" t="s">
         <v>152</v>
       </c>
-      <c r="H62" s="209"/>
-      <c r="I62" s="248"/>
-      <c r="J62" s="248"/>
-      <c r="K62" s="248"/>
-      <c r="L62" s="248"/>
-      <c r="M62" s="248"/>
-      <c r="N62" s="248"/>
-      <c r="O62" s="248"/>
-      <c r="P62" s="248"/>
-      <c r="Q62" s="248"/>
-      <c r="R62" s="249"/>
-      <c r="S62" s="243"/>
-      <c r="T62" s="244"/>
-      <c r="U62" s="244"/>
-      <c r="V62" s="244"/>
-      <c r="W62" s="244"/>
-      <c r="X62" s="245"/>
-      <c r="Y62" s="46"/>
-      <c r="Z62" s="47"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="19"/>
+      <c r="P62" s="19"/>
+      <c r="Q62" s="19"/>
+      <c r="R62" s="20"/>
+      <c r="S62" s="240"/>
+      <c r="T62" s="241"/>
+      <c r="U62" s="241"/>
+      <c r="V62" s="241"/>
+      <c r="W62" s="241"/>
+      <c r="X62" s="242"/>
+      <c r="Y62" s="44"/>
+      <c r="Z62" s="45"/>
     </row>
     <row r="63" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A63" s="220" t="s">
+      <c r="A63" s="71"/>
+      <c r="B63" s="277"/>
+      <c r="C63" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="D63" s="251" t="s">
+        <v>157</v>
+      </c>
+      <c r="E63" s="251" t="s">
+        <v>152</v>
+      </c>
+      <c r="F63" s="251" t="s">
+        <v>152</v>
+      </c>
+      <c r="G63" s="252" t="s">
+        <v>152</v>
+      </c>
+      <c r="H63" s="209"/>
+      <c r="I63" s="248"/>
+      <c r="J63" s="248"/>
+      <c r="K63" s="248"/>
+      <c r="L63" s="248"/>
+      <c r="M63" s="248"/>
+      <c r="N63" s="248"/>
+      <c r="O63" s="248"/>
+      <c r="P63" s="248"/>
+      <c r="Q63" s="248"/>
+      <c r="R63" s="249"/>
+      <c r="S63" s="243"/>
+      <c r="T63" s="244"/>
+      <c r="U63" s="244"/>
+      <c r="V63" s="244"/>
+      <c r="W63" s="244"/>
+      <c r="X63" s="245"/>
+      <c r="Y63" s="46"/>
+      <c r="Z63" s="47"/>
+    </row>
+    <row r="64" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A64" s="220" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="98" t="s">
+      <c r="B64" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="99"/>
-      <c r="D63" s="99"/>
-      <c r="E63" s="99"/>
-      <c r="F63" s="99"/>
-      <c r="G63" s="188"/>
-      <c r="H63" s="230" t="s">
+      <c r="C64" s="99"/>
+      <c r="D64" s="99"/>
+      <c r="E64" s="99"/>
+      <c r="F64" s="99"/>
+      <c r="G64" s="188"/>
+      <c r="H64" s="230" t="s">
         <v>61</v>
       </c>
-      <c r="I63" s="231"/>
-      <c r="J63" s="231"/>
-      <c r="K63" s="231"/>
-      <c r="L63" s="231"/>
-      <c r="M63" s="231"/>
-      <c r="N63" s="232"/>
-      <c r="O63" s="232"/>
-      <c r="P63" s="232"/>
-      <c r="Q63" s="232"/>
-      <c r="R63" s="233"/>
-      <c r="S63" s="98" t="s">
+      <c r="I64" s="231"/>
+      <c r="J64" s="231"/>
+      <c r="K64" s="231"/>
+      <c r="L64" s="231"/>
+      <c r="M64" s="231"/>
+      <c r="N64" s="232"/>
+      <c r="O64" s="232"/>
+      <c r="P64" s="232"/>
+      <c r="Q64" s="232"/>
+      <c r="R64" s="233"/>
+      <c r="S64" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="T63" s="99"/>
-      <c r="U63" s="99"/>
-      <c r="V63" s="99"/>
-      <c r="W63" s="99"/>
-      <c r="X63" s="100"/>
-      <c r="Y63" s="98" t="s">
+      <c r="T64" s="99"/>
+      <c r="U64" s="99"/>
+      <c r="V64" s="99"/>
+      <c r="W64" s="99"/>
+      <c r="X64" s="100"/>
+      <c r="Y64" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="Z63" s="188"/>
-    </row>
-    <row r="64" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A64" s="221"/>
-      <c r="B64" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="C64" s="278" t="s">
-        <v>128</v>
-      </c>
-      <c r="D64" s="278"/>
-      <c r="E64" s="279"/>
-      <c r="F64" s="279"/>
-      <c r="G64" s="280"/>
-      <c r="H64" s="253" t="s">
-        <v>63</v>
-      </c>
-      <c r="I64" s="222"/>
-      <c r="J64" s="222"/>
-      <c r="K64" s="222"/>
-      <c r="L64" s="222"/>
-      <c r="M64" s="222"/>
-      <c r="N64" s="222"/>
-      <c r="O64" s="222"/>
-      <c r="P64" s="222"/>
-      <c r="Q64" s="222"/>
-      <c r="R64" s="254"/>
-      <c r="S64" s="195" t="s">
-        <v>43</v>
-      </c>
-      <c r="T64" s="196"/>
-      <c r="U64" s="196"/>
-      <c r="V64" s="196"/>
-      <c r="W64" s="196"/>
-      <c r="X64" s="197"/>
-      <c r="Y64" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z64" s="49"/>
+      <c r="Z64" s="188"/>
     </row>
     <row r="65" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A65" s="221"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="281"/>
-      <c r="D65" s="281"/>
-      <c r="E65" s="281"/>
-      <c r="F65" s="281"/>
-      <c r="G65" s="282"/>
-      <c r="H65" s="255" t="s">
+      <c r="B65" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C65" s="278" t="s">
+        <v>128</v>
+      </c>
+      <c r="D65" s="278"/>
+      <c r="E65" s="279"/>
+      <c r="F65" s="279"/>
+      <c r="G65" s="280"/>
+      <c r="H65" s="253" t="s">
+        <v>63</v>
+      </c>
+      <c r="I65" s="222"/>
+      <c r="J65" s="222"/>
+      <c r="K65" s="222"/>
+      <c r="L65" s="222"/>
+      <c r="M65" s="222"/>
+      <c r="N65" s="222"/>
+      <c r="O65" s="222"/>
+      <c r="P65" s="222"/>
+      <c r="Q65" s="222"/>
+      <c r="R65" s="254"/>
+      <c r="S65" s="195" t="s">
+        <v>43</v>
+      </c>
+      <c r="T65" s="196"/>
+      <c r="U65" s="196"/>
+      <c r="V65" s="196"/>
+      <c r="W65" s="196"/>
+      <c r="X65" s="197"/>
+      <c r="Y65" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z65" s="49"/>
+    </row>
+    <row r="66" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A66" s="221"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="281"/>
+      <c r="D66" s="281"/>
+      <c r="E66" s="281"/>
+      <c r="F66" s="281"/>
+      <c r="G66" s="282"/>
+      <c r="H66" s="255" t="s">
         <v>64</v>
       </c>
-      <c r="I65" s="173"/>
-      <c r="J65" s="173"/>
-      <c r="K65" s="173"/>
-      <c r="L65" s="173"/>
-      <c r="M65" s="173"/>
-      <c r="N65" s="173"/>
-      <c r="O65" s="173"/>
-      <c r="P65" s="173"/>
-      <c r="Q65" s="173"/>
-      <c r="R65" s="174"/>
-      <c r="S65" s="202" t="s">
-        <v>65</v>
-      </c>
-      <c r="T65" s="203"/>
-      <c r="U65" s="203"/>
-      <c r="V65" s="203"/>
-      <c r="W65" s="203"/>
-      <c r="X65" s="204"/>
-      <c r="Y65" s="44"/>
-      <c r="Z65" s="45"/>
-    </row>
-    <row r="66" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A66" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B66" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="C66" s="283" t="s">
-        <v>130</v>
-      </c>
-      <c r="D66" s="283"/>
-      <c r="E66" s="283"/>
-      <c r="F66" s="283"/>
-      <c r="G66" s="284"/>
-      <c r="H66" s="255"/>
       <c r="I66" s="173"/>
       <c r="J66" s="173"/>
       <c r="K66" s="173"/>
@@ -6800,7 +6800,9 @@
       <c r="P66" s="173"/>
       <c r="Q66" s="173"/>
       <c r="R66" s="174"/>
-      <c r="S66" s="205"/>
+      <c r="S66" s="202" t="s">
+        <v>65</v>
+      </c>
       <c r="T66" s="203"/>
       <c r="U66" s="203"/>
       <c r="V66" s="203"/>
@@ -6810,15 +6812,19 @@
       <c r="Z66" s="45"/>
     </row>
     <row r="67" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A67" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B67" s="31"/>
-      <c r="C67" s="285"/>
-      <c r="D67" s="285"/>
-      <c r="E67" s="285"/>
-      <c r="F67" s="285"/>
-      <c r="G67" s="286"/>
+      <c r="A67" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C67" s="283" t="s">
+        <v>130</v>
+      </c>
+      <c r="D67" s="283"/>
+      <c r="E67" s="283"/>
+      <c r="F67" s="283"/>
+      <c r="G67" s="284"/>
       <c r="H67" s="255"/>
       <c r="I67" s="173"/>
       <c r="J67" s="173"/>
@@ -6836,148 +6842,142 @@
       <c r="V67" s="203"/>
       <c r="W67" s="203"/>
       <c r="X67" s="204"/>
-      <c r="Y67" s="46"/>
-      <c r="Z67" s="47"/>
+      <c r="Y67" s="44"/>
+      <c r="Z67" s="45"/>
     </row>
     <row r="68" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A68" s="220" t="s">
+      <c r="A68" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B68" s="31"/>
+      <c r="C68" s="285"/>
+      <c r="D68" s="285"/>
+      <c r="E68" s="285"/>
+      <c r="F68" s="285"/>
+      <c r="G68" s="286"/>
+      <c r="H68" s="255"/>
+      <c r="I68" s="173"/>
+      <c r="J68" s="173"/>
+      <c r="K68" s="173"/>
+      <c r="L68" s="173"/>
+      <c r="M68" s="173"/>
+      <c r="N68" s="173"/>
+      <c r="O68" s="173"/>
+      <c r="P68" s="173"/>
+      <c r="Q68" s="173"/>
+      <c r="R68" s="174"/>
+      <c r="S68" s="205"/>
+      <c r="T68" s="203"/>
+      <c r="U68" s="203"/>
+      <c r="V68" s="203"/>
+      <c r="W68" s="203"/>
+      <c r="X68" s="204"/>
+      <c r="Y68" s="46"/>
+      <c r="Z68" s="47"/>
+    </row>
+    <row r="69" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A69" s="220" t="s">
         <v>66</v>
       </c>
-      <c r="B68" s="98" t="s">
+      <c r="B69" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="99"/>
-      <c r="D68" s="99"/>
-      <c r="E68" s="99"/>
-      <c r="F68" s="99"/>
-      <c r="G68" s="188"/>
-      <c r="H68" s="189" t="s">
+      <c r="C69" s="99"/>
+      <c r="D69" s="99"/>
+      <c r="E69" s="99"/>
+      <c r="F69" s="99"/>
+      <c r="G69" s="188"/>
+      <c r="H69" s="189" t="s">
         <v>39</v>
       </c>
-      <c r="I68" s="190"/>
-      <c r="J68" s="190"/>
-      <c r="K68" s="190"/>
-      <c r="L68" s="190"/>
-      <c r="M68" s="212"/>
-      <c r="N68" s="213"/>
-      <c r="O68" s="213"/>
-      <c r="P68" s="213"/>
-      <c r="Q68" s="213"/>
-      <c r="R68" s="214"/>
-      <c r="S68" s="98" t="s">
+      <c r="I69" s="190"/>
+      <c r="J69" s="190"/>
+      <c r="K69" s="190"/>
+      <c r="L69" s="190"/>
+      <c r="M69" s="212"/>
+      <c r="N69" s="213"/>
+      <c r="O69" s="213"/>
+      <c r="P69" s="213"/>
+      <c r="Q69" s="213"/>
+      <c r="R69" s="214"/>
+      <c r="S69" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="T68" s="99"/>
-      <c r="U68" s="99"/>
-      <c r="V68" s="99"/>
-      <c r="W68" s="99"/>
-      <c r="X68" s="100"/>
-      <c r="Y68" s="98" t="s">
+      <c r="T69" s="99"/>
+      <c r="U69" s="99"/>
+      <c r="V69" s="99"/>
+      <c r="W69" s="99"/>
+      <c r="X69" s="100"/>
+      <c r="Y69" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="Z68" s="188"/>
-    </row>
-    <row r="69" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A69" s="221"/>
-      <c r="B69" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="C69" s="72" t="s">
-        <v>147</v>
-      </c>
-      <c r="D69" s="72"/>
-      <c r="E69" s="72"/>
-      <c r="F69" s="72"/>
-      <c r="G69" s="73"/>
-      <c r="H69" s="192" t="s">
-        <v>68</v>
-      </c>
-      <c r="I69" s="222"/>
-      <c r="J69" s="222"/>
-      <c r="K69" s="222"/>
-      <c r="L69" s="222"/>
-      <c r="M69" s="222"/>
-      <c r="N69" s="222"/>
-      <c r="O69" s="222"/>
-      <c r="P69" s="222"/>
-      <c r="Q69" s="222"/>
-      <c r="R69" s="222"/>
-      <c r="S69" s="195" t="s">
-        <v>43</v>
-      </c>
-      <c r="T69" s="196"/>
-      <c r="U69" s="196"/>
-      <c r="V69" s="196"/>
-      <c r="W69" s="196"/>
-      <c r="X69" s="197"/>
-      <c r="Y69" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z69" s="49"/>
+      <c r="Z69" s="188"/>
     </row>
     <row r="70" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A70" s="221"/>
-      <c r="B70" s="31"/>
-      <c r="C70" s="74"/>
-      <c r="D70" s="74"/>
-      <c r="E70" s="74"/>
-      <c r="F70" s="74"/>
-      <c r="G70" s="75"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="26"/>
-      <c r="L70" s="26"/>
-      <c r="M70" s="26"/>
-      <c r="N70" s="26"/>
-      <c r="O70" s="26"/>
-      <c r="P70" s="26"/>
-      <c r="Q70" s="26"/>
-      <c r="R70" s="26"/>
-      <c r="S70" s="24"/>
-      <c r="T70" s="27"/>
-      <c r="U70" s="27"/>
-      <c r="V70" s="27"/>
-      <c r="W70" s="27"/>
-      <c r="X70" s="28"/>
-      <c r="Y70" s="29"/>
-      <c r="Z70" s="30"/>
+      <c r="B70" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C70" s="72" t="s">
+        <v>147</v>
+      </c>
+      <c r="D70" s="72"/>
+      <c r="E70" s="72"/>
+      <c r="F70" s="72"/>
+      <c r="G70" s="73"/>
+      <c r="H70" s="192" t="s">
+        <v>68</v>
+      </c>
+      <c r="I70" s="222"/>
+      <c r="J70" s="222"/>
+      <c r="K70" s="222"/>
+      <c r="L70" s="222"/>
+      <c r="M70" s="222"/>
+      <c r="N70" s="222"/>
+      <c r="O70" s="222"/>
+      <c r="P70" s="222"/>
+      <c r="Q70" s="222"/>
+      <c r="R70" s="222"/>
+      <c r="S70" s="195" t="s">
+        <v>43</v>
+      </c>
+      <c r="T70" s="196"/>
+      <c r="U70" s="196"/>
+      <c r="V70" s="196"/>
+      <c r="W70" s="196"/>
+      <c r="X70" s="197"/>
+      <c r="Y70" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z70" s="49"/>
     </row>
     <row r="71" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A71" s="221"/>
-      <c r="B71" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="C71" s="223" t="s">
-        <v>125</v>
-      </c>
-      <c r="D71" s="223"/>
-      <c r="E71" s="223"/>
-      <c r="F71" s="223"/>
-      <c r="G71" s="224"/>
-      <c r="H71" s="172" t="s">
-        <v>69</v>
-      </c>
-      <c r="I71" s="173"/>
-      <c r="J71" s="173"/>
-      <c r="K71" s="173"/>
-      <c r="L71" s="173"/>
-      <c r="M71" s="173"/>
-      <c r="N71" s="173"/>
-      <c r="O71" s="173"/>
-      <c r="P71" s="173"/>
-      <c r="Q71" s="173"/>
-      <c r="R71" s="174"/>
-      <c r="S71" s="202" t="s">
-        <v>65</v>
-      </c>
-      <c r="T71" s="203"/>
-      <c r="U71" s="203"/>
-      <c r="V71" s="203"/>
-      <c r="W71" s="203"/>
-      <c r="X71" s="204"/>
-      <c r="Y71" s="44"/>
-      <c r="Z71" s="45"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="74"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="74"/>
+      <c r="F71" s="74"/>
+      <c r="G71" s="75"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="26"/>
+      <c r="L71" s="26"/>
+      <c r="M71" s="26"/>
+      <c r="N71" s="26"/>
+      <c r="O71" s="26"/>
+      <c r="P71" s="26"/>
+      <c r="Q71" s="26"/>
+      <c r="R71" s="26"/>
+      <c r="S71" s="24"/>
+      <c r="T71" s="27"/>
+      <c r="U71" s="27"/>
+      <c r="V71" s="27"/>
+      <c r="W71" s="27"/>
+      <c r="X71" s="28"/>
+      <c r="Y71" s="29"/>
+      <c r="Z71" s="30"/>
     </row>
     <row r="72" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A72" s="221"/>
@@ -6985,14 +6985,14 @@
         <v>240</v>
       </c>
       <c r="C72" s="223" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D72" s="223"/>
       <c r="E72" s="223"/>
       <c r="F72" s="223"/>
       <c r="G72" s="224"/>
       <c r="H72" s="172" t="s">
-        <v>158</v>
+        <v>69</v>
       </c>
       <c r="I72" s="173"/>
       <c r="J72" s="173"/>
@@ -7004,7 +7004,9 @@
       <c r="P72" s="173"/>
       <c r="Q72" s="173"/>
       <c r="R72" s="174"/>
-      <c r="S72" s="205"/>
+      <c r="S72" s="202" t="s">
+        <v>65</v>
+      </c>
       <c r="T72" s="203"/>
       <c r="U72" s="203"/>
       <c r="V72" s="203"/>
@@ -7015,29 +7017,29 @@
     </row>
     <row r="73" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A73" s="221"/>
-      <c r="B73" s="33" t="s">
-        <v>236</v>
+      <c r="B73" s="32" t="s">
+        <v>240</v>
       </c>
       <c r="C73" s="223" t="s">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="D73" s="223"/>
       <c r="E73" s="223"/>
       <c r="F73" s="223"/>
       <c r="G73" s="224"/>
       <c r="H73" s="172" t="s">
-        <v>70</v>
-      </c>
-      <c r="I73" s="225"/>
-      <c r="J73" s="225"/>
-      <c r="K73" s="225"/>
-      <c r="L73" s="225"/>
-      <c r="M73" s="225"/>
-      <c r="N73" s="225"/>
-      <c r="O73" s="225"/>
-      <c r="P73" s="225"/>
-      <c r="Q73" s="225"/>
-      <c r="R73" s="226"/>
+        <v>158</v>
+      </c>
+      <c r="I73" s="173"/>
+      <c r="J73" s="173"/>
+      <c r="K73" s="173"/>
+      <c r="L73" s="173"/>
+      <c r="M73" s="173"/>
+      <c r="N73" s="173"/>
+      <c r="O73" s="173"/>
+      <c r="P73" s="173"/>
+      <c r="Q73" s="173"/>
+      <c r="R73" s="174"/>
       <c r="S73" s="205"/>
       <c r="T73" s="203"/>
       <c r="U73" s="203"/>
@@ -7049,40 +7051,40 @@
     </row>
     <row r="74" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A74" s="221"/>
-      <c r="B74" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="C74" s="223"/>
+      <c r="B74" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="C74" s="223" t="s">
+        <v>192</v>
+      </c>
       <c r="D74" s="223"/>
       <c r="E74" s="223"/>
       <c r="F74" s="223"/>
       <c r="G74" s="224"/>
       <c r="H74" s="172" t="s">
-        <v>71</v>
-      </c>
-      <c r="I74" s="227"/>
-      <c r="J74" s="227"/>
-      <c r="K74" s="227"/>
-      <c r="L74" s="227"/>
-      <c r="M74" s="227"/>
-      <c r="N74" s="227"/>
-      <c r="O74" s="227"/>
-      <c r="P74" s="227"/>
-      <c r="Q74" s="227"/>
-      <c r="R74" s="228"/>
+        <v>70</v>
+      </c>
+      <c r="I74" s="225"/>
+      <c r="J74" s="225"/>
+      <c r="K74" s="225"/>
+      <c r="L74" s="225"/>
+      <c r="M74" s="225"/>
+      <c r="N74" s="225"/>
+      <c r="O74" s="225"/>
+      <c r="P74" s="225"/>
+      <c r="Q74" s="225"/>
+      <c r="R74" s="226"/>
       <c r="S74" s="205"/>
-      <c r="T74" s="229"/>
-      <c r="U74" s="229"/>
-      <c r="V74" s="229"/>
-      <c r="W74" s="229"/>
+      <c r="T74" s="203"/>
+      <c r="U74" s="203"/>
+      <c r="V74" s="203"/>
+      <c r="W74" s="203"/>
       <c r="X74" s="204"/>
       <c r="Y74" s="44"/>
       <c r="Z74" s="45"/>
     </row>
     <row r="75" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A75" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="A75" s="221"/>
       <c r="B75" s="32" t="s">
         <v>240</v>
       </c>
@@ -7092,18 +7094,18 @@
       <c r="F75" s="223"/>
       <c r="G75" s="224"/>
       <c r="H75" s="172" t="s">
-        <v>72</v>
-      </c>
-      <c r="I75" s="173"/>
-      <c r="J75" s="173"/>
-      <c r="K75" s="173"/>
-      <c r="L75" s="173"/>
-      <c r="M75" s="173"/>
-      <c r="N75" s="173"/>
-      <c r="O75" s="173"/>
-      <c r="P75" s="173"/>
-      <c r="Q75" s="173"/>
-      <c r="R75" s="174"/>
+        <v>71</v>
+      </c>
+      <c r="I75" s="227"/>
+      <c r="J75" s="227"/>
+      <c r="K75" s="227"/>
+      <c r="L75" s="227"/>
+      <c r="M75" s="227"/>
+      <c r="N75" s="227"/>
+      <c r="O75" s="227"/>
+      <c r="P75" s="227"/>
+      <c r="Q75" s="227"/>
+      <c r="R75" s="228"/>
       <c r="S75" s="205"/>
       <c r="T75" s="229"/>
       <c r="U75" s="229"/>
@@ -7114,8 +7116,8 @@
       <c r="Z75" s="45"/>
     </row>
     <row r="76" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A76" s="7" t="s">
-        <v>34</v>
+      <c r="A76" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="B76" s="32" t="s">
         <v>240</v>
@@ -7126,7 +7128,7 @@
       <c r="F76" s="223"/>
       <c r="G76" s="224"/>
       <c r="H76" s="172" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I76" s="173"/>
       <c r="J76" s="173"/>
@@ -7138,107 +7140,103 @@
       <c r="P76" s="173"/>
       <c r="Q76" s="173"/>
       <c r="R76" s="174"/>
-      <c r="S76" s="206"/>
-      <c r="T76" s="207"/>
-      <c r="U76" s="207"/>
-      <c r="V76" s="207"/>
-      <c r="W76" s="207"/>
-      <c r="X76" s="208"/>
-      <c r="Y76" s="46"/>
-      <c r="Z76" s="47"/>
+      <c r="S76" s="205"/>
+      <c r="T76" s="229"/>
+      <c r="U76" s="229"/>
+      <c r="V76" s="229"/>
+      <c r="W76" s="229"/>
+      <c r="X76" s="204"/>
+      <c r="Y76" s="44"/>
+      <c r="Z76" s="45"/>
     </row>
     <row r="77" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C77" s="223"/>
+      <c r="D77" s="223"/>
+      <c r="E77" s="223"/>
+      <c r="F77" s="223"/>
+      <c r="G77" s="224"/>
+      <c r="H77" s="172" t="s">
+        <v>73</v>
+      </c>
+      <c r="I77" s="173"/>
+      <c r="J77" s="173"/>
+      <c r="K77" s="173"/>
+      <c r="L77" s="173"/>
+      <c r="M77" s="173"/>
+      <c r="N77" s="173"/>
+      <c r="O77" s="173"/>
+      <c r="P77" s="173"/>
+      <c r="Q77" s="173"/>
+      <c r="R77" s="174"/>
+      <c r="S77" s="206"/>
+      <c r="T77" s="207"/>
+      <c r="U77" s="207"/>
+      <c r="V77" s="207"/>
+      <c r="W77" s="207"/>
+      <c r="X77" s="208"/>
+      <c r="Y77" s="46"/>
+      <c r="Z77" s="47"/>
+    </row>
+    <row r="78" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A78" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B77" s="98" t="s">
+      <c r="B78" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="C77" s="99"/>
-      <c r="D77" s="99"/>
-      <c r="E77" s="99"/>
-      <c r="F77" s="99"/>
-      <c r="G77" s="188"/>
-      <c r="H77" s="189" t="s">
+      <c r="C78" s="99"/>
+      <c r="D78" s="99"/>
+      <c r="E78" s="99"/>
+      <c r="F78" s="99"/>
+      <c r="G78" s="188"/>
+      <c r="H78" s="189" t="s">
         <v>76</v>
       </c>
-      <c r="I77" s="190"/>
-      <c r="J77" s="190"/>
-      <c r="K77" s="190"/>
-      <c r="L77" s="190"/>
-      <c r="M77" s="212"/>
-      <c r="N77" s="213"/>
-      <c r="O77" s="213"/>
-      <c r="P77" s="213"/>
-      <c r="Q77" s="213"/>
-      <c r="R77" s="214"/>
-      <c r="S77" s="98" t="s">
+      <c r="I78" s="190"/>
+      <c r="J78" s="190"/>
+      <c r="K78" s="190"/>
+      <c r="L78" s="190"/>
+      <c r="M78" s="212"/>
+      <c r="N78" s="213"/>
+      <c r="O78" s="213"/>
+      <c r="P78" s="213"/>
+      <c r="Q78" s="213"/>
+      <c r="R78" s="214"/>
+      <c r="S78" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="T77" s="99"/>
-      <c r="U77" s="99"/>
-      <c r="V77" s="99"/>
-      <c r="W77" s="99"/>
-      <c r="X77" s="100"/>
-      <c r="Y77" s="98" t="s">
+      <c r="T78" s="99"/>
+      <c r="U78" s="99"/>
+      <c r="V78" s="99"/>
+      <c r="W78" s="99"/>
+      <c r="X78" s="100"/>
+      <c r="Y78" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="Z77" s="188"/>
-    </row>
-    <row r="78" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A78" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="C78" s="215" t="s">
-        <v>127</v>
-      </c>
-      <c r="D78" s="215"/>
-      <c r="E78" s="215"/>
-      <c r="F78" s="215"/>
-      <c r="G78" s="216"/>
-      <c r="H78" s="172" t="s">
-        <v>79</v>
-      </c>
-      <c r="I78" s="173"/>
-      <c r="J78" s="173"/>
-      <c r="K78" s="173"/>
-      <c r="L78" s="173"/>
-      <c r="M78" s="173"/>
-      <c r="N78" s="173"/>
-      <c r="O78" s="173"/>
-      <c r="P78" s="173"/>
-      <c r="Q78" s="173"/>
-      <c r="R78" s="173"/>
-      <c r="S78" s="141" t="s">
-        <v>43</v>
-      </c>
-      <c r="T78" s="200"/>
-      <c r="U78" s="200"/>
-      <c r="V78" s="200"/>
-      <c r="W78" s="200"/>
-      <c r="X78" s="201"/>
-      <c r="Y78" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z78" s="49"/>
+      <c r="Z78" s="188"/>
     </row>
     <row r="79" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A79" s="6" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="B79" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="C79" s="217"/>
-      <c r="D79" s="217"/>
-      <c r="E79" s="217"/>
-      <c r="F79" s="217"/>
-      <c r="G79" s="67"/>
+      <c r="C79" s="215" t="s">
+        <v>127</v>
+      </c>
+      <c r="D79" s="215"/>
+      <c r="E79" s="215"/>
+      <c r="F79" s="215"/>
+      <c r="G79" s="216"/>
       <c r="H79" s="172" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I79" s="173"/>
       <c r="J79" s="173"/>
@@ -7249,21 +7247,23 @@
       <c r="O79" s="173"/>
       <c r="P79" s="173"/>
       <c r="Q79" s="173"/>
-      <c r="R79" s="174"/>
-      <c r="S79" s="202" t="s">
-        <v>65</v>
-      </c>
-      <c r="T79" s="203"/>
-      <c r="U79" s="203"/>
-      <c r="V79" s="203"/>
-      <c r="W79" s="203"/>
-      <c r="X79" s="204"/>
-      <c r="Y79" s="44"/>
-      <c r="Z79" s="45"/>
+      <c r="R79" s="173"/>
+      <c r="S79" s="141" t="s">
+        <v>43</v>
+      </c>
+      <c r="T79" s="200"/>
+      <c r="U79" s="200"/>
+      <c r="V79" s="200"/>
+      <c r="W79" s="200"/>
+      <c r="X79" s="201"/>
+      <c r="Y79" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z79" s="49"/>
     </row>
     <row r="80" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A80" s="70" t="s">
-        <v>34</v>
+      <c r="A80" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="B80" s="32" t="s">
         <v>240</v>
@@ -7274,7 +7274,7 @@
       <c r="F80" s="217"/>
       <c r="G80" s="67"/>
       <c r="H80" s="172" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I80" s="173"/>
       <c r="J80" s="173"/>
@@ -7286,7 +7286,9 @@
       <c r="P80" s="173"/>
       <c r="Q80" s="173"/>
       <c r="R80" s="174"/>
-      <c r="S80" s="205"/>
+      <c r="S80" s="202" t="s">
+        <v>65</v>
+      </c>
       <c r="T80" s="203"/>
       <c r="U80" s="203"/>
       <c r="V80" s="203"/>
@@ -7296,168 +7298,166 @@
       <c r="Z80" s="45"/>
     </row>
     <row r="81" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A81" s="71"/>
+      <c r="A81" s="70" t="s">
+        <v>34</v>
+      </c>
       <c r="B81" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="C81" s="218"/>
-      <c r="D81" s="218"/>
-      <c r="E81" s="218"/>
-      <c r="F81" s="218"/>
-      <c r="G81" s="219"/>
-      <c r="H81" s="209"/>
-      <c r="I81" s="210"/>
-      <c r="J81" s="210"/>
-      <c r="K81" s="210"/>
-      <c r="L81" s="210"/>
-      <c r="M81" s="210"/>
-      <c r="N81" s="210"/>
-      <c r="O81" s="210"/>
-      <c r="P81" s="210"/>
-      <c r="Q81" s="210"/>
-      <c r="R81" s="211"/>
-      <c r="S81" s="206"/>
-      <c r="T81" s="207"/>
-      <c r="U81" s="207"/>
-      <c r="V81" s="207"/>
-      <c r="W81" s="207"/>
-      <c r="X81" s="208"/>
-      <c r="Y81" s="46"/>
-      <c r="Z81" s="47"/>
+      <c r="C81" s="217"/>
+      <c r="D81" s="217"/>
+      <c r="E81" s="217"/>
+      <c r="F81" s="217"/>
+      <c r="G81" s="67"/>
+      <c r="H81" s="172" t="s">
+        <v>81</v>
+      </c>
+      <c r="I81" s="173"/>
+      <c r="J81" s="173"/>
+      <c r="K81" s="173"/>
+      <c r="L81" s="173"/>
+      <c r="M81" s="173"/>
+      <c r="N81" s="173"/>
+      <c r="O81" s="173"/>
+      <c r="P81" s="173"/>
+      <c r="Q81" s="173"/>
+      <c r="R81" s="174"/>
+      <c r="S81" s="205"/>
+      <c r="T81" s="203"/>
+      <c r="U81" s="203"/>
+      <c r="V81" s="203"/>
+      <c r="W81" s="203"/>
+      <c r="X81" s="204"/>
+      <c r="Y81" s="44"/>
+      <c r="Z81" s="45"/>
     </row>
     <row r="82" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="71"/>
+      <c r="B82" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C82" s="218"/>
+      <c r="D82" s="218"/>
+      <c r="E82" s="218"/>
+      <c r="F82" s="218"/>
+      <c r="G82" s="219"/>
+      <c r="H82" s="209"/>
+      <c r="I82" s="210"/>
+      <c r="J82" s="210"/>
+      <c r="K82" s="210"/>
+      <c r="L82" s="210"/>
+      <c r="M82" s="210"/>
+      <c r="N82" s="210"/>
+      <c r="O82" s="210"/>
+      <c r="P82" s="210"/>
+      <c r="Q82" s="210"/>
+      <c r="R82" s="211"/>
+      <c r="S82" s="206"/>
+      <c r="T82" s="207"/>
+      <c r="U82" s="207"/>
+      <c r="V82" s="207"/>
+      <c r="W82" s="207"/>
+      <c r="X82" s="208"/>
+      <c r="Y82" s="46"/>
+      <c r="Z82" s="47"/>
+    </row>
+    <row r="83" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A83" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="98" t="s">
+      <c r="B83" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="99"/>
-      <c r="D82" s="99"/>
-      <c r="E82" s="99"/>
-      <c r="F82" s="99"/>
-      <c r="G82" s="188"/>
-      <c r="H82" s="189" t="s">
+      <c r="C83" s="99"/>
+      <c r="D83" s="99"/>
+      <c r="E83" s="99"/>
+      <c r="F83" s="99"/>
+      <c r="G83" s="188"/>
+      <c r="H83" s="189" t="s">
         <v>39</v>
       </c>
-      <c r="I82" s="190"/>
-      <c r="J82" s="190"/>
-      <c r="K82" s="190"/>
-      <c r="L82" s="190"/>
-      <c r="M82" s="190"/>
-      <c r="N82" s="190"/>
-      <c r="O82" s="190"/>
-      <c r="P82" s="190"/>
-      <c r="Q82" s="190"/>
-      <c r="R82" s="191"/>
-      <c r="S82" s="98" t="s">
+      <c r="I83" s="190"/>
+      <c r="J83" s="190"/>
+      <c r="K83" s="190"/>
+      <c r="L83" s="190"/>
+      <c r="M83" s="190"/>
+      <c r="N83" s="190"/>
+      <c r="O83" s="190"/>
+      <c r="P83" s="190"/>
+      <c r="Q83" s="190"/>
+      <c r="R83" s="191"/>
+      <c r="S83" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="T82" s="99"/>
-      <c r="U82" s="99"/>
-      <c r="V82" s="99"/>
-      <c r="W82" s="99"/>
-      <c r="X82" s="100"/>
-      <c r="Y82" s="98" t="s">
+      <c r="T83" s="99"/>
+      <c r="U83" s="99"/>
+      <c r="V83" s="99"/>
+      <c r="W83" s="99"/>
+      <c r="X83" s="100"/>
+      <c r="Y83" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="Z82" s="188"/>
-    </row>
-    <row r="83" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A83" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B83" s="180" t="s">
-        <v>20</v>
-      </c>
-      <c r="C83" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="D83" s="198" t="s">
-        <v>120</v>
-      </c>
-      <c r="E83" s="198"/>
-      <c r="F83" s="198"/>
-      <c r="G83" s="199"/>
-      <c r="H83" s="192" t="s">
-        <v>85</v>
-      </c>
-      <c r="I83" s="193"/>
-      <c r="J83" s="193"/>
-      <c r="K83" s="193"/>
-      <c r="L83" s="193"/>
-      <c r="M83" s="193"/>
-      <c r="N83" s="193"/>
-      <c r="O83" s="193"/>
-      <c r="P83" s="193"/>
-      <c r="Q83" s="193"/>
-      <c r="R83" s="194"/>
-      <c r="S83" s="195" t="s">
-        <v>43</v>
-      </c>
-      <c r="T83" s="196"/>
-      <c r="U83" s="196"/>
-      <c r="V83" s="196"/>
-      <c r="W83" s="196"/>
-      <c r="X83" s="197"/>
-      <c r="Y83" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z83" s="49"/>
+      <c r="Z83" s="188"/>
     </row>
     <row r="84" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A84" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84" s="180"/>
-      <c r="C84" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="D84" s="181" t="s">
-        <v>139</v>
-      </c>
-      <c r="E84" s="181"/>
-      <c r="F84" s="181"/>
-      <c r="G84" s="182"/>
-      <c r="H84" s="172" t="s">
-        <v>87</v>
-      </c>
-      <c r="I84" s="173"/>
-      <c r="J84" s="173"/>
-      <c r="K84" s="173"/>
-      <c r="L84" s="173"/>
-      <c r="M84" s="173"/>
-      <c r="N84" s="173"/>
-      <c r="O84" s="173"/>
-      <c r="P84" s="173"/>
-      <c r="Q84" s="173"/>
-      <c r="R84" s="174"/>
-      <c r="S84" s="175" t="s">
-        <v>45</v>
-      </c>
-      <c r="T84" s="176"/>
-      <c r="U84" s="176"/>
-      <c r="V84" s="176"/>
-      <c r="W84" s="176"/>
-      <c r="X84" s="177"/>
-      <c r="Y84" s="44"/>
-      <c r="Z84" s="45"/>
+        <v>84</v>
+      </c>
+      <c r="B84" s="180" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="D84" s="198" t="s">
+        <v>120</v>
+      </c>
+      <c r="E84" s="198"/>
+      <c r="F84" s="198"/>
+      <c r="G84" s="199"/>
+      <c r="H84" s="192" t="s">
+        <v>85</v>
+      </c>
+      <c r="I84" s="193"/>
+      <c r="J84" s="193"/>
+      <c r="K84" s="193"/>
+      <c r="L84" s="193"/>
+      <c r="M84" s="193"/>
+      <c r="N84" s="193"/>
+      <c r="O84" s="193"/>
+      <c r="P84" s="193"/>
+      <c r="Q84" s="193"/>
+      <c r="R84" s="194"/>
+      <c r="S84" s="195" t="s">
+        <v>43</v>
+      </c>
+      <c r="T84" s="196"/>
+      <c r="U84" s="196"/>
+      <c r="V84" s="196"/>
+      <c r="W84" s="196"/>
+      <c r="X84" s="197"/>
+      <c r="Y84" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z84" s="49"/>
     </row>
     <row r="85" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A85" s="8" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="B85" s="180"/>
-      <c r="C85" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="D85" s="183" t="s">
-        <v>121</v>
-      </c>
-      <c r="E85" s="183"/>
-      <c r="F85" s="183"/>
-      <c r="G85" s="184"/>
-      <c r="H85" s="172"/>
+      <c r="C85" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="D85" s="181" t="s">
+        <v>139</v>
+      </c>
+      <c r="E85" s="181"/>
+      <c r="F85" s="181"/>
+      <c r="G85" s="182"/>
+      <c r="H85" s="172" t="s">
+        <v>87</v>
+      </c>
       <c r="I85" s="173"/>
       <c r="J85" s="173"/>
       <c r="K85" s="173"/>
@@ -7468,42 +7468,42 @@
       <c r="P85" s="173"/>
       <c r="Q85" s="173"/>
       <c r="R85" s="174"/>
-      <c r="S85" s="133"/>
-      <c r="T85" s="178"/>
-      <c r="U85" s="178"/>
-      <c r="V85" s="178"/>
-      <c r="W85" s="178"/>
+      <c r="S85" s="175" t="s">
+        <v>45</v>
+      </c>
+      <c r="T85" s="176"/>
+      <c r="U85" s="176"/>
+      <c r="V85" s="176"/>
+      <c r="W85" s="176"/>
       <c r="X85" s="177"/>
       <c r="Y85" s="44"/>
       <c r="Z85" s="45"/>
     </row>
     <row r="86" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A86" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="B86" s="179" t="s">
-        <v>54</v>
-      </c>
+      <c r="A86" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B86" s="180"/>
       <c r="C86" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="D86" s="181" t="s">
-        <v>122</v>
-      </c>
-      <c r="E86" s="181"/>
-      <c r="F86" s="181"/>
-      <c r="G86" s="182"/>
-      <c r="H86" s="167"/>
-      <c r="I86" s="167"/>
-      <c r="J86" s="167"/>
-      <c r="K86" s="167"/>
-      <c r="L86" s="167"/>
-      <c r="M86" s="167"/>
-      <c r="N86" s="167"/>
-      <c r="O86" s="167"/>
-      <c r="P86" s="167"/>
-      <c r="Q86" s="167"/>
-      <c r="R86" s="168"/>
+      <c r="D86" s="183" t="s">
+        <v>121</v>
+      </c>
+      <c r="E86" s="183"/>
+      <c r="F86" s="183"/>
+      <c r="G86" s="184"/>
+      <c r="H86" s="172"/>
+      <c r="I86" s="173"/>
+      <c r="J86" s="173"/>
+      <c r="K86" s="173"/>
+      <c r="L86" s="173"/>
+      <c r="M86" s="173"/>
+      <c r="N86" s="173"/>
+      <c r="O86" s="173"/>
+      <c r="P86" s="173"/>
+      <c r="Q86" s="173"/>
+      <c r="R86" s="174"/>
       <c r="S86" s="133"/>
       <c r="T86" s="178"/>
       <c r="U86" s="178"/>
@@ -7514,13 +7514,17 @@
       <c r="Z86" s="45"/>
     </row>
     <row r="87" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A87" s="70"/>
-      <c r="B87" s="180"/>
-      <c r="C87" s="33" t="s">
-        <v>233</v>
+      <c r="A87" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="B87" s="179" t="s">
+        <v>54</v>
+      </c>
+      <c r="C87" s="32" t="s">
+        <v>240</v>
       </c>
       <c r="D87" s="181" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E87" s="181"/>
       <c r="F87" s="181"/>
@@ -7548,26 +7552,26 @@
     <row r="88" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A88" s="70"/>
       <c r="B88" s="180"/>
-      <c r="C88" s="32" t="s">
-        <v>240</v>
+      <c r="C88" s="33" t="s">
+        <v>233</v>
       </c>
       <c r="D88" s="181" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="E88" s="181"/>
       <c r="F88" s="181"/>
       <c r="G88" s="182"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="17"/>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
-      <c r="R88" s="18"/>
+      <c r="H88" s="167"/>
+      <c r="I88" s="167"/>
+      <c r="J88" s="167"/>
+      <c r="K88" s="167"/>
+      <c r="L88" s="167"/>
+      <c r="M88" s="167"/>
+      <c r="N88" s="167"/>
+      <c r="O88" s="167"/>
+      <c r="P88" s="167"/>
+      <c r="Q88" s="167"/>
+      <c r="R88" s="168"/>
       <c r="S88" s="133"/>
       <c r="T88" s="178"/>
       <c r="U88" s="178"/>
@@ -7584,7 +7588,7 @@
         <v>240</v>
       </c>
       <c r="D89" s="181" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E89" s="181"/>
       <c r="F89" s="181"/>
@@ -7616,7 +7620,7 @@
         <v>240</v>
       </c>
       <c r="D90" s="181" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E90" s="181"/>
       <c r="F90" s="181"/>
@@ -7648,7 +7652,7 @@
         <v>240</v>
       </c>
       <c r="D91" s="181" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E91" s="181"/>
       <c r="F91" s="181"/>
@@ -7680,7 +7684,7 @@
         <v>240</v>
       </c>
       <c r="D92" s="181" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="E92" s="181"/>
       <c r="F92" s="181"/>
@@ -7712,7 +7716,7 @@
         <v>240</v>
       </c>
       <c r="D93" s="181" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E93" s="181"/>
       <c r="F93" s="181"/>
@@ -7740,26 +7744,26 @@
     <row r="94" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A94" s="70"/>
       <c r="B94" s="180"/>
-      <c r="C94" s="31" t="s">
-        <v>234</v>
+      <c r="C94" s="32" t="s">
+        <v>240</v>
       </c>
       <c r="D94" s="181" t="s">
-        <v>123</v>
+        <v>199</v>
       </c>
       <c r="E94" s="181"/>
       <c r="F94" s="181"/>
       <c r="G94" s="182"/>
-      <c r="H94" s="167"/>
-      <c r="I94" s="167"/>
-      <c r="J94" s="167"/>
-      <c r="K94" s="167"/>
-      <c r="L94" s="167"/>
-      <c r="M94" s="167"/>
-      <c r="N94" s="167"/>
-      <c r="O94" s="167"/>
-      <c r="P94" s="167"/>
-      <c r="Q94" s="167"/>
-      <c r="R94" s="168"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
+      <c r="R94" s="18"/>
       <c r="S94" s="133"/>
       <c r="T94" s="178"/>
       <c r="U94" s="178"/>
@@ -7773,25 +7777,25 @@
       <c r="A95" s="70"/>
       <c r="B95" s="180"/>
       <c r="C95" s="31" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D95" s="181" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="E95" s="181"/>
       <c r="F95" s="181"/>
       <c r="G95" s="182"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="11"/>
-      <c r="J95" s="11"/>
-      <c r="K95" s="11"/>
-      <c r="L95" s="11"/>
-      <c r="M95" s="11"/>
-      <c r="N95" s="11"/>
-      <c r="O95" s="11"/>
-      <c r="P95" s="11"/>
-      <c r="Q95" s="11"/>
-      <c r="R95" s="12"/>
+      <c r="H95" s="167"/>
+      <c r="I95" s="167"/>
+      <c r="J95" s="167"/>
+      <c r="K95" s="167"/>
+      <c r="L95" s="167"/>
+      <c r="M95" s="167"/>
+      <c r="N95" s="167"/>
+      <c r="O95" s="167"/>
+      <c r="P95" s="167"/>
+      <c r="Q95" s="167"/>
+      <c r="R95" s="168"/>
       <c r="S95" s="133"/>
       <c r="T95" s="178"/>
       <c r="U95" s="178"/>
@@ -7805,25 +7809,25 @@
       <c r="A96" s="70"/>
       <c r="B96" s="180"/>
       <c r="C96" s="31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D96" s="181" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E96" s="181"/>
       <c r="F96" s="181"/>
       <c r="G96" s="182"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="17"/>
-      <c r="J96" s="17"/>
-      <c r="K96" s="17"/>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
-      <c r="R96" s="18"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="11"/>
+      <c r="N96" s="11"/>
+      <c r="O96" s="11"/>
+      <c r="P96" s="11"/>
+      <c r="Q96" s="11"/>
+      <c r="R96" s="12"/>
       <c r="S96" s="133"/>
       <c r="T96" s="178"/>
       <c r="U96" s="178"/>
@@ -7834,100 +7838,102 @@
       <c r="Z96" s="45"/>
     </row>
     <row r="97" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A97" s="71"/>
+      <c r="A97" s="70"/>
       <c r="B97" s="180"/>
       <c r="C97" s="31" t="s">
-        <v>239</v>
-      </c>
-      <c r="D97" s="183" t="s">
-        <v>124</v>
-      </c>
-      <c r="E97" s="183"/>
-      <c r="F97" s="183"/>
-      <c r="G97" s="184"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
-      <c r="J97" s="11"/>
-      <c r="K97" s="11"/>
-      <c r="L97" s="11"/>
-      <c r="M97" s="11"/>
-      <c r="N97" s="11"/>
-      <c r="O97" s="11"/>
-      <c r="P97" s="11"/>
-      <c r="Q97" s="11"/>
-      <c r="R97" s="12"/>
+        <v>238</v>
+      </c>
+      <c r="D97" s="181" t="s">
+        <v>175</v>
+      </c>
+      <c r="E97" s="181"/>
+      <c r="F97" s="181"/>
+      <c r="G97" s="182"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
+      <c r="R97" s="18"/>
       <c r="S97" s="133"/>
       <c r="T97" s="178"/>
       <c r="U97" s="178"/>
       <c r="V97" s="178"/>
       <c r="W97" s="178"/>
       <c r="X97" s="177"/>
-      <c r="Y97" s="46"/>
-      <c r="Z97" s="47"/>
+      <c r="Y97" s="44"/>
+      <c r="Z97" s="45"/>
     </row>
     <row r="98" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A98" s="169" t="s">
+      <c r="A98" s="71"/>
+      <c r="B98" s="180"/>
+      <c r="C98" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="D98" s="183" t="s">
+        <v>124</v>
+      </c>
+      <c r="E98" s="183"/>
+      <c r="F98" s="183"/>
+      <c r="G98" s="184"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="11"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
+      <c r="N98" s="11"/>
+      <c r="O98" s="11"/>
+      <c r="P98" s="11"/>
+      <c r="Q98" s="11"/>
+      <c r="R98" s="12"/>
+      <c r="S98" s="133"/>
+      <c r="T98" s="178"/>
+      <c r="U98" s="178"/>
+      <c r="V98" s="178"/>
+      <c r="W98" s="178"/>
+      <c r="X98" s="177"/>
+      <c r="Y98" s="46"/>
+      <c r="Z98" s="47"/>
+    </row>
+    <row r="99" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A99" s="169" t="s">
         <v>88</v>
       </c>
-      <c r="B98" s="170"/>
-      <c r="C98" s="170"/>
-      <c r="D98" s="170"/>
-      <c r="E98" s="170"/>
-      <c r="F98" s="170"/>
-      <c r="G98" s="170"/>
-      <c r="H98" s="170"/>
-      <c r="I98" s="170"/>
-      <c r="J98" s="170"/>
-      <c r="K98" s="170"/>
-      <c r="L98" s="170"/>
-      <c r="M98" s="170"/>
-      <c r="N98" s="170"/>
-      <c r="O98" s="170"/>
-      <c r="P98" s="170"/>
-      <c r="Q98" s="170"/>
-      <c r="R98" s="170"/>
-      <c r="S98" s="170"/>
-      <c r="T98" s="170"/>
-      <c r="U98" s="170"/>
-      <c r="V98" s="170"/>
-      <c r="W98" s="170"/>
-      <c r="X98" s="170"/>
-      <c r="Y98" s="170"/>
-      <c r="Z98" s="171"/>
-    </row>
-    <row r="99" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A99" s="161" t="s">
-        <v>89</v>
-      </c>
-      <c r="B99" s="162"/>
-      <c r="C99" s="162"/>
-      <c r="D99" s="162"/>
-      <c r="E99" s="162"/>
-      <c r="F99" s="162"/>
-      <c r="G99" s="162"/>
-      <c r="H99" s="162"/>
-      <c r="I99" s="162"/>
-      <c r="J99" s="162"/>
-      <c r="K99" s="162"/>
-      <c r="L99" s="162"/>
-      <c r="M99" s="162"/>
-      <c r="N99" s="162"/>
-      <c r="O99" s="162"/>
-      <c r="P99" s="162"/>
-      <c r="Q99" s="162"/>
-      <c r="R99" s="162"/>
-      <c r="S99" s="162"/>
-      <c r="T99" s="162"/>
-      <c r="U99" s="162"/>
-      <c r="V99" s="162"/>
-      <c r="W99" s="162"/>
-      <c r="X99" s="162"/>
-      <c r="Y99" s="162"/>
-      <c r="Z99" s="163"/>
+      <c r="B99" s="170"/>
+      <c r="C99" s="170"/>
+      <c r="D99" s="170"/>
+      <c r="E99" s="170"/>
+      <c r="F99" s="170"/>
+      <c r="G99" s="170"/>
+      <c r="H99" s="170"/>
+      <c r="I99" s="170"/>
+      <c r="J99" s="170"/>
+      <c r="K99" s="170"/>
+      <c r="L99" s="170"/>
+      <c r="M99" s="170"/>
+      <c r="N99" s="170"/>
+      <c r="O99" s="170"/>
+      <c r="P99" s="170"/>
+      <c r="Q99" s="170"/>
+      <c r="R99" s="170"/>
+      <c r="S99" s="170"/>
+      <c r="T99" s="170"/>
+      <c r="U99" s="170"/>
+      <c r="V99" s="170"/>
+      <c r="W99" s="170"/>
+      <c r="X99" s="170"/>
+      <c r="Y99" s="170"/>
+      <c r="Z99" s="171"/>
     </row>
     <row r="100" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
       <c r="A100" s="161" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B100" s="162"/>
       <c r="C100" s="162"/>
@@ -7956,73 +7962,103 @@
       <c r="Z100" s="163"/>
     </row>
     <row r="101" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A101" s="185" t="s">
+      <c r="A101" s="161" t="s">
+        <v>90</v>
+      </c>
+      <c r="B101" s="162"/>
+      <c r="C101" s="162"/>
+      <c r="D101" s="162"/>
+      <c r="E101" s="162"/>
+      <c r="F101" s="162"/>
+      <c r="G101" s="162"/>
+      <c r="H101" s="162"/>
+      <c r="I101" s="162"/>
+      <c r="J101" s="162"/>
+      <c r="K101" s="162"/>
+      <c r="L101" s="162"/>
+      <c r="M101" s="162"/>
+      <c r="N101" s="162"/>
+      <c r="O101" s="162"/>
+      <c r="P101" s="162"/>
+      <c r="Q101" s="162"/>
+      <c r="R101" s="162"/>
+      <c r="S101" s="162"/>
+      <c r="T101" s="162"/>
+      <c r="U101" s="162"/>
+      <c r="V101" s="162"/>
+      <c r="W101" s="162"/>
+      <c r="X101" s="162"/>
+      <c r="Y101" s="162"/>
+      <c r="Z101" s="163"/>
+    </row>
+    <row r="102" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A102" s="185" t="s">
         <v>91</v>
       </c>
-      <c r="B101" s="186"/>
-      <c r="C101" s="186"/>
-      <c r="D101" s="186"/>
-      <c r="E101" s="186"/>
-      <c r="F101" s="186"/>
-      <c r="G101" s="186"/>
-      <c r="H101" s="186"/>
-      <c r="I101" s="186"/>
-      <c r="J101" s="186"/>
-      <c r="K101" s="186"/>
-      <c r="L101" s="186"/>
-      <c r="M101" s="186"/>
-      <c r="N101" s="186"/>
-      <c r="O101" s="186"/>
-      <c r="P101" s="186"/>
-      <c r="Q101" s="186"/>
-      <c r="R101" s="186"/>
-      <c r="S101" s="186"/>
-      <c r="T101" s="186"/>
-      <c r="U101" s="186"/>
-      <c r="V101" s="186"/>
-      <c r="W101" s="186"/>
-      <c r="X101" s="186"/>
-      <c r="Y101" s="186"/>
-      <c r="Z101" s="187"/>
-    </row>
-    <row r="102" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
-      <c r="A102" s="164" t="s">
+      <c r="B102" s="186"/>
+      <c r="C102" s="186"/>
+      <c r="D102" s="186"/>
+      <c r="E102" s="186"/>
+      <c r="F102" s="186"/>
+      <c r="G102" s="186"/>
+      <c r="H102" s="186"/>
+      <c r="I102" s="186"/>
+      <c r="J102" s="186"/>
+      <c r="K102" s="186"/>
+      <c r="L102" s="186"/>
+      <c r="M102" s="186"/>
+      <c r="N102" s="186"/>
+      <c r="O102" s="186"/>
+      <c r="P102" s="186"/>
+      <c r="Q102" s="186"/>
+      <c r="R102" s="186"/>
+      <c r="S102" s="186"/>
+      <c r="T102" s="186"/>
+      <c r="U102" s="186"/>
+      <c r="V102" s="186"/>
+      <c r="W102" s="186"/>
+      <c r="X102" s="186"/>
+      <c r="Y102" s="186"/>
+      <c r="Z102" s="187"/>
+    </row>
+    <row r="103" spans="1:26" customFormat="false" ht="14.25" customHeight="1">
+      <c r="A103" s="164" t="s">
         <v>173</v>
       </c>
-      <c r="B102" s="165"/>
-      <c r="C102" s="165"/>
-      <c r="D102" s="165"/>
-      <c r="E102" s="165"/>
-      <c r="F102" s="165"/>
-      <c r="G102" s="165"/>
-      <c r="H102" s="165"/>
-      <c r="I102" s="165"/>
-      <c r="J102" s="165"/>
-      <c r="K102" s="165"/>
-      <c r="L102" s="165"/>
-      <c r="M102" s="165"/>
-      <c r="N102" s="165"/>
-      <c r="O102" s="165"/>
-      <c r="P102" s="165"/>
-      <c r="Q102" s="165"/>
-      <c r="R102" s="165"/>
-      <c r="S102" s="165"/>
-      <c r="T102" s="165"/>
-      <c r="U102" s="165"/>
-      <c r="V102" s="165"/>
-      <c r="W102" s="165"/>
-      <c r="X102" s="165"/>
-      <c r="Y102" s="165"/>
-      <c r="Z102" s="166"/>
+      <c r="B103" s="165"/>
+      <c r="C103" s="165"/>
+      <c r="D103" s="165"/>
+      <c r="E103" s="165"/>
+      <c r="F103" s="165"/>
+      <c r="G103" s="165"/>
+      <c r="H103" s="165"/>
+      <c r="I103" s="165"/>
+      <c r="J103" s="165"/>
+      <c r="K103" s="165"/>
+      <c r="L103" s="165"/>
+      <c r="M103" s="165"/>
+      <c r="N103" s="165"/>
+      <c r="O103" s="165"/>
+      <c r="P103" s="165"/>
+      <c r="Q103" s="165"/>
+      <c r="R103" s="165"/>
+      <c r="S103" s="165"/>
+      <c r="T103" s="165"/>
+      <c r="U103" s="165"/>
+      <c r="V103" s="165"/>
+      <c r="W103" s="165"/>
+      <c r="X103" s="165"/>
+      <c r="Y103" s="165"/>
+      <c r="Z103" s="166"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A52:A53"/>
+  <mergeCells count="368">
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A53:A54"/>
     <mergeCell ref="A7:A31"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B56:B59"/>
     <mergeCell ref="D26:G26"/>
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="E8:F8"/>
@@ -8031,12 +8067,12 @@
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="H42:J42"/>
     <mergeCell ref="H11:J12"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="D45:G45"/>
     <mergeCell ref="D41:G41"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H48:R48"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H49:R49"/>
     <mergeCell ref="D16:G16"/>
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="D35:G35"/>
@@ -8099,132 +8135,132 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="D15:G15"/>
-    <mergeCell ref="S65:X67"/>
-    <mergeCell ref="H66:R66"/>
+    <mergeCell ref="S66:X68"/>
     <mergeCell ref="H67:R67"/>
-    <mergeCell ref="C64:G65"/>
-    <mergeCell ref="C66:G67"/>
+    <mergeCell ref="H68:R68"/>
+    <mergeCell ref="C65:G66"/>
+    <mergeCell ref="C67:G68"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="D62:G62"/>
     <mergeCell ref="D58:G58"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="D57:G57"/>
     <mergeCell ref="D36:G36"/>
     <mergeCell ref="C11:G12"/>
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="M13:N14"/>
-    <mergeCell ref="C48:G48"/>
     <mergeCell ref="C49:G49"/>
     <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C51:G51"/>
     <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D45:G45"/>
     <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D47:G47"/>
     <mergeCell ref="D19:E21"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D37:G39"/>
-    <mergeCell ref="Y64:Z64"/>
-    <mergeCell ref="S48:X48"/>
-    <mergeCell ref="H49:R49"/>
-    <mergeCell ref="S49:X53"/>
+    <mergeCell ref="Y65:Z65"/>
+    <mergeCell ref="S49:X49"/>
     <mergeCell ref="H50:R50"/>
+    <mergeCell ref="S50:X54"/>
+    <mergeCell ref="H51:R51"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="H48:R48"/>
+    <mergeCell ref="H52:R52"/>
+    <mergeCell ref="H53:R53"/>
+    <mergeCell ref="H43:J43"/>
     <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="H47:R47"/>
-    <mergeCell ref="H51:R51"/>
-    <mergeCell ref="H52:R52"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
     <mergeCell ref="O41:X41"/>
     <mergeCell ref="K31:L31"/>
-    <mergeCell ref="Y47:Z47"/>
-    <mergeCell ref="H53:R53"/>
+    <mergeCell ref="Y48:Z48"/>
+    <mergeCell ref="H54:R54"/>
     <mergeCell ref="O37:S37"/>
     <mergeCell ref="M40:N40"/>
     <mergeCell ref="O40:X40"/>
-    <mergeCell ref="Y65:Z67"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="H63:R63"/>
-    <mergeCell ref="S63:X63"/>
-    <mergeCell ref="H56:R56"/>
-    <mergeCell ref="S56:X62"/>
-    <mergeCell ref="H58:R58"/>
+    <mergeCell ref="Y66:Z68"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="H64:R64"/>
+    <mergeCell ref="S64:X64"/>
+    <mergeCell ref="H57:R57"/>
+    <mergeCell ref="S57:X63"/>
     <mergeCell ref="H59:R59"/>
     <mergeCell ref="H60:R60"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="H54:R54"/>
-    <mergeCell ref="S54:X54"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="Y54:Z54"/>
+    <mergeCell ref="H61:R61"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="B55:G55"/>
     <mergeCell ref="H55:R55"/>
-    <mergeCell ref="Y63:Z63"/>
-    <mergeCell ref="H64:R64"/>
-    <mergeCell ref="S64:X64"/>
+    <mergeCell ref="S55:X55"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="Y55:Z55"/>
+    <mergeCell ref="H56:R56"/>
+    <mergeCell ref="Y64:Z64"/>
     <mergeCell ref="H65:R65"/>
-    <mergeCell ref="H62:R62"/>
-    <mergeCell ref="H57:R57"/>
-    <mergeCell ref="Y71:Z76"/>
-    <mergeCell ref="A68:A74"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="H68:R68"/>
-    <mergeCell ref="S68:X68"/>
-    <mergeCell ref="Y68:Z68"/>
+    <mergeCell ref="S65:X65"/>
+    <mergeCell ref="H66:R66"/>
+    <mergeCell ref="H63:R63"/>
+    <mergeCell ref="H58:R58"/>
+    <mergeCell ref="Y72:Z77"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:G69"/>
     <mergeCell ref="H69:R69"/>
     <mergeCell ref="S69:X69"/>
-    <mergeCell ref="H76:R76"/>
     <mergeCell ref="Y69:Z69"/>
-    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H70:R70"/>
+    <mergeCell ref="S70:X70"/>
+    <mergeCell ref="H77:R77"/>
+    <mergeCell ref="Y70:Z70"/>
     <mergeCell ref="C75:G75"/>
     <mergeCell ref="C76:G76"/>
-    <mergeCell ref="H71:R71"/>
+    <mergeCell ref="C77:G77"/>
     <mergeCell ref="H72:R72"/>
     <mergeCell ref="H73:R73"/>
     <mergeCell ref="H74:R74"/>
     <mergeCell ref="H75:R75"/>
-    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H76:R76"/>
     <mergeCell ref="C72:G72"/>
     <mergeCell ref="C73:G73"/>
-    <mergeCell ref="S71:X76"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="S72:X77"/>
+    <mergeCell ref="S79:X79"/>
+    <mergeCell ref="H80:R80"/>
+    <mergeCell ref="S80:X82"/>
+    <mergeCell ref="H81:R81"/>
+    <mergeCell ref="H82:R82"/>
+    <mergeCell ref="Y79:Z79"/>
+    <mergeCell ref="Y80:Z82"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="H78:R78"/>
     <mergeCell ref="S78:X78"/>
-    <mergeCell ref="H79:R79"/>
-    <mergeCell ref="S79:X81"/>
-    <mergeCell ref="H80:R80"/>
-    <mergeCell ref="H81:R81"/>
     <mergeCell ref="Y78:Z78"/>
-    <mergeCell ref="Y79:Z81"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="H77:R77"/>
-    <mergeCell ref="S77:X77"/>
-    <mergeCell ref="Y77:Z77"/>
-    <mergeCell ref="C78:G78"/>
     <mergeCell ref="C79:G79"/>
     <mergeCell ref="C80:G80"/>
     <mergeCell ref="C81:G81"/>
-    <mergeCell ref="H78:R78"/>
-    <mergeCell ref="S82:X82"/>
-    <mergeCell ref="Y82:Z82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="H83:R83"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H79:R79"/>
     <mergeCell ref="S83:X83"/>
-    <mergeCell ref="D83:G83"/>
+    <mergeCell ref="Y83:Z83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="H84:R84"/>
+    <mergeCell ref="S84:X84"/>
     <mergeCell ref="D84:G84"/>
     <mergeCell ref="D85:G85"/>
-    <mergeCell ref="Y83:Z83"/>
-    <mergeCell ref="Y84:Z97"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="Y84:Z84"/>
+    <mergeCell ref="Y85:Z98"/>
+    <mergeCell ref="D94:G94"/>
+    <mergeCell ref="A87:A98"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="D90:G90"/>
     <mergeCell ref="D93:G93"/>
-    <mergeCell ref="A86:A97"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="D91:G91"/>
     <mergeCell ref="D92:G92"/>
-    <mergeCell ref="D90:G90"/>
-    <mergeCell ref="D91:G91"/>
-    <mergeCell ref="D96:G96"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="H82:R82"/>
+    <mergeCell ref="D97:G97"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="H83:R83"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="U10:X10"/>
     <mergeCell ref="T38:X38"/>
@@ -8232,23 +8268,23 @@
     <mergeCell ref="O17:X17"/>
     <mergeCell ref="O29:X29"/>
     <mergeCell ref="O14:X14"/>
+    <mergeCell ref="A101:Z101"/>
+    <mergeCell ref="A103:Z103"/>
+    <mergeCell ref="H95:R95"/>
+    <mergeCell ref="A99:Z99"/>
     <mergeCell ref="A100:Z100"/>
+    <mergeCell ref="H85:R85"/>
+    <mergeCell ref="S85:X98"/>
+    <mergeCell ref="H86:R86"/>
+    <mergeCell ref="B87:B98"/>
+    <mergeCell ref="H87:R87"/>
+    <mergeCell ref="H88:R88"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="D95:G95"/>
+    <mergeCell ref="D96:G96"/>
+    <mergeCell ref="D98:G98"/>
     <mergeCell ref="A102:Z102"/>
-    <mergeCell ref="H94:R94"/>
-    <mergeCell ref="A98:Z98"/>
-    <mergeCell ref="A99:Z99"/>
-    <mergeCell ref="H84:R84"/>
-    <mergeCell ref="S84:X97"/>
-    <mergeCell ref="H85:R85"/>
-    <mergeCell ref="B86:B97"/>
-    <mergeCell ref="H86:R86"/>
-    <mergeCell ref="H87:R87"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="D94:G94"/>
-    <mergeCell ref="D95:G95"/>
-    <mergeCell ref="D97:G97"/>
-    <mergeCell ref="A101:Z101"/>
     <mergeCell ref="H35:J35"/>
     <mergeCell ref="K35:L35"/>
     <mergeCell ref="H27:J27"/>
@@ -8271,10 +8307,10 @@
     <mergeCell ref="O31:X31"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="O32:X32"/>
-    <mergeCell ref="Y19:Z46"/>
+    <mergeCell ref="Y19:Z47"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="O43:X43"/>
-    <mergeCell ref="O44:X44"/>
+    <mergeCell ref="O45:X45"/>
     <mergeCell ref="Y16:Z17"/>
     <mergeCell ref="Y18:Z18"/>
     <mergeCell ref="M20:N20"/>
@@ -8289,8 +8325,8 @@
     <mergeCell ref="M41:N41"/>
     <mergeCell ref="K43:L43"/>
     <mergeCell ref="M43:N43"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="Q8:R8"/>
     <mergeCell ref="K16:L16"/>
@@ -8308,24 +8344,24 @@
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="O26:R26"/>
-    <mergeCell ref="A33:A46"/>
-    <mergeCell ref="C69:G70"/>
-    <mergeCell ref="C32:C46"/>
-    <mergeCell ref="B11:B46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:X46"/>
+    <mergeCell ref="A33:A47"/>
+    <mergeCell ref="C70:G71"/>
+    <mergeCell ref="C32:C47"/>
+    <mergeCell ref="B11:B47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="O47:X47"/>
     <mergeCell ref="D31:G31"/>
-    <mergeCell ref="C52:G52"/>
     <mergeCell ref="C53:G53"/>
+    <mergeCell ref="C54:G54"/>
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="H40:J40"/>
     <mergeCell ref="K40:L40"/>
     <mergeCell ref="M32:N32"/>
-    <mergeCell ref="S47:X47"/>
+    <mergeCell ref="S48:X48"/>
     <mergeCell ref="H32:J32"/>
     <mergeCell ref="H33:J33"/>
     <mergeCell ref="K33:L33"/>
@@ -8338,13 +8374,13 @@
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="H29:J29"/>
     <mergeCell ref="K29:L29"/>
-    <mergeCell ref="S55:X55"/>
-    <mergeCell ref="Y56:Z62"/>
-    <mergeCell ref="Y48:Z48"/>
-    <mergeCell ref="Y49:Z53"/>
-    <mergeCell ref="Y55:Z55"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:X45"/>
+    <mergeCell ref="S56:X56"/>
+    <mergeCell ref="Y57:Z63"/>
+    <mergeCell ref="Y49:Z49"/>
+    <mergeCell ref="Y50:Z54"/>
+    <mergeCell ref="Y56:Z56"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:X46"/>
     <mergeCell ref="H30:J30"/>
     <mergeCell ref="M35:N35"/>
     <mergeCell ref="O35:X35"/>
@@ -8379,6 +8415,12 @@
     <mergeCell ref="H25:J25"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="M25:N25"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:X44"/>
+    <mergeCell ref="D43:G44"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
